--- a/dataset/lg/laavanya.xlsx
+++ b/dataset/lg/laavanya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీమదఖండలక్ష్మీప్రసన్నుడు మాక- । రాట్కులాంబోధికైరవహితుండు
 సరసుడౌ వేంకటపెరుమాళ్ల రాజేంద్రు- । డొకనాడు కొలువు కూర్చుండి నన్ను
@@ -477,63 +474,57 @@
 విరహంబు శ్రీహరిస్మరణశృంగారంబు- । గను చమత్కృతిశతకం బొనర్పు-</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('మ', '|'), ('ద', '|'), ('ఖం', 'U'), ('డ', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్ను', '|'), ('డు', '|'), ('మా', 'U'), ('క', '|'), ('రా', 'U'), ('ట్కు', '|'), ('లాం', 'U'), ('బో', 'U'), ('ధి', '|'), ('కై', 'U'), ('ర', '|'), ('వ', '|'), ('హి', '|'), ('తుం', 'U'), ('డు', '|'), ('స', '|'), ('ర', '|'), ('సు', '|'), ('డౌ', 'U'), ('వేం', 'U'), ('క', '|'), ('ట', '|'), ('పె', '|'), ('రు', '|'), ('మా', 'U'), ('ళ్ల', '|'), ('రా', 'U'), ('జేం', 'U'), ('ద్రు', '|'), ('డొ', '|'), ('క', '|'), ('నా', 'U'), ('డు', '|'), ('కొ', '|'), ('లు', '|'), ('వు', '|'), ('కూ', 'U'), ('ర్చుం', 'U'), ('డి', '|'), ('న', 'U'), ('న్ను', '|'), ('గ', '|'), ('ని', '|'), ('పో', 'U'), ('లి', '|'), ('పె', 'U'), ('ద్ది', '|'), ('వేం', 'U'), ('క', '|'), ('ట', '|'), ('రా', 'U'), ('య', '|'), ('సు', '|'), ('క', '|'), ('వీం', 'U'), ('ద్ర', '|'), ('ర', 'U'), ('మ్మ', '|'), ('ని', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('మీ', 'U'), ('రం', 'U'), ('గ', '|'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('వి', '|'), ('ర', '|'), ('హం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('హ', '|'), ('రి', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('శృం', 'U'), ('గా', 'U'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('ను', '|'), ('చ', '|'), ('మ', 'U'), ('త్కృ', '|'), ('తి', '|'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్పు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>మనిన శారద నేకదంతుని నుతించి । నే రచించెద పద్యముల్ నేర్చినటుల
 నీదు కృపలేక కృతి సేయ నెవరికైన । వశమె శ్రీరామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ని', '|'), ('న', '|'), ('శా', 'U'), ('ర', '|'), ('ద', '|'), ('నే', 'U'), ('క', '|'), ('దం', 'U'), ('తు', '|'), ('ని', '|'), ('ను', '|'), ('తిం', 'U'), ('చి', '|'), ('నే', 'U'), ('ర', '|'), ('చిం', 'U'), ('చె', '|'), ('ద', '|'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('నీ', 'U'), ('దు', '|'), ('కృ', '|'), ('ప', '|'), ('లే', 'U'), ('క', '|'), ('కృ', '|'), ('తి', '|'), ('సే', 'U'), ('య', '|'), ('నె', '|'), ('వ', '|'), ('రి', '|'), ('కై', 'U'), ('న', '|'), ('వ', '|'), ('శ', '|'), ('మె', 'U'), ('శ్రీ', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>ముందు సత్కవిబృందములలోకి వాల్మీకి । నఖిలపౌరాణికాఖ్యాసు వ్యాసు-
 నతిమూఢజనుల కద్భుతనీతి భవభూతి । మహనియ్యకావ్యనిర్మాణు బాణు-
@@ -541,63 +532,57 @@
 భవఘోరతిమిరప్రభారవి భారవి । సురుచిరసద్గుణస్తోము భీము-</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('ముం', 'U'), ('దు', '|'), ('స', 'U'), ('త్క', '|'), ('వి', '|'), ('బృం', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('కి', '|'), ('వా', 'U'), ('ల్మీ', 'U'), ('కి', '|'), ('న', '|'), ('ఖి', '|'), ('ల', '|'), ('పౌ', 'U'), ('రా', 'U'), ('ణి', '|'), ('కా', 'U'), ('ఖ్యా', 'U'), ('సు', 'U'), ('వ్యా', 'U'), ('సు', '|'), ('న', '|'), ('తి', '|'), ('మూ', 'U'), ('ఢ', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('క', 'U'), ('ద్భు', '|'), ('త', '|'), ('నీ', 'U'), ('తి', '|'), ('భ', '|'), ('వ', '|'), ('భూ', 'U'), ('తి', '|'), ('మ', '|'), ('హ', '|'), ('ని', 'U'), ('య్య', '|'), ('కా', 'U'), ('వ్య', '|'), ('ని', '|'), ('ర్మా', 'U'), ('ణు', '|'), ('బా', 'U'), ('ణు', '|'), ('న', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('శ', 'U'), ('బ్ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('స', '|'), ('ము', '|'), ('ద్రు', '|'), ('శి', '|'), ('వ', '|'), ('భ', '|'), ('ద్రు', '|'), ('క', '|'), ('వి', '|'), ('రా', 'U'), ('జి', '|'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('సు', '|'), ('కా', 'U'), ('ళి', '|'), ('దా', 'U'), ('సు', '|'), ('భ', '|'), ('వ', '|'), ('ఘో', 'U'), ('ర', '|'), ('తి', '|'), ('మి', '|'), ('ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('ర', '|'), ('వి', '|'), ('భా', 'U'), ('ర', '|'), ('వి', '|'), ('సు', '|'), ('రు', '|'), ('చి', '|'), ('ర', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', 'U'), ('స్తో', 'U'), ('ము', '|'), ('భీ', 'U'), ('ము', '|')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>ననుదినంబును భక్తితో నభినుతించి । సకలజనములు విని సంతసమున జెలగ
 సీసశతకం బొనర్చెద చిత్తగింప । వలయు శ్రీరామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('న', '|'), ('భి', '|'), ('ను', '|'), ('తిం', 'U'), ('చి', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('వి', '|'), ('ని', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('న', '|'), ('జె', '|'), ('ల', '|'), ('గ', '|'), ('సీ', 'U'), ('స', '|'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('ద', '|'), ('చి', 'U'), ('త్త', '|'), ('గిం', 'U'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', 'U'), ('శ్రీ', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>జనకాత్మజాసుహృద్వనజాతసారంగ । సారంగధరకంఠసన్నిభాంగ
 యంగజానేకసమంచితసుకుమార । సుకుమారజననిసంస్తుతపదాబ్జ
@@ -605,63 +590,57 @@
 గంధసింధురదశకంఠకంఠీరవ । రవగుణశ్రుతభయక్రాంతకాండ</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('న', '|'), ('కా', 'U'), ('త్మ', '|'), ('జా', 'U'), ('సు', '|'), ('హృ', 'U'), ('ద్వ', '|'), ('న', '|'), ('జా', 'U'), ('త', '|'), ('సా', 'U'), ('రం', 'U'), ('గ', '|'), ('సా', 'U'), ('రం', 'U'), ('గ', '|'), ('ధ', '|'), ('ర', '|'), ('కం', 'U'), ('ఠ', '|'), ('స', 'U'), ('న్ని', '|'), ('భాం', 'U'), ('గ', '|'), ('యం', 'U'), ('గ', '|'), ('జా', 'U'), ('నే', 'U'), ('క', '|'), ('స', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('సు', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|'), ('సు', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('సం', 'U'), ('స్తు', '|'), ('త', '|'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('య', 'U'), ('బ్జ', '|'), ('బాం', 'U'), ('ధ', '|'), ('వ', '|'), ('స', 'U'), ('త్కు', '|'), ('లా', 'U'), ('బ్ధి', '|'), ('సం', 'U'), ('భ', '|'), ('వ', '|'), ('చం', 'U'), ('ద్ర', '|'), ('చం', 'U'), ('ద్ర', '|'), ('శో', 'U'), ('భి', '|'), ('త', '|'), ('ది', 'U'), ('వ్య', '|'), ('చా', 'U'), ('రు', '|'), ('గం', 'U'), ('ధ', '|'), ('గం', 'U'), ('ధ', '|'), ('సిం', 'U'), ('ధు', '|'), ('ర', '|'), ('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠ', '|'), ('కం', 'U'), ('ఠీ', 'U'), ('ర', '|'), ('వ', '|'), ('ర', '|'), ('వ', '|'), ('గు', '|'), ('ణ', 'U'), ('శ్రు', '|'), ('త', '|'), ('భ', '|'), ('య', 'U'), ('క్రాం', 'U'), ('త', '|'), ('కాం', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>కాండవాసిష్ఠశుకశౌనకాదివినుత । వినతసుతవాహనారూఢవిమలకరుణ
 కరుణ నీ కృతినాథు దీర్ఘాయు జేయ- । వలయు శ్రీరామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('కాం', 'U'), ('డ', '|'), ('వా', 'U'), ('సి', 'U'), ('ష్ఠ', '|'), ('శు', '|'), ('క', '|'), ('శౌ', 'U'), ('న', '|'), ('కా', 'U'), ('ది', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('వి', '|'), ('న', '|'), ('త', '|'), ('సు', '|'), ('త', '|'), ('వా', 'U'), ('హ', '|'), ('నా', 'U'), ('రూ', 'U'), ('ఢ', '|'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('నీ', 'U'), ('కృ', '|'), ('తి', '|'), ('నా', 'U'), ('థు', '|'), ('దీ', 'U'), ('ర్ఘా', 'U'), ('యు', '|'), ('జే', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('యు', 'U'), ('శ్రీ', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>పాకంబునకు తగు ఫణితి గానక కిరీ- । టము బెట్టినట్లు నీమములు లేక
 తెనుగు పొయ్యెటి జాడ తెలియజాలక పెక్కు । శృంగారరీతులు చేతగాక
@@ -669,63 +648,57 @@
 పెళుచుమాటల దొంతి బేర్చుచు సాధార- । ణములౌ యతిప్రయోగములు లేక</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('త', '|'), ('గు', '|'), ('ఫ', '|'), ('ణి', '|'), ('తి', '|'), ('గా', 'U'), ('న', '|'), ('క', '|'), ('కి', '|'), ('రీ', 'U'), ('ట', '|'), ('ము', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నీ', 'U'), ('మ', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('క', '|'), ('తె', '|'), ('ను', '|'), ('గు', '|'), ('పొ', 'U'), ('య్యె', '|'), ('టి', '|'), ('జా', 'U'), ('డ', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('పె', 'U'), ('క్కు', '|'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('రీ', 'U'), ('తు', '|'), ('లు', '|'), ('చే', 'U'), ('త', '|'), ('గా', 'U'), ('క', 'U'), ('గ్రా', 'U'), ('మ్య', '|'), ('దే', 'U'), ('శ్య', 'U'), ('మ్ము', '|'), ('ల', 'U'), ('క్ర', '|'), ('మ', '|'), ('ము', '|'), ('లె', '|'), ('రుం', 'U'), ('గ', '|'), ('క', '|'), ('జా', 'U'), ('తీ', 'U'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('స', '|'), ('ర', '|'), ('ణి', '|'), ('రా', 'U'), ('క', '|'), ('పె', '|'), ('ళు', '|'), ('చు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('దొం', 'U'), ('తి', '|'), ('బే', 'U'), ('ర్చు', '|'), ('చు', '|'), ('సా', 'U'), ('ధా', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('లౌ', 'U'), ('య', '|'), ('తి', 'U'), ('ప్ర', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>నొకరి కయితను గని హేళనోక్తులాడు । కుకవిశుంఠల మూతిపై గొట్టినటుల
 నేనొనర్చెద పద్యముల్ నీదు కరుణ । వచ్చునటుల రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('నొ', '|'), ('క', '|'), ('రి', '|'), ('క', '|'), ('యి', '|'), ('త', '|'), ('ను', '|'), ('గ', '|'), ('ని', '|'), ('హే', 'U'), ('ళ', '|'), ('నో', 'U'), ('క్తు', '|'), ('లా', 'U'), ('డు', '|'), ('కు', '|'), ('క', '|'), ('వి', '|'), ('శుం', 'U'), ('ఠ', '|'), ('ల', '|'), ('మూ', 'U'), ('తి', '|'), ('పై', 'U'), ('గొ', 'U'), ('ట్టి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('నే', 'U'), ('నొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('ద', '|'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('దు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>శ్రీకరంబుగ ప్రేమచే నాదు మనసు రా । నడుచుకొన్నట్టి నీ నాగరికము
 వినయవివేకభావనలొప్ప కందువ । మాటలాడెడు నెరనీటుతనము
@@ -733,63 +706,57 @@
 సరసత్వమున బంధసరణి గుర్తెరిగి నన్ । రతుల తేలించు నీ రసికతయును</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('గ', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('చే', 'U'), ('నా', 'U'), ('దు', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('రా', 'U'), ('న', '|'), ('డు', '|'), ('చు', '|'), ('కొ', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('నా', 'U'), ('గ', '|'), ('రి', '|'), ('క', '|'), ('ము', '|'), ('వి', '|'), ('న', '|'), ('య', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('లొ', 'U'), ('ప్ప', '|'), ('కం', 'U'), ('దు', '|'), ('వ', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డె', '|'), ('డు', '|'), ('నె', '|'), ('ర', '|'), ('నీ', 'U'), ('టు', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('ద', 'U'), ('ర్ప', '|'), ('క', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('మీ', 'U'), ('రి', '|'), ('క', '|'), ('ళ', '|'), ('లం', 'U'), ('టి', '|'), ('సొ', 'U'), ('క్కిం', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('సో', 'U'), ('య', '|'), ('గ', '|'), ('ము', '|'), ('స', '|'), ('ర', '|'), ('స', 'U'), ('త్వ', '|'), ('ము', '|'), ('న', '|'), ('బం', 'U'), ('ధ', '|'), ('స', '|'), ('ర', '|'), ('ణి', '|'), ('గు', 'U'), ('ర్తె', '|'), ('రి', '|'), ('గి', '|'), ('నన్', 'U'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('తే', 'U'), ('లిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('ర', '|'), ('సి', '|'), ('క', '|'), ('త', '|'), ('యు', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>మదిని తలపోసి యితరరామలను రోసి । నేర్పు వెడజేసి కంటికి నిదురబాసి
 మమత నిను డాసియుండక మరుని గాసి । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ది', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('పో', 'U'), ('సి', '|'), ('యి', '|'), ('త', '|'), ('ర', '|'), ('రా', 'U'), ('మ', '|'), ('ల', '|'), ('ను', '|'), ('రో', 'U'), ('సి', '|'), ('నే', 'U'), ('ర్పు', '|'), ('వె', '|'), ('డ', '|'), ('జే', 'U'), ('సి', '|'), ('కం', 'U'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('బా', 'U'), ('సి', '|'), ('మ', '|'), ('మ', '|'), ('త', '|'), ('ని', '|'), ('ను', '|'), ('డా', 'U'), ('సి', '|'), ('యుం', 'U'), ('డ', '|'), ('క', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('గా', 'U'), ('సి', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>ఇసుకదిన్నెలను నీరెండ గాసినయటు- । వలె పిరుందులనంటి వల్వ దనర
 దంతపుభరిణమూతల రంగు బూసిన । కరణి గుబ్బల కంచుకంబు వెలుగ
@@ -797,63 +764,57 @@
 రాజబింబము నపరంజితీగెను గొల్చి । చూచిన గతి తిరుచూర్ణరేఖ</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('సు', '|'), ('క', '|'), ('ది', 'U'), ('న్నె', '|'), ('ల', '|'), ('ను', '|'), ('నీ', 'U'), ('రెం', 'U'), ('డ', '|'), ('గా', 'U'), ('సి', '|'), ('న', '|'), ('య', '|'), ('టు', '|'), ('వ', '|'), ('లె', '|'), ('పి', '|'), ('రుం', 'U'), ('దు', '|'), ('ల', '|'), ('నం', 'U'), ('టి', '|'), ('వ', 'U'), ('ల్వ', '|'), ('ద', '|'), ('న', '|'), ('ర', '|'), ('దం', 'U'), ('త', '|'), ('పు', '|'), ('భ', '|'), ('రి', '|'), ('ణ', '|'), ('మూ', 'U'), ('త', '|'), ('ల', '|'), ('రం', 'U'), ('గు', '|'), ('బూ', 'U'), ('సి', '|'), ('న', '|'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('కం', 'U'), ('చు', '|'), ('కం', 'U'), ('బు', '|'), ('వె', '|'), ('లు', '|'), ('గ', '|'), ('కొ', '|'), ('న', '|'), ('చె', '|'), ('వి', '|'), ('ప', 'U'), ('చ్చ', '|'), ('డాల్', 'U'), ('గో', 'U'), ('డ', '|'), ('ల', '|'), ('బీ', 'U'), ('రా', 'U'), ('కు', '|'), ('ప', '|'), ('స', '|'), ('రు', '|'), ('చ', 'U'), ('ల్లి', '|'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('ప', '|'), ('రి', '|'), ('ఢ', '|'), ('వి', 'U'), ('ల్ల', '|'), ('రా', 'U'), ('జ', '|'), ('బిం', 'U'), ('బ', '|'), ('ము', '|'), ('న', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('తీ', 'U'), ('గె', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('గ', '|'), ('తి', '|'), ('తి', '|'), ('రు', '|'), ('చూ', 'U'), ('ర్ణ', '|'), ('రే', 'U'), ('ఖ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>ముద్దుమొగమున నత్యంతముదము దోప । తొలుత నేస్తంబునకు నన్ను బిలిచినట్టి
 కులుకుబెళుకును తలపోసి వలపు నిలుప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('ము', 'U'), ('ద్దు', '|'), ('మొ', '|'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('త్యం', 'U'), ('త', '|'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('దో', 'U'), ('ప', '|'), ('తొ', '|'), ('లు', '|'), ('త', '|'), ('నే', 'U'), ('స్తం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('న', 'U'), ('న్ను', '|'), ('బి', '|'), ('లి', '|'), ('చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('కు', '|'), ('లు', '|'), ('కు', '|'), ('బె', '|'), ('ళు', '|'), ('కు', '|'), ('ను', '|'), ('త', '|'), ('ల', '|'), ('పో', 'U'), ('సి', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>తరళాక్షి నీ మేనితావి ఘమ్మన నాదు । మనసు ఝుమ్మని రేగి మరులు జెందు
 చెలి నీదు గిల్కుటందెలు ఘల్లుమని మ్రోయ । తనువు ఝల్లని యేమొ తత్తరించు
@@ -861,63 +822,57 @@
 నొకవేళ కోపగించుక గిరుక్కన మరుం । డట చురుక్కన పూవుటమ్ము వేయు</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ర', '|'), ('ళా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('మే', 'U'), ('ని', '|'), ('తా', 'U'), ('వి', '|'), ('ఘ', 'U'), ('మ్మ', '|'), ('న', '|'), ('నా', 'U'), ('దు', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('ఝు', 'U'), ('మ్మ', '|'), ('ని', '|'), ('రే', 'U'), ('గి', '|'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('జెం', 'U'), ('దు', '|'), ('చె', '|'), ('లి', '|'), ('నీ', 'U'), ('దు', '|'), ('గి', 'U'), ('ల్కు', '|'), ('టం', 'U'), ('దె', '|'), ('లు', '|'), ('ఘ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('ని', '|'), ('మ్రో', 'U'), ('య', '|'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('ఝ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('యే', 'U'), ('మొ', '|'), ('త', 'U'), ('త్త', '|'), ('రిం', 'U'), ('చు', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('నీ', 'U'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('క', 'U'), ('ల్మా', 'U'), ('ధ', '|'), ('ళు', 'U'), ('క్క', '|'), ('ని', '|'), ('నం', 'U'), ('త', '|'), ('క', '|'), ('ళ', '|'), ('చ', '|'), ('ళు', 'U'), ('క్క', '|'), ('ని', '|'), ('లో', 'U'), ('న', '|'), ('క', '|'), ('ల', '|'), ('క', '|'), ('బా', 'U'), ('రు', '|'), ('నొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('కో', 'U'), ('ప', '|'), ('గిం', 'U'), ('చు', '|'), ('క', '|'), ('గి', '|'), ('రు', 'U'), ('క్క', '|'), ('న', '|'), ('మ', '|'), ('రుం', 'U'), ('డ', '|'), ('ట', '|'), ('చు', '|'), ('రు', 'U'), ('క్క', '|'), ('న', '|'), ('పూ', 'U'), ('వు', '|'), ('ట', 'U'), ('మ్ము', '|'), ('వే', 'U'), ('యు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>వెలది కడుసోలి బతిమాలి వెతల చాలి । భావమటు తూలి తమిదేలి పాలుమాలి
 యెడతెగని బాళి నీ జోలికింత జాలి । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('ది', '|'), ('క', '|'), ('డు', '|'), ('సో', 'U'), ('లి', '|'), ('బ', '|'), ('తి', '|'), ('మా', 'U'), ('లి', '|'), ('వె', '|'), ('త', '|'), ('ల', '|'), ('చా', 'U'), ('లి', '|'), ('భా', 'U'), ('వ', '|'), ('మ', '|'), ('టు', '|'), ('తూ', 'U'), ('లి', '|'), ('త', '|'), ('మి', '|'), ('దే', 'U'), ('లి', '|'), ('పా', 'U'), ('లు', '|'), ('మా', 'U'), ('లి', '|'), ('యె', '|'), ('డ', '|'), ('తె', '|'), ('గ', '|'), ('ని', '|'), ('బా', 'U'), ('ళి', '|'), ('నీ', 'U'), ('జో', 'U'), ('లి', '|'), ('కిం', 'U'), ('త', '|'), ('జా', 'U'), ('లి', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>చనువిచ్చి నను మచ్చికను వచ్చి నెనరిచ్చి । మనసిచ్చి పైకొను మధురవాణి
 వలపింపులను యింపుగలిగింపు బలుసొంపు । పలుగెంపు లొనరింపు భ్రమరవేణి
@@ -925,63 +880,57 @@
 తమిదీర భ్రమమీర తనివార కొనగోర । తొడల కొక్కెసమించు తోయజాక్షి</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('ను', '|'), ('వి', 'U'), ('చ్చి', '|'), ('న', '|'), ('ను', '|'), ('మ', 'U'), ('చ్చి', '|'), ('క', '|'), ('ను', '|'), ('వ', 'U'), ('చ్చి', '|'), ('నె', '|'), ('న', '|'), ('రి', 'U'), ('చ్చి', '|'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చి', '|'), ('పై', 'U'), ('కొ', '|'), ('ను', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('వా', 'U'), ('ణి', '|'), ('వ', '|'), ('ల', '|'), ('పిం', 'U'), ('పు', '|'), ('ల', '|'), ('ను', '|'), ('యిం', 'U'), ('పు', '|'), ('గ', '|'), ('లి', '|'), ('గిం', 'U'), ('పు', '|'), ('బ', '|'), ('లు', '|'), ('సొం', 'U'), ('పు', '|'), ('ప', '|'), ('లు', '|'), ('గెం', 'U'), ('పు', '|'), ('లొ', '|'), ('న', '|'), ('రిం', 'U'), ('పు', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ర', '|'), ('వే', 'U'), ('ణి', '|'), ('య', '|'), ('ల', '|'), ('జం', 'U'), ('టి', '|'), ('ర', '|'), ('యి', '|'), ('కం', 'U'), ('టి', '|'), ('న', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('మొ', '|'), ('న', '|'), ('చం', 'U'), ('టి', '|'), ('నె', '|'), ('ద', '|'), ('నా', 'U'), ('ని', '|'), ('క', '|'), ('ళ', '|'), ('లం', 'U'), ('టు', '|'), ('మిం', 'U'), ('దు', '|'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('త', '|'), ('మి', '|'), ('దీ', 'U'), ('ర', 'U'), ('భ్ర', '|'), ('మ', '|'), ('మీ', 'U'), ('ర', '|'), ('త', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('కొ', '|'), ('న', '|'), ('గో', 'U'), ('ర', '|'), ('తొ', '|'), ('డ', '|'), ('ల', '|'), ('కొ', 'U'), ('క్కె', '|'), ('స', '|'), ('మిం', 'U'), ('చు', '|'), ('తో', 'U'), ('య', '|'), ('జా', 'U'), ('క్షి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>యెపుడు నే గందు నీ వుసురెవరి జెందు । నెటుల మతిబొందు నీ తమికేది మందు
 జాలినెటునొందు దెవతె నీ సరి పసందు । వచ్చునటె రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('యె', '|'), ('పు', '|'), ('డు', '|'), ('నే', 'U'), ('గం', 'U'), ('దు', '|'), ('నీ', 'U'), ('వు', '|'), ('సు', '|'), ('రె', '|'), ('వ', '|'), ('రి', '|'), ('జెం', 'U'), ('దు', '|'), ('నె', '|'), ('టు', '|'), ('ల', '|'), ('మ', '|'), ('తి', '|'), ('బొం', 'U'), ('దు', '|'), ('నీ', 'U'), ('త', '|'), ('మి', '|'), ('కే', 'U'), ('ది', '|'), ('మం', 'U'), ('దు', '|'), ('జా', 'U'), ('లి', '|'), ('నె', '|'), ('టు', '|'), ('నొం', 'U'), ('దు', '|'), ('దె', '|'), ('వ', '|'), ('తె', '|'), ('నీ', 'U'), ('స', '|'), ('రి', '|'), ('ప', '|'), ('సం', 'U'), ('దు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('టె', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>అత్తరురవ మెరుంగాని దువ్విన జారు । కొప్పుతో పైట మేల్కప్పుతోడ
 నల జక్కువలను హాస్యము సేయు కుచకుంభ- । యుగముతో చిరునవ్వుమొగముతోడ
@@ -989,63 +938,57 @@
 మేల్కడాని హొరంగు మించిన నెమ్మేని- । కాంతితో మదనవిభ్రాంతితోడ</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('త్త', '|'), ('రు', '|'), ('ర', '|'), ('వ', '|'), ('మె', '|'), ('రుం', 'U'), ('గా', 'U'), ('ని', '|'), ('దు', 'U'), ('వ్వి', '|'), ('న', '|'), ('జా', 'U'), ('రు', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('తో', 'U'), ('పై', 'U'), ('ట', '|'), ('మే', 'U'), ('ల్క', 'U'), ('ప్పు', '|'), ('తో', 'U'), ('డ', '|'), ('న', '|'), ('ల', '|'), ('జ', 'U'), ('క్కు', '|'), ('వ', '|'), ('ల', '|'), ('ను', '|'), ('హా', 'U'), ('స్య', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('కు', '|'), ('చ', '|'), ('కుం', 'U'), ('భ', '|'), ('యు', '|'), ('గ', '|'), ('ము', '|'), ('తో', 'U'), ('చి', '|'), ('రు', '|'), ('న', 'U'), ('వ్వు', '|'), ('మొ', '|'), ('గ', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('సౌ', 'U'), ('గం', 'U'), ('ధి', '|'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('ర', 'U'), ('చ్చ', '|'), ('కు', '|'), ('దీ', 'U'), ('యు', '|'), ('డా', 'U'), ('ల్గ', 'U'), ('న్న', '|'), ('మో', 'U'), ('వి', '|'), ('తో', 'U'), ('క', '|'), ('పు', '|'), ('రం', 'U'), ('పు', '|'), ('తా', 'U'), ('వి', '|'), ('తో', 'U'), ('డ', '|'), ('మే', 'U'), ('ల్క', '|'), ('డా', 'U'), ('ని', '|'), ('హొ', '|'), ('రం', 'U'), ('గు', '|'), ('మిం', 'U'), ('చి', '|'), ('న', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('ని', '|'), ('కాం', 'U'), ('తి', '|'), ('తో', 'U'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('వి', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('తో', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>నరనిదుర జెంది పవళించినట్టివేళ । వచ్చి మెల్లనె సైగగా నెచ్చరించి
 పైకొని యొనర్చునటువంటి పనులు దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('జెం', 'U'), ('ది', '|'), ('ప', '|'), ('వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('ళ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('మె', 'U'), ('ల్ల', '|'), ('నె', '|'), ('సై', 'U'), ('గ', '|'), ('గా', 'U'), ('నె', 'U'), ('చ్చ', '|'), ('రిం', 'U'), ('చి', '|'), ('పై', 'U'), ('కొ', '|'), ('ని', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('న', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('ప', '|'), ('ను', '|'), ('లు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>వంకెవంకెల గాజు వైఖరి పొడగన్న । తలపౌను నీదు ముంగురుల ఘనము
 దాడింబపండ్లు చేదగిలిన తరిని జ్ఞా- । పకమౌను నీదు గుబ్బల పసందు
@@ -1053,63 +996,57 @@
 జలపూత గల కెడముల డాలు గాంచిన । తోచు నీ నునుపిరుందుల మిజాదు</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('వం', 'U'), ('కె', '|'), ('వం', 'U'), ('కె', '|'), ('ల', '|'), ('గా', 'U'), ('జు', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('పొ', '|'), ('డ', '|'), ('గ', 'U'), ('న్న', '|'), ('త', '|'), ('ల', '|'), ('పౌ', 'U'), ('ను', '|'), ('నీ', 'U'), ('దు', '|'), ('ముం', 'U'), ('గు', '|'), ('రు', '|'), ('ల', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('దా', 'U'), ('డిం', 'U'), ('బ', '|'), ('పం', 'U'), ('డ్లు', '|'), ('చే', 'U'), ('ద', '|'), ('గి', '|'), ('లి', '|'), ('న', '|'), ('త', '|'), ('రి', '|'), ('ని', 'U'), ('జ్ఞా', 'U'), ('ప', '|'), ('క', '|'), ('మౌ', 'U'), ('ను', '|'), ('నీ', 'U'), ('దు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('ప', '|'), ('సం', 'U'), ('దు', '|'), ('చీ', 'U'), ('మ', '|'), ('ల', '|'), ('బా', 'U'), ('రు', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('మ', '|'), ('ది', '|'), ('క', '|'), ('ళు', 'U'), ('క్క', '|'), ('ని', '|'), ('గ', 'U'), ('ప్తి', '|'), ('త', '|'), ('గు', '|'), ('లు', '|'), ('నూ', 'U'), ('గా', 'U'), ('రు', '|'), ('తీ', 'U'), ('రు', '|'), ('జ', '|'), ('ల', '|'), ('పూ', 'U'), ('త', '|'), ('గ', '|'), ('ల', '|'), ('కె', '|'), ('డ', '|'), ('ము', '|'), ('ల', '|'), ('డా', 'U'), ('లు', '|'), ('గాం', 'U'), ('చి', '|'), ('న', '|'), ('తో', 'U'), ('చు', '|'), ('నీ', 'U'), ('ను', '|'), ('ను', '|'), ('పి', '|'), ('రుం', 'U'), ('దు', '|'), ('ల', '|'), ('మి', '|'), ('జా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>తగని మరులాయ మానసోద్భవుని మాయ । గెలువరాదాయ మనసేమొ నిలువదాయ
 క్షణము యుగమాయ నిపుడింత చలముసేయ- । వలెనటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('గ', '|'), ('ని', '|'), ('మ', '|'), ('రు', '|'), ('లా', 'U'), ('య', '|'), ('మా', 'U'), ('న', '|'), ('సో', 'U'), ('ద్భ', '|'), ('వు', '|'), ('ని', '|'), ('మా', 'U'), ('య', '|'), ('గె', '|'), ('లు', '|'), ('వ', '|'), ('రా', 'U'), ('దా', 'U'), ('య', '|'), ('మ', '|'), ('న', '|'), ('సే', 'U'), ('మొ', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('దా', 'U'), ('య', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('యు', '|'), ('గ', '|'), ('మా', 'U'), ('య', '|'), ('ని', '|'), ('పు', '|'), ('డిం', 'U'), ('త', '|'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>అల కుందముల యందముల నిందసేయు నీ । రదనాళి దలుప నెమ్మది చలించు
 జలజాతముల ఖ్యాతముల రాత నదలించు । చూపులెంచిన మోహమేపు మించు
@@ -1117,63 +1054,57 @@
 మగరాల వగతూలన గజాలునగు లీల । దలప నెమ్మేనేమొ పులుకరించు</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ల', '|'), ('కుం', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('నిం', 'U'), ('ద', '|'), ('సే', 'U'), ('యు', '|'), ('నీ', 'U'), ('ర', '|'), ('ద', '|'), ('నా', 'U'), ('ళి', '|'), ('ద', '|'), ('లు', '|'), ('ప', '|'), ('నె', 'U'), ('మ్మ', '|'), ('ది', '|'), ('చ', '|'), ('లిం', 'U'), ('చు', '|'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('త', '|'), ('ము', '|'), ('ల', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('ము', '|'), ('ల', '|'), ('రా', 'U'), ('త', '|'), ('న', '|'), ('ద', '|'), ('లిం', 'U'), ('చు', '|'), ('చూ', 'U'), ('పు', '|'), ('లెం', 'U'), ('చి', '|'), ('న', '|'), ('మో', 'U'), ('హ', '|'), ('మే', 'U'), ('పు', '|'), ('మిం', 'U'), ('చు', '|'), ('ప', '|'), ('గ', '|'), ('డా', 'U'), ('ల', '|'), ('జి', '|'), ('గి', '|'), ('డా', 'U'), ('ల', '|'), ('జ', '|'), ('గ', '|'), ('డా', 'U'), ('ల', '|'), ('గె', 'U'), ('ల్చు', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('బా', 'U'), ('ళి', '|'), ('ము', 'U'), ('మ్మ', '|'), ('రిం', 'U'), ('చు', '|'), ('మ', '|'), ('గ', '|'), ('రా', 'U'), ('ల', '|'), ('వ', '|'), ('గ', '|'), ('తూ', 'U'), ('ల', '|'), ('న', '|'), ('గ', '|'), ('జా', 'U'), ('లు', '|'), ('న', '|'), ('గు', '|'), ('లీ', 'U'), ('ల', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('నే', 'U'), ('మొ', '|'), ('పు', '|'), ('లు', '|'), ('క', '|'), ('రిం', 'U'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>వింత నీ చెంతలేని నివ్వెరగు కొంత । వేసటొక్కింత తమి యింత వెగటు కొంత
 యీదినము నంతకంత నీమీది చింత । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('విం', 'U'), ('త', '|'), ('నీ', 'U'), ('చెం', 'U'), ('త', '|'), ('లే', 'U'), ('ని', '|'), ('ని', 'U'), ('వ్వె', '|'), ('ర', '|'), ('గు', '|'), ('కొం', 'U'), ('త', '|'), ('వే', 'U'), ('స', '|'), ('టొ', 'U'), ('క్కిం', 'U'), ('త', '|'), ('త', '|'), ('మి', '|'), ('యిం', 'U'), ('త', '|'), ('వె', '|'), ('గ', '|'), ('టు', '|'), ('కొం', 'U'), ('త', '|'), ('యీ', 'U'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('నం', 'U'), ('త', '|'), ('కం', 'U'), ('త', '|'), ('నీ', 'U'), ('మీ', 'U'), ('ది', '|'), ('చిం', 'U'), ('త', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>సుదతి నీ జిల్గుపయ్యెద జారనియ్యవే । బటుచనుంగవ గానబడును గాని
 హరిమధ్య నిలచి మాటాడవే యొకసారి । వీనులపండువై విందు గాని
@@ -1181,63 +1112,57 @@
 వలరాజునగరి ముందలనైన నుంచవే । జీతమొల్లని కొల్వు సేతు గాని</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ద', '|'), ('తి', '|'), ('నీ', 'U'), ('జి', 'U'), ('ల్గు', '|'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('జా', 'U'), ('ర', '|'), ('ని', 'U'), ('య్య', '|'), ('వే', 'U'), ('బ', '|'), ('టు', '|'), ('చ', '|'), ('నుం', 'U'), ('గ', '|'), ('వ', '|'), ('గా', 'U'), ('న', '|'), ('బ', '|'), ('డు', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('హ', '|'), ('రి', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ని', '|'), ('ల', '|'), ('చి', '|'), ('మా', 'U'), ('టా', 'U'), ('డ', '|'), ('వే', 'U'), ('యొ', '|'), ('క', '|'), ('సా', 'U'), ('రి', '|'), ('వీ', 'U'), ('ను', '|'), ('ల', '|'), ('పం', 'U'), ('డు', '|'), ('వై', 'U'), ('విం', 'U'), ('దు', '|'), ('గా', 'U'), ('ని', '|'), ('మృ', '|'), ('గ', '|'), ('నే', 'U'), ('త్రి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('నె', 'U'), ('మ్మొ', '|'), ('గ', '|'), ('మె', 'U'), ('త్తి', '|'), ('చూ', 'U'), ('డ', '|'), ('వే', 'U'), ('మ', '|'), ('ది', '|'), ('చిం', 'U'), ('త', '|'), ('లొ', '|'), ('క', '|'), ('కొం', 'U'), ('త', '|'), ('మా', 'U'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('వ', '|'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('న', '|'), ('గ', '|'), ('రి', '|'), ('ముం', 'U'), ('ద', '|'), ('ల', '|'), ('నై', 'U'), ('న', '|'), ('నుం', 'U'), ('చ', '|'), ('వే', 'U'), ('జీ', 'U'), ('త', '|'), ('మొ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('కొ', 'U'), ('ల్వు', '|'), ('సే', 'U'), ('తు', '|'), ('గా', 'U'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>దైవఘటనేమొ గాని నిన్ దలచినపుడు । ఝల్లుమని గుండెలదరె నీ జాలి మాని
 మరుడు నన్నేచ నీమీద మరులు దాచ । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('దై', 'U'), ('వ', '|'), ('ఘ', '|'), ('ట', '|'), ('నే', 'U'), ('మొ', '|'), ('గా', 'U'), ('ని', '|'), ('నిన్', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('ఝ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('ని', '|'), ('గుం', 'U'), ('డె', '|'), ('ల', '|'), ('ద', '|'), ('రె', '|'), ('నీ', 'U'), ('జా', 'U'), ('లి', '|'), ('మా', 'U'), ('ని', '|'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('న', 'U'), ('న్నే', 'U'), ('చ', '|'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('దా', 'U'), ('చ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>ఘనమైన రవలచెక్కటపు పాపట చేర్చు । బిందీలపైన నందంది పొదల
 చెలువొంద బాజుబందులక్రింద పికిలి చెం- । డ్లానుగా దుమికి యుయ్యాలలూగ
@@ -1246,63 +1171,57 @@
 మేలైన చెంపఖల్లీలు గుబ్బల మధ్య । చంద్రహారములతో జత బెనంగ</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('ర', '|'), ('వ', '|'), ('ల', '|'), ('చె', 'U'), ('క్క', '|'), ('ట', '|'), ('పు', '|'), ('పా', 'U'), ('ప', '|'), ('ట', '|'), ('చే', 'U'), ('ర్చు', '|'), ('బిం', 'U'), ('దీ', 'U'), ('ల', '|'), ('పై', 'U'), ('న', '|'), ('నం', 'U'), ('దం', 'U'), ('ది', '|'), ('పొ', '|'), ('ద', '|'), ('ల', '|'), ('చె', '|'), ('లు', '|'), ('వొం', 'U'), ('ద', '|'), ('బా', 'U'), ('జు', '|'), ('బం', 'U'), ('దు', '|'), ('ల', 'U'), ('క్రిం', 'U'), ('ద', '|'), ('పి', '|'), ('కి', '|'), ('లి', '|'), ('చెం', 'U'), ('డ్లా', 'U'), ('ను', '|'), ('గా', 'U'), ('దు', '|'), ('మి', '|'), ('కి', '|'), ('యు', 'U'), ('య్యా', 'U'), ('ల', '|'), ('లూ', 'U'), ('గ', '|'), ('రా', 'U'), ('గి', '|'), ('డి', '|'), ('నె', '|'), ('ల', '|'), ('వం', 'U'), ('క', '|'), ('ర', '|'), ('త', '|'), ('నం', 'U'), ('పు', '|'), ('బి', 'U'), ('ళ్ల', '|'), ('ల', '|'), ('జ', '|'), ('డ', '|'), ('పి', '|'), ('రుం', 'U'), ('దు', '|'), ('ల', '|'), ('తో', 'U'), ('స', '|'), ('ర', '|'), ('స', '|'), ('మా', 'U'), ('డ', '|'), ('సొ', '|'), ('గ', '|'), ('సై', 'U'), ('న', '|'), ('లే', 'U'), ('గౌ', 'U'), ('ను', '|'), ('బి', '|'), ('గి', '|'), ('సి', '|'), ('యొ', 'U'), ('డ్డా', 'U'), ('ణం', 'U'), ('పు', '|'), ('ఘం', 'U'), ('ట', '|'), ('లొ', 'U'), ('క్కొ', '|'), ('క', '|'), ('సా', 'U'), ('రి', '|'), ('ఘ', 'U'), ('ల్లు', '|'), ('ర', '|'), ('న', '|'), ('గ', '|'), ('మే', 'U'), ('లై', 'U'), ('న', '|'), ('చెం', 'U'), ('ప', '|'), ('ఖ', 'U'), ('ల్లీ', 'U'), ('లు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('మ', 'U'), ('ధ్య', '|'), ('చం', 'U'), ('ద్ర', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('తో', 'U'), ('జ', '|'), ('త', '|'), ('బె', '|'), ('నం', 'U'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>తమిని కళలూర నొసట కెంజెమట జార । కదలవలదని యెదనెద నదిమి గదిమి
 యుపరతి యొనర్చునాటి నీ హొయలు దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('మి', '|'), ('ని', '|'), ('క', '|'), ('ళ', '|'), ('లూ', 'U'), ('ర', '|'), ('నొ', '|'), ('స', '|'), ('ట', '|'), ('కెం', 'U'), ('జె', '|'), ('మ', '|'), ('ట', '|'), ('జా', 'U'), ('ర', '|'), ('క', '|'), ('ద', '|'), ('ల', '|'), ('వ', '|'), ('ల', '|'), ('ద', '|'), ('ని', '|'), ('యె', '|'), ('ద', '|'), ('నె', '|'), ('ద', '|'), ('న', '|'), ('ది', '|'), ('మి', '|'), ('గ', '|'), ('ది', '|'), ('మి', '|'), ('యు', '|'), ('ప', '|'), ('ర', '|'), ('తి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('నా', 'U'), ('టి', '|'), ('నీ', 'U'), ('హొ', '|'), ('య', '|'), ('లు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>పసుపునిగ్గుల చల్వపావడతో కుసుం- । బా కలాబతు జారుపైటతోడ
 మొనబంటి కసికాటులను కందు మోవితో । విరులు వాడిన వేణిభరముతోడ
@@ -1310,63 +1229,57 @@
 కొద్దిగా చెదరు కుంకుమతో కరంగిన । కాటుక కనుసోగ నీటుతోడ</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('సు', '|'), ('పు', '|'), ('ని', 'U'), ('గ్గు', '|'), ('ల', '|'), ('చ', 'U'), ('ల్వ', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('తో', 'U'), ('కు', '|'), ('సుం', 'U'), ('బా', 'U'), ('క', '|'), ('లా', 'U'), ('బ', '|'), ('తు', '|'), ('జా', 'U'), ('రు', '|'), ('పై', 'U'), ('ట', '|'), ('తో', 'U'), ('డ', '|'), ('మొ', '|'), ('న', '|'), ('బం', 'U'), ('టి', '|'), ('క', '|'), ('సి', '|'), ('కా', 'U'), ('టు', '|'), ('ల', '|'), ('ను', '|'), ('కం', 'U'), ('దు', '|'), ('మో', 'U'), ('వి', '|'), ('తో', 'U'), ('వి', '|'), ('రు', '|'), ('లు', '|'), ('వా', 'U'), ('డి', '|'), ('న', '|'), ('వే', 'U'), ('ణి', '|'), ('భ', '|'), ('ర', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('ల', '|'), ('వం', 'U'), ('క', '|'), ('గో', 'U'), ('టి', '|'), ('పో', 'U'), ('టు', '|'), ('ల', '|'), ('చ', 'U'), ('న్ను', '|'), ('దో', 'U'), ('యి', '|'), ('తో', 'U'), ('సొ', 'U'), ('క్కి', '|'), ('న', '|'), ('నె', 'U'), ('మ్మో', 'U'), ('ము', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('తో', 'U'), ('డ', '|'), ('కొ', 'U'), ('ద్ది', '|'), ('గా', 'U'), ('చె', '|'), ('ద', '|'), ('రు', '|'), ('కుం', 'U'), ('కు', '|'), ('మ', '|'), ('తో', 'U'), ('క', '|'), ('రం', 'U'), ('గి', '|'), ('న', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('క', '|'), ('ను', '|'), ('సో', 'U'), ('గ', '|'), ('నీ', 'U'), ('టు', '|'), ('తో', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>ముడి వదలినట్టి నీవి నిమ్ముగ బిగించి । సురతమున మైచెమర్చిన సురటి బూని
 విసరుకొనుచున్నవేళ నీ వితమునెన్న । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('డి', '|'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('న', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('వి', '|'), ('ని', 'U'), ('మ్ము', '|'), ('గ', '|'), ('బి', '|'), ('గిం', 'U'), ('చి', '|'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('ము', '|'), ('న', '|'), ('మై', 'U'), ('చె', '|'), ('మ', 'U'), ('ర్చి', '|'), ('న', '|'), ('సు', '|'), ('ర', '|'), ('టి', '|'), ('బూ', 'U'), ('ని', '|'), ('వి', '|'), ('స', '|'), ('రు', '|'), ('కొ', '|'), ('ను', '|'), ('చు', 'U'), ('న్న', '|'), ('వే', 'U'), ('ళ', '|'), ('నీ', 'U'), ('వి', '|'), ('త', '|'), ('ము', '|'), ('నె', 'U'), ('న్న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>సమబంధమొనరించు సమయమందున కర- । మ్ములు మధ్యమునకు లంకెలు దనర్చి
 గుదికాళ్లు పిరుదుల నదిమి వాతెరల నొం- । డొండ పల్మొనలతొ నొరయుకొనుచు
@@ -1374,63 +1287,57 @@
 తను చివుక్కునను పైకొను వితంబిది గాదు । డింకిసేయుదము లెండి యని లేచి</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('మ', '|'), ('బం', 'U'), ('ధ', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('స', '|'), ('మ', '|'), ('య', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('క', '|'), ('ర', 'U'), ('మ్ము', '|'), ('లు', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('లం', 'U'), ('కె', '|'), ('లు', '|'), ('ద', '|'), ('న', 'U'), ('ర్చి', '|'), ('గు', '|'), ('ది', '|'), ('కా', 'U'), ('ళ్లు', '|'), ('పి', '|'), ('రు', '|'), ('దు', '|'), ('ల', '|'), ('న', '|'), ('ది', '|'), ('మి', '|'), ('వా', 'U'), ('తె', '|'), ('ర', '|'), ('ల', '|'), ('నొం', 'U'), ('డొం', 'U'), ('డ', '|'), ('ప', 'U'), ('ల్మొ', '|'), ('న', '|'), ('ల', '|'), ('తొ', '|'), ('నొ', '|'), ('ర', '|'), ('యు', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('రె', 'U'), ('క్క', '|'), ('లన్', 'U'), ('గూ', 'U'), ('ర్చి', '|'), ('క', 'U'), ('న్రె', 'U'), ('ప్ప', '|'), ('ల', 'U'), ('ల్లా', 'U'), ('ర్పు', '|'), ('చు', '|'), ('క', '|'), ('డు', '|'), ('ప', 'U'), ('క్క', '|'), ('ళిం', 'U'), ('చి', '|'), ('వె', 'U'), ('న్క', '|'), ('ల', '|'), ('కు', '|'), ('ది', '|'), ('రి', '|'), ('గి', '|'), ('త', '|'), ('ను', '|'), ('చి', '|'), ('వు', 'U'), ('క్కు', '|'), ('న', '|'), ('ను', '|'), ('పై', 'U'), ('కొ', '|'), ('ను', '|'), ('వి', '|'), ('తం', 'U'), ('బి', '|'), ('ది', '|'), ('గా', 'U'), ('దు', '|'), ('డిం', 'U'), ('కి', '|'), ('సే', 'U'), ('యు', '|'), ('ద', '|'), ('ము', '|'), ('లెం', 'U'), ('డి', '|'), ('య', '|'), ('ని', '|'), ('లే', 'U'), ('చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>వెనక జిక్కితిరో యని వెన్ను జరచి । నొసటి చెమ్మట పయ్యెదనొత్తికొనుచు
 నిలిచి నను జూచి పలికిన నీటు దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('న', '|'), ('క', '|'), ('జి', 'U'), ('క్కి', '|'), ('తి', '|'), ('రో', 'U'), ('య', '|'), ('ని', '|'), ('వె', 'U'), ('న్ను', '|'), ('జ', '|'), ('ర', '|'), ('చి', '|'), ('నొ', '|'), ('స', '|'), ('టి', '|'), ('చె', 'U'), ('మ్మ', '|'), ('ట', '|'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('నొ', 'U'), ('త్తి', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('న', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('ప', '|'), ('లి', '|'), ('కి', '|'), ('న', '|'), ('నీ', 'U'), ('టు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>చూపుమార్పులను హెచ్చుగ నాస గల్పించి । చేమార్పులను చాల ప్రేమ నించి
 కౌగిటిమార్పుల కడుమోదమున మించి । మోవిమార్పుల మెచ్చి ముద్దునిచ్చి
@@ -1438,63 +1345,57 @@
 ప్రక్కమార్పుల ప్రౌఢిపని గాదని మదించి । పడకమార్పుల హాయిబడ రమించి</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('చూ', 'U'), ('పు', '|'), ('మా', 'U'), ('ర్పు', '|'), ('ల', '|'), ('ను', '|'), ('హె', 'U'), ('చ్చు', '|'), ('గ', '|'), ('నా', 'U'), ('స', '|'), ('గ', 'U'), ('ల్పిం', 'U'), ('చి', '|'), ('చే', 'U'), ('మా', 'U'), ('ర్పు', '|'), ('ల', '|'), ('ను', '|'), ('చా', 'U'), ('ల', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('నిం', 'U'), ('చి', '|'), ('కౌ', 'U'), ('గి', '|'), ('టి', '|'), ('మా', 'U'), ('ర్పు', '|'), ('ల', '|'), ('క', '|'), ('డు', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('మిం', 'U'), ('చి', '|'), ('మో', 'U'), ('వి', '|'), ('మా', 'U'), ('ర్పు', '|'), ('ల', '|'), ('మె', 'U'), ('చ్చి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ని', 'U'), ('చ్చి', '|'), ('త', '|'), ('మ', '|'), ('లం', 'U'), ('పు', '|'), ('మా', 'U'), ('ర్పు', '|'), ('ల', 'U'), ('క్ర', '|'), ('మ', '|'), ('ము', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('యిం', 'U'), ('చి', '|'), ('తొ', '|'), ('డ', '|'), ('సం', 'U'), ('ది', '|'), ('మా', 'U'), ('ర్పు', '|'), ('ల', '|'), ('దు', '|'), ('డు', '|'), ('కు', '|'), ('గాం', 'U'), ('చి', 'U'), ('ప్ర', 'U'), ('క్క', '|'), ('మా', 'U'), ('ర్పు', '|'), ('ల', 'U'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('ప', '|'), ('ని', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('మ', '|'), ('దిం', 'U'), ('చి', '|'), ('ప', '|'), ('డ', '|'), ('క', '|'), ('మా', 'U'), ('ర్పు', '|'), ('ల', '|'), ('హా', 'U'), ('యి', '|'), ('బ', '|'), ('డ', '|'), ('ర', '|'), ('మిం', 'U'), ('చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>బడలికను లేచి నెమ్మోము పారజూచి । మదినొకటి దోచిన నవ్వి యామాట దాచి
 చేతచెయ్యూచి పలుకు నీ చెలువమెన్న । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('డ', '|'), ('లి', '|'), ('క', '|'), ('ను', '|'), ('లే', 'U'), ('చి', '|'), ('నె', 'U'), ('మ్మో', 'U'), ('ము', '|'), ('పా', 'U'), ('ర', '|'), ('జూ', 'U'), ('చి', '|'), ('మ', '|'), ('ది', '|'), ('నొ', '|'), ('క', '|'), ('టి', '|'), ('దో', 'U'), ('చి', '|'), ('న', '|'), ('న', 'U'), ('వ్వి', '|'), ('యా', 'U'), ('మా', 'U'), ('ట', '|'), ('దా', 'U'), ('చి', '|'), ('చే', 'U'), ('త', '|'), ('చె', 'U'), ('య్యూ', 'U'), ('చి', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('నీ', 'U'), ('చె', '|'), ('లు', '|'), ('వ', '|'), ('మె', 'U'), ('న్న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>పికిలిపిట్టల రీతి పెదవికాటందుచు । కూర్చుండెదుర్కొని కొంతసేపు
 చిలుకల గతి ముద్దుపలుకులొప్పుగను పై- । కొని రతి హాయిగా కొంతసేపు
@@ -1502,63 +1403,57 @@
 కళలుప్పతిల్ల ప్రక్కలు గోట జెణకుచు । కోకిలరవముచే కొంతసేపు</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('పి', '|'), ('కి', '|'), ('లి', '|'), ('పి', 'U'), ('ట్ట', '|'), ('ల', '|'), ('రీ', 'U'), ('తి', '|'), ('పె', '|'), ('ద', '|'), ('వి', '|'), ('కా', 'U'), ('టం', 'U'), ('దు', '|'), ('చు', '|'), ('కూ', 'U'), ('ర్చుం', 'U'), ('డె', '|'), ('దు', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('కొం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('ల', '|'), ('గ', '|'), ('తి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('లొ', 'U'), ('ప్పు', '|'), ('గ', '|'), ('ను', '|'), ('పై', 'U'), ('కొ', '|'), ('ని', '|'), ('ర', '|'), ('తి', '|'), ('హా', 'U'), ('యి', '|'), ('గా', 'U'), ('కొం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('క', 'U'), ('న్నె', '|'), ('పా', 'U'), ('వు', '|'), ('ర', '|'), ('మ', '|'), ('న', '|'), ('గ', '|'), ('ళ', '|'), ('ము', '|'), ('న', '|'), ('మ', '|'), ('ణి', '|'), ('తం', 'U'), ('బు', '|'), ('గు', '|'), ('లి', '|'), ('కిం', 'U'), ('చి', '|'), ('హొ', '|'), ('య', '|'), ('లు', '|'), ('గా', 'U'), ('కొం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('క', '|'), ('ళ', '|'), ('లు', 'U'), ('ప్ప', '|'), ('తి', 'U'), ('ల్ల', 'U'), ('ప్ర', 'U'), ('క్క', '|'), ('లు', '|'), ('గో', 'U'), ('ట', '|'), ('జె', '|'), ('ణ', '|'), ('కు', '|'), ('చు', '|'), ('కో', 'U'), ('కి', '|'), ('ల', '|'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('చే', 'U'), ('కొం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>వింతగొరువంకపోరుల గొంతసేపు । గునుపుతో ప్రక్కమార్పుల కొంతసేపు
 క్రీడ సల్పిననాటి నీ రీతినెన్న । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('విం', 'U'), ('త', '|'), ('గొ', '|'), ('రు', '|'), ('వం', 'U'), ('క', '|'), ('పో', 'U'), ('రు', '|'), ('ల', '|'), ('గొం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('గు', '|'), ('ను', '|'), ('పు', '|'), ('తో', 'U'), ('ప్ర', 'U'), ('క్క', '|'), ('మా', 'U'), ('ర్పు', '|'), ('ల', '|'), ('కొం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', 'U'), ('క్రీ', 'U'), ('డ', '|'), ('స', 'U'), ('ల్పి', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('నీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('నె', 'U'), ('న్న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>తొడనిగ్గు పైకి గన్పడు కీనుఖాబు పా- । వడతో జరీబుటా వల్వతోడ
 రహిమించు వహిగాంచు రవికెతో ఝల్లని । కౌనుల్కి చెమరించు కళలతోడ
@@ -1566,63 +1461,57 @@
 మొనలు పైపైలకగ్గిన కుచద్వయముతో । మిసిమి జెలంగు నెమ్మేనితోడ</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('తొ', '|'), ('డ', '|'), ('ని', 'U'), ('గ్గు', '|'), ('పై', 'U'), ('కి', '|'), ('గ', 'U'), ('న్ప', '|'), ('డు', '|'), ('కీ', 'U'), ('ను', '|'), ('ఖా', 'U'), ('బు', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('తో', 'U'), ('జ', '|'), ('రీ', 'U'), ('బు', '|'), ('టా', 'U'), ('వ', 'U'), ('ల్వ', '|'), ('తో', 'U'), ('డ', '|'), ('ర', '|'), ('హి', '|'), ('మిం', 'U'), ('చు', '|'), ('వ', '|'), ('హి', '|'), ('గాం', 'U'), ('చు', '|'), ('ర', '|'), ('వి', '|'), ('కె', '|'), ('తో', 'U'), ('ఝ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('కౌ', 'U'), ('ను', 'U'), ('ల్కి', '|'), ('చె', '|'), ('మ', '|'), ('రిం', 'U'), ('చు', '|'), ('క', '|'), ('ళ', '|'), ('ల', '|'), ('తో', 'U'), ('డ', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('మిం', 'U'), ('చి', '|'), ('న', '|'), ('చా', 'U'), ('దు', '|'), ('చు', 'U'), ('క్క', '|'), ('తో', 'U'), ('పి', '|'), ('రు', '|'), ('దు', '|'), ('ల', '|'), ('నం', 'U'), ('టి', '|'), ('మె', '|'), ('లం', 'U'), ('గు', '|'), ('కీ', 'U'), ('ల్గం', 'U'), ('టు', '|'), ('తో', 'U'), ('డ', '|'), ('మొ', '|'), ('న', '|'), ('లు', '|'), ('పై', 'U'), ('పై', 'U'), ('ల', '|'), ('క', 'U'), ('గ్గి', '|'), ('న', '|'), ('కు', '|'), ('చ', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', '|'), ('తో', 'U'), ('మి', '|'), ('సి', '|'), ('మి', '|'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('ని', '|'), ('తో', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>కులికి దిగ్గున లేచి లోకొంగు జూచి । చెరగు మాసె నటంచును సిగ్గుదోచి
 పాత్ర గైకొన్న హొయలెంచి బాళి నిలుప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('లి', '|'), ('కి', '|'), ('ది', 'U'), ('గ్గు', '|'), ('న', '|'), ('లే', 'U'), ('చి', '|'), ('లో', 'U'), ('కొం', 'U'), ('గు', '|'), ('జూ', 'U'), ('చి', '|'), ('చె', '|'), ('ర', '|'), ('గు', '|'), ('మా', 'U'), ('సె', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('ను', '|'), ('సి', 'U'), ('గ్గు', '|'), ('దో', 'U'), ('చి', '|'), ('పా', 'U'), ('త్ర', '|'), ('గై', 'U'), ('కొ', 'U'), ('న్న', '|'), ('హొ', '|'), ('య', '|'), ('లెం', 'U'), ('చి', '|'), ('బా', 'U'), ('ళి', '|'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>కరమొప్ప మేల్కీనుఖాబు పావడమీద । సిరిమించు మహతాబి చీర గుల్క
 సరిగె కంగోరు భస్మావన్నె రవికెపై । పిగిలి కుచ్చెల ధాటు పిక్కటిల్ల
@@ -1631,63 +1520,57 @@
 వలరాయునింట చిల్చిలమంచు కళ కుసుం- । బాపువ్వురసము కైవడిని గురియ</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('మే', 'U'), ('ల్కీ', 'U'), ('ను', '|'), ('ఖా', 'U'), ('బు', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('మీ', 'U'), ('ద', '|'), ('సి', '|'), ('రి', '|'), ('మిం', 'U'), ('చు', '|'), ('మ', '|'), ('హ', '|'), ('తా', 'U'), ('బి', '|'), ('చీ', 'U'), ('ర', '|'), ('గు', 'U'), ('ల్క', '|'), ('స', '|'), ('రి', '|'), ('గె', '|'), ('కం', 'U'), ('గో', 'U'), ('రు', '|'), ('భ', 'U'), ('స్మా', 'U'), ('వ', 'U'), ('న్నె', '|'), ('ర', '|'), ('వి', '|'), ('కె', '|'), ('పై', 'U'), ('పి', '|'), ('గి', '|'), ('లి', '|'), ('కు', 'U'), ('చ్చె', '|'), ('ల', '|'), ('ధా', 'U'), ('టు', '|'), ('పి', 'U'), ('క్క', '|'), ('టి', 'U'), ('ల్ల', '|'), ('పో', 'U'), ('చీ', 'U'), ('లు', '|'), ('కం', 'U'), ('క', '|'), ('ణ', 'U'), ('మ్ము', '|'), ('లు', '|'), ('స', '|'), ('రు', 'U'), ('ల్పా', 'U'), ('టి', '|'), ('లు', '|'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('జూ', 'U'), ('ప', '|'), ('గ', '|'), ('ధ', '|'), ('ళు', 'U'), ('క్క', '|'), ('ని', '|'), ('వె', '|'), ('లుం', 'U'), ('గ', '|'), ('గొ', '|'), ('లు', '|'), ('సు', '|'), ('లు', '|'), ('పా', 'U'), ('వ', '|'), ('డం', 'U'), ('బు', '|'), ('లు', '|'), ('చి', '|'), ('రు', '|'), ('గ', 'U'), ('జ్జె', '|'), ('లం', 'U'), ('దె', '|'), ('లు', '|'), ('ప', '|'), ('ద', 'U'), ('మ్ము', '|'), ('న', '|'), ('ఝ', '|'), ('ళం', 'U'), ('ఝ', '|'), ('ళ', '|'), ('లు', '|'), ('సే', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('రా', 'U'), ('యు', '|'), ('నిం', 'U'), ('ట', '|'), ('చి', 'U'), ('ల్చి', '|'), ('ల', '|'), ('మం', 'U'), ('చు', '|'), ('క', '|'), ('ళ', '|'), ('కు', '|'), ('సుం', 'U'), ('బా', 'U'), ('పు', 'U'), ('వ్వు', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('ని', '|'), ('గు', '|'), ('రి', '|'), ('య', '|')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>బోటి మార్నీటిరేయి నీతోటి నెనయు- । నాటి వేడుకలింక నేనాటికైన
 కోటి యిచ్చిన కల్గ దాపాటి దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('బో', 'U'), ('టి', '|'), ('మా', 'U'), ('ర్నీ', 'U'), ('టి', '|'), ('రే', 'U'), ('యి', '|'), ('నీ', 'U'), ('తో', 'U'), ('టి', '|'), ('నె', '|'), ('న', '|'), ('యు', '|'), ('నా', 'U'), ('టి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('లిం', 'U'), ('క', '|'), ('నే', 'U'), ('నా', 'U'), ('టి', '|'), ('కై', 'U'), ('న', '|'), ('కో', 'U'), ('టి', '|'), ('యి', 'U'), ('చ్చి', '|'), ('న', '|'), ('క', 'U'), ('ల్గ', '|'), ('దా', 'U'), ('పా', 'U'), ('టి', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>మైతావి నీవి కమ్మని మోవి గను ఠీవి । దలపోసి పెదవులు దడిపి దడిపి
 తొడతళ్కు నడుమల్కు నడగుల్కు పొడగాంచి । గొనబైన జాలిచే గుంది గుంది
@@ -1695,63 +1578,57 @@
 వలపింపు కటిపెంపు వదనంపు జిగిసొంపు । లనుదినంబును గొనియాడి యాడి</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('మై', 'U'), ('తా', 'U'), ('వి', '|'), ('నీ', 'U'), ('వి', '|'), ('క', 'U'), ('మ్మ', '|'), ('ని', '|'), ('మో', 'U'), ('వి', '|'), ('గ', '|'), ('ను', '|'), ('ఠీ', 'U'), ('వి', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('సి', '|'), ('పె', '|'), ('ద', '|'), ('వు', '|'), ('లు', '|'), ('ద', '|'), ('డి', '|'), ('పి', '|'), ('ద', '|'), ('డి', '|'), ('పి', '|'), ('తొ', '|'), ('డ', '|'), ('త', 'U'), ('ళ్కు', '|'), ('న', '|'), ('డు', '|'), ('మ', 'U'), ('ల్కు', '|'), ('న', '|'), ('డ', '|'), ('గు', 'U'), ('ల్కు', '|'), ('పొ', '|'), ('డ', '|'), ('గాం', 'U'), ('చి', '|'), ('గొ', '|'), ('న', '|'), ('బై', 'U'), ('న', '|'), ('జా', 'U'), ('లి', '|'), ('చే', 'U'), ('గుం', 'U'), ('ది', '|'), ('గుం', 'U'), ('ది', '|'), ('జ', '|'), ('డ', '|'), ('బా', 'U'), ('రు', '|'), ('ను', '|'), ('డి', '|'), ('తీ', 'U'), ('రు', '|'), ('మ', '|'), ('డి', '|'), ('చా', 'U'), ('రు', '|'), ('మ', '|'), ('డి', '|'), ('సౌ', 'U'), ('రు', '|'), ('నెం', 'U'), ('చి', '|'), ('చా', 'U'), ('ల', '|'), ('గ', '|'), ('త', '|'), ('మి', '|'), ('హె', 'U'), ('చ్చి', '|'), ('హె', 'U'), ('చ్చి', '|'), ('వ', '|'), ('ల', '|'), ('పిం', 'U'), ('పు', '|'), ('క', '|'), ('టి', '|'), ('పెం', 'U'), ('పు', '|'), ('వ', '|'), ('ద', '|'), ('నం', 'U'), ('పు', '|'), ('జి', '|'), ('గి', '|'), ('సొం', 'U'), ('పు', '|'), ('ల', '|'), ('ను', '|'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డి', '|'), ('యా', 'U'), ('డి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>యజుని దూషించి ప్రాకృత మనుసరించి । బాళి కడుమించి యొంటిగా బవ్వళించి
 మనసు నిర్జించి దినము లీమాడ్కి జరుప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('జు', '|'), ('ని', '|'), ('దూ', 'U'), ('షిం', 'U'), ('చి', 'U'), ('ప్రా', 'U'), ('కృ', '|'), ('త', '|'), ('మ', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('చి', '|'), ('బా', 'U'), ('ళి', '|'), ('క', '|'), ('డు', '|'), ('మిం', 'U'), ('చి', '|'), ('యొం', 'U'), ('టి', '|'), ('గా', 'U'), ('బ', 'U'), ('వ్వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('ని', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('లీ', 'U'), ('మా', 'U'), ('డ్కి', '|'), ('జ', '|'), ('రు', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>హాయిగా విన విన ఠాయిగా నీచేత । నెలనాగ వీణె నేనెపుడు విందు
 సొంపుగా మై జులాయింపుగా నీనోట । రమణి నేనెపుడు పద్యములు విందు
@@ -1759,63 +1636,57 @@
 మెల్లగా నెమ్మది చల్లగా నెపుడు నే । కాంత నీ గాత్రరాగంబు విందు-</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('హా', 'U'), ('యి', '|'), ('గా', 'U'), ('వి', '|'), ('న', '|'), ('వి', '|'), ('న', '|'), ('ఠా', 'U'), ('యి', '|'), ('గా', 'U'), ('నీ', 'U'), ('చే', 'U'), ('త', '|'), ('నె', '|'), ('ల', '|'), ('నా', 'U'), ('గ', '|'), ('వీ', 'U'), ('ణె', '|'), ('నే', 'U'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('విం', 'U'), ('దు', '|'), ('సొం', 'U'), ('పు', '|'), ('గా', 'U'), ('మై', 'U'), ('జు', '|'), ('లా', 'U'), ('యిం', 'U'), ('పు', '|'), ('గా', 'U'), ('నీ', 'U'), ('నో', 'U'), ('ట', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('నే', 'U'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', '|'), ('లు', '|'), ('విం', 'U'), ('దు', '|'), ('కు', 'U'), ('ల్కు', '|'), ('గా', 'U'), ('తే', 'U'), ('ని', '|'), ('య', '|'), ('జి', 'U'), ('ల్క', '|'), ('గా', 'U'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('నే', 'U'), ('ల', '|'), ('ల', '|'), ('న', '|'), ('నీ', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ల', '|'), ('ను', '|'), ('విం', 'U'), ('దు', '|'), ('మె', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('నె', 'U'), ('మ్మ', '|'), ('ది', '|'), ('చ', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('నే', 'U'), ('కాం', 'U'), ('త', '|'), ('నీ', 'U'), ('గా', 'U'), ('త్ర', '|'), ('రా', 'U'), ('గం', 'U'), ('బు', '|'), ('విం', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>ననుచు నేనుందు నేటికి యబ్బె సందు । కనికరము జెందు మనసుకీ కపటమెందు
 కొరకు నీ పొందులేనిదే కొదువ యెందు । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('చు', '|'), ('నే', 'U'), ('నుం', 'U'), ('దు', '|'), ('నే', 'U'), ('టి', '|'), ('కి', '|'), ('య', 'U'), ('బ్బె', '|'), ('సం', 'U'), ('దు', '|'), ('క', '|'), ('ని', '|'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('జెం', 'U'), ('దు', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('కీ', 'U'), ('క', '|'), ('ప', '|'), ('ట', '|'), ('మెం', 'U'), ('దు', '|'), ('కొ', '|'), ('ర', '|'), ('కు', '|'), ('నీ', 'U'), ('పొం', 'U'), ('దు', '|'), ('లే', 'U'), ('ని', '|'), ('దే', 'U'), ('కొ', '|'), ('దు', '|'), ('వ', '|'), ('యెం', 'U'), ('దు', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>తొలకరిమెఱప నా వెలలేని జీవర- । త్నమ జున్నుగిన్నె బిత్తరులమేటి
 రామచిల్క యొయారిరాయంచ ఖండచ- । క్కెరరాశి మేల్మిబంగరుసలాక
@@ -1823,63 +1694,57 @@
 కట్టాణిముత్యము కస్తూరివీణె ము- । ద్దులగని సింగారములబిడారు</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('తొ', '|'), ('ల', '|'), ('క', '|'), ('రి', '|'), ('మె', '|'), ('ఱ', '|'), ('ప', '|'), ('నా', 'U'), ('వె', '|'), ('ల', '|'), ('లే', 'U'), ('ని', '|'), ('జీ', 'U'), ('వ', '|'), ('ర', 'U'), ('త్న', '|'), ('మ', '|'), ('జు', 'U'), ('న్ను', '|'), ('గి', 'U'), ('న్నె', '|'), ('బి', 'U'), ('త్త', '|'), ('రు', '|'), ('ల', '|'), ('మే', 'U'), ('టి', '|'), ('రా', 'U'), ('మ', '|'), ('చి', 'U'), ('ల్క', '|'), ('యొ', '|'), ('యా', 'U'), ('రి', '|'), ('రా', 'U'), ('యం', 'U'), ('చ', '|'), ('ఖం', 'U'), ('డ', '|'), ('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('రా', 'U'), ('శి', '|'), ('మే', 'U'), ('ల్మి', '|'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('స', '|'), ('లా', 'U'), ('క', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('మం', 'U'), ('జ', '|'), ('రి', '|'), ('తి', 'U'), ('య్య', '|'), ('మా', 'U'), ('మి', '|'), ('డి', '|'), ('కుం', 'U'), ('కు', '|'), ('మ', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('క', 'U'), ('ల్కి', '|'), ('కు', 'U'), ('ల్కు', '|'), ('ల', '|'), ('కొ', '|'), ('ఠా', 'U'), ('రు', '|'), ('క', 'U'), ('ట్టా', 'U'), ('ణి', '|'), ('ము', 'U'), ('త్య', '|'), ('ము', '|'), ('క', 'U'), ('స్తూ', 'U'), ('రి', '|'), ('వీ', 'U'), ('ణె', '|'), ('ము', 'U'), ('ద్దు', '|'), ('ల', '|'), ('గ', '|'), ('ని', '|'), ('సిం', 'U'), ('గా', 'U'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('బి', '|'), ('డా', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>నెనరుమాటలదీవి పన్నీటిచెలమ । కన్నె వేడిమిఠారి యంగజునిసొక్కు
 మందుపొడిడబ్బి జాణ నిన్మది దలంప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('న', '|'), ('రు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('దీ', 'U'), ('వి', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('టి', '|'), ('చె', '|'), ('ల', '|'), ('మ', '|'), ('క', 'U'), ('న్నె', '|'), ('వే', 'U'), ('డి', '|'), ('మి', '|'), ('ఠా', 'U'), ('రి', '|'), ('యం', 'U'), ('గ', '|'), ('జు', '|'), ('ని', '|'), ('సొ', 'U'), ('క్కు', '|'), ('మం', 'U'), ('దు', '|'), ('పొ', '|'), ('డి', '|'), ('డ', 'U'), ('బ్బి', '|'), ('జా', 'U'), ('ణ', '|'), ('ని', 'U'), ('న్మ', '|'), ('ది', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>మైసూరి కుతినీ తమాను వేసుక జరీ- । పాగా తురాయి గన్పడగ జుట్టి
 భారి శాలువ వల్లెవాటుగా నమరించి । బేషైన రవల సర్పోషు నించి
@@ -1887,63 +1752,57 @@
 చిలక విప్పి చాయలు తళుక్కున దూసి । జిగి గల చిల్కతేజీపఠాణి</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('మై', 'U'), ('సూ', 'U'), ('రి', '|'), ('కు', '|'), ('తి', '|'), ('నీ', 'U'), ('త', '|'), ('మా', 'U'), ('ను', '|'), ('వే', 'U'), ('సు', '|'), ('క', '|'), ('జ', '|'), ('రీ', 'U'), ('పా', 'U'), ('గా', 'U'), ('తు', '|'), ('రా', 'U'), ('యి', '|'), ('గ', 'U'), ('న్ప', '|'), ('డ', '|'), ('గ', '|'), ('జు', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('రి', '|'), ('శా', 'U'), ('లు', '|'), ('వ', '|'), ('వ', 'U'), ('ల్లె', '|'), ('వా', 'U'), ('టు', '|'), ('గా', 'U'), ('న', '|'), ('మ', '|'), ('రిం', 'U'), ('చి', '|'), ('బే', 'U'), ('షై', 'U'), ('న', '|'), ('ర', '|'), ('వ', '|'), ('ల', '|'), ('స', 'U'), ('ర్పో', 'U'), ('షు', '|'), ('నిం', 'U'), ('చి', '|'), ('వా', 'U'), ('ణి', '|'), ('గా', 'U'), ('జి', '|'), ('గి', '|'), ('బ', '|'), ('ర్ద', '|'), ('వా', 'U'), ('ని', '|'), ('తే', 'U'), ('గా', 'U'), ('వ', '|'), ('ర', '|'), ('పై', 'U'), ('మొ', '|'), ('ఖ', '|'), ('మల్', 'U'), ('గ', '|'), ('లీ', 'U'), ('బా', 'U'), ('వ', '|'), ('ద', 'U'), ('ల్చి', '|'), ('చి', '|'), ('ల', '|'), ('క', '|'), ('వి', 'U'), ('ప్పి', '|'), ('చా', 'U'), ('య', '|'), ('లు', '|'), ('త', '|'), ('ళు', 'U'), ('క్కు', '|'), ('న', '|'), ('దూ', 'U'), ('సి', '|'), ('జి', '|'), ('గి', '|'), ('గ', '|'), ('ల', '|'), ('చి', 'U'), ('ల్క', '|'), ('తే', 'U'), ('జీ', 'U'), ('ప', '|'), ('ఠా', 'U'), ('ణి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>యిచ్చటికి చెచ్చెరను బలుమచ్చరమున । చిచ్చు కైవడి విడివడి వచ్చువాని
 విచ్చుకత్తికి నెద నెదురిచ్చి నిలువ । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('యి', 'U'), ('చ్చ', '|'), ('టి', '|'), ('కి', '|'), ('చె', 'U'), ('చ్చె', '|'), ('ర', '|'), ('ను', '|'), ('బ', '|'), ('లు', '|'), ('మ', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('చి', 'U'), ('చ్చు', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('వి', '|'), ('డి', '|'), ('వ', '|'), ('డి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('ని', '|'), ('వి', 'U'), ('చ్చు', '|'), ('క', 'U'), ('త్తి', '|'), ('కి', '|'), ('నె', '|'), ('ద', '|'), ('నె', '|'), ('దు', '|'), ('రి', 'U'), ('చ్చి', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>పదినూరుకన్నులపాదుషా కొల్వులో- । పలనెత్తు ధవళాతపత్రమనగ
 హరుని నేత్రాగ్నిచే కరిగి నీరైన పూ- । విలుకాని సతి మోముచెలువనంగ
@@ -1951,63 +1810,57 @@
 ప్రాగ్దిశాంగన కొప్పుపై తళతళమంచు । రహిగాంచు వజ్రాలరాకిడి యన</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ది', '|'), ('నూ', 'U'), ('రు', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('పా', 'U'), ('దు', '|'), ('షా', 'U'), ('కొ', 'U'), ('ల్వు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నె', 'U'), ('త్తు', '|'), ('ధ', '|'), ('వ', '|'), ('ళా', 'U'), ('త', '|'), ('ప', 'U'), ('త్ర', '|'), ('మ', '|'), ('న', '|'), ('గ', '|'), ('హ', '|'), ('రు', '|'), ('ని', '|'), ('నే', 'U'), ('త్రా', 'U'), ('గ్ని', '|'), ('చే', 'U'), ('క', '|'), ('రి', '|'), ('గి', '|'), ('నీ', 'U'), ('రై', 'U'), ('న', '|'), ('పూ', 'U'), ('వి', '|'), ('లు', '|'), ('కా', 'U'), ('ని', '|'), ('స', '|'), ('తి', '|'), ('మో', 'U'), ('ము', '|'), ('చె', '|'), ('లు', '|'), ('వ', '|'), ('నం', 'U'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('వే', 'U'), ('టా', 'U'), ('డి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('ర', '|'), ('తి', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('ర', '|'), ('త', '|'), ('నా', 'U'), ('ల', '|'), ('ప', 'U'), ('ళ్లె', '|'), ('మ', '|'), ('న', '|'), ('గ', 'U'), ('ప్రా', 'U'), ('గ్ది', '|'), ('శాం', 'U'), ('గ', '|'), ('న', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('పై', 'U'), ('త', '|'), ('ళ', '|'), ('త', '|'), ('ళ', '|'), ('మం', 'U'), ('చు', '|'), ('ర', '|'), ('హి', '|'), ('గాం', 'U'), ('చు', '|'), ('వ', 'U'), ('జ్రా', 'U'), ('ల', '|'), ('రా', 'U'), ('కి', '|'), ('డి', '|'), ('య', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>విరహు లదరంగ తమ్ములవేడ్క గ్రుంగ । కలువలుప్పొంగ నింగి రిక్కలు చెలంగ
 క్రౌర్యము వెలుంగ మింట జక్కువలగొంగ । వచ్చె గదె రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ర', '|'), ('హు', '|'), ('ల', '|'), ('ద', '|'), ('రం', 'U'), ('గ', '|'), ('త', 'U'), ('మ్ము', '|'), ('ల', '|'), ('వే', 'U'), ('డ్క', 'U'), ('గ్రుం', 'U'), ('గ', '|'), ('క', '|'), ('లు', '|'), ('వ', '|'), ('లు', 'U'), ('ప్పొం', 'U'), ('గ', '|'), ('నిం', 'U'), ('గి', '|'), ('రి', 'U'), ('క్క', '|'), ('లు', '|'), ('చె', '|'), ('లం', 'U'), ('గ', 'U'), ('క్రౌ', 'U'), ('ర్య', '|'), ('ము', '|'), ('వె', '|'), ('లుం', 'U'), ('గ', '|'), ('మిం', 'U'), ('ట', '|'), ('జ', 'U'), ('క్కు', '|'), ('వ', '|'), ('ల', '|'), ('గొం', 'U'), ('గ', '|'), ('వ', 'U'), ('చ్చె', '|'), ('గ', '|'), ('దె', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>శయనించియున్న హెచ్చరికకై సకలాతి । తెర తొంగిచూచి యందెలు గదల్చు-
 నది వినబడక నే నిదురింపుచుండిన । విరుల పంఖా బూని విసరజొచ్చు-
@@ -2015,63 +1868,57 @@
 నంతట నేను గిల్గింతలొనర్చుచో । కిలకిల నవ్వి కెంగేలు పట్టి</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('య', '|'), ('నిం', 'U'), ('చి', '|'), ('యు', 'U'), ('న్న', '|'), ('హె', 'U'), ('చ్చ', '|'), ('రి', '|'), ('క', '|'), ('కై', 'U'), ('స', '|'), ('క', '|'), ('లా', 'U'), ('తి', '|'), ('తె', '|'), ('ర', '|'), ('తొం', 'U'), ('గి', '|'), ('చూ', 'U'), ('చి', '|'), ('యం', 'U'), ('దె', '|'), ('లు', '|'), ('గ', '|'), ('ద', 'U'), ('ల్చు', '|'), ('న', '|'), ('ది', '|'), ('వి', '|'), ('న', '|'), ('బ', '|'), ('డ', '|'), ('క', '|'), ('నే', 'U'), ('ని', '|'), ('దు', '|'), ('రిం', 'U'), ('పు', '|'), ('చుం', 'U'), ('డి', '|'), ('న', '|'), ('వి', '|'), ('రు', '|'), ('ల', '|'), ('పం', 'U'), ('ఖా', 'U'), ('బూ', 'U'), ('ని', '|'), ('వి', '|'), ('స', '|'), ('ర', '|'), ('జొ', 'U'), ('చ్చు', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('మే', 'U'), ('ల్కాం', 'U'), ('చి', '|'), ('మా', 'U'), ('టా', 'U'), ('డ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('యూ', 'U'), ('రు', '|'), ('లె', 'U'), ('త్తిం', 'U'), ('చి', '|'), ('ప', '|'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('నొ', 'U'), ('త్త', '|'), ('నెం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('ట', '|'), ('నే', 'U'), ('ను', '|'), ('గి', 'U'), ('ల్గిం', 'U'), ('త', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('చో', 'U'), ('కి', '|'), ('ల', '|'), ('కి', '|'), ('ల', '|'), ('న', 'U'), ('వ్వి', '|'), ('కెం', 'U'), ('గే', 'U'), ('లు', '|'), ('ప', 'U'), ('ట్టి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>చాలు పొమ్మన్న వదన భావాలనెంచు- । నట్టి సద్గుణవతిని నా యాత్మ దలచి
 వలసి కలయక మరుని కాకలకు తాళ- । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('చా', 'U'), ('లు', '|'), ('పొ', 'U'), ('మ్మ', 'U'), ('న్న', '|'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('భా', 'U'), ('వా', 'U'), ('ల', '|'), ('నెం', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('వ', '|'), ('తి', '|'), ('ని', '|'), ('నా', 'U'), ('యా', 'U'), ('త్మ', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('వ', '|'), ('ల', '|'), ('సి', '|'), ('క', '|'), ('ల', '|'), ('య', '|'), ('క', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('కా', 'U'), ('క', '|'), ('ల', '|'), ('కు', '|'), ('తా', 'U'), ('ళ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>తరుణి చన్మొనల నూదారంగుగానున్న- । దేమన మీకేమి దెలుసునందు-
 వవునంచు మరునిల్లు నివిరిదేమన నిటు- । లడుగవల్దని చిన్నియాన బెట్టు-
@@ -2079,63 +1926,57 @@
 వెనయ కుచ్చిళ్లలోగిన నీవి వదల ని- । గ్గమరి దివ్వెకు చేతులడ్డమిడుదు-</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('రు', '|'), ('ణి', '|'), ('చ', 'U'), ('న్మొ', '|'), ('న', '|'), ('ల', '|'), ('నూ', 'U'), ('దా', 'U'), ('రం', 'U'), ('గు', '|'), ('గా', 'U'), ('ను', 'U'), ('న్న', '|'), ('దే', 'U'), ('మ', '|'), ('న', '|'), ('మీ', 'U'), ('కే', 'U'), ('మి', '|'), ('దె', '|'), ('లు', '|'), ('సు', '|'), ('నం', 'U'), ('దు', '|'), ('వ', '|'), ('వు', '|'), ('నం', 'U'), ('చు', '|'), ('మ', '|'), ('రు', '|'), ('ని', 'U'), ('ల్లు', '|'), ('ని', '|'), ('వి', '|'), ('రి', '|'), ('దే', 'U'), ('మ', '|'), ('న', '|'), ('ని', '|'), ('టు', '|'), ('ల', '|'), ('డు', '|'), ('గ', '|'), ('వ', 'U'), ('ల్ద', '|'), ('ని', '|'), ('చి', 'U'), ('న్ని', '|'), ('యా', 'U'), ('న', '|'), ('బె', 'U'), ('ట్టు', '|'), ('ద', '|'), ('ల', '|'), ('రి', 'U'), ('ప్ర', 'U'), ('క్క', '|'), ('లు', '|'), ('చె', 'U'), ('ణ్క', '|'), ('గి', '|'), ('లి', '|'), ('గిం', 'U'), ('త', '|'), ('లి', '|'), ('క', '|'), ('న', 'U'), ('వ్వ', '|'), ('లే', 'U'), ('నం', 'U'), ('చు', '|'), ('రి', 'U'), ('వ్వు', '|'), ('న', '|'), ('లే', 'U'), ('వ', '|'), ('బో', 'U'), ('దు', '|'), ('వె', '|'), ('న', '|'), ('య', '|'), ('కు', 'U'), ('చ్చి', 'U'), ('ళ్ల', '|'), ('లో', 'U'), ('గి', '|'), ('న', '|'), ('నీ', 'U'), ('వి', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('ని', 'U'), ('గ్గ', '|'), ('మ', '|'), ('రి', '|'), ('ది', 'U'), ('వ్వె', '|'), ('కు', '|'), ('చే', 'U'), ('తు', '|'), ('ల', 'U'), ('డ్డ', '|'), ('మి', '|'), ('డు', '|'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>వపుడు చేబట్టి లాగిన హరి యటంచు । కండ్లు మూతువు చిరునవ్వు గడలుకొనగ-
 నది దలంచిన మదిని మోహము నడంప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('పు', '|'), ('డు', '|'), ('చే', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('లా', 'U'), ('గి', '|'), ('న', '|'), ('హ', '|'), ('రి', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('కం', 'U'), ('డ్లు', '|'), ('మూ', 'U'), ('తు', '|'), ('వు', '|'), ('చి', '|'), ('రు', '|'), ('న', 'U'), ('వ్వు', '|'), ('గ', '|'), ('డ', '|'), ('లు', '|'), ('కొ', '|'), ('న', '|'), ('గ', '|'), ('న', '|'), ('ది', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('మో', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('డం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>నూతనకేళి నేనొనరింపబూనిన । చిడిముడిలోజంకు సిగ్గువెరగు
 వేగుటవేసట వెల్లవాటునుజాలి । మడిమవిదల్పు పెందొడవడంకు
@@ -2143,63 +1984,57 @@
 పలుమొన బిగియించు పటిమ నధైర్యంబు । కసరు తొందర బాళి గడలుకొనగ</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('నూ', 'U'), ('త', '|'), ('న', '|'), ('కే', 'U'), ('ళి', '|'), ('నే', 'U'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('బూ', 'U'), ('ని', '|'), ('న', '|'), ('చి', '|'), ('డి', '|'), ('ము', '|'), ('డి', '|'), ('లో', 'U'), ('జం', 'U'), ('కు', '|'), ('సి', 'U'), ('గ్గు', '|'), ('వె', '|'), ('ర', '|'), ('గు', '|'), ('వే', 'U'), ('గు', '|'), ('ట', '|'), ('వే', 'U'), ('స', '|'), ('ట', '|'), ('వె', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('టు', '|'), ('ను', '|'), ('జా', 'U'), ('లి', '|'), ('మ', '|'), ('డి', '|'), ('మ', '|'), ('వి', '|'), ('ద', 'U'), ('ల్పు', '|'), ('పెం', 'U'), ('దొ', '|'), ('డ', '|'), ('వ', '|'), ('డం', 'U'), ('కు', '|'), ('బొ', '|'), ('మ', '|'), ('ము', '|'), ('డి', '|'), ('క', '|'), ('ను', '|'), ('మూ', 'U'), ('త', '|'), ('మో', 'U'), ('వి', '|'), ('యా', 'U'), ('ర్చు', '|'), ('ట', '|'), ('ల', '|'), ('ల', '|'), ('మై', 'U'), ('చె', '|'), ('మ', 'U'), ('ర్చు', '|'), ('ట', '|'), ('త', '|'), ('డం', 'U'), ('బ', '|'), ('డు', '|'), ('ట', '|'), ('సొ', '|'), ('ల', '|'), ('పు', '|'), ('ప', '|'), ('లు', '|'), ('మొ', '|'), ('న', '|'), ('బి', '|'), ('గి', '|'), ('యిం', 'U'), ('చు', '|'), ('ప', '|'), ('టి', '|'), ('మ', '|'), ('న', '|'), ('ధై', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('క', '|'), ('స', '|'), ('రు', '|'), ('తొం', 'U'), ('ద', '|'), ('ర', '|'), ('బా', 'U'), ('ళి', '|'), ('గ', '|'), ('డ', '|'), ('లు', '|'), ('కొ', '|'), ('న', '|'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>పొలతి నన్నెంచనపుడు నే బుజ్జగించ । కౌను యసియాడ మన్మథకళలు వీడ
 రతమొనర్చిననాటి నీ వితమునెన్న । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('పొ', '|'), ('ల', '|'), ('తి', '|'), ('న', 'U'), ('న్నెం', 'U'), ('చ', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('నే', 'U'), ('బు', 'U'), ('జ్జ', '|'), ('గిం', 'U'), ('చ', '|'), ('కౌ', 'U'), ('ను', '|'), ('య', '|'), ('సి', '|'), ('యా', 'U'), ('డ', '|'), ('మ', 'U'), ('న్మ', '|'), ('థ', '|'), ('క', '|'), ('ళ', '|'), ('లు', '|'), ('వీ', 'U'), ('డ', '|'), ('ర', '|'), ('త', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('నీ', 'U'), ('వి', '|'), ('త', '|'), ('ము', '|'), ('నె', 'U'), ('న్న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>కలకంఠి యీడునెచ్చెలులెల్ల శృంగార- । వనికి బోదాము రమ్మనుచు బిలువ
 కడుమోదమున రైక తొడగలేదను గప్తి । మరచి వారలతోడ నరుగుదెంచి
@@ -2207,63 +2042,57 @@
 నపుడేను కొనగోట నదిమిన నను గాంచి । సిగ్గుచేతను పైటచెరగు గప్పి</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('కం', 'U'), ('ఠి', '|'), ('యీ', 'U'), ('డు', '|'), ('నె', 'U'), ('చ్చె', '|'), ('లు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('వ', '|'), ('ని', '|'), ('కి', '|'), ('బో', 'U'), ('దా', 'U'), ('ము', '|'), ('ర', 'U'), ('మ్మ', '|'), ('ను', '|'), ('చు', '|'), ('బి', '|'), ('లు', '|'), ('వ', '|'), ('క', '|'), ('డు', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('రై', 'U'), ('క', '|'), ('తొ', '|'), ('డ', '|'), ('గ', '|'), ('లే', 'U'), ('ద', '|'), ('ను', '|'), ('గ', 'U'), ('ప్తి', '|'), ('మ', '|'), ('ర', '|'), ('చి', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('తో', 'U'), ('డ', '|'), ('న', '|'), ('రు', '|'), ('గు', '|'), ('దెం', 'U'), ('చి', '|'), ('పు', 'U'), ('న్నా', 'U'), ('గ', '|'), ('సు', '|'), ('మ', '|'), ('గు', 'U'), ('చ్ఛ', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('చె', 'U'), ('య్యె', 'U'), ('త్తి', '|'), ('న', '|'), ('కో', 'U'), ('ర', '|'), ('క', '|'), ('గ', '|'), ('తి', '|'), ('గ', 'U'), ('బ్బి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('యు', 'U'), ('బ్బ', '|'), ('న', '|'), ('పు', '|'), ('డే', 'U'), ('ను', '|'), ('కొ', '|'), ('న', '|'), ('గో', 'U'), ('ట', '|'), ('న', '|'), ('ది', '|'), ('మి', '|'), ('న', '|'), ('న', '|'), ('ను', '|'), ('గాం', 'U'), ('చి', '|'), ('సి', 'U'), ('గ్గు', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('పై', 'U'), ('ట', '|'), ('చె', '|'), ('ర', '|'), ('గు', '|'), ('గ', 'U'), ('ప్పి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>తీవ్రగతినేగి చెలులతో తేటి యిచట । కొరికెనో గాక చెయ్యెత్తగూడదనుచు
 చెప్పుకొనునాటి యణుకువ చెలువ దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('తీ', 'U'), ('వ్ర', '|'), ('గ', '|'), ('తి', '|'), ('నే', 'U'), ('గి', '|'), ('చె', '|'), ('లు', '|'), ('ల', '|'), ('తో', 'U'), ('తే', 'U'), ('టి', '|'), ('యి', '|'), ('చ', '|'), ('ట', '|'), ('కొ', '|'), ('రి', '|'), ('కె', '|'), ('నో', 'U'), ('గా', 'U'), ('క', '|'), ('చె', 'U'), ('య్యె', 'U'), ('త్త', '|'), ('గూ', 'U'), ('డ', '|'), ('ద', '|'), ('ను', '|'), ('చు', '|'), ('చె', 'U'), ('ప్పు', '|'), ('కొ', '|'), ('ను', '|'), ('నా', 'U'), ('టి', '|'), ('య', '|'), ('ణు', '|'), ('కు', '|'), ('వ', '|'), ('చె', '|'), ('లు', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>అభ్యంగనస్నానమైన పిమ్మట శికా- । కుళము సెల్లా నొంటికొంగు గట్టి
 పైటచెరుంగు గుబ్బలచుట్టు తెర యిచ్చి । సాంబ్రాణిధూపవాసనలు నించి
@@ -2271,63 +2100,57 @@
 తడి యార్చుచున్న నప్పుడు వెన్కగాను ద- । గ్గరవచ్చి చెణకిన తిరిగి చూచి</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('భ్యం', 'U'), ('గ', '|'), ('న', 'U'), ('స్నా', 'U'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('పి', 'U'), ('మ్మ', '|'), ('ట', '|'), ('శి', '|'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('సె', 'U'), ('ల్లా', 'U'), ('నొం', 'U'), ('టి', '|'), ('కొం', 'U'), ('గు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('పై', 'U'), ('ట', '|'), ('చె', '|'), ('రుం', 'U'), ('గు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('చు', 'U'), ('ట్టు', '|'), ('తె', '|'), ('ర', '|'), ('యి', 'U'), ('చ్చి', '|'), ('సాం', 'U'), ('బ్రా', 'U'), ('ణి', '|'), ('ధూ', 'U'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('న', '|'), ('లు', '|'), ('నిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('రెం', 'U'), ('డ', '|'), ('పొ', '|'), ('డ', '|'), ('ల', '|'), ('పె', 'U'), ('న్నె', '|'), ('రు', '|'), ('ల', '|'), ('చి', 'U'), ('క్కె', '|'), ('డ', '|'), ('లిం', 'U'), ('చు', '|'), ('చు', '|'), ('ను', '|'), ('యా', 'U'), ('మ', '|'), ('రి', '|'), ('క', '|'), ('హ', '|'), ('వు', '|'), ('సు', '|'), ('గ', '|'), ('ను', '|'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('త', '|'), ('డి', '|'), ('యా', 'U'), ('ర్చు', '|'), ('చు', 'U'), ('న్న', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వె', 'U'), ('న్క', '|'), ('గా', 'U'), ('ను', '|'), ('ద', 'U'), ('గ్గ', '|'), ('ర', '|'), ('వ', 'U'), ('చ్చి', '|'), ('చె', '|'), ('ణ', '|'), ('కి', '|'), ('న', '|'), ('తి', '|'), ('రి', '|'), ('గి', '|'), ('చూ', 'U'), ('చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>యౌర బాగాయ నిదియేటి యాగడంబు- । లనుచు కోపించి వెంటనే నెనరు గాంచి
 స్త్రీల నిటుజూడరాదన్న చెలిమి దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('యౌ', 'U'), ('ర', '|'), ('బా', 'U'), ('గా', 'U'), ('య', '|'), ('ని', '|'), ('ది', '|'), ('యే', 'U'), ('టి', '|'), ('యా', 'U'), ('గ', '|'), ('డం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('చు', '|'), ('కో', 'U'), ('పిం', 'U'), ('చి', '|'), ('వెం', 'U'), ('ట', '|'), ('నే', 'U'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('గాం', 'U'), ('చి', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('ని', '|'), ('టు', '|'), ('జూ', 'U'), ('డ', '|'), ('రా', 'U'), ('ద', 'U'), ('న్న', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>తాళి గట్టని చిన్నితనమున నొకనాడు । చేడియలను గూడి యాడుచుండి
 నను జూచి బావ వచ్చెనటంచు బాజుబం- । దుల క్రిందిచెండ్లంది దుముకులాడ
@@ -2335,63 +2158,57 @@
 మొలకమెరుంగుచన్నులు నాభి చెక్కులు । గళమును పచ్చవిల్కానినగరు</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('ళి', '|'), ('గ', 'U'), ('ట్ట', '|'), ('ని', '|'), ('చి', 'U'), ('న్ని', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('నొ', '|'), ('క', '|'), ('నా', 'U'), ('డు', '|'), ('చే', 'U'), ('డి', '|'), ('య', '|'), ('ల', '|'), ('ను', '|'), ('గూ', 'U'), ('డి', '|'), ('యా', 'U'), ('డు', '|'), ('చుం', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('బా', 'U'), ('వ', '|'), ('వ', 'U'), ('చ్చె', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('బా', 'U'), ('జు', '|'), ('బం', 'U'), ('దు', '|'), ('ల', 'U'), ('క్రిం', 'U'), ('ది', '|'), ('చెం', 'U'), ('డ్లం', 'U'), ('ది', '|'), ('దు', '|'), ('ము', '|'), ('కు', '|'), ('లా', 'U'), ('డ', '|'), ('ప', '|'), ('ర', '|'), ('గు', '|'), ('న', '|'), ('నా', 'U'), ('దు', '|'), ('పై', 'U'), ('బ', '|'), ('డి', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చి', '|'), ('న', '|'), ('యె', '|'), ('న', '|'), ('లే', 'U'), ('ని', '|'), ('క', '|'), ('డు', '|'), ('వే', 'U'), ('డ్క', '|'), ('నె', 'U'), ('త్తి', '|'), ('లే', 'U'), ('త', '|'), ('మొ', '|'), ('ల', '|'), ('క', '|'), ('మె', '|'), ('రుం', 'U'), ('గు', '|'), ('చ', 'U'), ('న్ను', '|'), ('లు', '|'), ('నా', 'U'), ('భి', '|'), ('చె', 'U'), ('క్కు', '|'), ('లు', '|'), ('గ', '|'), ('ళ', '|'), ('ము', '|'), ('ను', '|'), ('ప', 'U'), ('చ్చ', '|'), ('వి', 'U'), ('ల్కా', 'U'), ('ని', '|'), ('న', '|'), ('గ', '|'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>ముద్దుబెట్టుక నవ్వుచు ముదిత నీవు । నెవరి పెండ్లాడెదవటంచు నేను బలుక
 నిన్నె యని మీసములు మీటు నీటు దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('ము', 'U'), ('ద్దు', '|'), ('బె', 'U'), ('ట్టు', '|'), ('క', '|'), ('న', 'U'), ('వ్వు', '|'), ('చు', '|'), ('ము', '|'), ('ది', '|'), ('త', '|'), ('నీ', 'U'), ('వు', '|'), ('నె', '|'), ('వ', '|'), ('రి', '|'), ('పెం', 'U'), ('డ్లా', 'U'), ('డె', '|'), ('ద', '|'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('నే', 'U'), ('ను', '|'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('ని', 'U'), ('న్నె', '|'), ('య', '|'), ('ని', '|'), ('మీ', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('మీ', 'U'), ('టు', '|'), ('నీ', 'U'), ('టు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>సీమపన్నీరు పై జిలుకుచు హొయలుగా । భారీ బురాన్పురీ పాగ జుట్టి
 తేటచెంగావి సుతీనా తమాను ధ- । రించి వేడుక జమాయించి యగరు
@@ -2399,63 +2216,57 @@
 ఖుజు వహవా జల్దు ఘోడా యనుచు సఫె- । దారంగు తేజి మోదమున నెక్కి</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('సీ', 'U'), ('మ', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('పై', 'U'), ('జి', '|'), ('లు', '|'), ('కు', '|'), ('చు', '|'), ('హొ', '|'), ('య', '|'), ('లు', '|'), ('గా', 'U'), ('భా', 'U'), ('రీ', 'U'), ('బు', '|'), ('రా', 'U'), ('న్పు', '|'), ('రీ', 'U'), ('పా', 'U'), ('గ', '|'), ('జు', 'U'), ('ట్టి', '|'), ('తే', 'U'), ('ట', '|'), ('చెం', 'U'), ('గా', 'U'), ('వి', '|'), ('సు', '|'), ('తీ', 'U'), ('నా', 'U'), ('త', '|'), ('మా', 'U'), ('ను', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('జ', '|'), ('మా', 'U'), ('యిం', 'U'), ('చి', '|'), ('య', '|'), ('గ', '|'), ('రు', '|'), ('య', 'U'), ('త్త', '|'), ('రు', '|'), ('కొ', '|'), ('న', '|'), ('వే', 'U'), ('ళ్ల', '|'), ('నం', 'U'), ('టి', '|'), ('సు', '|'), ('నా', 'U'), ('యిం', 'U'), ('చి', '|'), ('గీ', 'U'), ('రి', '|'), ('జో', 'U'), ('డై', 'U'), ('న', '|'), ('యం', 'U'), ('గీ', 'U'), ('లు', '|'), ('దొ', '|'), ('డి', '|'), ('గి', '|'), ('ఖు', '|'), ('జు', '|'), ('వ', '|'), ('హ', '|'), ('వా', 'U'), ('జ', 'U'), ('ల్దు', '|'), ('ఘో', 'U'), ('డా', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('స', '|'), ('ఫె', '|'), ('దా', 'U'), ('రం', 'U'), ('గు', '|'), ('తే', 'U'), ('జి', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('నె', 'U'), ('క్కి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>స్వారి వెడలంగ మహలెక్కి దారి జూచి । యతివచే నంపినట్టి కాకితములోని
 మాటల పసందు తలచితే మనసు నిలుప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('స్వా', 'U'), ('రి', '|'), ('వె', '|'), ('డ', '|'), ('లం', 'U'), ('గ', '|'), ('మ', '|'), ('హ', '|'), ('లె', 'U'), ('క్కి', '|'), ('దా', 'U'), ('రి', '|'), ('జూ', 'U'), ('చి', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('చే', 'U'), ('నం', 'U'), ('పి', '|'), ('న', 'U'), ('ట్టి', '|'), ('కా', 'U'), ('కి', '|'), ('త', '|'), ('ము', '|'), ('లో', 'U'), ('ని', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('ప', '|'), ('సం', 'U'), ('దు', '|'), ('త', '|'), ('ల', '|'), ('చి', '|'), ('తే', 'U'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>కలహంసలకు జీతముల లెక్కజూచి లో- । బాకి చెల్ల గని జాపాలొసంగి
 జాతైన మంచిపచ్చలరంగు గల చిల్క- । పంజులెల్లను బరాబరులు జేసి
@@ -2463,63 +2274,57 @@
 గొరువంక యెలగోలు నిరువంకలను గూడి । రమ్మంచు తేంట్లచే కమ్మలిచ్చి</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('హం', 'U'), ('స', '|'), ('ల', '|'), ('కు', '|'), ('జీ', 'U'), ('త', '|'), ('ము', '|'), ('ల', '|'), ('లె', 'U'), ('క్క', '|'), ('జూ', 'U'), ('చి', '|'), ('లో', 'U'), ('బా', 'U'), ('కి', '|'), ('చె', 'U'), ('ల్ల', '|'), ('గ', '|'), ('ని', '|'), ('జా', 'U'), ('పా', 'U'), ('లొ', '|'), ('సం', 'U'), ('గి', '|'), ('జా', 'U'), ('తై', 'U'), ('న', '|'), ('మం', 'U'), ('చి', '|'), ('ప', 'U'), ('చ్చ', '|'), ('ల', '|'), ('రం', 'U'), ('గు', '|'), ('గ', '|'), ('ల', '|'), ('చి', 'U'), ('ల్క', '|'), ('పం', 'U'), ('జు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('బ', '|'), ('రా', 'U'), ('బ', '|'), ('రు', '|'), ('లు', '|'), ('జే', 'U'), ('సి', '|'), ('గం', 'U'), ('డు', '|'), ('కో', 'U'), ('కి', '|'), ('ల', '|'), ('మూ', 'U'), ('క', '|'), ('కై', 'U'), ('జీ', 'U'), ('త', '|'), ('ము', '|'), ('ల', '|'), ('వా', 'U'), ('రి', '|'), ('కం', 'U'), ('ద', '|'), ('మౌ', 'U'), ('న', '|'), ('న', '|'), ('ల', '|'), ('తో', 'U'), ('విం', 'U'), ('దొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('గొ', '|'), ('రు', '|'), ('వం', 'U'), ('క', '|'), ('యె', '|'), ('ల', '|'), ('గో', 'U'), ('లు', '|'), ('ని', '|'), ('రు', '|'), ('వం', 'U'), ('క', '|'), ('ల', '|'), ('ను', '|'), ('గూ', 'U'), ('డి', '|'), ('ర', 'U'), ('మ్మం', 'U'), ('చు', '|'), ('తేం', 'U'), ('ట్ల', '|'), ('చే', 'U'), ('క', 'U'), ('మ్మ', '|'), ('లి', 'U'), ('చ్చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>దండుకు సమీరణుని సరదారు జేసి । వేయుమని చెప్పి పూపొదవెలిగుడారు
 దర్పకుండను పాదుషా దాడి వెడలి । వచ్చె గదె రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('దం', 'U'), ('డు', '|'), ('కు', '|'), ('స', '|'), ('మీ', 'U'), ('ర', '|'), ('ణు', '|'), ('ని', '|'), ('స', '|'), ('ర', '|'), ('దా', 'U'), ('రు', '|'), ('జే', 'U'), ('సి', '|'), ('వే', 'U'), ('యు', '|'), ('మ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పి', '|'), ('పూ', 'U'), ('పొ', '|'), ('ద', '|'), ('వె', '|'), ('లి', '|'), ('గు', '|'), ('డా', 'U'), ('రు', '|'), ('ద', 'U'), ('ర్ప', '|'), ('కుం', 'U'), ('డ', '|'), ('ను', '|'), ('పా', 'U'), ('దు', '|'), ('షా', 'U'), ('దా', 'U'), ('డి', '|'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('వ', 'U'), ('చ్చె', '|'), ('గ', '|'), ('దె', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>జాతిజంగాలి బనాతి కనాతి స- । రాతిలోదటను సూరతువులందు
 మొఖమల్ ఖురాళ మిమ్ముగ నఖాసీచుట్టు । తగుటుచీనీలి ముత్యముల చేర్లు
@@ -2527,63 +2332,57 @@
 నమరుషమేనాకృశములు కమానువా- । కిళ్లు నీలంపు మేకీలు కొణిగె</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('జా', 'U'), ('తి', '|'), ('జం', 'U'), ('గా', 'U'), ('లి', '|'), ('బ', '|'), ('నా', 'U'), ('తి', '|'), ('క', '|'), ('నా', 'U'), ('తి', '|'), ('స', '|'), ('రా', 'U'), ('తి', '|'), ('లో', 'U'), ('ద', '|'), ('ట', '|'), ('ను', '|'), ('సూ', 'U'), ('ర', '|'), ('తు', '|'), ('వు', '|'), ('లం', 'U'), ('దు', '|'), ('మొ', '|'), ('ఖ', '|'), ('మల్', 'U'), ('ఖు', '|'), ('రా', 'U'), ('ళ', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గ', '|'), ('న', '|'), ('ఖా', 'U'), ('సీ', 'U'), ('చు', 'U'), ('ట్టు', '|'), ('త', '|'), ('గు', '|'), ('టు', '|'), ('చీ', 'U'), ('నీ', 'U'), ('లి', '|'), ('ము', 'U'), ('త్య', '|'), ('ము', '|'), ('ల', '|'), ('చే', 'U'), ('ర్లు', '|'), ('ప', '|'), ('గ', '|'), ('డం', 'U'), ('పు', '|'), ('చే', 'U'), ('వ', '|'), ('కం', 'U'), ('బా', 'U'), ('లు', '|'), ('ము', 'U'), ('ప్పి', '|'), ('రి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('ప', 'U'), ('గ్గ', '|'), ('ముల్', 'U'), ('స', '|'), ('రి', '|'), ('గె', '|'), ('హొం', 'U'), ('బ', 'U'), ('ట్టు', '|'), ('కు', 'U'), ('ట్టు', '|'), ('న', '|'), ('మ', '|'), ('రు', '|'), ('ష', '|'), ('మే', 'U'), ('నా', 'U'), ('కృ', '|'), ('శ', '|'), ('ము', '|'), ('లు', '|'), ('క', '|'), ('మా', 'U'), ('ను', '|'), ('వా', 'U'), ('కి', 'U'), ('ళ్లు', '|'), ('నీ', 'U'), ('లం', 'U'), ('పు', '|'), ('మే', 'U'), ('కీ', 'U'), ('లు', '|'), ('కొ', '|'), ('ణి', '|'), ('గె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>తీరు నద్దాలబారు గుడారులోన । చదరు సేయంగ పదాలచాటునుండి
 వేడ్క నను జూచునాటి నీ వితమునెన్న । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('తీ', 'U'), ('రు', '|'), ('న', 'U'), ('ద్దా', 'U'), ('ల', '|'), ('బా', 'U'), ('రు', '|'), ('గు', '|'), ('డా', 'U'), ('రు', '|'), ('లో', 'U'), ('న', '|'), ('చ', '|'), ('ద', '|'), ('రు', '|'), ('సే', 'U'), ('యం', 'U'), ('గ', '|'), ('ప', '|'), ('దా', 'U'), ('ల', '|'), ('చా', 'U'), ('టు', '|'), ('నుం', 'U'), ('డి', '|'), ('వే', 'U'), ('డ్క', '|'), ('న', '|'), ('ను', '|'), ('జూ', 'U'), ('చు', '|'), ('నా', 'U'), ('టి', '|'), ('నీ', 'U'), ('వి', '|'), ('త', '|'), ('ము', '|'), ('నె', 'U'), ('న్న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>దండుకూచీ జేసి లెండని సరదార్ల । మదిలోన బల్కుషామతున జెంది
 ఖూబైన బాసు జిలీబుతేజీలు హ- । రోలుతయారి కతారాలు దిర్చి
@@ -2591,63 +2390,57 @@
 కేళికాగృహమువాకిట నిల్చి వూరికి । బోయొత్తు మనిన తాంబూలమొసగి</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('దం', 'U'), ('డు', '|'), ('కూ', 'U'), ('చీ', 'U'), ('జే', 'U'), ('సి', '|'), ('లెం', 'U'), ('డ', '|'), ('ని', '|'), ('స', '|'), ('ర', '|'), ('దా', 'U'), ('ర్ల', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('న', '|'), ('బ', 'U'), ('ల్కు', '|'), ('షా', 'U'), ('మ', '|'), ('తు', '|'), ('న', '|'), ('జెం', 'U'), ('ది', '|'), ('ఖూ', 'U'), ('బై', 'U'), ('న', '|'), ('బా', 'U'), ('సు', '|'), ('జి', '|'), ('లీ', 'U'), ('బు', '|'), ('తే', 'U'), ('జీ', 'U'), ('లు', '|'), ('హ', '|'), ('రో', 'U'), ('లు', '|'), ('త', '|'), ('యా', 'U'), ('రి', '|'), ('క', '|'), ('తా', 'U'), ('రా', 'U'), ('లు', '|'), ('ది', 'U'), ('ర్చి', '|'), ('జ', 'U'), ('ల్తా', 'U'), ('రు', '|'), ('భా', 'U'), ('రి', '|'), ('పో', 'U'), ('ష', '|'), ('కు', '|'), ('వే', 'U'), ('సి', '|'), ('మం', 'U'), ('ద', '|'), ('ట', '|'), ('క', '|'), ('టి', '|'), ('కె', '|'), ('ముల్', 'U'), ('బ', '|'), ('హు', '|'), ('ప', '|'), ('రా', 'U'), ('క', '|'), ('ను', '|'), ('చు', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('కే', 'U'), ('ళి', '|'), ('కా', 'U'), ('గృ', '|'), ('హ', '|'), ('ము', '|'), ('వా', 'U'), ('కి', '|'), ('ట', '|'), ('ని', 'U'), ('ల్చి', '|'), ('వూ', 'U'), ('రి', '|'), ('కి', '|'), ('బో', 'U'), ('యొ', 'U'), ('త్తు', '|'), ('మ', '|'), ('ని', '|'), ('న', '|'), ('తాం', 'U'), ('బూ', 'U'), ('ల', '|'), ('మొ', '|'), ('స', '|'), ('గి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>మొగము వంచుక నరతల్పు సగము మూసి । నిలిచి యేమందునని వ్రేల నేలగీరు-
 కొనుచు నను బోయిరమ్మని నెనరు దలుప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('మొ', '|'), ('గ', '|'), ('ము', '|'), ('వం', 'U'), ('చు', '|'), ('క', '|'), ('న', '|'), ('ర', '|'), ('త', 'U'), ('ల్పు', '|'), ('స', '|'), ('గ', '|'), ('ము', '|'), ('మూ', 'U'), ('సి', '|'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('యే', 'U'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('ని', 'U'), ('వ్రే', 'U'), ('ల', '|'), ('నే', 'U'), ('ల', '|'), ('గీ', 'U'), ('రు', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('న', '|'), ('ను', '|'), ('బో', 'U'), ('యి', '|'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('ద', '|'), ('లు', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>జాఫల్ రసంబు గుర్షాపూలు ద్రాక్షలు । గంగులుఖందు చొక్కపు జవాజి
 జాఫరాయగరు పచ్చాకూదుబత్తీలు । పునుగుపన్నీరు గంబురు గులాబి
@@ -2655,63 +2448,57 @@
 కురువేరు నరగ జాల్ కొత్తకైరావళ్లు । దవనంపు చెండ్లు దంతంపు గుండ్లు</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('జా', 'U'), ('ఫల్', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('గు', 'U'), ('ర్షా', 'U'), ('పూ', 'U'), ('లు', '|'), ('ద్రా', 'U'), ('క్ష', '|'), ('లు', '|'), ('గం', 'U'), ('గు', '|'), ('లు', '|'), ('ఖం', 'U'), ('దు', '|'), ('చొ', 'U'), ('క్క', '|'), ('పు', '|'), ('జ', '|'), ('వా', 'U'), ('జి', '|'), ('జా', 'U'), ('ఫ', '|'), ('రా', 'U'), ('య', '|'), ('గ', '|'), ('రు', '|'), ('ప', 'U'), ('చ్చా', 'U'), ('కూ', 'U'), ('దు', '|'), ('బ', 'U'), ('త్తీ', 'U'), ('లు', '|'), ('పు', '|'), ('ను', '|'), ('గు', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('గం', 'U'), ('బు', '|'), ('రు', '|'), ('గు', '|'), ('లా', 'U'), ('బి', '|'), ('య', 'U'), ('త్త', '|'), ('రు', '|'), ('సీ', 'U'), ('మ', '|'), ('రా', 'U'), ('యం', 'U'), ('చ', '|'), ('లు', '|'), ('తె', 'U'), ('ల్లా', 'U'), ('కు', '|'), ('మ', '|'), ('డు', '|'), ('పుల్', 'U'), ('వ', '|'), ('ళా', 'U'), ('గ్ర', '|'), ('ముల్', 'U'), ('మ', 'U'), ('ల్లె', '|'), ('పూ', 'U'), ('లు', '|'), ('కు', '|'), ('రు', '|'), ('వే', 'U'), ('రు', '|'), ('న', '|'), ('ర', '|'), ('గ', '|'), ('జాల్', 'U'), ('కొ', 'U'), ('త్త', '|'), ('కై', 'U'), ('రా', 'U'), ('వ', 'U'), ('ళ్లు', '|'), ('ద', '|'), ('వ', '|'), ('నం', 'U'), ('పు', '|'), ('చెం', 'U'), ('డ్లు', '|'), ('దం', 'U'), ('తం', 'U'), ('పు', '|'), ('గుం', 'U'), ('డ్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>మా కచేరికి నజరు లీ మాడ్కి బనిచి । నమ్మినానని వ్రాసుకున్నట్టి జాబు
 నకలు జూచిన మరుని గాసికి సహింప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('క', '|'), ('చే', 'U'), ('రి', '|'), ('కి', '|'), ('న', '|'), ('జ', '|'), ('రు', '|'), ('లీ', 'U'), ('మా', 'U'), ('డ్కి', '|'), ('బ', '|'), ('ని', '|'), ('చి', '|'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('న', '|'), ('ని', 'U'), ('వ్రా', 'U'), ('సు', '|'), ('కు', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('జా', 'U'), ('బు', '|'), ('న', '|'), ('క', '|'), ('లు', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('గా', 'U'), ('సి', '|'), ('కి', '|'), ('స', '|'), ('హిం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>ఆదికేళికను మై యలసియుండిన తీరు । గని నేస్తమగు జోడుగరితలెల్ల
 సతి రేయు పతిసేయు రతివింతలేమన । నేలాగొ నదియు నేనెరుగ పాన్పు
@@ -2719,63 +2506,57 @@
 సిగ్గుచే పయ్యెదచెరగు దివ్వెకు తెర- । చాటు సేయగ హారచయమునందు</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ది', '|'), ('కే', 'U'), ('ళి', '|'), ('క', '|'), ('ను', '|'), ('మై', 'U'), ('య', '|'), ('ల', '|'), ('సి', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('తీ', 'U'), ('రు', '|'), ('గ', '|'), ('ని', '|'), ('నే', 'U'), ('స్త', '|'), ('మ', '|'), ('గు', '|'), ('జో', 'U'), ('డు', '|'), ('గ', '|'), ('రి', '|'), ('త', '|'), ('లె', 'U'), ('ల్ల', '|'), ('స', '|'), ('తి', '|'), ('రే', 'U'), ('యు', '|'), ('ప', '|'), ('తి', '|'), ('సే', 'U'), ('యు', '|'), ('ర', '|'), ('తి', '|'), ('విం', 'U'), ('త', '|'), ('లే', 'U'), ('మ', '|'), ('న', '|'), ('నే', 'U'), ('లా', 'U'), ('గొ', '|'), ('న', '|'), ('ది', '|'), ('యు', '|'), ('నే', 'U'), ('నె', '|'), ('రు', '|'), ('గ', '|'), ('పా', 'U'), ('న్పు', '|'), ('చే', 'U'), ('ర', '|'), ('బో', 'U'), ('వ', '|'), ('గ', '|'), ('ను', '|'), ('కు', 'U'), ('చ్చి', '|'), ('లి', '|'), ('బ', 'U'), ('ట్టు', '|'), ('తీ', 'U'), ('సి', '|'), ('న', '|'), ('వ', '|'), ('డి', '|'), ('ని', '|'), ('నీ', 'U'), ('వి', '|'), ('క', '|'), ('ము', '|'), ('డి', '|'), ('వ', '|'), ('ద', '|'), ('లె', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('సి', 'U'), ('గ్గు', '|'), ('చే', 'U'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('చె', '|'), ('ర', '|'), ('గు', '|'), ('ది', 'U'), ('వ్వె', '|'), ('కు', '|'), ('తె', '|'), ('ర', '|'), ('చా', 'U'), ('టు', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('హా', 'U'), ('ర', '|'), ('చ', '|'), ('య', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>గలుగు రతనాలు దివ్వెలుగా వెలుంగ । యతివ భయమున కనులు మూసితిని యవల-
 నేమి గనుగొననని పల్కు ప్రేమ దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('లు', '|'), ('గు', '|'), ('ర', '|'), ('త', '|'), ('నా', 'U'), ('లు', '|'), ('ది', 'U'), ('వ్వె', '|'), ('లు', '|'), ('గా', 'U'), ('వె', '|'), ('లుం', 'U'), ('గ', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('భ', '|'), ('య', '|'), ('ము', '|'), ('న', '|'), ('క', '|'), ('ను', '|'), ('లు', '|'), ('మూ', 'U'), ('సి', '|'), ('తి', '|'), ('ని', '|'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('నే', 'U'), ('మి', '|'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('న', '|'), ('న', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కు', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>అర్ధోదయంబగు నరుణబింబద్యుతి । యెరుపైన మంచిదామరపురేకు
 పద్మరాగము పచ్చిపవడంపుతీగె ల- । త్తుక కోపు ముదిరిన దొండపండు
@@ -2783,63 +2564,57 @@
 దాడిమకుసుమకాంతి దాసానపుష్పంబు । లేబాకమగు నింగిలీకవరఖు-</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ర్ధో', 'U'), ('ద', '|'), ('యం', 'U'), ('బ', '|'), ('గు', '|'), ('న', '|'), ('రు', '|'), ('ణ', '|'), ('బిం', 'U'), ('బ', 'U'), ('ద్యు', '|'), ('తి', '|'), ('యె', '|'), ('రు', '|'), ('పై', 'U'), ('న', '|'), ('మం', 'U'), ('చి', '|'), ('దా', 'U'), ('మ', '|'), ('ర', '|'), ('పు', '|'), ('రే', 'U'), ('కు', '|'), ('ప', 'U'), ('ద్మ', '|'), ('రా', 'U'), ('గ', '|'), ('ము', '|'), ('ప', 'U'), ('చ్చి', '|'), ('ప', '|'), ('వ', '|'), ('డం', 'U'), ('పు', '|'), ('తీ', 'U'), ('గె', '|'), ('ల', 'U'), ('త్తు', '|'), ('క', '|'), ('కో', 'U'), ('పు', '|'), ('ము', '|'), ('ది', '|'), ('రి', '|'), ('న', '|'), ('దొం', 'U'), ('డ', '|'), ('పం', 'U'), ('డు', '|'), ('కుం', 'U'), ('కు', '|'), ('మ', '|'), ('వ', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('మం', 'U'), ('కె', '|'), ('న', '|'), ('పు', '|'), ('వు', '|'), ('చా', 'U'), ('య', '|'), ('సిం', 'U'), ('దూ', 'U'), ('ర', '|'), ('వ', 'U'), ('న్నె', '|'), ('చి', '|'), ('గు', '|'), ('రు', '|'), ('టా', 'U'), ('కు', '|'), ('దా', 'U'), ('డి', '|'), ('మ', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('కాం', 'U'), ('తి', '|'), ('దా', 'U'), ('సా', 'U'), ('న', '|'), ('పు', 'U'), ('ష్పం', 'U'), ('బు', '|'), ('లే', 'U'), ('బా', 'U'), ('క', '|'), ('మ', '|'), ('గు', '|'), ('నిం', 'U'), ('గి', '|'), ('లీ', 'U'), ('క', '|'), ('వ', '|'), ('ర', '|'), ('ఖు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>లేవి జూచిన దాని కెమ్మోవిఠీవి । సాటియగు డాలుగాన ముజ్జగములోన
 పరవశముతోన వలరాజుపనులు మాన । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('లే', 'U'), ('వి', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('ఠీ', 'U'), ('వి', '|'), ('సా', 'U'), ('టి', '|'), ('య', '|'), ('గు', '|'), ('డా', 'U'), ('లు', '|'), ('గా', 'U'), ('న', '|'), ('ము', 'U'), ('జ్జ', '|'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('ప', '|'), ('ర', '|'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('తో', 'U'), ('న', '|'), ('వ', '|'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('ప', '|'), ('ను', '|'), ('లు', '|'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>జుంటితేనియపాలు జున్ను శర్కర మంచి- । రసదాడియమృతంబు కుసుమరసము
 ఖర్జూరములు పానకము ద్రాక్ష మాగిన । కమలాఫలము లిక్షుఖండములును
@@ -2847,63 +2622,57 @@
 తియ్యమామిడిపండ్ల దీసిన సారంబు । నతిరసంబులు మనోహరచయంబు-</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('జుం', 'U'), ('టి', '|'), ('తే', 'U'), ('ని', '|'), ('య', '|'), ('పా', 'U'), ('లు', '|'), ('జు', 'U'), ('న్ను', '|'), ('శ', 'U'), ('ర్క', '|'), ('ర', '|'), ('మం', 'U'), ('చి', '|'), ('ర', '|'), ('స', '|'), ('దా', 'U'), ('డి', '|'), ('య', '|'), ('మృ', '|'), ('తం', 'U'), ('బు', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('ఖ', 'U'), ('ర్జూ', 'U'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('పా', 'U'), ('న', '|'), ('క', '|'), ('ము', '|'), ('ద్రా', 'U'), ('క్ష', '|'), ('మా', 'U'), ('గి', '|'), ('న', '|'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('లి', 'U'), ('క్షు', '|'), ('ఖం', 'U'), ('డ', '|'), ('ము', '|'), ('లు', '|'), ('ను', '|'), ('నా', 'U'), ('రి', '|'), ('కే', 'U'), ('ళ', '|'), ('జ', '|'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('వ', '|'), ('నీ', 'U'), ('త', '|'), ('మ', 'U'), ('న్క', '|'), ('గు', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('న్న', '|'), ('ము', '|'), ('ను', '|'), ('వే', 'U'), ('రు', '|'), ('ప', '|'), ('న', '|'), ('స', '|'), ('తొ', '|'), ('న', '|'), ('లు', '|'), ('తి', 'U'), ('య్య', '|'), ('మా', 'U'), ('మి', '|'), ('డి', '|'), ('పం', 'U'), ('డ్ల', '|'), ('దీ', 'U'), ('సి', '|'), ('న', '|'), ('సా', 'U'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('తి', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('లు', '|'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('చ', '|'), ('యం', 'U'), ('బు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>లెన్ని జూచినగాని యా వన్నెలాడి । యధరబింబసమానమౌ మధురమొకటి
 గాన నా చానపైని నా కరుణ మాన । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('లె', 'U'), ('న్ని', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('యా', 'U'), ('వ', 'U'), ('న్నె', '|'), ('లా', 'U'), ('డి', '|'), ('య', '|'), ('ధ', '|'), ('ర', '|'), ('బిం', 'U'), ('బ', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('మౌ', 'U'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('మొ', '|'), ('క', '|'), ('టి', '|'), ('గా', 'U'), ('న', '|'), ('నా', 'U'), ('చా', 'U'), ('న', '|'), ('పై', 'U'), ('ని', '|'), ('నా', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>నారాయణవనంబు చీరకుచ్చంచులు । మీగాళ్ల కెలమి కైలాగు లెసగ
 సన్నగీరుల గులాల్ వన్నెరైక మెరుంగు । గుబ్బల పొగరానికుట్లు పిగల
@@ -2911,63 +2680,57 @@
 పొలుపొందు పావడంబులు మొల్కపాంజేలు । గిలగిలమని పదంబులను మొరయ</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('చీ', 'U'), ('ర', '|'), ('కు', 'U'), ('చ్చం', 'U'), ('చు', '|'), ('లు', '|'), ('మీ', 'U'), ('గా', 'U'), ('ళ్ల', '|'), ('కె', '|'), ('ల', '|'), ('మి', '|'), ('కై', 'U'), ('లా', 'U'), ('గు', '|'), ('లె', '|'), ('స', '|'), ('గ', '|'), ('స', 'U'), ('న్న', '|'), ('గీ', 'U'), ('రు', '|'), ('ల', '|'), ('గు', '|'), ('లాల్', 'U'), ('వ', 'U'), ('న్నె', '|'), ('రై', 'U'), ('క', '|'), ('మె', '|'), ('రుం', 'U'), ('గు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('పొ', '|'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('కు', 'U'), ('ట్లు', '|'), ('పి', '|'), ('గ', '|'), ('ల', '|'), ('క', 'U'), ('మ్మ', '|'), ('ని', '|'), ('ద', '|'), ('వ', '|'), ('నం', 'U'), ('పు', '|'), ('రె', 'U'), ('మ్మ', '|'), ('ల', '|'), ('జ', '|'), ('డ', '|'), ('పై', 'U'), ('డి', '|'), ('కు', 'U'), ('చ్చు', '|'), ('లు', '|'), ('పి', '|'), ('రు', '|'), ('దు', '|'), ('ల', '|'), ('గు', '|'), ('ని', '|'), ('సి', '|'), ('యా', 'U'), ('డ', '|'), ('పొ', '|'), ('లు', '|'), ('పొం', 'U'), ('దు', '|'), ('పా', 'U'), ('వ', '|'), ('డం', 'U'), ('బు', '|'), ('లు', '|'), ('మొ', 'U'), ('ల్క', '|'), ('పాం', 'U'), ('జే', 'U'), ('లు', '|'), ('గి', '|'), ('ల', '|'), ('గి', '|'), ('ల', '|'), ('మ', '|'), ('ని', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('మొ', '|'), ('ర', '|'), ('య', '|')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>నవ్వుకుంచును కార్వేటినగరమునను । వీధినెదురైన సిగ్గున వీపుగప్పి
 త్రోవ దొలగిననాటి నీ భావమెన్న । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('వ్వు', '|'), ('కుం', 'U'), ('చు', '|'), ('ను', '|'), ('కా', 'U'), ('ర్వే', 'U'), ('టి', '|'), ('న', '|'), ('గ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('వీ', 'U'), ('ధి', '|'), ('నె', '|'), ('దు', '|'), ('రై', 'U'), ('న', '|'), ('సి', 'U'), ('గ్గు', '|'), ('న', '|'), ('వీ', 'U'), ('పు', '|'), ('గ', 'U'), ('ప్పి', 'U'), ('త్రో', 'U'), ('వ', '|'), ('దొ', '|'), ('ల', '|'), ('గి', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('నీ', 'U'), ('భా', 'U'), ('వ', '|'), ('మె', 'U'), ('న్న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>పసమించు నెమ్మేన పసమాని మెత్తని । పాదంబులకు జొత్తు పట్టెలుంచి
 తళ్కుచెక్కిళ్ల చేతుల మంచిగంధమ్ము । బూసి కుంకుమ నడ్డబొట్టు వెట్టి
@@ -2975,63 +2738,57 @@
 చెరగు మాసె నికేమి సేతు నంచని భర్త- । బొంకి నను ప్రేమతో నుపవని</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('స', '|'), ('మిం', 'U'), ('చు', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('న', '|'), ('ప', '|'), ('స', '|'), ('మా', 'U'), ('ని', '|'), ('మె', 'U'), ('త్త', '|'), ('ని', '|'), ('పా', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('కు', '|'), ('జొ', 'U'), ('త్తు', '|'), ('ప', 'U'), ('ట్టె', '|'), ('లుం', 'U'), ('చి', '|'), ('త', 'U'), ('ళ్కు', '|'), ('చె', 'U'), ('క్కి', 'U'), ('ళ్ల', '|'), ('చే', 'U'), ('తు', '|'), ('ల', '|'), ('మం', 'U'), ('చి', '|'), ('గం', 'U'), ('ధ', 'U'), ('మ్ము', '|'), ('బూ', 'U'), ('సి', '|'), ('కుం', 'U'), ('కు', '|'), ('మ', '|'), ('న', 'U'), ('డ్డ', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('వె', 'U'), ('ట్టి', '|'), ('జా', 'U'), ('జి', '|'), ('పు', 'U'), ('వ్వు', '|'), ('ల', '|'), ('మం', 'U'), ('చి', '|'), ('జా', 'U'), ('రు', '|'), ('కొ', 'U'), ('ప్ప', '|'), ('మ', '|'), ('రిం', 'U'), ('చి', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('క', '|'), ('ను', '|'), ('సో', 'U'), ('గ', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('చె', '|'), ('ర', '|'), ('గు', '|'), ('మా', 'U'), ('సె', '|'), ('ని', '|'), ('కే', 'U'), ('మి', '|'), ('సే', 'U'), ('తు', '|'), ('నం', 'U'), ('చ', '|'), ('ని', '|'), ('భ', 'U'), ('ర్త', '|'), ('బొం', 'U'), ('కి', '|'), ('న', '|'), ('ను', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('తో', 'U'), ('ను', '|'), ('ప', '|'), ('వ', '|'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>కలువకొలనికి పడమటిగట్టు పొన్న- । గున్నలకు తోడితెమ్మని గురుతుజెప్పి
 కన్య నంపించునాటి సౌఖ్యంబు దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లు', '|'), ('వ', '|'), ('కొ', '|'), ('ల', '|'), ('ని', '|'), ('కి', '|'), ('ప', '|'), ('డ', '|'), ('మ', '|'), ('టి', '|'), ('గ', 'U'), ('ట్టు', '|'), ('పొ', 'U'), ('న్న', '|'), ('గు', 'U'), ('న్న', '|'), ('ల', '|'), ('కు', '|'), ('తో', 'U'), ('డి', '|'), ('తె', 'U'), ('మ్మ', '|'), ('ని', '|'), ('గు', '|'), ('రు', '|'), ('తు', '|'), ('జె', 'U'), ('ప్పి', '|'), ('క', 'U'), ('న్య', '|'), ('నం', 'U'), ('పిం', 'U'), ('చు', '|'), ('నా', 'U'), ('టి', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>తమ్మిమొగ్గలు పెద్దతలుపు పెన్గుబ్బలు । గజనిమ్మపండ్లు బంగారుగుండ్లు
 బరిణెకప్పులు పూలబంతులు మేల్‍రంగు । బూసిన బటువైన బొంగరాలు
@@ -3039,63 +2796,57 @@
 కొండలు యపరంజికుండలు రసగుండ్లు । కంచుగిన్నెలు భూమి గలుగునట్టి-</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('మ్మి', '|'), ('మొ', 'U'), ('గ్గ', '|'), ('లు', '|'), ('పె', 'U'), ('ద్ద', '|'), ('త', '|'), ('లు', '|'), ('పు', '|'), ('పె', 'U'), ('న్గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('గ', '|'), ('జ', '|'), ('ని', 'U'), ('మ్మ', '|'), ('పం', 'U'), ('డ్లు', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('గుం', 'U'), ('డ్లు', '|'), ('బ', '|'), ('రి', '|'), ('ణె', '|'), ('క', 'U'), ('ప్పు', '|'), ('లు', '|'), ('పూ', 'U'), ('ల', '|'), ('బం', 'U'), ('తు', '|'), ('లు', '|'), ('మే', 'U'), ('ల్రం', 'U'), ('గు', '|'), ('బూ', 'U'), ('సి', '|'), ('న', '|'), ('బ', '|'), ('టు', '|'), ('వై', 'U'), ('న', '|'), ('బొం', 'U'), ('గ', '|'), ('రా', 'U'), ('లు', '|'), ('క', '|'), ('రి', '|'), ('కుం', 'U'), ('భ', '|'), ('ము', '|'), ('లు', '|'), ('వీ', 'U'), ('ణె', '|'), ('కా', 'U'), ('య', '|'), ('లు', '|'), ('జ', 'U'), ('క్కు', '|'), ('వ', '|'), ('పి', 'U'), ('ట్ట', '|'), ('లు', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('చే', 'U'), ('పు', 'U'), ('ట్ట', '|'), ('చెం', 'U'), ('డ్లు', '|'), ('కొం', 'U'), ('డ', '|'), ('లు', '|'), ('య', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('కుం', 'U'), ('డ', '|'), ('లు', '|'), ('ర', '|'), ('స', '|'), ('గుం', 'U'), ('డ్లు', '|'), ('కం', 'U'), ('చు', '|'), ('గి', 'U'), ('న్నె', '|'), ('లు', '|'), ('భూ', 'U'), ('మి', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('న', 'U'), ('ట్టి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>వెన్ని చూచిన దాని పాలిండ్లతీరు । గాన త్రిజగాన చాన నీ యాన యెంత-
 కైన నేమాయ నా మందయానపైన । వలపునిక రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('వె', 'U'), ('న్ని', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('పా', 'U'), ('లిం', 'U'), ('డ్ల', '|'), ('తీ', 'U'), ('రు', '|'), ('గా', 'U'), ('న', 'U'), ('త్రి', '|'), ('జ', '|'), ('గా', 'U'), ('న', '|'), ('చా', 'U'), ('న', '|'), ('నీ', 'U'), ('యా', 'U'), ('న', '|'), ('యెం', 'U'), ('త', '|'), ('కై', 'U'), ('న', '|'), ('నే', 'U'), ('మా', 'U'), ('య', '|'), ('నా', 'U'), ('మం', 'U'), ('ద', '|'), ('యా', 'U'), ('న', '|'), ('పై', 'U'), ('న', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('ని', '|'), ('క', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>కారంజిలో నీతకాయల మోపాని । తేలెడు పచ్చని తెప్పపల్క
 పైకెంపు రాకోళ్లపట్టెమంచము దోమ- । తెరచుట్టు దివ్వెకందీలబారు
@@ -3103,63 +2854,57 @@
 దనరు కుంకుమపువ్వు తక్కెంబు కీలుబొ- । మ్మలు వేయు పంఖాల చలువగాడ్పు-</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('రం', 'U'), ('జి', '|'), ('లో', 'U'), ('నీ', 'U'), ('త', '|'), ('కా', 'U'), ('య', '|'), ('ల', '|'), ('మో', 'U'), ('పా', 'U'), ('ని', '|'), ('తే', 'U'), ('లె', '|'), ('డు', '|'), ('ప', 'U'), ('చ్చ', '|'), ('ని', '|'), ('తె', 'U'), ('ప్ప', '|'), ('ప', 'U'), ('ల్క', '|'), ('పై', 'U'), ('కెం', 'U'), ('పు', '|'), ('రా', 'U'), ('కో', 'U'), ('ళ్ల', '|'), ('ప', 'U'), ('ట్టె', '|'), ('మం', 'U'), ('చ', '|'), ('ము', '|'), ('దో', 'U'), ('మ', '|'), ('తె', '|'), ('ర', '|'), ('చు', 'U'), ('ట్టు', '|'), ('ది', 'U'), ('వ్వె', '|'), ('కం', 'U'), ('దీ', 'U'), ('ల', '|'), ('బా', 'U'), ('రు', '|'), ('తొ', '|'), ('డి', '|'), ('మ', '|'), ('తీ', 'U'), ('సి', '|'), ('న', '|'), ('రె', 'U'), ('క్క', '|'), ('వి', '|'), ('డి', '|'), ('మ', 'U'), ('ల్లె', '|'), ('పూ', 'U'), ('పా', 'U'), ('న్పు', '|'), ('ప', 'U'), ('చ్చా', 'U'), ('కు', '|'), ('దిం', 'U'), ('డ్లు', '|'), ('కో', 'U'), ('పై', 'U'), ('న', '|'), ('లో', 'U'), ('డు', '|'), ('ద', '|'), ('న', '|'), ('రు', '|'), ('కుం', 'U'), ('కు', '|'), ('మ', '|'), ('పు', 'U'), ('వ్వు', '|'), ('త', 'U'), ('క్కెం', 'U'), ('బు', '|'), ('కీ', 'U'), ('లు', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('లు', '|'), ('వే', 'U'), ('యు', '|'), ('పం', 'U'), ('ఖా', 'U'), ('ల', '|'), ('చ', '|'), ('లు', '|'), ('వ', '|'), ('గా', 'U'), ('డ్పు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>లెగయ వేసవినెల బవ్వళించియున్న । వచ్చి చెయ్యాని తేనెక్కి వత్తుననుచు
 బలికి నాతోడ కలసిన వగలనెన్న । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('లె', '|'), ('గ', '|'), ('య', '|'), ('వే', 'U'), ('స', '|'), ('వి', '|'), ('నె', '|'), ('ల', '|'), ('బ', 'U'), ('వ్వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('యు', 'U'), ('న్న', '|'), ('వ', 'U'), ('చ్చి', '|'), ('చె', 'U'), ('య్యా', 'U'), ('ని', '|'), ('తే', 'U'), ('నె', 'U'), ('క్కి', '|'), ('వ', 'U'), ('త్తు', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లి', '|'), ('కి', '|'), ('నా', 'U'), ('తో', 'U'), ('డ', '|'), ('క', '|'), ('ల', '|'), ('సి', '|'), ('న', '|'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('నె', 'U'), ('న్న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>జాతివజ్రాల బేసరి బులాకీనత్తు । నాసాగ్రమున దుంకి నాట్యమాడ
 జాజిబందులు నూగుపాటీలు కంకణ- । మ్ములు చేకటుల్ ఘలుఘలుమనంగ
@@ -3167,63 +2912,57 @@
 తలయంట వక్షోజములు గోర నే జీర । యలగి నే జెల్ల బాగాయనౌర</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('జా', 'U'), ('తి', '|'), ('వ', 'U'), ('జ్రా', 'U'), ('ల', '|'), ('బే', 'U'), ('స', '|'), ('రి', '|'), ('బు', '|'), ('లా', 'U'), ('కీ', 'U'), ('న', 'U'), ('త్తు', '|'), ('నా', 'U'), ('సా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('న', '|'), ('దుం', 'U'), ('కి', '|'), ('నా', 'U'), ('ట్య', '|'), ('మా', 'U'), ('డ', '|'), ('జా', 'U'), ('జి', '|'), ('బం', 'U'), ('దు', '|'), ('లు', '|'), ('నూ', 'U'), ('గు', '|'), ('పా', 'U'), ('టీ', 'U'), ('లు', '|'), ('కం', 'U'), ('క', '|'), ('ణ', 'U'), ('మ్ము', '|'), ('లు', '|'), ('చే', 'U'), ('క', '|'), ('టుల్', 'U'), ('ఘ', '|'), ('లు', '|'), ('ఘ', '|'), ('లు', '|'), ('మ', '|'), ('నం', 'U'), ('గ', '|'), ('జ', 'U'), ('ల్తా', 'U'), ('రు', '|'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('జా', 'U'), ('రి', '|'), ('ద', '|'), ('ళు', 'U'), ('క్క', '|'), ('ని', '|'), ('బా', 'U'), ('హు', '|'), ('మూ', 'U'), ('ల', 'U'), ('ద్యు', '|'), ('తుల్', 'U'), ('ప', '|'), ('రి', '|'), ('ఢ', '|'), ('వి', 'U'), ('ల్ల', '|'), ('త', '|'), ('ల', '|'), ('యం', 'U'), ('ట', '|'), ('వ', 'U'), ('క్షో', 'U'), ('జ', '|'), ('ము', '|'), ('లు', '|'), ('గో', 'U'), ('ర', '|'), ('నే', 'U'), ('జీ', 'U'), ('ర', '|'), ('య', '|'), ('ల', '|'), ('గి', '|'), ('నే', 'U'), ('జె', 'U'), ('ల్ల', '|'), ('బా', 'U'), ('గా', 'U'), ('య', '|'), ('నౌ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>సమయమెరుగని పనులివి సరసమగునె । పరులు గనుగొన్న నగరె మీ పనులటంచు
 కసరి నలుగుడునాటి చక్కన దలంప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('మ', '|'), ('య', '|'), ('మె', '|'), ('రు', '|'), ('గ', '|'), ('ని', '|'), ('ప', '|'), ('ను', '|'), ('లి', '|'), ('వి', '|'), ('స', '|'), ('ర', '|'), ('స', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('ప', '|'), ('రు', '|'), ('లు', '|'), ('గ', '|'), ('ను', '|'), ('గొ', 'U'), ('న్న', '|'), ('న', '|'), ('గ', '|'), ('రె', '|'), ('మీ', 'U'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('క', '|'), ('స', '|'), ('రి', '|'), ('న', '|'), ('లు', '|'), ('గు', '|'), ('డు', '|'), ('నా', 'U'), ('టి', '|'), ('చ', 'U'), ('క్క', '|'), ('న', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>సిగ దువ్వి సన్నసంపెగలు జుట్టెద తాళు- । డను నయోక్తుల నాదు వెనుకజేరి
 కూర్చుండి వెన్నున గుబ్బచన్మొనలాన । తెలసి నెమ్మోము నే తిరిగి చూడ
@@ -3231,63 +2970,57 @@
 కిలకిల నవ్వి చెక్కిలి దువ్వి మిము బోల । ననుమానపరులు లేరనుచు కురులు</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('సి', '|'), ('గ', '|'), ('దు', 'U'), ('వ్వి', '|'), ('స', 'U'), ('న్న', '|'), ('సం', 'U'), ('పె', '|'), ('గ', '|'), ('లు', '|'), ('జు', 'U'), ('ట్టె', '|'), ('ద', '|'), ('తా', 'U'), ('ళు', '|'), ('డ', '|'), ('ను', '|'), ('న', '|'), ('యో', 'U'), ('క్తు', '|'), ('ల', '|'), ('నా', 'U'), ('దు', '|'), ('వె', '|'), ('ను', '|'), ('క', '|'), ('జే', 'U'), ('రి', '|'), ('కూ', 'U'), ('ర్చుం', 'U'), ('డి', '|'), ('వె', 'U'), ('న్ను', '|'), ('న', '|'), ('గు', 'U'), ('బ్బ', '|'), ('చ', 'U'), ('న్మొ', '|'), ('న', '|'), ('లా', 'U'), ('న', '|'), ('తె', '|'), ('ల', '|'), ('సి', '|'), ('నె', 'U'), ('మ్మో', 'U'), ('ము', '|'), ('నే', 'U'), ('తి', '|'), ('రి', '|'), ('గి', '|'), ('చూ', 'U'), ('డ', '|'), ('న', '|'), ('ది', '|'), ('యే', 'U'), ('మి', '|'), ('యూ', 'U'), ('ర', '|'), ('క', '|'), ('య', '|'), ('టు', '|'), ('ల', '|'), ('జూ', 'U'), ('చె', '|'), ('ద', '|'), ('ర', '|'), ('న', '|'), ('యె', '|'), ('రు', '|'), ('క', '|'), ('లే', 'U'), ('వ', '|'), ('ను', '|'), ('కొం', 'U'), ('టి', '|'), ('వే', 'U'), ('మొ', '|'), ('య', '|'), ('ని', '|'), ('న', '|'), ('కి', '|'), ('ల', '|'), ('కి', '|'), ('ల', '|'), ('న', 'U'), ('వ్వి', '|'), ('చె', 'U'), ('క్కి', '|'), ('లి', '|'), ('దు', 'U'), ('వ్వి', '|'), ('మి', '|'), ('ము', '|'), ('బో', 'U'), ('ల', '|'), ('న', '|'), ('ను', '|'), ('మా', 'U'), ('న', '|'), ('ప', '|'), ('రు', '|'), ('లు', '|'), ('లే', 'U'), ('ర', '|'), ('ను', '|'), ('చు', '|'), ('కు', '|'), ('రు', '|'), ('లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>రవమెరుంగాని విరిసరుల్ సవరపరిచి । లెస్సనై యున్నదింక లేలెండనుచు
 నపుడు బల్కిన సొగసునెంతనుచు నోర్వ । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('వ', '|'), ('మె', '|'), ('రుం', 'U'), ('గా', 'U'), ('ని', '|'), ('వి', '|'), ('రి', '|'), ('స', '|'), ('రుల్', 'U'), ('స', '|'), ('వ', '|'), ('ర', '|'), ('ప', '|'), ('రి', '|'), ('చి', '|'), ('లె', 'U'), ('స్స', '|'), ('నై', 'U'), ('యు', 'U'), ('న్న', '|'), ('దిం', 'U'), ('క', '|'), ('లే', 'U'), ('లెం', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('న', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('నెం', 'U'), ('త', '|'), ('ను', '|'), ('చు', '|'), ('నో', 'U'), ('ర్వ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>కుటిలాత్మక నన్ను కౌగిట జేర్చవా యన । కుటిలత నీదు ముంగురుల గాదె
 కఠినమానస నీదు కలిమెంతరా యన । కఠినత నీదు చన్గవల గాదె
@@ -3295,63 +3028,57 @@
 మందస్వభావ యేమందుర యిక నన । మందత నీ యానమందు గాదె</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('టి', '|'), ('లా', 'U'), ('త్మ', '|'), ('క', '|'), ('న', 'U'), ('న్ను', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్చ', '|'), ('వా', 'U'), ('య', '|'), ('న', '|'), ('కు', '|'), ('టి', '|'), ('ల', '|'), ('త', '|'), ('నీ', 'U'), ('దు', '|'), ('ముం', 'U'), ('గు', '|'), ('రు', '|'), ('ల', '|'), ('గా', 'U'), ('దె', '|'), ('క', '|'), ('ఠి', '|'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('నీ', 'U'), ('దు', '|'), ('క', '|'), ('లి', '|'), ('మెం', 'U'), ('త', '|'), ('రా', 'U'), ('య', '|'), ('న', '|'), ('క', '|'), ('ఠి', '|'), ('న', '|'), ('త', '|'), ('నీ', 'U'), ('దు', '|'), ('చ', 'U'), ('న్గ', '|'), ('వ', '|'), ('ల', '|'), ('గా', 'U'), ('దె', '|'), ('చ', '|'), ('ప', '|'), ('ల', '|'), ('చి', 'U'), ('త్త', '|'), ('యి', '|'), ('దే', 'U'), ('టి', '|'), ('నె', '|'), ('ప', '|'), ('ము', '|'), ('రా', 'U'), ('య', '|'), ('న', '|'), ('చ', '|'), ('ప', '|'), ('ల', '|'), ('త', '|'), ('నీ', 'U'), ('దు', '|'), ('వా', 'U'), ('ల్చూ', 'U'), ('పు', '|'), ('లం', 'U'), ('దు', '|'), ('గా', 'U'), ('దె', '|'), ('మం', 'U'), ('ద', 'U'), ('స్వ', '|'), ('భా', 'U'), ('వ', '|'), ('యే', 'U'), ('మం', 'U'), ('దు', '|'), ('ర', '|'), ('యి', '|'), ('క', '|'), ('న', '|'), ('న', '|'), ('మం', 'U'), ('ద', '|'), ('త', '|'), ('నీ', 'U'), ('యా', 'U'), ('న', '|'), ('మం', 'U'), ('దు', '|'), ('గా', 'U'), ('దె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>యనుచు నాతోడ కందువ లాడుకొనుచు । నెన్నదగు శయ్య మనమున్న వితము
 తలచి చూచిన నెమ్మది తాళియుండ । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('నా', 'U'), ('తో', 'U'), ('డ', '|'), ('కం', 'U'), ('దు', '|'), ('వ', '|'), ('లా', 'U'), ('డు', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('నె', 'U'), ('న్న', '|'), ('ద', '|'), ('గు', '|'), ('శ', 'U'), ('య్య', '|'), ('మ', '|'), ('న', '|'), ('ము', 'U'), ('న్న', '|'), ('వి', '|'), ('త', '|'), ('ము', '|'), ('త', '|'), ('ల', '|'), ('చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('నె', 'U'), ('మ్మ', '|'), ('ది', '|'), ('తా', 'U'), ('ళి', '|'), ('యుం', 'U'), ('డ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>మేఘంబు చేజేత మెరయుచుండగ నిండు- । వృష్టి లేదని మిన్ను వెతుకనేల
 నమృతప్రవాహంబు కధికారమిచ్చిన । నరుచికై తాంబూల మడుగనేల
@@ -3359,63 +3086,57 @@
 పైదుర్గముల ఠాను బందిచేసిన క్రింది- । సీమకోసము మన్వి సేయనేల</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('మే', 'U'), ('ఘం', 'U'), ('బు', '|'), ('చే', 'U'), ('జే', 'U'), ('త', '|'), ('మె', '|'), ('ర', '|'), ('యు', '|'), ('చుం', 'U'), ('డ', '|'), ('గ', '|'), ('నిం', 'U'), ('డు', '|'), ('వృ', 'U'), ('ష్టి', '|'), ('లే', 'U'), ('ద', '|'), ('ని', '|'), ('మి', 'U'), ('న్ను', '|'), ('వె', '|'), ('తు', '|'), ('క', '|'), ('నే', 'U'), ('ల', '|'), ('న', '|'), ('మృ', '|'), ('త', 'U'), ('ప్ర', '|'), ('వా', 'U'), ('హం', 'U'), ('బు', '|'), ('క', '|'), ('ధి', '|'), ('కా', 'U'), ('ర', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', '|'), ('న', '|'), ('రు', '|'), ('చి', '|'), ('కై', 'U'), ('తాం', 'U'), ('బూ', 'U'), ('ల', '|'), ('మ', '|'), ('డు', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('ప', '|'), ('స', '|'), ('గం', 'U'), ('ద', '|'), ('మే', 'U'), ('ది', '|'), ('న', '|'), ('క', '|'), ('స', '|'), ('రి', '|'), ('తం', 'U'), ('చ', '|'), ('ను', '|'), ('వే', 'U'), ('ళ', '|'), ('లో', 'U'), ('డీ', 'U'), ('లు', '|'), ('తె', 'U'), ('మ్మ', '|'), ('ని', '|'), ('వే', 'U'), ('డ', '|'), ('నే', 'U'), ('ల', '|'), ('పై', 'U'), ('దు', 'U'), ('ర్గ', '|'), ('ము', '|'), ('ల', '|'), ('ఠా', 'U'), ('ను', '|'), ('బం', 'U'), ('ది', '|'), ('చే', 'U'), ('సి', '|'), ('న', 'U'), ('క్రిం', 'U'), ('ది', '|'), ('సీ', 'U'), ('మ', '|'), ('కో', 'U'), ('స', '|'), ('ము', '|'), ('మ', 'U'), ('న్వి', '|'), ('సే', 'U'), ('య', '|'), ('నే', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>యనుచు సతతము చతురత నెనసి కినిసి । పెనగి జెట్టీల లాగు సొంపొనర దనరు
 సరణి దలచిన మనసు విస్మయము దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('స', '|'), ('త', '|'), ('త', '|'), ('ము', '|'), ('చ', '|'), ('తు', '|'), ('ర', '|'), ('త', '|'), ('నె', '|'), ('న', '|'), ('సి', '|'), ('కి', '|'), ('ని', '|'), ('సి', '|'), ('పె', '|'), ('న', '|'), ('గి', '|'), ('జె', 'U'), ('ట్టీ', 'U'), ('ల', '|'), ('లా', 'U'), ('గు', '|'), ('సొం', 'U'), ('పొ', '|'), ('న', '|'), ('ర', '|'), ('ద', '|'), ('న', '|'), ('రు', '|'), ('స', '|'), ('ర', '|'), ('ణి', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('వి', 'U'), ('స్మ', '|'), ('య', '|'), ('ము', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>మనసెరుంగగ రాదు మాటనిల్కడ లేదు । వావివర్తన నహి వలపు సున్న
 కనువిచ్చి చూడరు చనువిచ్చి కూడరు । నేస్తంబు పూజ్యము నెనరు నాస్తి
@@ -3423,63 +3144,57 @@
 కపటంబు మానరు కడువేడ్క బూనరు । సత్యమన్నను వట్టు జాలి మట్టు</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('న', '|'), ('సె', '|'), ('రుం', 'U'), ('గ', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('మా', 'U'), ('ట', '|'), ('ని', 'U'), ('ల్క', '|'), ('డ', '|'), ('లే', 'U'), ('దు', '|'), ('వా', 'U'), ('వి', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('న', '|'), ('హి', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('సు', 'U'), ('న్న', '|'), ('క', '|'), ('ను', '|'), ('వి', 'U'), ('చ్చి', '|'), ('చూ', 'U'), ('డ', '|'), ('రు', '|'), ('చ', '|'), ('ను', '|'), ('వి', 'U'), ('చ్చి', '|'), ('కూ', 'U'), ('డ', '|'), ('రు', '|'), ('నే', 'U'), ('స్తం', 'U'), ('బు', '|'), ('పూ', 'U'), ('జ్య', '|'), ('ము', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('నా', 'U'), ('స్తి', '|'), ('మ', 'U'), ('ర్యా', 'U'), ('ద', '|'), ('లెం', 'U'), ('చ', '|'), ('రు', '|'), ('మ', 'U'), ('న్న', '|'), ('న', '|'), ('గాం', 'U'), ('చ', '|'), ('రు', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('చ', 'U'), ('క్క', '|'), ('న', '|'), ('లి', 'U'), ('ల్ల', '|'), ('గు', 'U'), ('ట్టు', '|'), ('క', 'U'), ('ల్ల', '|'), ('క', '|'), ('ప', '|'), ('టం', 'U'), ('బు', '|'), ('మా', 'U'), ('న', '|'), ('రు', '|'), ('క', '|'), ('డు', '|'), ('వే', 'U'), ('డ్క', '|'), ('బూ', 'U'), ('న', '|'), ('రు', '|'), ('స', 'U'), ('త్య', '|'), ('మ', 'U'), ('న్న', '|'), ('ను', '|'), ('వ', 'U'), ('ట్టు', '|'), ('జా', 'U'), ('లి', '|'), ('మ', 'U'), ('ట్టు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>సాహసము మెండు మిక్కిలి చలము నిండు । నంగిట విసంబు మున్నాల్కెనందు తియ్య-
 దనము గదె చేడియల మంచితనమ్ము । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('హ', '|'), ('స', '|'), ('ము', '|'), ('మెం', 'U'), ('డు', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('నిం', 'U'), ('డు', '|'), ('నం', 'U'), ('గి', '|'), ('ట', '|'), ('వి', '|'), ('సం', 'U'), ('బు', '|'), ('ము', 'U'), ('న్నా', 'U'), ('ల్కె', '|'), ('నం', 'U'), ('దు', '|'), ('తి', 'U'), ('య్య', '|'), ('ద', '|'), ('న', '|'), ('ము', '|'), ('గ', '|'), ('దె', '|'), ('చే', 'U'), ('డి', '|'), ('య', '|'), ('ల', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('న', 'U'), ('మ్ము', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>మొగమోటమెంచరు నగుబాటు గాంచరు । తరుచు వినయము ధూర్తతలు మెండు
 కలిమి వరింతురు చలము సాధింతురు । కంటికెంతటివారు గడన గారు
@@ -3487,63 +3202,57 @@
 వలపుల నొందింతు రలపు చెందింతురు । తాల్మి తక్కువ బేలతనము పెక్కు</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('మొ', '|'), ('గ', '|'), ('మో', 'U'), ('ట', '|'), ('మెం', 'U'), ('చ', '|'), ('రు', '|'), ('న', '|'), ('గు', '|'), ('బా', 'U'), ('టు', '|'), ('గాం', 'U'), ('చ', '|'), ('రు', '|'), ('త', '|'), ('రు', '|'), ('చు', '|'), ('వి', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('ధూ', 'U'), ('ర్త', '|'), ('త', '|'), ('లు', '|'), ('మెం', 'U'), ('డు', '|'), ('క', '|'), ('లి', '|'), ('మి', '|'), ('వ', '|'), ('రిం', 'U'), ('తు', '|'), ('రు', '|'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('సా', 'U'), ('ధిం', 'U'), ('తు', '|'), ('రు', '|'), ('కం', 'U'), ('టి', '|'), ('కెం', 'U'), ('త', '|'), ('టి', '|'), ('వా', 'U'), ('రు', '|'), ('గ', '|'), ('డ', '|'), ('న', '|'), ('గా', 'U'), ('రు', '|'), ('హా', 'U'), ('ని', '|'), ('నె', 'U'), ('న్న', '|'), ('గ', '|'), ('జూ', 'U'), ('డ', '|'), ('ర', '|'), ('ప', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('కో', 'U'), ('డ', '|'), ('రు', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('తృ', '|'), ('ణ', '|'), ('వ', 'U'), ('త్తు', '|'), ('భ', 'U'), ('క్తి', '|'), ('వే', 'U'), ('దు', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('ల', '|'), ('నొం', 'U'), ('దిం', 'U'), ('తు', '|'), ('ర', '|'), ('ల', '|'), ('పు', '|'), ('చెం', 'U'), ('దిం', 'U'), ('తు', '|'), ('రు', '|'), ('తా', 'U'), ('ల్మి', '|'), ('త', 'U'), ('క్కు', '|'), ('వ', '|'), ('బే', 'U'), ('ల', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('పె', 'U'), ('క్కు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>పాదములు ముట్టి గండదీపంబు తట్టి । చేత చెయి పెట్టి యాకున శిరము గొట్టి
 బాస చేసిన స్త్రీల భావంబు నమ్మ । వచ్చునటె రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('ము', 'U'), ('ట్టి', '|'), ('గం', 'U'), ('డ', '|'), ('దీ', 'U'), ('పం', 'U'), ('బు', '|'), ('త', 'U'), ('ట్టి', '|'), ('చే', 'U'), ('త', '|'), ('చె', '|'), ('యి', '|'), ('పె', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('కు', '|'), ('న', '|'), ('శి', '|'), ('ర', '|'), ('ము', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('బా', 'U'), ('స', '|'), ('చే', 'U'), ('సి', '|'), ('న', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', 'U'), ('మ్మ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('టె', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>కాలమృత్యువునైన కడకు ద్రోయగవచ్చు । పురవైరితోనైన బోరవచ్చు
 గరళంబు మెక్కి నిగ్రహశక్తి గనవచ్చు । నల దవానలము చేనంటవచ్చు
@@ -3551,63 +3260,57 @@
 తనువు గోయగ మది తాళి యుండగవచ్చు । పైమాట లొకలక్ష బలుకవచ్చు</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('ల', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('నై', 'U'), ('న', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('ద్రో', 'U'), ('య', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('పు', '|'), ('ర', '|'), ('వై', 'U'), ('రి', '|'), ('తో', 'U'), ('నై', 'U'), ('న', '|'), ('బో', 'U'), ('ర', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గ', '|'), ('ర', '|'), ('ళం', 'U'), ('బు', '|'), ('మె', 'U'), ('క్కి', '|'), ('ని', 'U'), ('గ్ర', '|'), ('హ', '|'), ('శ', 'U'), ('క్తి', '|'), ('గ', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ల', '|'), ('ద', '|'), ('వా', 'U'), ('న', '|'), ('ల', '|'), ('ము', '|'), ('చే', 'U'), ('నం', 'U'), ('ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('మ', '|'), ('స', '|'), ('కా', 'U'), ('డు', '|'), ('తా', 'U'), ('చు', '|'), ('ల', '|'), ('వి', '|'), ('స', '|'), ('రి', '|'), ('రా', 'U'), ('ళ్లి', '|'), ('డ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('కా', 'U'), ('లాం', 'U'), ('త', '|'), ('కు', '|'), ('ని', '|'), ('యా', 'U'), ('జ్ఞ', '|'), ('గ', '|'), ('డ', '|'), ('వ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('గో', 'U'), ('య', '|'), ('గ', '|'), ('మ', '|'), ('ది', '|'), ('తా', 'U'), ('ళి', '|'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('పై', 'U'), ('మా', 'U'), ('ట', '|'), ('లొ', '|'), ('క', '|'), ('ల', 'U'), ('క్ష', '|'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('వ', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>నబ్జభవునకునైన నయాన వారి । వలపు గొలిపెడి బెళుకుచూపులను వేడి
 తూపులకు వాసి చిత్తంబుతో సహింప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('బ్జ', '|'), ('భ', '|'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('నై', 'U'), ('న', '|'), ('న', '|'), ('యా', 'U'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('గొ', '|'), ('లి', '|'), ('పె', '|'), ('డి', '|'), ('బె', '|'), ('ళు', '|'), ('కు', '|'), ('చూ', 'U'), ('పు', '|'), ('ల', '|'), ('ను', '|'), ('వే', 'U'), ('డి', '|'), ('తూ', 'U'), ('పు', '|'), ('ల', '|'), ('కు', '|'), ('వా', 'U'), ('సి', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('తో', 'U'), ('స', '|'), ('హిం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>మగవారి మాట బూరగపంటి తేటద్ద- । మున గానబడు పైడిమూట దూర-
 మగు కొండనున్పు లేనుగదిన్న వెలగకా- । యలు మబ్బులో తళుక్కనెడి మెరుపు
@@ -3615,63 +3318,57 @@
 నీటిలో జాబిల్లినీడ లేగిన యెండ- । మావులు రతివేళ మరులు సతుల</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('మా', 'U'), ('ట', '|'), ('బూ', 'U'), ('ర', '|'), ('గ', '|'), ('పం', 'U'), ('టి', '|'), ('తే', 'U'), ('ట', 'U'), ('ద్ద', '|'), ('ము', '|'), ('న', '|'), ('గా', 'U'), ('న', '|'), ('బ', '|'), ('డు', '|'), ('పై', 'U'), ('డి', '|'), ('మూ', 'U'), ('ట', '|'), ('దూ', 'U'), ('ర', '|'), ('మ', '|'), ('గు', '|'), ('కొం', 'U'), ('డ', '|'), ('ను', 'U'), ('న్పు', '|'), ('లే', 'U'), ('ను', '|'), ('గ', '|'), ('ది', 'U'), ('న్న', '|'), ('వె', '|'), ('ల', '|'), ('గ', '|'), ('కా', 'U'), ('య', '|'), ('లు', '|'), ('మ', 'U'), ('బ్బు', '|'), ('లో', 'U'), ('త', '|'), ('ళు', 'U'), ('క్క', '|'), ('నె', '|'), ('డి', '|'), ('మె', '|'), ('రు', '|'), ('పు', '|'), ('మి', 'U'), ('ద్దె', '|'), ('పై', 'U'), ('ప', '|'), ('రు', '|'), ('గు', '|'), ('లు', '|'), ('మీ', 'U'), ('సా', 'U'), ('ల', '|'), ('పై', 'U'), ('తే', 'U'), ('నె', '|'), ('పొ', '|'), ('గ', '|'), ('ము', 'U'), ('ల్లె', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', '|'), ('పో', 'U'), ('ల్కె', '|'), ('తే', 'U'), ('ట', '|'), ('నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('జా', 'U'), ('బి', 'U'), ('ల్లి', '|'), ('నీ', 'U'), ('డ', '|'), ('లే', 'U'), ('గి', '|'), ('న', '|'), ('యెం', 'U'), ('డ', '|'), ('మా', 'U'), ('వు', '|'), ('లు', '|'), ('ర', '|'), ('తి', '|'), ('వే', 'U'), ('ళ', '|'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('స', '|'), ('తు', '|'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>వద్దనున్నంతసేపె యావలనె బోతె- । నెంత కఠినంబు పురుషుల హితము నమ్మ-
 వచ్చునా యని పల్కు నీ వగ దలంప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('వ', 'U'), ('ద్ద', '|'), ('ను', 'U'), ('న్నం', 'U'), ('త', '|'), ('సే', 'U'), ('పె', '|'), ('యా', 'U'), ('వ', '|'), ('ల', '|'), ('నె', '|'), ('బో', 'U'), ('తె', '|'), ('నెం', 'U'), ('త', '|'), ('క', '|'), ('ఠి', '|'), ('నం', 'U'), ('బు', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('ల', '|'), ('హి', '|'), ('త', '|'), ('ము', '|'), ('న', 'U'), ('మ్మ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('య', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కు', '|'), ('నీ', 'U'), ('వ', '|'), ('గ', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>హరిహరి పగవారికైన నావలెను మి- । క్కటమైన మోహంబు గలుగరాదు
 కలిగెబో బహుసలక్షణరూపవతులైన । చెలులతో నతిచెల్మి సేయరాదు
@@ -3679,63 +3376,57 @@
 జెందెబో మరుని గాసిక ధైర్యమున క్రింద- । బడి తాళలేనంచు బల్కరాదు</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('హ', '|'), ('రి', '|'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('కై', 'U'), ('న', '|'), ('నా', 'U'), ('వ', '|'), ('లె', '|'), ('ను', '|'), ('మి', 'U'), ('క్క', '|'), ('ట', '|'), ('మై', 'U'), ('న', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('క', '|'), ('లి', '|'), ('గె', '|'), ('బో', 'U'), ('బ', '|'), ('హు', '|'), ('స', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('రూ', 'U'), ('ప', '|'), ('వ', '|'), ('తు', '|'), ('లై', 'U'), ('న', '|'), ('చె', '|'), ('లు', '|'), ('ల', '|'), ('తో', 'U'), ('న', '|'), ('తి', '|'), ('చె', 'U'), ('ల్మి', '|'), ('సే', 'U'), ('య', '|'), ('రా', 'U'), ('దు', '|'), ('చే', 'U'), ('సె', '|'), ('బో', 'U'), ('నొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('చెం', 'U'), ('గ', '|'), ('ట', '|'), ('లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('నం', 'U'), ('దు', '|'), ('మీ', 'U'), ('ద', '|'), ('ట', '|'), ('జా', 'U'), ('ళి', '|'), ('జెం', 'U'), ('ద', '|'), ('రా', 'U'), ('దు', '|'), ('జెం', 'U'), ('దె', '|'), ('బో', 'U'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('గా', 'U'), ('సి', '|'), ('క', '|'), ('ధై', 'U'), ('ర్య', '|'), ('ము', '|'), ('న', 'U'), ('క్రిం', 'U'), ('ద', '|'), ('బ', '|'), ('డి', '|'), ('తా', 'U'), ('ళ', '|'), ('లే', 'U'), ('నం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్క', '|'), ('రా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>బల్కినట్లైతె మగవారి పరువు గాదు । పరువు కని యూరకుండిన మరుపు రాదు
 మరిచెదనటన్న యింక నీ మహిమలెన్న । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('బ', 'U'), ('ల్కి', '|'), ('న', 'U'), ('ట్లై', 'U'), ('తె', '|'), ('మ', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('ప', '|'), ('రు', '|'), ('వు', '|'), ('గా', 'U'), ('దు', '|'), ('ప', '|'), ('రు', '|'), ('వు', '|'), ('క', '|'), ('ని', '|'), ('యూ', 'U'), ('ర', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('మ', '|'), ('రు', '|'), ('పు', '|'), ('రా', 'U'), ('దు', '|'), ('మ', '|'), ('రి', '|'), ('చె', '|'), ('ద', '|'), ('న', '|'), ('ట', 'U'), ('న్న', '|'), ('యిం', 'U'), ('క', '|'), ('నీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('లె', 'U'), ('న్న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>వనజాస్య నీదు పావడనైన గానైతి- । నరసి పెందొడలపై నొరయుచుందు
 శుకవాణి నీదు కంచుకమైన గానైతి । నుదుట గుబ్బలమీద గదిసియుందు
@@ -3743,63 +3434,57 @@
 మదిరాక్షి నీకు పయ్యెదనైన గానైతి । కడువేడ్క మేనెల్ల గప్పియుందు</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('న', '|'), ('జా', 'U'), ('స్య', '|'), ('నీ', 'U'), ('దు', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('నై', 'U'), ('న', '|'), ('గా', 'U'), ('నై', 'U'), ('తి', '|'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('పెం', 'U'), ('దొ', '|'), ('డ', '|'), ('ల', '|'), ('పై', 'U'), ('నొ', '|'), ('ర', '|'), ('యు', '|'), ('చుం', 'U'), ('దు', '|'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('నీ', 'U'), ('దు', '|'), ('కం', 'U'), ('చు', '|'), ('క', '|'), ('మై', 'U'), ('న', '|'), ('గా', 'U'), ('నై', 'U'), ('తి', '|'), ('ను', '|'), ('దు', '|'), ('ట', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('గ', '|'), ('ది', '|'), ('సి', '|'), ('యుం', 'U'), ('దు', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('నీ', 'U'), ('న', 'U'), ('త్తు', '|'), ('ము', 'U'), ('త్య', '|'), ('ము', '|'), ('నై', 'U'), ('న', '|'), ('గా', 'U'), ('నై', 'U'), ('తి', '|'), ('న', '|'), ('ను', '|'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('మో', 'U'), ('వి', '|'), ('యా', 'U'), ('ను', '|'), ('చుం', 'U'), ('దు', '|'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('కు', '|'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('నై', 'U'), ('న', '|'), ('గా', 'U'), ('నై', 'U'), ('తి', '|'), ('క', '|'), ('డు', '|'), ('వే', 'U'), ('డ్క', '|'), ('మే', 'U'), ('నె', 'U'), ('ల్ల', '|'), ('గ', 'U'), ('ప్పి', '|'), ('యుం', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
         <is>
           <t>పాతకుండగు ధాత యీ పగిది బురుష- । జన్మముగ జేసె వ్యర్థపు చలము బూని
 వసుధ నిటువలె నే మొగవారికైన । వలదిటులు రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('త', '|'), ('కుం', 'U'), ('డ', '|'), ('గు', '|'), ('ధా', 'U'), ('త', '|'), ('యీ', 'U'), ('ప', '|'), ('గి', '|'), ('ది', '|'), ('బు', '|'), ('రు', '|'), ('ష', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('గ', '|'), ('జే', 'U'), ('సె', 'U'), ('వ్య', 'U'), ('ర్థ', '|'), ('పు', '|'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('బూ', 'U'), ('ని', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('ని', '|'), ('టు', '|'), ('వ', '|'), ('లె', '|'), ('నే', 'U'), ('మొ', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('కై', 'U'), ('న', '|'), ('వ', '|'), ('ల', '|'), ('ది', '|'), ('టు', '|'), ('లు', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>కమలారి కృష్ణపాడ్యమిరేయి రాగ తూ- । ర్పున నాకసము బర్వు పోలికనగ
 నమర వసంతకాలమునందు వికసించు । తీగెపన్నీరుపూదీప్తి యనగ
@@ -3807,63 +3492,57 @@
 మదనుని రాణి సీమంతవీధిని నంటి । వగగాంచు సిందూరవర్ణమనగ</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('మ', '|'), ('లా', 'U'), ('రి', '|'), ('కృ', 'U'), ('ష్ణ', '|'), ('పా', 'U'), ('డ్య', '|'), ('మి', '|'), ('రే', 'U'), ('యి', '|'), ('రా', 'U'), ('గ', '|'), ('తూ', 'U'), ('ర్పు', '|'), ('న', '|'), ('నా', 'U'), ('క', '|'), ('స', '|'), ('ము', '|'), ('బ', 'U'), ('ర్వు', '|'), ('పో', 'U'), ('లి', '|'), ('క', '|'), ('న', '|'), ('గ', '|'), ('న', '|'), ('మ', '|'), ('ర', '|'), ('వ', '|'), ('సం', 'U'), ('త', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('వి', '|'), ('క', '|'), ('సిం', 'U'), ('చు', '|'), ('తీ', 'U'), ('గె', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('పూ', 'U'), ('దీ', 'U'), ('ప్తి', '|'), ('య', '|'), ('న', '|'), ('గ', '|'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('హ', '|'), ('ను', '|'), ('న', '|'), ('కు', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('లు', '|'), ('వే', 'U'), ('యు', '|'), ('ను', '|'), ('డా', 'U'), ('యి', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('చెం', 'U'), ('గా', 'U'), ('వి', '|'), ('భా', 'U'), ('తి', '|'), ('య', '|'), ('న', '|'), ('గ', '|'), ('మ', '|'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('రా', 'U'), ('ణి', '|'), ('సీ', 'U'), ('మం', 'U'), ('త', '|'), ('వీ', 'U'), ('ధి', '|'), ('ని', '|'), ('నం', 'U'), ('టి', '|'), ('వ', '|'), ('గ', '|'), ('గాం', 'U'), ('చు', '|'), ('సిం', 'U'), ('దూ', 'U'), ('ర', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('మ', '|'), ('న', '|'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
         <is>
           <t>కుందనపుపళ్లెమున తోటకూరవిత్తు- । లెండ నెరపిన పై పిల్లలేడి పదము-
 నిడిన గతి దోచు నీ మరునిల్లు దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('కుం', 'U'), ('ద', '|'), ('న', '|'), ('పు', '|'), ('ప', 'U'), ('ళ్లె', '|'), ('ము', '|'), ('న', '|'), ('తో', 'U'), ('ట', '|'), ('కూ', 'U'), ('ర', '|'), ('వి', 'U'), ('త్తు', '|'), ('లెం', 'U'), ('డ', '|'), ('నె', '|'), ('ర', '|'), ('పి', '|'), ('న', '|'), ('పై', 'U'), ('పి', 'U'), ('ల్ల', '|'), ('లే', 'U'), ('డి', '|'), ('ప', '|'), ('ద', '|'), ('ము', '|'), ('ని', '|'), ('డి', '|'), ('న', '|'), ('గ', '|'), ('తి', '|'), ('దో', 'U'), ('చు', '|'), ('నీ', 'U'), ('మ', '|'), ('రు', '|'), ('ని', 'U'), ('ల్లు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
         <is>
           <t>ధనువు చేబూని చివ్వున వంచి లాగి ప- । ట్టిన దోచు మొగ్గ వాలిన విధంబు
 దండెంబులకు రొమ్ముతట్టి మ్రొగ్గగ దోచు । ధేనుకాబంధంబు పూను కరణి
@@ -3871,63 +3550,57 @@
 మేలౌ కడాని లోడీలు ద్రిప్పగ దోచు । పడతి నీ యుదుటు పెందొడల సొగసు</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ను', '|'), ('వు', '|'), ('చే', 'U'), ('బూ', 'U'), ('ని', '|'), ('చి', 'U'), ('వ్వు', '|'), ('న', '|'), ('వం', 'U'), ('చి', '|'), ('లా', 'U'), ('గి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('దో', 'U'), ('చు', '|'), ('మొ', 'U'), ('గ్గ', '|'), ('వా', 'U'), ('లి', '|'), ('న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('దం', 'U'), ('డెం', 'U'), ('బు', '|'), ('ల', '|'), ('కు', '|'), ('రొ', 'U'), ('మ్ము', '|'), ('త', 'U'), ('ట్టి', '|'), ('మ్రొ', 'U'), ('గ్గ', '|'), ('గ', '|'), ('దో', 'U'), ('చు', '|'), ('ధే', 'U'), ('ను', '|'), ('కా', 'U'), ('బం', 'U'), ('ధం', 'U'), ('బు', '|'), ('పూ', 'U'), ('ను', '|'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('బి', '|'), ('రు', '|'), ('దు', '|'), ('జె', 'U'), ('ట్టీ', 'U'), ('ల', '|'), ('తో', 'U'), ('పె', '|'), ('న', '|'), ('గొ', '|'), ('ను', '|'), ('త', '|'), ('రి', '|'), ('దో', 'U'), ('చు', '|'), ('ను', '|'), ('ర', '|'), ('గ', '|'), ('బం', 'U'), ('ధ', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('చు', 'U'), ('న్న', '|'), ('ప', '|'), ('గి', '|'), ('ది', '|'), ('మే', 'U'), ('లౌ', 'U'), ('క', '|'), ('డా', 'U'), ('ని', '|'), ('లో', 'U'), ('డీ', 'U'), ('లు', '|'), ('ద్రి', 'U'), ('ప్ప', '|'), ('గ', '|'), ('దో', 'U'), ('చు', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('నీ', 'U'), ('యు', '|'), ('దు', '|'), ('టు', '|'), ('పెం', 'U'), ('దొ', '|'), ('డ', '|'), ('ల', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
         <is>
           <t>కలికి నీ తీరు కన్నుల గట్టినట్టు । గానబడుచుండు వలరాజుగరడి కెనయ
 నున్ను మించిన వనిత నేనెందు గందు । వసుధనిక రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లి', '|'), ('కి', '|'), ('నీ', 'U'), ('తీ', 'U'), ('రు', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్టు', '|'), ('గా', 'U'), ('న', '|'), ('బ', '|'), ('డు', '|'), ('చుం', 'U'), ('డు', '|'), ('వ', '|'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('గ', '|'), ('ర', '|'), ('డి', '|'), ('కె', '|'), ('న', '|'), ('య', '|'), ('ను', 'U'), ('న్ను', '|'), ('మిం', 'U'), ('చి', '|'), ('న', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('నే', 'U'), ('నెం', 'U'), ('దు', '|'), ('గం', 'U'), ('దు', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('ని', '|'), ('క', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
         <is>
           <t>సన్నపు వల్వతో జతనున్న మరునింట । నికటంబు పొడగన్న నీటుదోచు
 భుజియించి యమ్మెతాంబూలంబు సేయుచో । నరచూలుగానున్న హౌసు దోచు
@@ -3935,63 +3608,57 @@
 నొకవేళ కోపగించుక నత్తు నటుదీయు- । చో నెలబాలింత సొగసు దోచు</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('న్న', '|'), ('పు', '|'), ('వ', 'U'), ('ల్వ', '|'), ('తో', 'U'), ('జ', '|'), ('త', '|'), ('ను', 'U'), ('న్న', '|'), ('మ', '|'), ('రు', '|'), ('నిం', 'U'), ('ట', '|'), ('ని', '|'), ('క', '|'), ('టం', 'U'), ('బు', '|'), ('పొ', '|'), ('డ', '|'), ('గ', 'U'), ('న్న', '|'), ('నీ', 'U'), ('టు', '|'), ('దో', 'U'), ('చు', '|'), ('భు', '|'), ('జి', '|'), ('యిం', 'U'), ('చి', '|'), ('య', 'U'), ('మ్మె', '|'), ('తాం', 'U'), ('బూ', 'U'), ('లం', 'U'), ('బు', '|'), ('సే', 'U'), ('యు', '|'), ('చో', 'U'), ('న', '|'), ('ర', '|'), ('చూ', 'U'), ('లు', '|'), ('గా', 'U'), ('ను', 'U'), ('న్న', '|'), ('హౌ', 'U'), ('సు', '|'), ('దో', 'U'), ('చు', '|'), ('ర', '|'), ('తి', '|'), ('రా', 'U'), ('జ', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('మీ', 'U'), ('ర', '|'), ('నె', '|'), ('న', '|'), ('యు', '|'), ('చో', 'U'), ('న', '|'), ('ల', '|'), ('రం', 'U'), ('భ', '|'), ('యె', 'U'), ('క్కు', '|'), ('వే', 'U'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('దో', 'U'), ('చు', '|'), ('నొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('కో', 'U'), ('ప', '|'), ('గిం', 'U'), ('చు', '|'), ('క', '|'), ('న', 'U'), ('త్తు', '|'), ('న', '|'), ('టు', '|'), ('దీ', 'U'), ('యు', '|'), ('చో', 'U'), ('నె', '|'), ('ల', '|'), ('బా', 'U'), ('లిం', 'U'), ('త', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('దో', 'U'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
         <is>
           <t>బోటి శతకోటిలోన నీ సాటియగు వ- । ధూటి యే మేటి వెతుక ముమ్మాటికైన
 నేటి మోహంబు నొక్కరితోటి దెలుప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>[('బో', 'U'), ('టి', '|'), ('శ', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('లో', 'U'), ('న', '|'), ('నీ', 'U'), ('సా', 'U'), ('టి', '|'), ('య', '|'), ('గు', '|'), ('వ', '|'), ('ధూ', 'U'), ('టి', '|'), ('యే', 'U'), ('మే', 'U'), ('టి', '|'), ('వె', '|'), ('తు', '|'), ('క', '|'), ('ము', 'U'), ('మ్మా', 'U'), ('టి', '|'), ('కై', 'U'), ('న', '|'), ('నే', 'U'), ('టి', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('నొ', 'U'), ('క్క', '|'), ('రి', '|'), ('తో', 'U'), ('టి', '|'), ('దె', '|'), ('లు', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
         <is>
           <t>పూవిల్తుడొక పచ్చిబోయవానికి తోడు । మలయానిలుడు పరమాతతాయి
 తొగరేడనే గురుద్రోహి వెన్నెలగాయ । గండుకోవిల చెట్టునుండి కూయ
@@ -3999,63 +3666,57 @@
 మొదటనే కొదమతుమ్మెద వేరువిత్తాయె । గోర్వంక కాపురాల్ గుత్తసేయ</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
           <t>[('పూ', 'U'), ('వి', 'U'), ('ల్తు', '|'), ('డొ', '|'), ('క', '|'), ('ప', 'U'), ('చ్చి', '|'), ('బో', 'U'), ('య', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('తో', 'U'), ('డు', '|'), ('మ', '|'), ('ల', '|'), ('యా', 'U'), ('ని', '|'), ('లు', '|'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('త', '|'), ('తా', 'U'), ('యి', '|'), ('తొ', '|'), ('గ', '|'), ('రే', 'U'), ('డ', '|'), ('నే', 'U'), ('గు', '|'), ('రు', '|'), ('ద్రో', 'U'), ('హి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('గా', 'U'), ('య', '|'), ('గం', 'U'), ('డు', '|'), ('కో', 'U'), ('వి', '|'), ('ల', '|'), ('చె', 'U'), ('ట్టు', '|'), ('నుం', 'U'), ('డి', '|'), ('కూ', 'U'), ('య', '|'), ('చే', 'U'), ('జే', 'U'), ('త', '|'), ('నె', 'U'), ('త్తి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('చి', 'U'), ('ల్క', '|'), ('ప', '|'), ('గ', '|'), ('దా', 'U'), ('యె', 'U'), ('గ్రు', 'U'), ('క్క', '|'), ('ద్రి', 'U'), ('ప్ప', '|'), ('దె', '|'), ('దా', 'U'), ('ని', '|'), ('గొం', 'U'), ('తు', '|'), ('కో', 'U'), ('య', '|'), ('మొ', '|'), ('ద', '|'), ('ట', '|'), ('నే', 'U'), ('కొ', '|'), ('ద', '|'), ('మ', '|'), ('తు', 'U'), ('మ్మె', '|'), ('ద', '|'), ('వే', 'U'), ('రు', '|'), ('వి', 'U'), ('త్తా', 'U'), ('యె', '|'), ('గో', 'U'), ('ర్వం', 'U'), ('క', '|'), ('కా', 'U'), ('పు', '|'), ('రాల్', 'U'), ('గు', 'U'), ('త్త', '|'), ('సే', 'U'), ('య', '|')]</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
         <is>
           <t>నేరుపడె బ్రహ్మ తగినట్టులేర్పరించి । వసుధ నిర్మించె నావంటివానికొరకు
 నిన్ను జూడక నాకిక నిమిషమోర్వ । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('రు', '|'), ('ప', '|'), ('డె', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('త', '|'), ('గి', '|'), ('న', 'U'), ('ట్టు', '|'), ('లే', 'U'), ('ర్ప', '|'), ('రిం', 'U'), ('చి', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('ని', '|'), ('ర్మిం', 'U'), ('చె', '|'), ('నా', 'U'), ('వం', 'U'), ('టి', '|'), ('వా', 'U'), ('ని', '|'), ('కొ', '|'), ('ర', '|'), ('కు', '|'), ('ని', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('డ', '|'), ('క', '|'), ('నా', 'U'), ('కి', '|'), ('క', '|'), ('ని', '|'), ('మి', '|'), ('ష', '|'), ('మో', 'U'), ('ర్వ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
         <is>
           <t>పొలయల్కచే నొత్తిగిలి పవ్వళించిన । చెయిదీసి కుచముల జేర్చుకొందు-
 వదిసైచకను ప్రక్క కదలి హూహూ యన । కదిసి పైకొన బిగ్గ గౌగిలింతు-
@@ -4063,63 +3724,57 @@
 వా తీరు జూచి యేమనకూరకుండిన । పూమొగ్గతో బిగ్గపోటులిడుదు-</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>[('పొ', '|'), ('ల', '|'), ('య', 'U'), ('ల్క', '|'), ('చే', 'U'), ('నొ', 'U'), ('త్తి', '|'), ('గి', '|'), ('లి', '|'), ('ప', 'U'), ('వ్వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('న', '|'), ('చె', '|'), ('యి', '|'), ('దీ', 'U'), ('సి', '|'), ('కు', '|'), ('చ', '|'), ('ము', '|'), ('ల', '|'), ('జే', 'U'), ('ర్చు', '|'), ('కొం', 'U'), ('దు', '|'), ('వ', '|'), ('ది', '|'), ('సై', 'U'), ('చ', '|'), ('క', '|'), ('ను', 'U'), ('ప్ర', 'U'), ('క్క', '|'), ('క', '|'), ('ద', '|'), ('లి', '|'), ('హూ', 'U'), ('హూ', 'U'), ('య', '|'), ('న', '|'), ('క', '|'), ('ది', '|'), ('సి', '|'), ('పై', 'U'), ('కొ', '|'), ('న', '|'), ('బి', 'U'), ('గ్గ', '|'), ('గౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('తు', '|'), ('వ', '|'), ('వ', '|'), ('ల', '|'), ('పో', 'U'), ('పో', 'U'), ('వె', '|'), ('పొ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('రె', 'U'), ('మ్మి', '|'), ('క', '|'), ('స', '|'), ('రి', '|'), ('న', '|'), ('న', 'U'), ('వ్వు', '|'), ('చే', 'U'), ('సు', '|'), ('క', '|'), ('మో', 'U'), ('వి', '|'), ('నా', 'U'), ('న', '|'), ('వ', 'U'), ('త్తు', '|'), ('వా', 'U'), ('తీ', 'U'), ('రు', '|'), ('జూ', 'U'), ('చి', '|'), ('యే', 'U'), ('మ', '|'), ('న', '|'), ('కూ', 'U'), ('ర', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('పూ', 'U'), ('మొ', 'U'), ('గ్గ', '|'), ('తో', 'U'), ('బి', 'U'), ('గ్గ', '|'), ('పో', 'U'), ('టు', '|'), ('లి', '|'), ('డు', '|'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
         <is>
           <t>వంతకు చలింపకున్న గిల్గింత సేతు- । వపుడు నే నవ్వ వెండి ప్రొద్ద్దయెనందు-
 వా దినమురేయిసొగసెన్న నజునకైన । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
           <t>[('వం', 'U'), ('త', '|'), ('కు', '|'), ('చ', '|'), ('లిం', 'U'), ('ప', '|'), ('కు', 'U'), ('న్న', '|'), ('గి', 'U'), ('ల్గిం', 'U'), ('త', '|'), ('సే', 'U'), ('తు', '|'), ('వ', '|'), ('పు', '|'), ('డు', '|'), ('నే', 'U'), ('న', 'U'), ('వ్వ', '|'), ('వెం', 'U'), ('డి', 'U'), ('ప్రొ', 'U'), ('ద్ద్ద', '|'), ('యె', '|'), ('నం', 'U'), ('దు', '|'), ('వా', 'U'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('రే', 'U'), ('యి', '|'), ('సొ', '|'), ('గ', '|'), ('సె', 'U'), ('న్న', '|'), ('న', '|'), ('జు', '|'), ('న', '|'), ('కై', 'U'), ('న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
         <is>
           <t>కడనున్నతరి నెరుంగక చేరవచ్చిన । దూరదూరమటంచు తొలగుచొందు-
 వాయెడ హేలి నేడాడితో యన సిగ్గు- । నవునంచు చిరునవ్వు నవ్వుచుందు-
@@ -4127,63 +3782,57 @@
 వతిమోహమున చమత్కృతి బల్క తెలుసుక । కొదువపనుల దీక్షకూడదందు-</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డ', '|'), ('ను', 'U'), ('న్న', '|'), ('త', '|'), ('రి', '|'), ('నె', '|'), ('రుం', 'U'), ('గ', '|'), ('క', '|'), ('చే', 'U'), ('ర', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('దూ', 'U'), ('ర', '|'), ('దూ', 'U'), ('ర', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('తొ', '|'), ('ల', '|'), ('గు', '|'), ('చొం', 'U'), ('దు', '|'), ('వా', 'U'), ('యె', '|'), ('డ', '|'), ('హే', 'U'), ('లి', '|'), ('నే', 'U'), ('డా', 'U'), ('డి', '|'), ('తో', 'U'), ('య', '|'), ('న', '|'), ('సి', 'U'), ('గ్గు', '|'), ('న', '|'), ('వు', '|'), ('నం', 'U'), ('చు', '|'), ('చి', '|'), ('రు', '|'), ('న', 'U'), ('వ్వు', '|'), ('న', 'U'), ('వ్వు', '|'), ('చుం', 'U'), ('దు', '|'), ('వ', '|'), ('ది', '|'), ('యే', 'U'), ('మి', '|'), ('నొ', '|'), ('స', '|'), ('లి', '|'), ('చు', 'U'), ('క్క', '|'), ('న', '|'), ('నా', 'U'), ('ల్గు', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('చా', 'U'), ('దు', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('కు', '|'), ('నుం', 'U'), ('చ', '|'), ('స', '|'), ('హ', '|'), ('జ', '|'), ('మం', 'U'), ('దు', '|'), ('వ', '|'), ('తి', '|'), ('మో', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('చ', '|'), ('మ', 'U'), ('త్కృ', '|'), ('తి', '|'), ('బ', 'U'), ('ల్క', '|'), ('తె', '|'), ('లు', '|'), ('సు', '|'), ('క', '|'), ('కొ', '|'), ('దు', '|'), ('వ', '|'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('దీ', 'U'), ('క్ష', '|'), ('కూ', 'U'), ('డ', '|'), ('దం', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
         <is>
           <t>వెంతనిర్మోహివని నెరవంతమనసు । సహనపరుచుడి పిమ్మట సౌఖ్యమందు-
 వట్టు జిగిబిగి వగ నగవభినుతింప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
           <t>[('వెం', 'U'), ('త', '|'), ('ని', '|'), ('ర్మో', 'U'), ('హి', '|'), ('వ', '|'), ('ని', '|'), ('నె', '|'), ('ర', '|'), ('వం', 'U'), ('త', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('స', '|'), ('హ', '|'), ('న', '|'), ('ప', '|'), ('రు', '|'), ('చు', '|'), ('డి', '|'), ('పి', 'U'), ('మ్మ', '|'), ('ట', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మం', 'U'), ('దు', '|'), ('వ', 'U'), ('ట్టు', '|'), ('జి', '|'), ('గి', '|'), ('బి', '|'), ('గి', '|'), ('వ', '|'), ('గ', '|'), ('న', '|'), ('గ', '|'), ('వ', '|'), ('భి', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
         <is>
           <t>ఒకవేళ కోపగించుక పవ్వళించుచో । వచ్చి పై ముసుకెత్తి యెచ్చరించు-
 నా తరి చూచి మాటాడకుండిన నొద్ద । వీణె హాయిగ మీటి వినికిసేయు-
@@ -4191,63 +3840,57 @@
 నిది పర్వదినము నేడిటు గూడదన నవ్వి । మదనశాస్త్రము జూడుమనుచు దెచ్చు-</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('కో', 'U'), ('ప', '|'), ('గిం', 'U'), ('చు', '|'), ('క', '|'), ('ప', 'U'), ('వ్వ', '|'), ('ళిం', 'U'), ('చు', '|'), ('చో', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('పై', 'U'), ('ము', '|'), ('సు', '|'), ('కె', 'U'), ('త్తి', '|'), ('యె', 'U'), ('చ్చ', '|'), ('రిం', 'U'), ('చు', '|'), ('నా', 'U'), ('త', '|'), ('రి', '|'), ('చూ', 'U'), ('చి', '|'), ('మా', 'U'), ('టా', 'U'), ('డ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('నొ', 'U'), ('ద్ద', '|'), ('వీ', 'U'), ('ణె', '|'), ('హా', 'U'), ('యి', '|'), ('గ', '|'), ('మీ', 'U'), ('టి', '|'), ('వి', '|'), ('ని', '|'), ('కి', '|'), ('సే', 'U'), ('యు', '|'), ('న', '|'), ('వ', '|'), ('లి', '|'), ('మో', 'U'), ('మై', 'U'), ('యు', 'U'), ('న్న', '|'), ('న', '|'), ('ది', '|'), ('ని', 'U'), ('ల్పి', '|'), ('చం', 'U'), ('ద', '|'), ('న', '|'), ('క', '|'), ('ల', '|'), ('పం', 'U'), ('బు', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('న', '|'), ('న', '|'), ('ల', '|'), ('ద', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ని', '|'), ('ది', '|'), ('ప', 'U'), ('ర్వ', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('నే', 'U'), ('డి', '|'), ('టు', '|'), ('గూ', 'U'), ('డ', '|'), ('ద', '|'), ('న', '|'), ('న', 'U'), ('వ్వి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('జూ', 'U'), ('డు', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('దె', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
         <is>
           <t>నేల పొమ్మన్న పురుషులకేల కఠిన- । మెందు గాననటంచు కన్నీరు నించి
 నతివ నను దూలపలుకు నా హౌసు దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('ల', '|'), ('పొ', 'U'), ('మ్మ', 'U'), ('న్న', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('ల', '|'), ('కే', 'U'), ('ల', '|'), ('క', '|'), ('ఠి', '|'), ('న', '|'), ('మెం', 'U'), ('దు', '|'), ('గా', 'U'), ('న', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('క', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('నిం', 'U'), ('చి', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('న', '|'), ('ను', '|'), ('దూ', 'U'), ('ల', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('నా', 'U'), ('హౌ', 'U'), ('సు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
         <is>
           <t>చూచెనా చూడ్కుల సోయగం బా రతీ- । వరుడేయు శరపరంపరల లాగు
 నవ్వెనా మంచిపున్నమచందమామ యిం- । పలర వెన్నెలగాయునట్టి బాగు
@@ -4255,63 +3898,57 @@
 పల్కెనా యమృతంబు జిలుగుతేటగు జుంటి- । తేనెజాలటు కాల్వదీయు పగిది</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
           <t>[('చూ', 'U'), ('చె', '|'), ('నా', 'U'), ('చూ', 'U'), ('డ్కు', '|'), ('ల', '|'), ('సో', 'U'), ('య', '|'), ('గం', 'U'), ('బా', 'U'), ('ర', '|'), ('తీ', 'U'), ('వ', '|'), ('రు', '|'), ('డే', 'U'), ('యు', '|'), ('శ', '|'), ('ర', '|'), ('ప', '|'), ('రం', 'U'), ('ప', '|'), ('ర', '|'), ('ల', '|'), ('లా', 'U'), ('గు', '|'), ('న', 'U'), ('వ్వె', '|'), ('నా', 'U'), ('మం', 'U'), ('చి', '|'), ('పు', 'U'), ('న్న', '|'), ('మ', '|'), ('చం', 'U'), ('ద', '|'), ('మా', 'U'), ('మ', '|'), ('యిం', 'U'), ('ప', '|'), ('ల', '|'), ('ర', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('గా', 'U'), ('యు', '|'), ('న', 'U'), ('ట్టి', '|'), ('బా', 'U'), ('గు', '|'), ('న', '|'), ('డి', '|'), ('చె', '|'), ('నా', 'U'), ('వి', '|'), ('బు', '|'), ('ధ', '|'), ('పు', 'U'), ('న్నా', 'U'), ('గం', 'U'), ('బు', '|'), ('మ', 'U'), ('త్తు', '|'), ('చే', 'U'), ('మిం', 'U'), ('చి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చు', '|'), ('జు', '|'), ('లా', 'U'), ('యిం', 'U'), ('చు', '|'), ('ప', '|'), ('గి', '|'), ('ది', '|'), ('ప', 'U'), ('ల్కె', '|'), ('నా', 'U'), ('య', '|'), ('మృ', '|'), ('తం', 'U'), ('బు', '|'), ('జి', '|'), ('లు', '|'), ('గు', '|'), ('తే', 'U'), ('ట', '|'), ('గు', '|'), ('జుం', 'U'), ('టి', '|'), ('తే', 'U'), ('నె', '|'), ('జా', 'U'), ('ల', '|'), ('టు', '|'), ('కా', 'U'), ('ల్వ', '|'), ('దీ', 'U'), ('యు', '|'), ('ప', '|'), ('గి', '|'), ('ది', '|')]</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
         <is>
           <t>దాని మెయితళ్కు మెడకుల్కు దాని బెళ్కు । దాని వగనీటు బిగిదాటు దాని నేటు
 దాని నీవేళ నా మది దలచి తాళ । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('ని', '|'), ('మె', '|'), ('యి', '|'), ('త', 'U'), ('ళ్కు', '|'), ('మె', '|'), ('డ', '|'), ('కు', 'U'), ('ల్కు', '|'), ('దా', 'U'), ('ని', '|'), ('బె', 'U'), ('ళ్కు', '|'), ('దా', 'U'), ('ని', '|'), ('వ', '|'), ('గ', '|'), ('నీ', 'U'), ('టు', '|'), ('బి', '|'), ('గి', '|'), ('దా', 'U'), ('టు', '|'), ('దా', 'U'), ('ని', '|'), ('నే', 'U'), ('టు', '|'), ('దా', 'U'), ('ని', '|'), ('నీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('నా', 'U'), ('మ', '|'), ('ది', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('తా', 'U'), ('ళ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
         <is>
           <t>భ్రమరఝంకారంబు పగిది నుపాంగంబు । కోపైన సుతిని ఘుంఘుమ్మురనగ
 సిరిమించి మదిమించి చిరుతాళముల శబ్ద- । సంగతి ధిత్తతాఝమ్మనంగ
@@ -4319,63 +3956,57 @@
 నెరనీటుపల్కు కిన్నెరమీటు గజ్జెలల్ । గోజారవంబు బల్‍మోజు దనర</t>
         </is>
       </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
           <t>[('భ్ర', '|'), ('మ', '|'), ('ర', '|'), ('ఝం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('ప', '|'), ('గి', '|'), ('ది', '|'), ('ను', '|'), ('పాం', 'U'), ('గం', 'U'), ('బు', '|'), ('కో', 'U'), ('పై', 'U'), ('న', '|'), ('సు', '|'), ('తి', '|'), ('ని', '|'), ('ఘుం', 'U'), ('ఘు', 'U'), ('మ్ము', '|'), ('ర', '|'), ('న', '|'), ('గ', '|'), ('సి', '|'), ('రి', '|'), ('మిం', 'U'), ('చి', '|'), ('మ', '|'), ('ది', '|'), ('మిం', 'U'), ('చి', '|'), ('చి', '|'), ('రు', '|'), ('తా', 'U'), ('ళ', '|'), ('ము', '|'), ('ల', '|'), ('శ', 'U'), ('బ్ద', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('ధి', 'U'), ('త్త', '|'), ('తా', 'U'), ('ఝ', 'U'), ('మ్మ', '|'), ('నం', 'U'), ('గ', '|'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('ప', '|'), ('వీ', 'U'), ('ను', '|'), ('ల', '|'), ('పం', 'U'), ('డు', '|'), ('వై', 'U'), ('పె', 'U'), ('ద్ద', '|'), ('మ', 'U'), ('ద్దె', '|'), ('ళ', '|'), ('నా', 'U'), ('దు', '|'), ('తా', 'U'), ('హ', '|'), ('తో', 'U'), ('ద్ధి', 'U'), ('మ్మ', '|'), ('నం', 'U'), ('గ', '|'), ('నె', '|'), ('ర', '|'), ('నీ', 'U'), ('టు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('కి', 'U'), ('న్నె', '|'), ('ర', '|'), ('మీ', 'U'), ('టు', '|'), ('గ', 'U'), ('జ్జె', '|'), ('లల్', 'U'), ('గో', 'U'), ('జా', 'U'), ('ర', '|'), ('వం', 'U'), ('బు', '|'), ('బ', 'U'), ('ల్మో', 'U'), ('జు', '|'), ('ద', '|'), ('న', '|'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
         <is>
           <t>సంచుగా మేళమిటు జమాయించువేళ । నతివ మామీది వర్ణముల నభినయించు
 వేడ్క దలచిన నా మది విరహమడప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('చు', '|'), ('గా', 'U'), ('మే', 'U'), ('ళ', '|'), ('మి', '|'), ('టు', '|'), ('జ', '|'), ('మా', 'U'), ('యిం', 'U'), ('చు', '|'), ('వే', 'U'), ('ళ', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('మా', 'U'), ('మీ', 'U'), ('ది', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ల', '|'), ('న', '|'), ('భి', '|'), ('న', '|'), ('యిం', 'U'), ('చు', '|'), ('వే', 'U'), ('డ్క', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('మ', '|'), ('ది', '|'), ('వి', '|'), ('ర', '|'), ('హ', '|'), ('మ', '|'), ('డ', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
         <is>
           <t>జల్తారుపేటు గంజముచీరకుచ్చిళ్లు । గిల్కుమట్టెల తట్టి పల్కరింప
 రవ కసీదా గోటు రయిక ముస్తీబుగా । కుచకుంభముల నాని గురుతుజూప
@@ -4383,63 +4014,57 @@
 తళుకుబెడస తీరు బెళుకుకన్నుల సౌరు । వీనులతో నొగ్గి వియ్యమంద</t>
         </is>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
           <t>[('జ', 'U'), ('ల్తా', 'U'), ('రు', '|'), ('పే', 'U'), ('టు', '|'), ('గం', 'U'), ('జ', '|'), ('ము', '|'), ('చీ', 'U'), ('ర', '|'), ('కు', 'U'), ('చ్చి', 'U'), ('ళ్లు', '|'), ('గి', 'U'), ('ల్కు', '|'), ('మ', 'U'), ('ట్టె', '|'), ('ల', '|'), ('త', 'U'), ('ట్టి', '|'), ('ప', 'U'), ('ల్క', '|'), ('రిం', 'U'), ('ప', '|'), ('ర', '|'), ('వ', '|'), ('క', '|'), ('సీ', 'U'), ('దా', 'U'), ('గో', 'U'), ('టు', '|'), ('ర', '|'), ('యి', '|'), ('క', '|'), ('ము', 'U'), ('స్తీ', 'U'), ('బు', '|'), ('గా', 'U'), ('కు', '|'), ('చ', '|'), ('కుం', 'U'), ('భ', '|'), ('ము', '|'), ('ల', '|'), ('నా', 'U'), ('ని', '|'), ('గు', '|'), ('రు', '|'), ('తు', '|'), ('జూ', 'U'), ('ప', '|'), ('సి', '|'), ('క', '|'), ('జు', 'U'), ('ట్టు', '|'), ('ను', '|'), ('ను', '|'), ('బ', 'U'), ('ట్టు', '|'), ('చెం', 'U'), ('డ్లు', '|'), ('నీ', 'U'), ('టు', '|'), ('గ', '|'), ('ల', '|'), ('స', '|'), ('దం', 'U'), ('స', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('పై', 'U'), ('నం', 'U'), ('ది', '|'), ('బొ', '|'), ('ద', '|'), ('ల', '|'), ('త', '|'), ('ళు', '|'), ('కు', '|'), ('బె', '|'), ('డ', '|'), ('స', '|'), ('తీ', 'U'), ('రు', '|'), ('బె', '|'), ('ళు', '|'), ('కు', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('సౌ', 'U'), ('రు', '|'), ('వీ', 'U'), ('ను', '|'), ('ల', '|'), ('తో', 'U'), ('నొ', 'U'), ('గ్గి', '|'), ('వి', 'U'), ('య్య', '|'), ('మం', 'U'), ('ద', '|')]</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
         <is>
           <t>చందనము మైనలందిన సమయమునను । కంకణంబులు మొరయ పంఖాలు బూని
 విసరవచ్చిన వగగన్న విధికినెన్న । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
           <t>[('చం', 'U'), ('ద', '|'), ('న', '|'), ('ము', '|'), ('మై', 'U'), ('న', '|'), ('లం', 'U'), ('ది', '|'), ('న', '|'), ('స', '|'), ('మ', '|'), ('య', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('కం', 'U'), ('క', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('మొ', '|'), ('ర', '|'), ('య', '|'), ('పం', 'U'), ('ఖా', 'U'), ('లు', '|'), ('బూ', 'U'), ('ని', '|'), ('వి', '|'), ('స', '|'), ('ర', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వ', '|'), ('గ', '|'), ('గ', 'U'), ('న్న', '|'), ('వి', '|'), ('ధి', '|'), ('కి', '|'), ('నె', 'U'), ('న్న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
         <is>
           <t>నీలాంబరౌర పెన్నెరుల సౌరుదనంబు । వీనులు శ్రీరాగవిభవమేలు
 పొలతి నెమ్మొగము సంపూర్ణచంద్రిక మణి- । తము పరీక్షింప ఘంటారవంబు
@@ -4448,63 +4073,57 @@
 ముదిత క్రొంజిగిమేను మోహన సద్గుణ । లావణ్యగరిమ కల్యాణి భళిర</t>
         </is>
       </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('లాం', 'U'), ('బ', '|'), ('రౌ', 'U'), ('ర', '|'), ('పె', 'U'), ('న్నె', '|'), ('రు', '|'), ('ల', '|'), ('సౌ', 'U'), ('రు', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('వీ', 'U'), ('ను', '|'), ('లు', 'U'), ('శ్రీ', 'U'), ('రా', 'U'), ('గ', '|'), ('వి', '|'), ('భ', '|'), ('వ', '|'), ('మే', 'U'), ('లు', '|'), ('పొ', '|'), ('ల', '|'), ('తి', '|'), ('నె', 'U'), ('మ్మొ', '|'), ('గ', '|'), ('ము', '|'), ('సం', 'U'), ('పూ', 'U'), ('ర్ణ', '|'), ('చం', 'U'), ('ద్రి', '|'), ('క', '|'), ('మ', '|'), ('ణి', '|'), ('త', '|'), ('ము', '|'), ('ప', '|'), ('రీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('ఘం', 'U'), ('టా', 'U'), ('ర', '|'), ('వం', 'U'), ('బు', '|'), ('సా', 'U'), ('రం', 'U'), ('గ', '|'), ('చూ', 'U'), ('డ్కు', '|'), ('ల', '|'), ('చ', '|'), ('ప', '|'), ('ల', '|'), ('త', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('మె', '|'), ('రు', '|'), ('ప', '|'), ('గు', '|'), ('లే', 'U'), ('గౌ', 'U'), ('ను', '|'), ('మే', 'U'), ('ఘ', '|'), ('రం', 'U'), ('జి', '|'), ('చా', 'U'), ('న', '|'), ('రో', 'U'), ('మా', 'U'), ('వ', '|'), ('ళి', '|'), ('శం', 'U'), ('క', '|'), ('రా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('తీ', 'U'), ('రై', 'U'), ('న', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('దీ', 'U'), ('ప', '|'), ('క', '|'), ('ళి', '|'), ('క', '|'), ('ము', '|'), ('ది', '|'), ('త', 'U'), ('క్రొం', 'U'), ('జి', '|'), ('గి', '|'), ('మే', 'U'), ('ను', '|'), ('మో', 'U'), ('హ', '|'), ('న', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('క', 'U'), ('ల్యా', 'U'), ('ణి', '|'), ('భ', '|'), ('ళి', '|'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
         <is>
           <t>నడక మెల్లదనంబు పున్నాగ దాని । సురత మానందభైరవి సొంపు నాట
 నెనయకుండినవేళ నా నెనరు తాళ । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('డ', '|'), ('క', '|'), ('మె', 'U'), ('ల్ల', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('పు', 'U'), ('న్నా', 'U'), ('గ', '|'), ('దా', 'U'), ('ని', '|'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('మా', 'U'), ('నం', 'U'), ('ద', '|'), ('భై', 'U'), ('ర', '|'), ('వి', '|'), ('సొం', 'U'), ('పు', '|'), ('నా', 'U'), ('ట', '|'), ('నె', '|'), ('న', '|'), ('య', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('నా', 'U'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('తా', 'U'), ('ళ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
         <is>
           <t>తమ్మిలో నవకందమము తేటలా చంద- । మామ యందముదీసి మోముజేసి
 పూబంతిలో సౌరు ప్రొద్దులో తళ్కు క- । డాని చాయల గూర్చి మేనొనర్చి
@@ -4512,63 +4131,57 @@
 గాజుగిన్నెల నున్పు గట్టుగట్టిన వీణె- । కాయల తీరు చన్గవనొనర్చి</t>
         </is>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('మ్మి', '|'), ('లో', 'U'), ('న', '|'), ('వ', '|'), ('కం', 'U'), ('ద', '|'), ('మ', '|'), ('ము', '|'), ('తే', 'U'), ('ట', '|'), ('లా', 'U'), ('చం', 'U'), ('ద', '|'), ('మా', 'U'), ('మ', '|'), ('యం', 'U'), ('ద', '|'), ('ము', '|'), ('దీ', 'U'), ('సి', '|'), ('మో', 'U'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('పూ', 'U'), ('బం', 'U'), ('తి', '|'), ('లో', 'U'), ('సౌ', 'U'), ('రు', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('లో', 'U'), ('త', 'U'), ('ళ్కు', '|'), ('క', '|'), ('డా', 'U'), ('ని', '|'), ('చా', 'U'), ('య', '|'), ('ల', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('మే', 'U'), ('నొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('మ', 'U'), ('ల్లె', '|'), ('మొ', 'U'), ('గ్గ', '|'), ('ల', '|'), ('చా', 'U'), ('లు', '|'), ('మం', 'U'), ('చి', '|'), ('కెం', 'U'), ('పు', '|'), ('ల', '|'), ('డా', 'U'), ('లు', '|'), ('వ', 'U'), ('జ్రం', 'U'), ('పు', '|'), ('జి', '|'), ('గి', '|'), ('ని', '|'), ('ప', 'U'), ('ల్వ', '|'), ('రు', '|'), ('స', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('గా', 'U'), ('జు', '|'), ('గి', 'U'), ('న్నె', '|'), ('ల', '|'), ('ను', 'U'), ('న్పు', '|'), ('గ', 'U'), ('ట్టు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', '|'), ('వీ', 'U'), ('ణె', '|'), ('కా', 'U'), ('య', '|'), ('ల', '|'), ('తీ', 'U'), ('రు', '|'), ('చ', 'U'), ('న్గ', '|'), ('వ', '|'), ('నొ', '|'), ('న', 'U'), ('ర్చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
         <is>
           <t>నలువ నిర్మించె నీలాగు నాతి బాగు । నెన్నతరమౌనె కన్య నా కన్నులాన
 దాని మది దల్చి నెమ్మోహతాప మాన । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('లు', '|'), ('వ', '|'), ('ని', '|'), ('ర్మిం', 'U'), ('చె', '|'), ('నీ', 'U'), ('లా', 'U'), ('గు', '|'), ('నా', 'U'), ('తి', '|'), ('బా', 'U'), ('గు', '|'), ('నె', 'U'), ('న్న', '|'), ('త', '|'), ('ర', '|'), ('మౌ', 'U'), ('నె', '|'), ('క', 'U'), ('న్య', '|'), ('నా', 'U'), ('క', 'U'), ('న్ను', '|'), ('లా', 'U'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('ద', 'U'), ('ల్చి', '|'), ('నె', 'U'), ('మ్మో', 'U'), ('హ', '|'), ('తా', 'U'), ('ప', '|'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
         <is>
           <t>కుటిలకుంతలికి చన్గుదురు లున్నతమైన । వేళ నా మనసేమొ వేడ్క గాంచె
 జలజాక్షి నునుపిరుందులు మిన్నలైన నా । మదికి చమత్కారమహిమ గల్గె
@@ -4576,63 +4189,57 @@
 రమణి నూగారు దట్టము మీరి నలుపెక్క । లేకురు మీసంబు లేర్పరించె-</t>
         </is>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('టి', '|'), ('ల', '|'), ('కుం', 'U'), ('త', '|'), ('లి', '|'), ('కి', '|'), ('చ', 'U'), ('న్గు', '|'), ('దు', '|'), ('రు', '|'), ('లు', 'U'), ('న్న', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('నా', 'U'), ('మ', '|'), ('న', '|'), ('సే', 'U'), ('మొ', '|'), ('వే', 'U'), ('డ్క', '|'), ('గాం', 'U'), ('చె', '|'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('క్షి', '|'), ('ను', '|'), ('ను', '|'), ('పి', '|'), ('రుం', 'U'), ('దు', '|'), ('లు', '|'), ('మి', 'U'), ('న్న', '|'), ('లై', 'U'), ('న', '|'), ('నా', 'U'), ('మ', '|'), ('ది', '|'), ('కి', '|'), ('చ', '|'), ('మ', 'U'), ('త్కా', 'U'), ('ర', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('గ', 'U'), ('ల్గె', 'U'), ('భ్ర', '|'), ('మ', '|'), ('రా', 'U'), ('ల', '|'), ('క', '|'), ('స', '|'), ('మ', 'U'), ('ర్త', '|'), ('పా', 'U'), ('య', '|'), ('మై', 'U'), ('నం', 'U'), ('త', '|'), ('నా', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('చా', 'U'), ('య', '|'), ('ను', '|'), ('వ', '|'), ('హిం', 'U'), ('చె', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('నూ', 'U'), ('గా', 'U'), ('రు', '|'), ('ద', 'U'), ('ట్ట', '|'), ('ము', '|'), ('మీ', 'U'), ('రి', '|'), ('న', '|'), ('లు', '|'), ('పె', 'U'), ('క్క', '|'), ('లే', 'U'), ('కు', '|'), ('రు', '|'), ('మీ', 'U'), ('సం', 'U'), ('బు', '|'), ('లే', 'U'), ('ర్ప', '|'), ('రిం', 'U'), ('చె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
         <is>
           <t>నింతివయసు నా వయసును నేకమైన । రథము తేజీలు నడిచిన విధమునొప్పె
 దాని చూడక యింక నీ తమి నడంప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
           <t>[('నిం', 'U'), ('తి', '|'), ('వ', '|'), ('య', '|'), ('సు', '|'), ('నా', 'U'), ('వ', '|'), ('య', '|'), ('సు', '|'), ('ను', '|'), ('నే', 'U'), ('క', '|'), ('మై', 'U'), ('న', '|'), ('ర', '|'), ('థ', '|'), ('ము', '|'), ('తే', 'U'), ('జీ', 'U'), ('లు', '|'), ('న', '|'), ('డి', '|'), ('చి', '|'), ('న', '|'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('నొ', 'U'), ('ప్పె', '|'), ('దా', 'U'), ('ని', '|'), ('చూ', 'U'), ('డ', '|'), ('క', '|'), ('యిం', 'U'), ('క', '|'), ('నీ', 'U'), ('త', '|'), ('మి', '|'), ('న', '|'), ('డం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
         <is>
           <t>పసుపు నిగ్గైన దుప్పటితోడ కాటుక । మరకానుదస్తు రుమాలుతోడ
 చెక్కిట కొనగోటిజీరలతోడ న- । వ్వెలదిచ్చు దొంతర విడెముతోడ
@@ -4640,63 +4247,57 @@
 సొగసైన నిద్దురసొలుపుతో రతులను । బడలిన నెమ్మోము బాగుతోడ</t>
         </is>
       </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('సు', '|'), ('పు', '|'), ('ని', 'U'), ('గ్గై', 'U'), ('న', '|'), ('దు', 'U'), ('ప్ప', '|'), ('టి', '|'), ('తో', 'U'), ('డ', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('మ', '|'), ('ర', '|'), ('కా', 'U'), ('ను', '|'), ('ద', 'U'), ('స్తు', '|'), ('రు', '|'), ('మా', 'U'), ('లు', '|'), ('తో', 'U'), ('డ', '|'), ('చె', 'U'), ('క్కి', '|'), ('ట', '|'), ('కొ', '|'), ('న', '|'), ('గో', 'U'), ('టి', '|'), ('జీ', 'U'), ('ర', '|'), ('ల', '|'), ('తో', 'U'), ('డ', '|'), ('న', 'U'), ('వ్వె', '|'), ('ల', '|'), ('ది', 'U'), ('చ్చు', '|'), ('దొం', 'U'), ('త', '|'), ('ర', '|'), ('వి', '|'), ('డె', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('ప', 'U'), ('ల్మొ', '|'), ('న', '|'), ('కా', 'U'), ('టు', '|'), ('లా', 'U'), ('ర', '|'), ('ని', '|'), ('మో', 'U'), ('వి', '|'), ('తో', 'U'), ('వె', 'U'), ('న్ను', '|'), ('న', '|'), ('కీ', 'U'), ('ల్జ', '|'), ('డ', '|'), ('వే', 'U'), ('టు', '|'), ('తో', 'U'), ('డ', '|'), ('సొ', '|'), ('గ', '|'), ('సై', 'U'), ('న', '|'), ('ని', 'U'), ('ద్దు', '|'), ('ర', '|'), ('సొ', '|'), ('లు', '|'), ('పు', '|'), ('తో', 'U'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('ను', '|'), ('బ', '|'), ('డ', '|'), ('లి', '|'), ('న', '|'), ('నె', 'U'), ('మ్మో', 'U'), ('ము', '|'), ('బా', 'U'), ('గు', '|'), ('తో', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
         <is>
           <t>నే నితరకాంతల గూడిరాగానె యున్న । చిన్నె పరికించి మనమున చిడిముడగుచు
 నపుడు నిను నీవె దూరుకొన్నది దలంప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('ని', '|'), ('త', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('గూ', 'U'), ('డి', '|'), ('రా', 'U'), ('గా', 'U'), ('నె', '|'), ('యు', 'U'), ('న్న', '|'), ('చి', 'U'), ('న్నె', '|'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('చి', '|'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('చి', '|'), ('డి', '|'), ('ము', '|'), ('డ', '|'), ('గు', '|'), ('చు', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('ని', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('దూ', 'U'), ('రు', '|'), ('కొ', 'U'), ('న్న', '|'), ('ది', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
         <is>
           <t>శుకమును ముద్దాడుచో మోవి నొక్క నా । గంటి నే గని నినెరుంగక నిదేమొ
 నినుజూడ వేరె భావన దోచునన మోము । చిన్నజేసుక శివా శివ యటంచు
@@ -4704,63 +4305,57 @@
 చిలచిల నెమ్మేను చెమ్మర గడగడ । వడకుచు నార్తారవమున నొక్క</t>
         </is>
       </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
           <t>[('శు', '|'), ('క', '|'), ('ము', '|'), ('ను', '|'), ('ము', 'U'), ('ద్దా', 'U'), ('డు', '|'), ('చో', 'U'), ('మో', 'U'), ('వి', '|'), ('నొ', 'U'), ('క్క', '|'), ('నా', 'U'), ('గం', 'U'), ('టి', '|'), ('నే', 'U'), ('గ', '|'), ('ని', '|'), ('ని', '|'), ('నె', '|'), ('రుం', 'U'), ('గ', '|'), ('క', '|'), ('ని', '|'), ('దే', 'U'), ('మొ', '|'), ('ని', '|'), ('ను', '|'), ('జూ', 'U'), ('డ', '|'), ('వే', 'U'), ('రె', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('దో', 'U'), ('చు', '|'), ('న', '|'), ('న', '|'), ('మో', 'U'), ('ము', '|'), ('చి', 'U'), ('న్న', '|'), ('జే', 'U'), ('సు', '|'), ('క', '|'), ('శి', '|'), ('వా', 'U'), ('శి', '|'), ('వ', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('త', '|'), ('ల', '|'), ('వం', 'U'), ('చి', '|'), ('బొ', '|'), ('ట', 'U'), ('వ్రే', 'U'), ('ల', '|'), ('ని', '|'), ('ల', '|'), ('గీ', 'U'), ('రు', '|'), ('కొం', 'U'), ('చు', '|'), ('నే', 'U'), ('త్ర', '|'), ('ము', '|'), ('ల', '|'), ('న', 'U'), ('శ్రు', '|'), ('లు', '|'), ('కు', '|'), ('చా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('ల', '|'), ('రా', 'U'), ('ల', '|'), ('చి', '|'), ('ల', '|'), ('చి', '|'), ('ల', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('ను', '|'), ('చె', 'U'), ('మ్మ', '|'), ('ర', '|'), ('గ', '|'), ('డ', '|'), ('గ', '|'), ('డ', '|'), ('వ', '|'), ('డ', '|'), ('కు', '|'), ('చు', '|'), ('నా', 'U'), ('ర్తా', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('న', '|'), ('నొ', 'U'), ('క్క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
         <is>
           <t>పాపమెరుగను నా యురోభవములాన । యన్ని దెలిసుండి నా బోటి యబల నిటుల
 ననుట దోసంబు లనునాటి హౌసు దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ప', '|'), ('మె', '|'), ('రు', '|'), ('గ', '|'), ('ను', '|'), ('నా', 'U'), ('యు', '|'), ('రో', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('లా', 'U'), ('న', '|'), ('య', 'U'), ('న్ని', '|'), ('దె', '|'), ('లి', '|'), ('సుం', 'U'), ('డి', '|'), ('నా', 'U'), ('బో', 'U'), ('టి', '|'), ('య', '|'), ('బ', '|'), ('ల', '|'), ('ని', '|'), ('టు', '|'), ('ల', '|'), ('న', '|'), ('ను', '|'), ('ట', '|'), ('దో', 'U'), ('సం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('నా', 'U'), ('టి', '|'), ('హౌ', 'U'), ('సు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
         <is>
           <t>శుకమా చికాకు సేయకుమా యటన్న శా- । రిక మాట వినుట నాయికము గాదు
 పికమా భళాన యోపిక మానియున్న నీ- । విక కూయుచుండ భావికము గాదు
@@ -4768,63 +4363,57 @@
 బతిమాలుకొన్న నీ మతి మానలేవు మా- । రుత నీ చలంబు శాశ్వతము గాదు</t>
         </is>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
           <t>[('శు', '|'), ('క', '|'), ('మా', 'U'), ('చి', '|'), ('కా', 'U'), ('కు', '|'), ('సే', 'U'), ('య', '|'), ('కు', '|'), ('మా', 'U'), ('య', '|'), ('ట', 'U'), ('న్న', '|'), ('శా', 'U'), ('రి', '|'), ('క', '|'), ('మా', 'U'), ('ట', '|'), ('వి', '|'), ('ను', '|'), ('ట', '|'), ('నా', 'U'), ('యి', '|'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('పి', '|'), ('క', '|'), ('మా', 'U'), ('భ', '|'), ('ళా', 'U'), ('న', '|'), ('యో', 'U'), ('పి', '|'), ('క', '|'), ('మా', 'U'), ('ని', '|'), ('యు', 'U'), ('న్న', '|'), ('నీ', 'U'), ('వి', '|'), ('క', '|'), ('కూ', 'U'), ('యు', '|'), ('చుం', 'U'), ('డ', '|'), ('భా', 'U'), ('వి', '|'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('మా', 'U'), ('శ', '|'), ('బా', 'U'), ('సు', '|'), ('ష', 'U'), ('ట్ప', '|'), ('ద', '|'), ('మా', 'U'), ('స', '|'), ('రే', 'U'), ('నె', '|'), ('నీ', 'U'), ('రొ', '|'), ('ద', '|'), ('మా', 'U'), ('న', '|'), ('వై', 'U'), ('తి', '|'), ('వే', 'U'), ('ము', '|'), ('ద', '|'), ('మె', '|'), ('నీ', 'U'), ('కు', '|'), ('బ', '|'), ('తి', '|'), ('మా', 'U'), ('లు', '|'), ('కొ', 'U'), ('న్న', '|'), ('నీ', 'U'), ('మ', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('లే', 'U'), ('వు', '|'), ('మా', 'U'), ('రు', '|'), ('త', '|'), ('నీ', 'U'), ('చ', '|'), ('లం', 'U'), ('బు', '|'), ('శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
         <is>
           <t>యనుచు నేనెంత వేడిన కనరు మాన- । రైరి వీరలు నామీది వైరమునను
 సుంత దయచేసి కన్నుల చూడ వింత । వాదటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('నే', 'U'), ('నెం', 'U'), ('త', '|'), ('వే', 'U'), ('డి', '|'), ('న', '|'), ('క', '|'), ('న', '|'), ('రు', '|'), ('మా', 'U'), ('న', '|'), ('రై', 'U'), ('రి', '|'), ('వీ', 'U'), ('ర', '|'), ('లు', '|'), ('నా', 'U'), ('మీ', 'U'), ('ది', '|'), ('వై', 'U'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('సుం', 'U'), ('త', '|'), ('ద', '|'), ('య', '|'), ('చే', 'U'), ('సి', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('చూ', 'U'), ('డ', '|'), ('విం', 'U'), ('త', '|'), ('వా', 'U'), ('ద', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
         <is>
           <t>తలిదండ్రినైన తూపుల నేయజూచు । మరుడు నన్నేరీతి కరుణ జూచు
 గురుకాంత నిసుమంత కొదువలేక రమించు । జాబిల్లి యెటుల దోసము దలంచు
@@ -4832,63 +4421,57 @@
 చిగురాకు దిని కండ్ల పొగరెక్కినది గండు- । కోయిల రొద యేల సేయకుండు</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('లి', '|'), ('దం', 'U'), ('డ్రి', '|'), ('నై', 'U'), ('న', '|'), ('తూ', 'U'), ('పు', '|'), ('ల', '|'), ('నే', 'U'), ('య', '|'), ('జూ', 'U'), ('చు', '|'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('న', 'U'), ('న్నే', 'U'), ('రీ', 'U'), ('తి', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('జూ', 'U'), ('చు', '|'), ('గు', '|'), ('రు', '|'), ('కాం', 'U'), ('త', '|'), ('ని', '|'), ('సు', '|'), ('మం', 'U'), ('త', '|'), ('కొ', '|'), ('దు', '|'), ('వ', '|'), ('లే', 'U'), ('క', '|'), ('ర', '|'), ('మిం', 'U'), ('చు', '|'), ('జా', 'U'), ('బి', 'U'), ('ల్లి', '|'), ('యె', '|'), ('టు', '|'), ('ల', '|'), ('దో', 'U'), ('స', '|'), ('ము', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('పా', 'U'), ('ము', '|'), ('లు', '|'), ('మ్రిం', 'U'), ('గి', '|'), ('న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కై', 'U'), ('న', '|'), ('చా', 'U'), ('వ', '|'), ('ని', '|'), ('చ', '|'), ('లు', '|'), ('వ', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('కె', 'U'), ('ట్లు', '|'), ('జా', 'U'), ('లి', '|'), ('బు', 'U'), ('ట్టు', '|'), ('చి', '|'), ('గు', '|'), ('రా', 'U'), ('కు', '|'), ('ది', '|'), ('ని', '|'), ('కం', 'U'), ('డ్ల', '|'), ('పొ', '|'), ('గ', '|'), ('రె', 'U'), ('క్కి', '|'), ('న', '|'), ('ది', '|'), ('గం', 'U'), ('డు', '|'), ('కో', 'U'), ('యి', '|'), ('ల', '|'), ('రొ', '|'), ('ద', '|'), ('యే', 'U'), ('ల', '|'), ('సే', 'U'), ('య', '|'), ('కుం', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
         <is>
           <t>నొకరిజోలికి బోని పూలకును బొడిచి । రసము గ్రోలెడి తేటి యీరసము నెంత
 దెలుప నే జాల నీమీది మరులుతోన । వశమగునె రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
           <t>[('నొ', '|'), ('క', '|'), ('రి', '|'), ('జో', 'U'), ('లి', '|'), ('కి', '|'), ('బో', 'U'), ('ని', '|'), ('పూ', 'U'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('బొ', '|'), ('డి', '|'), ('చి', '|'), ('ర', '|'), ('స', '|'), ('ము', 'U'), ('గ్రో', 'U'), ('లె', '|'), ('డి', '|'), ('తే', 'U'), ('టి', '|'), ('యీ', 'U'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('నెం', 'U'), ('త', '|'), ('దె', '|'), ('లు', '|'), ('ప', '|'), ('నే', 'U'), ('జా', 'U'), ('ల', '|'), ('నీ', 'U'), ('మీ', 'U'), ('ది', '|'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('తో', 'U'), ('న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
         <is>
           <t>తరుణికెంతట దృష్టి తాకునో యని దాని । సొగసు కన్నులనిండ జూడ వెరతు
 మిసిమైన నునుమేను కసుగందునని చేతు- । లెత్తి బిగ్గన కౌగిలింప వెరతు
@@ -4896,63 +4479,57 @@
 చిలచిల నమృతంబు జిలుకగా దాని చ- । క్కెరమోవి మొనపంట గరువ వెరతు</t>
         </is>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('రు', '|'), ('ణి', '|'), ('కెం', 'U'), ('త', '|'), ('ట', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('తా', 'U'), ('కు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('దా', 'U'), ('ని', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('నిం', 'U'), ('డ', '|'), ('జూ', 'U'), ('డ', '|'), ('వె', '|'), ('ర', '|'), ('తు', '|'), ('మి', '|'), ('సి', '|'), ('మై', 'U'), ('న', '|'), ('ను', '|'), ('ను', '|'), ('మే', 'U'), ('ను', '|'), ('క', '|'), ('సు', '|'), ('గం', 'U'), ('దు', '|'), ('న', '|'), ('ని', '|'), ('చే', 'U'), ('తు', '|'), ('లె', 'U'), ('త్తి', '|'), ('బి', 'U'), ('గ్గ', '|'), ('న', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('ప', '|'), ('వె', '|'), ('ర', '|'), ('తు', '|'), ('న', '|'), ('వ', '|'), ('క', '|'), ('మౌ', 'U'), ('లే', 'U'), ('త', '|'), ('చ', 'U'), ('న్గ', '|'), ('వ', '|'), ('సొ', 'U'), ('క్కు', '|'), ('న', '|'), ('ని', '|'), ('యెం', 'U'), ('చి', '|'), ('గ', 'U'), ('ట్టి', '|'), ('గా', 'U'), ('చే', 'U'), ('కొ', 'U'), ('ద్ది', '|'), ('బ', 'U'), ('ట్ట', '|'), ('వె', '|'), ('ర', '|'), ('తు', '|'), ('చి', '|'), ('ల', '|'), ('చి', '|'), ('ల', '|'), ('న', '|'), ('మృ', '|'), ('తం', 'U'), ('బు', '|'), ('జి', '|'), ('లు', '|'), ('క', '|'), ('గా', 'U'), ('దా', 'U'), ('ని', '|'), ('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('మో', 'U'), ('వి', '|'), ('మొ', '|'), ('న', '|'), ('పం', 'U'), ('ట', '|'), ('గ', '|'), ('రు', '|'), ('వ', '|'), ('వె', '|'), ('ర', '|'), ('తు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
         <is>
           <t>గోల భయమంది యిక తాళజాలదనుచు । హాయి మీరగ నుపరతి నడుగ వెరతు
 దాని సుగుణంబు రూపమింతని వచింప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
           <t>[('గో', 'U'), ('ల', '|'), ('భ', '|'), ('య', '|'), ('మం', 'U'), ('ది', '|'), ('యి', '|'), ('క', '|'), ('తా', 'U'), ('ళ', '|'), ('జా', 'U'), ('ల', '|'), ('ద', '|'), ('ను', '|'), ('చు', '|'), ('హా', 'U'), ('యి', '|'), ('మీ', 'U'), ('ర', '|'), ('గ', '|'), ('ను', '|'), ('ప', '|'), ('ర', '|'), ('తి', '|'), ('న', '|'), ('డు', '|'), ('గ', '|'), ('వె', '|'), ('ర', '|'), ('తు', '|'), ('దా', 'U'), ('ని', '|'), ('సు', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('రూ', 'U'), ('ప', '|'), ('మిం', 'U'), ('త', '|'), ('ని', '|'), ('వ', '|'), ('చిం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
         <is>
           <t>చిలకముక్కున కాటు జెందని బింబంబు । పొగలేక నిల్చు కప్పురపు దివ్వె
 కోయిల నొక్కుగా కొరకని చిగురాకు । ఘాటింపు పచ్చిమరాటి మొగ్గ
@@ -4960,63 +4537,57 @@
 సానపై దీరిన జాతివజ్రపురవ । వాసించు గోవజవాజి భరణి</t>
         </is>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('ల', '|'), ('క', '|'), ('ము', 'U'), ('క్కు', '|'), ('న', '|'), ('కా', 'U'), ('టు', '|'), ('జెం', 'U'), ('ద', '|'), ('ని', '|'), ('బిం', 'U'), ('బం', 'U'), ('బు', '|'), ('పొ', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('ని', 'U'), ('ల్చు', '|'), ('క', 'U'), ('ప్పు', '|'), ('ర', '|'), ('పు', '|'), ('ది', 'U'), ('వ్వె', '|'), ('కో', 'U'), ('యి', '|'), ('ల', '|'), ('నొ', 'U'), ('క్కు', '|'), ('గా', 'U'), ('కొ', '|'), ('ర', '|'), ('క', '|'), ('ని', '|'), ('చి', '|'), ('గు', '|'), ('రా', 'U'), ('కు', '|'), ('ఘా', 'U'), ('టిం', 'U'), ('పు', '|'), ('ప', 'U'), ('చ్చి', '|'), ('మ', '|'), ('రా', 'U'), ('టి', '|'), ('మొ', 'U'), ('గ్గ', '|'), ('తు', 'U'), ('మ్మె', '|'), ('ద', 'U'), ('వ్రా', 'U'), ('ల', '|'), ('ని', '|'), ('క', 'U'), ('మ్మ', '|'), ('దా', 'U'), ('మ', '|'), ('ర', '|'), ('పు', 'U'), ('వ్వు', '|'), ('న', '|'), ('వ', '|'), ('క', '|'), ('మౌ', 'U'), ('మే', 'U'), ('ల్ద', '|'), ('వ', '|'), ('నం', 'U'), ('పు', '|'), ('మొ', 'U'), ('ల్క', '|'), ('సా', 'U'), ('న', '|'), ('పై', 'U'), ('దీ', 'U'), ('రి', '|'), ('న', '|'), ('జా', 'U'), ('తి', '|'), ('వ', 'U'), ('జ్ర', '|'), ('పు', '|'), ('ర', '|'), ('వ', '|'), ('వా', 'U'), ('సిం', 'U'), ('చు', '|'), ('గో', 'U'), ('వ', '|'), ('జ', '|'), ('వా', 'U'), ('జి', '|'), ('భ', '|'), ('ర', '|'), ('ణి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
         <is>
           <t>వలపుల మిటారి నిత్యము వచ్చు దారి । చూచి వేసారి మనమున సొలపు మీరి
 మగువ నొకసారి నెనయక మరుని బారి । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ల', '|'), ('పు', '|'), ('ల', '|'), ('మి', '|'), ('టా', 'U'), ('రి', '|'), ('ని', 'U'), ('త్య', '|'), ('ము', '|'), ('వ', 'U'), ('చ్చు', '|'), ('దా', 'U'), ('రి', '|'), ('చూ', 'U'), ('చి', '|'), ('వే', 'U'), ('సా', 'U'), ('రి', '|'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('సొ', '|'), ('ల', '|'), ('పు', '|'), ('మీ', 'U'), ('రి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('నొ', '|'), ('క', '|'), ('సా', 'U'), ('రి', '|'), ('నె', '|'), ('న', '|'), ('య', '|'), ('క', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('బా', 'U'), ('రి', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
         <is>
           <t>చాన నీ కెమ్మోవినాన నిదే మొదల్ । విడెమేమొ నోటికి వెగటులగును
 లేమ నే నిను కౌగిలించ నిదే మొదల్ । కసిదీరదయ్యె నా కరములకును
@@ -5024,63 +4595,57 @@
 చెలియ నీతో పొందు సేయ నిదే మొదల్ । కరువయ్యె నిదుర నా కన్నులకును</t>
         </is>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
           <t>[('చా', 'U'), ('న', '|'), ('నీ', 'U'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('నా', 'U'), ('న', '|'), ('ని', '|'), ('దే', 'U'), ('మొ', '|'), ('దల్', 'U'), ('వి', '|'), ('డె', '|'), ('మే', 'U'), ('మొ', '|'), ('నో', 'U'), ('టి', '|'), ('కి', '|'), ('వె', '|'), ('గ', '|'), ('టు', '|'), ('ల', '|'), ('గు', '|'), ('ను', '|'), ('లే', 'U'), ('మ', '|'), ('నే', 'U'), ('ని', '|'), ('ను', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చ', '|'), ('ని', '|'), ('దే', 'U'), ('మొ', '|'), ('దల్', 'U'), ('క', '|'), ('సి', '|'), ('దీ', 'U'), ('ర', '|'), ('ద', 'U'), ('య్యె', '|'), ('నా', 'U'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('నీ', 'U'), ('తో', 'U'), ('డ', '|'), ('మా', 'U'), ('టా', 'U'), ('డ', '|'), ('ని', '|'), ('దే', 'U'), ('మొ', '|'), ('దల్', 'U'), ('వి', '|'), ('న', '|'), ('సై', 'U'), ('చ', '|'), ('దొ', '|'), ('క', '|'), ('పా', 'U'), ('ట', '|'), ('వీ', 'U'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('నీ', 'U'), ('తో', 'U'), ('పొం', 'U'), ('దు', '|'), ('సే', 'U'), ('య', '|'), ('ని', '|'), ('దే', 'U'), ('మొ', '|'), ('దల్', 'U'), ('క', '|'), ('రు', '|'), ('వ', 'U'), ('య్యె', '|'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('నా', 'U'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
         <is>
           <t>ప్రేమ నెటు దాతు మదికి మందేమి సేతు । నెపుడు నిను జూతు నింక నేనెటుల సైతు
 బిరుదు నిక తీతు మరునిదే పెద్ద భీతు । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
           <t>[('ప్రే', 'U'), ('మ', '|'), ('నె', '|'), ('టు', '|'), ('దా', 'U'), ('తు', '|'), ('మ', '|'), ('ది', '|'), ('కి', '|'), ('మం', 'U'), ('దే', 'U'), ('మి', '|'), ('సే', 'U'), ('తు', '|'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('ని', '|'), ('ను', '|'), ('జూ', 'U'), ('తు', '|'), ('నిం', 'U'), ('క', '|'), ('నే', 'U'), ('నె', '|'), ('టు', '|'), ('ల', '|'), ('సై', 'U'), ('తు', '|'), ('బి', '|'), ('రు', '|'), ('దు', '|'), ('ని', '|'), ('క', '|'), ('తీ', 'U'), ('తు', '|'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('దే', 'U'), ('పె', 'U'), ('ద్ద', '|'), ('భీ', 'U'), ('తు', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B146" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
         <is>
           <t>హా శారచ్చంద్రనిభాస్య హా హరిమధ్య । హా కలకంఠి బింబామృతోష్ఠి
 హా నవసరసీరుహాక్షి కోకస్తని । హా గజయాన దయాపయోధి
@@ -5088,63 +4653,57 @@
 హా సైకతశ్రోణి హా గుణకల్యాణి । హా రాజరత్నమ కీరవాణి</t>
         </is>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
           <t>[('హా', 'U'), ('శా', 'U'), ('ర', 'U'), ('చ్చం', 'U'), ('ద్ర', '|'), ('ని', '|'), ('భా', 'U'), ('స్య', '|'), ('హా', 'U'), ('హ', '|'), ('రి', '|'), ('మ', 'U'), ('ధ్య', '|'), ('హా', 'U'), ('క', '|'), ('ల', '|'), ('కం', 'U'), ('ఠి', '|'), ('బిం', 'U'), ('బా', 'U'), ('మృ', '|'), ('తో', 'U'), ('ష్ఠి', '|'), ('హా', 'U'), ('న', '|'), ('వ', '|'), ('స', '|'), ('ర', '|'), ('సీ', 'U'), ('రు', '|'), ('హా', 'U'), ('క్షి', '|'), ('కో', 'U'), ('క', 'U'), ('స్త', '|'), ('ని', '|'), ('హా', 'U'), ('గ', '|'), ('జ', '|'), ('యా', 'U'), ('న', '|'), ('ద', '|'), ('యా', 'U'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('హా', 'U'), ('హే', 'U'), ('మ', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ని', '|'), ('భాం', 'U'), ('గి', '|'), ('బం', 'U'), ('భ', '|'), ('ర', '|'), ('వే', 'U'), ('ణి', '|'), ('హా', 'U'), ('ప', 'U'), ('ద్మ', '|'), ('రా', 'U'), ('గ', '|'), ('కుం', 'U'), ('దా', 'U'), ('భ', '|'), ('ర', '|'), ('ద', '|'), ('న', '|'), ('హా', 'U'), ('సై', 'U'), ('క', '|'), ('త', 'U'), ('శ్రో', 'U'), ('ణి', '|'), ('హా', 'U'), ('గు', '|'), ('ణ', '|'), ('క', 'U'), ('ల్యా', 'U'), ('ణి', '|'), ('హా', 'U'), ('రా', 'U'), ('జ', '|'), ('ర', 'U'), ('త్న', '|'), ('మ', '|'), ('కీ', 'U'), ('ర', '|'), ('వా', 'U'), ('ణి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
         <is>
           <t>హా మరుని నాజిలో గెల్చినపుడె నీదు । కుసుమబాణునినగరెల్ల కొల్లసేయ
 నెపుడు గల్గును చాన నీ హితము మాన । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
           <t>[('హా', 'U'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('నా', 'U'), ('జి', '|'), ('లో', 'U'), ('గె', 'U'), ('ల్చి', '|'), ('న', '|'), ('పు', '|'), ('డె', '|'), ('నీ', 'U'), ('దు', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('బా', 'U'), ('ణు', '|'), ('ని', '|'), ('న', '|'), ('గ', '|'), ('రె', 'U'), ('ల్ల', '|'), ('కొ', 'U'), ('ల్ల', '|'), ('సే', 'U'), ('య', '|'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ను', '|'), ('చా', 'U'), ('న', '|'), ('నీ', 'U'), ('హి', '|'), ('త', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
         <is>
           <t>కల్కి నీ కుల్కుగుబ్బల నీటు దలపోసి । గజనిమ్మపండ్లపై కరుణ దరిగె
 సఖి నీదు మోవిలో చవి నిరీక్షించిన । పంచదారను కోపగించవలసె
@@ -5152,63 +4711,57 @@
 కొమ్మ నీ ముద్దుపల్కుల నాదు మదినెంచి । చిలుకనెత్తను బాళి దగలదయ్యె</t>
         </is>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('ల్కి', '|'), ('నీ', 'U'), ('కు', 'U'), ('ల్కు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('నీ', 'U'), ('టు', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('సి', '|'), ('గ', '|'), ('జ', '|'), ('ని', 'U'), ('మ్మ', '|'), ('పం', 'U'), ('డ్ల', '|'), ('పై', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('ద', '|'), ('రి', '|'), ('గె', '|'), ('స', '|'), ('ఖి', '|'), ('నీ', 'U'), ('దు', '|'), ('మో', 'U'), ('వి', '|'), ('లో', 'U'), ('చ', '|'), ('వి', '|'), ('ని', '|'), ('రీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('న', '|'), ('పం', 'U'), ('చ', '|'), ('దా', 'U'), ('ర', '|'), ('ను', '|'), ('కో', 'U'), ('ప', '|'), ('గిం', 'U'), ('చ', '|'), ('వ', '|'), ('ల', '|'), ('సె', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('మం', 'U'), ('చి', '|'), ('మె', 'U'), ('త్త', '|'), ('ని', '|'), ('మే', 'U'), ('ను', '|'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('చి', '|'), ('న', '|'), ('పు', '|'), ('డె', '|'), ('పూ', 'U'), ('చెం', 'U'), ('డ్ల', '|'), ('పై', 'U'), ('హ', '|'), ('వు', '|'), ('సు', '|'), ('మా', 'U'), ('నె', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('నీ', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ల', '|'), ('నా', 'U'), ('దు', '|'), ('మ', '|'), ('ది', '|'), ('నెం', 'U'), ('చి', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('నె', 'U'), ('త్త', '|'), ('ను', '|'), ('బా', 'U'), ('ళి', '|'), ('ద', '|'), ('గ', '|'), ('ల', '|'), ('ద', 'U'), ('య్యె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
         <is>
           <t>వెలది నినుజేరి మదికేరి వేడ్కమీరి । గోర తొడజీరి మరుబారి కొదువదీరి
 కడిమి నొకసారి చలపోరి కలయగోరి । వచ్చితినె రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('ది', '|'), ('ని', '|'), ('ను', '|'), ('జే', 'U'), ('రి', '|'), ('మ', '|'), ('ది', '|'), ('కే', 'U'), ('రి', '|'), ('వే', 'U'), ('డ్క', '|'), ('మీ', 'U'), ('రి', '|'), ('గో', 'U'), ('ర', '|'), ('తొ', '|'), ('డ', '|'), ('జీ', 'U'), ('రి', '|'), ('మ', '|'), ('రు', '|'), ('బా', 'U'), ('రి', '|'), ('కొ', '|'), ('దు', '|'), ('వ', '|'), ('దీ', 'U'), ('రి', '|'), ('క', '|'), ('డి', '|'), ('మి', '|'), ('నొ', '|'), ('క', '|'), ('సా', 'U'), ('రి', '|'), ('చ', '|'), ('ల', '|'), ('పో', 'U'), ('రి', '|'), ('క', '|'), ('ల', '|'), ('య', '|'), ('గో', 'U'), ('రి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('నె', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B150" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
         <is>
           <t>వనజాక్షి భువి రూపవతులెందు నిక లేరా । నవురుగా నొకవేళ నవ్వుకోరా
 యెదటి భావంబు గుర్తెరిగి మన్నించరో । యెంచి యంతట పల్కరించుకోరా
@@ -5216,63 +4769,57 @@
 శుకవాణి చెర్లాటలకు కలహించరో । కలహించి పిమ్మట గలుసుకోరా</t>
         </is>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('న', '|'), ('జా', 'U'), ('క్షి', '|'), ('భు', '|'), ('వి', '|'), ('రూ', 'U'), ('ప', '|'), ('వ', '|'), ('తు', '|'), ('లెం', 'U'), ('దు', '|'), ('ని', '|'), ('క', '|'), ('లే', 'U'), ('రా', 'U'), ('న', '|'), ('వు', '|'), ('రు', '|'), ('గా', 'U'), ('నొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('న', 'U'), ('వ్వు', '|'), ('కో', 'U'), ('రా', 'U'), ('యె', '|'), ('ద', '|'), ('టి', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('గు', 'U'), ('ర్తె', '|'), ('రి', '|'), ('గి', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('చ', '|'), ('రో', 'U'), ('యెం', 'U'), ('చి', '|'), ('యం', 'U'), ('త', '|'), ('ట', '|'), ('ప', 'U'), ('ల్క', '|'), ('రిం', 'U'), ('చు', '|'), ('కో', 'U'), ('రా', 'U'), ('య', '|'), ('తి', '|'), ('న', '|'), ('యో', 'U'), ('క్తు', '|'), ('ల', 'U'), ('క్షే', 'U'), ('మ', '|'), ('మ', '|'), ('డు', '|'), ('గ', '|'), ('రో', 'U'), ('వ', '|'), ('ల', '|'), ('పిం', 'U'), ('చి', '|'), ('స', '|'), ('తి', '|'), ('ప', '|'), ('తు', '|'), ('ల', '|'), ('ని', '|'), ('యు', 'U'), ('న్న', '|'), ('జ', '|'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('శు', '|'), ('క', '|'), ('వా', 'U'), ('ణి', '|'), ('చె', 'U'), ('ర్లా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('క', '|'), ('ల', '|'), ('హిం', 'U'), ('చ', '|'), ('రో', 'U'), ('క', '|'), ('ల', '|'), ('హిం', 'U'), ('చి', '|'), ('పి', 'U'), ('మ్మ', '|'), ('ట', '|'), ('గ', '|'), ('లు', '|'), ('సు', '|'), ('కో', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
         <is>
           <t>నింత నావలె బాళి నీయంత కఠిన । నెందు గానను జాణనయింది మొదలు
 నతివ దానిల్లు బంగారమైరి యింత । వంచనటె రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
           <t>[('నిం', 'U'), ('త', '|'), ('నా', 'U'), ('వ', '|'), ('లె', '|'), ('బా', 'U'), ('ళి', '|'), ('నీ', 'U'), ('యం', 'U'), ('త', '|'), ('క', '|'), ('ఠి', '|'), ('న', '|'), ('నెం', 'U'), ('దు', '|'), ('గా', 'U'), ('న', '|'), ('ను', '|'), ('జా', 'U'), ('ణ', '|'), ('న', '|'), ('యిం', 'U'), ('ది', '|'), ('మొ', '|'), ('ద', '|'), ('లు', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('దా', 'U'), ('ని', 'U'), ('ల్లు', '|'), ('బం', 'U'), ('గా', 'U'), ('ర', '|'), ('మై', 'U'), ('రి', '|'), ('యిం', 'U'), ('త', '|'), ('వం', 'U'), ('చ', '|'), ('న', '|'), ('టె', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
         <is>
           <t>చివురాకుపై మంచు చెక్కిలి చెమటంచు। తొడగ రుమాలుచే తుడువబోదు
 ననటుల బిగి గాంచి పెనుదొడలని యెంచి । యొనరుగా నెలవంక లునుపబోదు
@@ -5280,63 +4827,57 @@
 పటములో వ్రాసిన ప్రతిమను గాంచి నీ- । వంచు ప్రేమను కౌగిలించబోదు</t>
         </is>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('వు', '|'), ('రా', 'U'), ('కు', '|'), ('పై', 'U'), ('మం', 'U'), ('చు', '|'), ('చె', 'U'), ('క్కి', '|'), ('లి', '|'), ('చె', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('తొ', '|'), ('డ', '|'), ('గ', '|'), ('రు', '|'), ('మా', 'U'), ('లు', '|'), ('చే', 'U'), ('తు', '|'), ('డు', '|'), ('వ', '|'), ('బో', 'U'), ('దు', '|'), ('న', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('బి', '|'), ('గి', '|'), ('గాం', 'U'), ('చి', '|'), ('పె', '|'), ('ను', '|'), ('దొ', '|'), ('డ', '|'), ('ల', '|'), ('ని', '|'), ('యెం', 'U'), ('చి', '|'), ('యొ', '|'), ('న', '|'), ('రు', '|'), ('గా', 'U'), ('నె', '|'), ('ల', '|'), ('వం', 'U'), ('క', '|'), ('లు', '|'), ('ను', '|'), ('ప', '|'), ('బో', 'U'), ('దు', '|'), ('ను', '|'), ('ను', '|'), ('ము', 'U'), ('త్య', '|'), ('ము', '|'), ('ల', '|'), ('గాం', 'U'), ('చి', '|'), ('చ', '|'), ('ను', '|'), ('మొ', '|'), ('న', '|'), ('ల', '|'), ('ని', '|'), ('పిం', 'U'), ('చి', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('చే', 'U'), ('త', '|'), ('న', '|'), ('లు', '|'), ('మ', '|'), ('బో', 'U'), ('దు', '|'), ('ప', '|'), ('ట', '|'), ('ము', '|'), ('లో', 'U'), ('వ్రా', 'U'), ('సి', '|'), ('న', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మ', '|'), ('ను', '|'), ('గాం', 'U'), ('చి', '|'), ('నీ', 'U'), ('వం', 'U'), ('చు', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('ను', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చ', '|'), ('బో', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
         <is>
           <t>వెరవకని మోదమలర నామీద ప్రేమ । నింపగా రాద జాలి యొక్కింత గాద
 తరుణి యికమీద విరహసాగరము నీద । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ర', '|'), ('వ', '|'), ('క', '|'), ('ని', '|'), ('మో', 'U'), ('ద', '|'), ('మ', '|'), ('ల', '|'), ('ర', '|'), ('నా', 'U'), ('మీ', 'U'), ('ద', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('నిం', 'U'), ('ప', '|'), ('గా', 'U'), ('రా', 'U'), ('ద', '|'), ('జా', 'U'), ('లి', '|'), ('యొ', 'U'), ('క్కిం', 'U'), ('త', '|'), ('గా', 'U'), ('ద', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('యి', '|'), ('క', '|'), ('మీ', 'U'), ('ద', '|'), ('వి', '|'), ('ర', '|'), ('హ', '|'), ('సా', 'U'), ('గ', '|'), ('ర', '|'), ('ము', '|'), ('నీ', 'U'), ('ద', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
         <is>
           <t>అతివ నేనొకసారి యీనితే నీదు వా- । తెరతేనె లేమైన తరిగిపోనె
 పణతి నేనిసుమంత బట్టితే నీ చను- । బంతు లంతటిలోనె వాడిపోనె
@@ -5344,63 +4885,57 @@
 కడుప్రేమ నొకసారి కౌగిలించంగానె । కలికి నీ తనువేమి కందిపోనె</t>
         </is>
       </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('వ', '|'), ('నే', 'U'), ('నొ', '|'), ('క', '|'), ('సా', 'U'), ('రి', '|'), ('యీ', 'U'), ('ని', '|'), ('తే', 'U'), ('నీ', 'U'), ('దు', '|'), ('వా', 'U'), ('తె', '|'), ('ర', '|'), ('తే', 'U'), ('నె', '|'), ('లే', 'U'), ('మై', 'U'), ('న', '|'), ('త', '|'), ('రి', '|'), ('గి', '|'), ('పో', 'U'), ('నె', '|'), ('ప', '|'), ('ణ', '|'), ('తి', '|'), ('నే', 'U'), ('ని', '|'), ('సు', '|'), ('మం', 'U'), ('త', '|'), ('బ', 'U'), ('ట్టి', '|'), ('తే', 'U'), ('నీ', 'U'), ('చ', '|'), ('ను', '|'), ('బం', 'U'), ('తు', '|'), ('లం', 'U'), ('త', '|'), ('టి', '|'), ('లో', 'U'), ('నె', '|'), ('వా', 'U'), ('డి', '|'), ('పో', 'U'), ('నె', '|'), ('య', '|'), ('లు', '|'), ('క', '|'), ('లే', 'U'), ('మి', '|'), ('టి', '|'), ('కం', 'U'), ('చు', '|'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('రిం', 'U'), ('చం', 'U'), ('గా', 'U'), ('నె', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('లో', 'U'), ('న', '|'), ('మృ', '|'), ('తం', 'U'), ('బు', '|'), ('లొ', '|'), ('లి', '|'), ('కి', '|'), ('పో', 'U'), ('నె', '|'), ('క', '|'), ('డు', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('నొ', '|'), ('క', '|'), ('సా', 'U'), ('రి', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చం', 'U'), ('గా', 'U'), ('నె', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('నీ', 'U'), ('త', '|'), ('ను', '|'), ('వే', 'U'), ('మి', '|'), ('కం', 'U'), ('ది', '|'), ('పో', 'U'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B155" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
         <is>
           <t>వనిత నాతోడ నొకసారి కెనయగానె । దర్పకుని బొక్కసము కేమి తక్కువగునె
 చాన నిను మాన నాతోన చలము బూన- । వలెనటె రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ని', '|'), ('త', '|'), ('నా', 'U'), ('తో', 'U'), ('డ', '|'), ('నొ', '|'), ('క', '|'), ('సా', 'U'), ('రి', '|'), ('కె', '|'), ('న', '|'), ('య', '|'), ('గా', 'U'), ('నె', '|'), ('ద', 'U'), ('ర్ప', '|'), ('కు', '|'), ('ని', '|'), ('బొ', 'U'), ('క్క', '|'), ('స', '|'), ('ము', '|'), ('కే', 'U'), ('మి', '|'), ('త', 'U'), ('క్కు', '|'), ('వ', '|'), ('గు', '|'), ('నె', '|'), ('చా', 'U'), ('న', '|'), ('ని', '|'), ('ను', '|'), ('మా', 'U'), ('న', '|'), ('నా', 'U'), ('తో', 'U'), ('న', '|'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('బూ', 'U'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('టె', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
         <is>
           <t>కోపమేటికి ముద్దుగిల్కు నెమ్మొగమెత్తి । చూడవే నను బాల సుగుణశీల
 వలచివచ్చితినంచు వంచనేమిటికి నన్ । మన్నించవే భామ మధురసీమ
@@ -5408,63 +4943,57 @@
 గబ్బిగుబ్బల రొమ్ము గదియించి నా యెద । నానవే యో చాన హంసయాన</t>
         </is>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('ప', '|'), ('మే', 'U'), ('టి', '|'), ('కి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గి', 'U'), ('ల్కు', '|'), ('నె', 'U'), ('మ్మొ', '|'), ('గ', '|'), ('మె', 'U'), ('త్తి', '|'), ('చూ', 'U'), ('డ', '|'), ('వే', 'U'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('ల', '|'), ('సు', '|'), ('గు', '|'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('నం', 'U'), ('చు', '|'), ('వం', 'U'), ('చ', '|'), ('నే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('నన్', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చ', '|'), ('వే', 'U'), ('భా', 'U'), ('మ', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('సీ', 'U'), ('మ', '|'), ('చు', 'U'), ('ల్క', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('తే', 'U'), ('నె', '|'), ('జి', 'U'), ('ల్క', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('గ', '|'), ('నొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('టా', 'U'), ('డ', '|'), ('వే', 'U'), ('యిం', 'U'), ('తి', '|'), ('మ', '|'), ('ద', '|'), ('ను', '|'), ('దం', 'U'), ('తి', '|'), ('గ', 'U'), ('బ్బి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('రొ', 'U'), ('మ్ము', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('నా', 'U'), ('యె', '|'), ('ద', '|'), ('నా', 'U'), ('న', '|'), ('వే', 'U'), ('యో', 'U'), ('చా', 'U'), ('న', '|'), ('హం', 'U'), ('స', '|'), ('యా', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
         <is>
           <t>యేలనే గోల చలము నీకేల సైప- । జాల నీ జాలమేల నన్ చాలరతుల
 దేల దయనేలకున్న నీవేళ తాళ । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
           <t>[('యే', 'U'), ('ల', '|'), ('నే', 'U'), ('గో', 'U'), ('ల', '|'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('కే', 'U'), ('ల', '|'), ('సై', 'U'), ('ప', '|'), ('జా', 'U'), ('ల', '|'), ('నీ', 'U'), ('జా', 'U'), ('ల', '|'), ('మే', 'U'), ('ల', '|'), ('నన్', 'U'), ('చా', 'U'), ('ల', '|'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('దే', 'U'), ('ల', '|'), ('ద', '|'), ('య', '|'), ('నే', 'U'), ('ల', '|'), ('కు', 'U'), ('న్న', '|'), ('నీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('తా', 'U'), ('ళ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
         <is>
           <t>చేడె నిన్ కన్నుల జూడకయున్న నా । గడె బ్రహ్మకల్పముగా దలంతు
 వనిత నీ చెరుగు మాసిన మూడునాళ్లు నే । క్షణమొక్క యుగముగా జరుపుచుందు
@@ -5472,63 +5001,57 @@
 పొలతి పుట్టలు జూడపోవుచో నణుమాత్ర- । మును లెక్కగొని మనువని తలంతు</t>
         </is>
       </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
           <t>[('చే', 'U'), ('డె', '|'), ('నిన్', 'U'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('జూ', 'U'), ('డ', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('నా', 'U'), ('గ', '|'), ('డె', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('క', 'U'), ('ల్ప', '|'), ('ము', '|'), ('గా', 'U'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('నీ', 'U'), ('చె', '|'), ('రు', '|'), ('గు', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('మూ', 'U'), ('డు', '|'), ('నా', 'U'), ('ళ్లు', '|'), ('నే', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మొ', 'U'), ('క్క', '|'), ('యు', '|'), ('గ', '|'), ('ము', '|'), ('గా', 'U'), ('జ', '|'), ('రు', '|'), ('పు', '|'), ('చుం', 'U'), ('దు', '|'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షి', 'U'), ('వ్ర', '|'), ('త', '|'), ('ది', '|'), ('నం', 'U'), ('బ', '|'), ('ది', '|'), ('గూ', 'U'), ('డ', '|'), ('ద', '|'), ('ను', '|'), ('రే', 'U'), ('యు', '|'), ('ని', '|'), ('మి', '|'), ('ష', '|'), ('మొ', 'U'), ('క్కే', 'U'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('గా', 'U'), ('తు', '|'), ('పొ', '|'), ('ల', '|'), ('తి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('లు', '|'), ('జూ', 'U'), ('డ', '|'), ('పో', 'U'), ('వు', '|'), ('చో', 'U'), ('న', '|'), ('ణు', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('ను', '|'), ('లె', 'U'), ('క్క', '|'), ('గొ', '|'), ('ని', '|'), ('మ', '|'), ('ను', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('లం', 'U'), ('తు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
         <is>
           <t>రమణి మరులొగ్గి విరహానలమున కగ్గి । మరిమరిని తగ్గి సొగసుపై మనసు నొగ్గి
 వేడుకల మ్రొగ్గియున్న నన్ వింతసేయ । వలెనటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('మ', '|'), ('ణి', '|'), ('మ', '|'), ('రు', '|'), ('లొ', 'U'), ('గ్గి', '|'), ('వి', '|'), ('ర', '|'), ('హా', 'U'), ('న', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('క', 'U'), ('గ్గి', '|'), ('మ', '|'), ('రి', '|'), ('మ', '|'), ('రి', '|'), ('ని', '|'), ('త', 'U'), ('గ్గి', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('పై', 'U'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('నొ', 'U'), ('గ్గి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('ల', '|'), ('మ్రొ', 'U'), ('గ్గి', '|'), ('యు', 'U'), ('న్న', '|'), ('నన్', 'U'), ('విం', 'U'), ('త', '|'), ('సే', 'U'), ('య', '|'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B160" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
         <is>
           <t>కలపంబు నెమ్మేన నలది యొద్దిక జేరి । వినుతించి కప్పురవిడె మొసంగి
 యరవిరి సంపెందవిరులు సొంపుగ జుట్టి । కడుమోదమున బిగ్గ గౌగలించి
@@ -5536,63 +5059,57 @@
 పావురగతి కేరి పలికి చెక్కిలి జీరి । ముద్దిచ్చి లాలించి మోహరించి</t>
         </is>
       </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('పం', 'U'), ('బు', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('న', '|'), ('న', '|'), ('ల', '|'), ('ది', '|'), ('యొ', 'U'), ('ద్ది', '|'), ('క', '|'), ('జే', 'U'), ('రి', '|'), ('వి', '|'), ('ను', '|'), ('తిం', 'U'), ('చి', '|'), ('క', 'U'), ('ప్పు', '|'), ('ర', '|'), ('వి', '|'), ('డె', '|'), ('మొ', '|'), ('సం', 'U'), ('గి', '|'), ('య', '|'), ('ర', '|'), ('వి', '|'), ('రి', '|'), ('సం', 'U'), ('పెం', 'U'), ('ద', '|'), ('వి', '|'), ('రు', '|'), ('లు', '|'), ('సొం', 'U'), ('పు', '|'), ('గ', '|'), ('జు', 'U'), ('ట్టి', '|'), ('క', '|'), ('డు', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('బి', 'U'), ('గ్గ', '|'), ('గౌ', 'U'), ('గ', '|'), ('లిం', 'U'), ('చి', '|'), ('పె', '|'), ('ద', '|'), ('వి', '|'), ('తే', 'U'), ('ని', '|'), ('య', '|'), ('లి', 'U'), ('చ్చి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('దా', 'U'), ('హ', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('పై', 'U'), ('ప', '|'), ('లు', '|'), ('గెం', 'U'), ('పు', '|'), ('లుం', 'U'), ('చి', '|'), ('పా', 'U'), ('వు', '|'), ('ర', '|'), ('గ', '|'), ('తి', '|'), ('కే', 'U'), ('రి', '|'), ('ప', '|'), ('లి', '|'), ('కి', '|'), ('చె', 'U'), ('క్కి', '|'), ('లి', '|'), ('జీ', 'U'), ('రి', '|'), ('ము', 'U'), ('ద్ది', 'U'), ('చ్చి', '|'), ('లా', 'U'), ('లిం', 'U'), ('చి', '|'), ('మో', 'U'), ('హ', '|'), ('రిం', 'U'), ('చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B161" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
         <is>
           <t>గుబ్బిచనుమొన లెదనాని గురుతులుంచి । తరుణి చౌశీతిబంధపద్ధతు లెరింగి
 రతుల దేలించు నీ చమత్కృతి దలంప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
           <t>[('గు', 'U'), ('బ్బి', '|'), ('చ', '|'), ('ను', '|'), ('మొ', '|'), ('న', '|'), ('లె', '|'), ('ద', '|'), ('నా', 'U'), ('ని', '|'), ('గు', '|'), ('రు', '|'), ('తు', '|'), ('లుం', 'U'), ('చి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('చౌ', 'U'), ('శీ', 'U'), ('తి', '|'), ('బం', 'U'), ('ధ', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తు', '|'), ('లె', '|'), ('రిం', 'U'), ('గి', '|'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('దే', 'U'), ('లిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('చ', '|'), ('మ', 'U'), ('త్కృ', '|'), ('తి', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B162" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
         <is>
           <t>ఏలనే యింత జాగేలనే తమి నిల్ప- । జాలనే కరుణ నన్నేలుకొనవె
 మానవే చల మెంతదానవే కెమ్మోవి- । నానవే కౌగిట బూని వేడ్క
@@ -5600,63 +5117,57 @@
 యెంచవే రతుల దేలించవే చాల మ- । న్నించవే వగలు చాలించి యిపుడు</t>
         </is>
       </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('ల', '|'), ('నే', 'U'), ('యిం', 'U'), ('త', '|'), ('జా', 'U'), ('గే', 'U'), ('ల', '|'), ('నే', 'U'), ('త', '|'), ('మి', '|'), ('ని', 'U'), ('ల్ప', '|'), ('జా', 'U'), ('ల', '|'), ('నే', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('న', 'U'), ('న్నే', 'U'), ('లు', '|'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('మా', 'U'), ('న', '|'), ('వే', 'U'), ('చ', '|'), ('ల', '|'), ('మెం', 'U'), ('త', '|'), ('దా', 'U'), ('న', '|'), ('వే', 'U'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('నా', 'U'), ('న', '|'), ('వే', 'U'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('బూ', 'U'), ('ని', '|'), ('వే', 'U'), ('డ్క', '|'), ('నే', 'U'), ('ర', '|'), ('మా', 'U'), ('ప', 'U'), ('ల్కు', '|'), ('బం', 'U'), ('గా', 'U'), ('ర', '|'), ('మా', 'U'), ('నా', 'U'), ('చో', 'U'), ('ట', 'U'), ('క్రూ', 'U'), ('ర', '|'), ('మా', 'U'), ('మ', '|'), ('రి', '|'), ('కా', 'U'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('మ', '|'), ('ట', '|'), ('వె', '|'), ('యెం', 'U'), ('చ', '|'), ('వే', 'U'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('దే', 'U'), ('లిం', 'U'), ('చ', '|'), ('వే', 'U'), ('చా', 'U'), ('ల', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('చ', '|'), ('వే', 'U'), ('వ', '|'), ('గ', '|'), ('లు', '|'), ('చా', 'U'), ('లిం', 'U'), ('చి', '|'), ('యి', '|'), ('పు', '|'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
         <is>
           <t>చెరుకుసింగిణిదొర బారి తరముగాక । వెరచి మరులను తానయై వేడుకొనిన
 తెలియవైతివి మనసులో దిగులు దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('రు', '|'), ('కు', '|'), ('సిం', 'U'), ('గి', '|'), ('ణి', '|'), ('దొ', '|'), ('ర', '|'), ('బా', 'U'), ('రి', '|'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('క', '|'), ('వె', '|'), ('ర', '|'), ('చి', '|'), ('మ', '|'), ('రు', '|'), ('ల', '|'), ('ను', '|'), ('తా', 'U'), ('న', '|'), ('యై', 'U'), ('వే', 'U'), ('డు', '|'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('వై', 'U'), ('తి', '|'), ('వి', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('లో', 'U'), ('ది', '|'), ('గు', '|'), ('లు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B164" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
         <is>
           <t>కలవి గ్రక్కకురె కోకిలలార మీ కూక । సుదతి నెమ్మొగమెత్తి చూచుదాక
 చలము సేయకురె వెన్నెలలార మీ కాక । హరిమధ్య సుంత మాటాడుదాక
@@ -5664,63 +5175,57 @@
 మదనా సరేను మంచిది లేర నీ ఢాక । ననబోణి నాతోడ నెనయుదాక</t>
         </is>
       </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('వి', 'U'), ('గ్ర', 'U'), ('క్క', '|'), ('కు', '|'), ('రె', '|'), ('కో', 'U'), ('కి', '|'), ('ల', '|'), ('లా', 'U'), ('ర', '|'), ('మీ', 'U'), ('కూ', 'U'), ('క', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('నె', 'U'), ('మ్మొ', '|'), ('గ', '|'), ('మె', 'U'), ('త్తి', '|'), ('చూ', 'U'), ('చు', '|'), ('దా', 'U'), ('క', '|'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('కు', '|'), ('రె', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('లా', 'U'), ('ర', '|'), ('మీ', 'U'), ('కా', 'U'), ('క', '|'), ('హ', '|'), ('రి', '|'), ('మ', 'U'), ('ధ్య', '|'), ('సుం', 'U'), ('త', '|'), ('మా', 'U'), ('టా', 'U'), ('డు', '|'), ('దా', 'U'), ('క', '|'), ('ము', '|'), ('రి', '|'), ('పే', 'U'), ('ల', '|'), ('చ', 'U'), ('ల్వ', '|'), ('తె', 'U'), ('మ్మె', '|'), ('ర', '|'), ('లా', 'U'), ('ర', '|'), ('మీ', 'U'), ('రా', 'U'), ('క', '|'), ('చం', 'U'), ('చ', '|'), ('లా', 'U'), ('క్షి', '|'), ('ని', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చు', '|'), ('దా', 'U'), ('క', '|'), ('మ', '|'), ('ద', '|'), ('నా', 'U'), ('స', '|'), ('రే', 'U'), ('ను', '|'), ('మం', 'U'), ('చి', '|'), ('ది', '|'), ('లే', 'U'), ('ర', '|'), ('నీ', 'U'), ('ఢా', 'U'), ('క', '|'), ('న', '|'), ('న', '|'), ('బో', 'U'), ('ణి', '|'), ('నా', 'U'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('న', '|'), ('యు', '|'), ('దా', 'U'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B165" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
         <is>
           <t>ననుచు నుండెడితరి తెలియకను నేను । కాచుకొని యుంటి నిటుల నీ కరుణ నమ్మి
 దోసమెంచక నన్నింత మోసపుచ్చ । వచ్చునటె రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('చు', '|'), ('నుం', 'U'), ('డె', '|'), ('డి', '|'), ('త', '|'), ('రి', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('క', '|'), ('ను', '|'), ('నే', 'U'), ('ను', '|'), ('కా', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('యుం', 'U'), ('టి', '|'), ('ని', '|'), ('టు', '|'), ('ల', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('న', 'U'), ('మ్మి', '|'), ('దో', 'U'), ('స', '|'), ('మెం', 'U'), ('చ', '|'), ('క', '|'), ('న', 'U'), ('న్నిం', 'U'), ('త', '|'), ('మో', 'U'), ('స', '|'), ('పు', 'U'), ('చ్చ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('టె', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B166" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
         <is>
           <t>అతివ నీ చనుమొన లంటనిచ్చిన కోటి- । శివలింగపూజల సేయు ఫలము
 చాన నీ కెమ్మోవి నాననిచ్చిన చాలు । సోమపానము సేయుచున్న ఫలము
@@ -5728,63 +5233,57 @@
 కలకంఠి యొకసారి కలయనిచ్చిన చాలు । నతనుమంత్రము సిద్ధియగు ఫలము</t>
         </is>
       </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('వ', '|'), ('నీ', 'U'), ('చ', '|'), ('ను', '|'), ('మొ', '|'), ('న', '|'), ('లం', 'U'), ('ట', '|'), ('ని', 'U'), ('చ్చి', '|'), ('న', '|'), ('కో', 'U'), ('టి', '|'), ('శి', '|'), ('వ', '|'), ('లిం', 'U'), ('గ', '|'), ('పూ', 'U'), ('జ', '|'), ('ల', '|'), ('సే', 'U'), ('యు', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('చా', 'U'), ('న', '|'), ('నీ', 'U'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('నా', 'U'), ('న', '|'), ('ని', 'U'), ('చ్చి', '|'), ('న', '|'), ('చా', 'U'), ('లు', '|'), ('సో', 'U'), ('మ', '|'), ('పా', 'U'), ('న', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('చు', 'U'), ('న్న', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('చె', '|'), ('లి', '|'), ('నీ', 'U'), ('దు', '|'), ('క', '|'), ('టి', '|'), ('ని', '|'), ('నా', 'U'), ('చె', '|'), ('యి', '|'), ('సో', 'U'), ('కి', '|'), ('తే', 'U'), ('చా', 'U'), ('లు', '|'), ('న', '|'), ('వ', '|'), ('ని', 'U'), ('ప్ర', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణం', 'U'), ('బై', 'U'), ('న', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('క', '|'), ('ల', '|'), ('కం', 'U'), ('ఠి', '|'), ('యొ', '|'), ('క', '|'), ('సా', 'U'), ('రి', '|'), ('క', '|'), ('ల', '|'), ('య', '|'), ('ని', 'U'), ('చ్చి', '|'), ('న', '|'), ('చా', 'U'), ('లు', '|'), ('న', '|'), ('త', '|'), ('ను', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('సి', 'U'), ('ద్ధి', '|'), ('య', '|'), ('గు', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|')]</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B167" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
         <is>
           <t>నెపుడు లోచూపు చూచి తదేకనిష్ఠ । దనరి శృంగారదేవతవని తలంచి
 మానసిక మొనరించుచో మరుల తాళ । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('పు', '|'), ('డు', '|'), ('లో', 'U'), ('చూ', 'U'), ('పు', '|'), ('చూ', 'U'), ('చి', '|'), ('త', '|'), ('దే', 'U'), ('క', '|'), ('ని', 'U'), ('ష్ఠ', '|'), ('ద', '|'), ('న', '|'), ('రి', '|'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('లం', 'U'), ('చి', '|'), ('మా', 'U'), ('న', '|'), ('సి', '|'), ('క', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('చో', 'U'), ('మ', '|'), ('రు', '|'), ('ల', '|'), ('తా', 'U'), ('ళ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B168" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
         <is>
           <t>ధరణిపై హేమకర్దమముతో నీ మేను । సేయుచో నది పల్చనాయెననుచు
 తరణిబింబము తెచ్చి తరచిన యాక్రింద । రాలిన సన్నపు రజము బోసి
@@ -5792,63 +5291,57 @@
 పదును గావించి యా పరమేష్ఠి నిర్మించె । గాబోలునని తోచు కలికి నీదు</t>
         </is>
       </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('పై', 'U'), ('హే', 'U'), ('మ', '|'), ('క', '|'), ('ర్ద', '|'), ('మ', '|'), ('ము', '|'), ('తో', 'U'), ('నీ', 'U'), ('మే', 'U'), ('ను', '|'), ('సే', 'U'), ('యు', '|'), ('చో', 'U'), ('న', '|'), ('ది', '|'), ('ప', 'U'), ('ల్చ', '|'), ('నా', 'U'), ('యె', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('త', '|'), ('ర', '|'), ('ణి', '|'), ('బిం', 'U'), ('బ', '|'), ('ము', '|'), ('తె', 'U'), ('చ్చి', '|'), ('త', '|'), ('ర', '|'), ('చి', '|'), ('న', '|'), ('యా', 'U'), ('క్రిం', 'U'), ('ద', '|'), ('రా', 'U'), ('లి', '|'), ('న', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('ర', '|'), ('జ', '|'), ('ము', '|'), ('బో', 'U'), ('సి', '|'), ('మె', '|'), ('ద', '|'), ('పి', '|'), ('న', '|'), ('బి', '|'), ('రు', '|'), ('సా', 'U'), ('యె', '|'), ('న', '|'), ('ది', '|'), ('కూ', 'U'), ('డ', '|'), ('ద', '|'), ('ని', '|'), ('ర', '|'), ('వ', '|'), ('ఘ', '|'), ('న', '|'), ('సా', 'U'), ('ర', '|'), ('మ', '|'), ('మృ', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('య', '|'), ('నే', 'U'), ('సి', '|'), ('ప', '|'), ('దు', '|'), ('ను', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('యా', 'U'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('ష్ఠి', '|'), ('ని', '|'), ('ర్మిం', 'U'), ('చె', '|'), ('గా', 'U'), ('బో', 'U'), ('లు', '|'), ('న', '|'), ('ని', '|'), ('తో', 'U'), ('చు', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('నీ', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B169" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
         <is>
           <t>తనువు గెంజాయతళుకు వాసనల బిగివి- । నెంతని వచింతు నిన్ను నేనెపుడు గాంతు-
 నట్టి నిను దల్ప మనసు మోహంబు నిలుప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ను', '|'), ('వు', '|'), ('గెం', 'U'), ('జా', 'U'), ('య', '|'), ('త', '|'), ('ళు', '|'), ('కు', '|'), ('వా', 'U'), ('స', '|'), ('న', '|'), ('ల', '|'), ('బి', '|'), ('గి', '|'), ('వి', '|'), ('నెం', 'U'), ('త', '|'), ('ని', '|'), ('వ', '|'), ('చిం', 'U'), ('తు', '|'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('గాం', 'U'), ('తు', '|'), ('న', 'U'), ('ట్టి', '|'), ('ని', '|'), ('ను', '|'), ('ద', 'U'), ('ల్ప', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B170" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
         <is>
           <t>మొనపంట కసిదీరగను చురుక్కున నొక్కి । నొచ్చెనో మోవంచు నూరడించు
 కిలకిల నవ్వి చెక్కిలి నొక్కి నా సామి । కందెరా యంచు చన్గవలనంచు
@@ -5856,63 +5349,57 @@
 సురతంబునను చాల సొక్కితివని పైట- । చెరగెత్తి నెమ్మోము చెమటలొత్తు-</t>
         </is>
       </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
           <t>[('మొ', '|'), ('న', '|'), ('పం', 'U'), ('ట', '|'), ('క', '|'), ('సి', '|'), ('దీ', 'U'), ('ర', '|'), ('గ', '|'), ('ను', '|'), ('చు', '|'), ('రు', 'U'), ('క్కు', '|'), ('న', '|'), ('నొ', 'U'), ('క్కి', '|'), ('నొ', 'U'), ('చ్చె', '|'), ('నో', 'U'), ('మో', 'U'), ('వం', 'U'), ('చు', '|'), ('నూ', 'U'), ('ర', '|'), ('డిం', 'U'), ('చు', '|'), ('కి', '|'), ('ల', '|'), ('కి', '|'), ('ల', '|'), ('న', 'U'), ('వ్వి', '|'), ('చె', 'U'), ('క్కి', '|'), ('లి', '|'), ('నొ', 'U'), ('క్కి', '|'), ('నా', 'U'), ('సా', 'U'), ('మి', '|'), ('కం', 'U'), ('దె', '|'), ('రా', 'U'), ('యం', 'U'), ('చు', '|'), ('చ', 'U'), ('న్గ', '|'), ('వ', '|'), ('ల', '|'), ('నం', 'U'), ('చు', 'U'), ('ప్రొ', 'U'), ('ద్దా', 'U'), ('య', '|'), ('లె', 'U'), ('మ్మ', '|'), ('ని', '|'), ('గ', 'U'), ('ద్దిం', 'U'), ('చి', '|'), ('ప', 'U'), ('ల్కు', '|'), ('చు', '|'), ('క', '|'), ('ది', '|'), ('సి', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('ను', '|'), ('వ', 'U'), ('చ్చి', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చు', '|'), ('సు', '|'), ('ర', '|'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('ను', '|'), ('చా', 'U'), ('ల', '|'), ('సొ', 'U'), ('క్కి', '|'), ('తి', '|'), ('వ', '|'), ('ని', '|'), ('పై', 'U'), ('ట', '|'), ('చె', '|'), ('ర', '|'), ('గె', 'U'), ('త్తి', '|'), ('నె', 'U'), ('మ్మో', 'U'), ('ము', '|'), ('చె', '|'), ('మ', '|'), ('ట', '|'), ('లొ', 'U'), ('త్తు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B171" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
         <is>
           <t>నరసి చూడంగ నీ లోకతరబడైన । నాయికే కామసమరప్రదాయియైన
 దాని వగలెంచి మనసు నెందాక నిల్ప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డం', 'U'), ('గ', '|'), ('నీ', 'U'), ('లో', 'U'), ('క', '|'), ('త', '|'), ('ర', '|'), ('బ', '|'), ('డై', 'U'), ('న', '|'), ('నా', 'U'), ('యి', '|'), ('కే', 'U'), ('కా', 'U'), ('మ', '|'), ('స', '|'), ('మ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('దా', 'U'), ('యి', '|'), ('యై', 'U'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('వ', '|'), ('గ', '|'), ('లెం', 'U'), ('చి', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('నెం', 'U'), ('దా', 'U'), ('క', '|'), ('ని', 'U'), ('ల్ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B172" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
         <is>
           <t>నిదురలేపిన కోపమొదవు నంచని మెల్ల- । గా వచ్చి వెన్కపక్కల పరుండు
 నలతగా తన రాక తెలియకూరక నున్న । నెరగనట్టుగ మీద కరము వైచు
@@ -5920,63 +5407,57 @@
 మరిచి నిద్దురబోవు తరిని నన్నితూ భంగ- । పరతురా యనుచు నిష్ఠురతలాడు</t>
         </is>
       </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('దు', '|'), ('ర', '|'), ('లే', 'U'), ('పి', '|'), ('న', '|'), ('కో', 'U'), ('ప', '|'), ('మొ', '|'), ('ద', '|'), ('వు', '|'), ('నం', 'U'), ('చ', '|'), ('ని', '|'), ('మె', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('వె', 'U'), ('న్క', '|'), ('ప', 'U'), ('క్క', '|'), ('ల', '|'), ('ప', '|'), ('రుం', 'U'), ('డు', '|'), ('న', '|'), ('ల', '|'), ('త', '|'), ('గా', 'U'), ('త', '|'), ('న', '|'), ('రా', 'U'), ('క', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('కూ', 'U'), ('ర', '|'), ('క', '|'), ('ను', 'U'), ('న్న', '|'), ('నె', '|'), ('ర', '|'), ('గ', '|'), ('న', 'U'), ('ట్టు', '|'), ('గ', '|'), ('మీ', 'U'), ('ద', '|'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('వై', 'U'), ('చు', '|'), ('తి', '|'), ('రి', '|'), ('గి', '|'), ('నే', 'U'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('వా', 'U'), ('తె', '|'), ('ర', '|'), ('చు', '|'), ('రు', 'U'), ('క్క', '|'), ('ని', '|'), ('నొ', 'U'), ('క్క', '|'), ('లే', 'U'), ('చి', '|'), ('నా', 'U'), ('నె', 'U'), ('మ్మో', 'U'), ('ము', '|'), ('చూ', 'U'), ('చి', '|'), ('న', 'U'), ('వ్వు', '|'), ('మ', '|'), ('రి', '|'), ('చి', '|'), ('ని', 'U'), ('ద్దు', '|'), ('ర', '|'), ('బో', 'U'), ('వు', '|'), ('త', '|'), ('రి', '|'), ('ని', '|'), ('న', 'U'), ('న్ని', '|'), ('తూ', 'U'), ('భం', 'U'), ('గ', '|'), ('ప', '|'), ('ర', '|'), ('తు', '|'), ('రా', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('త', '|'), ('లా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B173" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
         <is>
           <t>యేమొనర్చితినన్న మీకెరుక లేదా । చేసినటువంటి పనులంచు చెలిమి గాంచు
 దాని వగ దల్చి ప్రేమనెంతనుచు నోర్వ । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
           <t>[('యే', 'U'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('తి', '|'), ('న', 'U'), ('న్న', '|'), ('మీ', 'U'), ('కె', '|'), ('రు', '|'), ('క', '|'), ('లే', 'U'), ('దా', 'U'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('ప', '|'), ('ను', '|'), ('లం', 'U'), ('చు', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('గాం', 'U'), ('చు', '|'), ('దా', 'U'), ('ని', '|'), ('వ', '|'), ('గ', '|'), ('ద', 'U'), ('ల్చి', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('నెం', 'U'), ('త', '|'), ('ను', '|'), ('చు', '|'), ('నో', 'U'), ('ర్వ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B174" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
         <is>
           <t>చల్లని పన్నీరు జల్లించుకొన్న గా- । నణగదే మది విరహాగ్ని యేమొ
 మంచిచందనము బుయించుకొన్నను గాని । తాళదే యీ మోహతాపమేమొ
@@ -5984,63 +5465,57 @@
 విరుల వీవనలతో విసరించుకొన్నను । దీరదే మరుని వికారమేమొ</t>
         </is>
       </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('జ', 'U'), ('ల్లిం', 'U'), ('చు', '|'), ('కొ', 'U'), ('న్న', '|'), ('గా', 'U'), ('న', '|'), ('ణ', '|'), ('గ', '|'), ('దే', 'U'), ('మ', '|'), ('ది', '|'), ('వి', '|'), ('ర', '|'), ('హా', 'U'), ('గ్ని', '|'), ('యే', 'U'), ('మొ', '|'), ('మం', 'U'), ('చి', '|'), ('చం', 'U'), ('ద', '|'), ('న', '|'), ('ము', '|'), ('బు', '|'), ('యిం', 'U'), ('చు', '|'), ('కొ', 'U'), ('న్న', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('తా', 'U'), ('ళ', '|'), ('దే', 'U'), ('యీ', 'U'), ('మో', 'U'), ('హ', '|'), ('తా', 'U'), ('ప', '|'), ('మే', 'U'), ('మొ', '|'), ('క', '|'), ('ల', '|'), ('కం', 'U'), ('ఠ', '|'), ('పొ', '|'), ('డి', '|'), ('పా', 'U'), ('న', '|'), ('క', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('ద్రా', 'U'), ('వి', '|'), ('న', '|'), ('నా', 'U'), ('గ', '|'), ('దె', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('దా', 'U'), ('హం', 'U'), ('బ', '|'), ('దే', 'U'), ('మొ', '|'), ('వి', '|'), ('రు', '|'), ('ల', '|'), ('వీ', 'U'), ('వ', '|'), ('న', '|'), ('ల', '|'), ('తో', 'U'), ('వి', '|'), ('స', '|'), ('రిం', 'U'), ('చు', '|'), ('కొ', 'U'), ('న్న', '|'), ('ను', '|'), ('దీ', 'U'), ('ర', '|'), ('దే', 'U'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('వి', '|'), ('కా', 'U'), ('ర', '|'), ('మే', 'U'), ('మొ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B175" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
         <is>
           <t>జాగు చేసిన నిక నోర్వజాల బాల । యేల నను చాల నేలుకోవె కృపాల-
 వాల కలకాల మేరీతి వలపు దాచ । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
           <t>[('జా', 'U'), ('గు', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('ని', '|'), ('క', '|'), ('నో', 'U'), ('ర్వ', '|'), ('జా', 'U'), ('ల', '|'), ('బా', 'U'), ('ల', '|'), ('యే', 'U'), ('ల', '|'), ('న', '|'), ('ను', '|'), ('చా', 'U'), ('ల', '|'), ('నే', 'U'), ('లు', '|'), ('కో', 'U'), ('వె', '|'), ('కృ', '|'), ('పా', 'U'), ('ల', '|'), ('వా', 'U'), ('ల', '|'), ('క', '|'), ('ల', '|'), ('కా', 'U'), ('ల', '|'), ('మే', 'U'), ('రీ', 'U'), ('తి', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('దా', 'U'), ('చ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B176" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
         <is>
           <t>గంధంబుపై మంచిగంధంబుపూతతో । బొట్టుపై కుంకుమబొట్టుతో
 పూలపై దురిమిన పూలతో కమ్మని । విడెముపై కపురంపు విడెముతోడ
@@ -6048,63 +5523,57 @@
 వలపుపై గ్రమ్మినవలపుతో గ్రక్కున । సొలపుపై బూనిన సొలపుతోడ</t>
         </is>
       </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
           <t>[('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('పై', 'U'), ('మం', 'U'), ('చి', '|'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('పూ', 'U'), ('త', '|'), ('తో', 'U'), ('బొ', 'U'), ('ట్టు', '|'), ('పై', 'U'), ('కుం', 'U'), ('కు', '|'), ('మ', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('తో', 'U'), ('పూ', 'U'), ('ల', '|'), ('పై', 'U'), ('దు', '|'), ('రి', '|'), ('మి', '|'), ('న', '|'), ('పూ', 'U'), ('ల', '|'), ('తో', 'U'), ('క', 'U'), ('మ్మ', '|'), ('ని', '|'), ('వి', '|'), ('డె', '|'), ('ము', '|'), ('పై', 'U'), ('క', '|'), ('పు', '|'), ('రం', 'U'), ('పు', '|'), ('వి', '|'), ('డె', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('పై', 'U'), ('మి', 'U'), ('న్కు', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('తో', 'U'), ('కా', 'U'), ('ళ్ల', '|'), ('ప', '|'), ('స', '|'), ('పు', '|'), ('పై', 'U'), ('న', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('ప', '|'), ('స', '|'), ('పు', '|'), ('తో', 'U'), ('డ', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('పై', 'U'), ('గ్ర', 'U'), ('మ్మి', '|'), ('న', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('తో', 'U'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('సొ', '|'), ('ల', '|'), ('పు', '|'), ('పై', 'U'), ('బూ', 'U'), ('ని', '|'), ('న', '|'), ('సొ', '|'), ('ల', '|'), ('పు', '|'), ('తో', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B177" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
         <is>
           <t>నత్తవారింటి కరుదెంచునట్టివేళ । నెలత నను గాంచి చాల కన్నీరు నించి
 యపుడు తలవంచి పలికిన హౌసు దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('త్త', '|'), ('వా', 'U'), ('రిం', 'U'), ('టి', '|'), ('క', '|'), ('రు', '|'), ('దెం', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('ళ', '|'), ('నె', '|'), ('ల', '|'), ('త', '|'), ('న', '|'), ('ను', '|'), ('గాం', 'U'), ('చి', '|'), ('చా', 'U'), ('ల', '|'), ('క', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('నిం', 'U'), ('చి', '|'), ('య', '|'), ('పు', '|'), ('డు', '|'), ('త', '|'), ('ల', '|'), ('వం', 'U'), ('చి', '|'), ('ప', '|'), ('లి', '|'), ('కి', '|'), ('న', '|'), ('హౌ', 'U'), ('సు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B178" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
         <is>
           <t>కన్నడదస్తురిగా సిగవేసి బా- । గున్నదా యని దువ్వు నొక్కవేళ
 పాండ్యదేశస్త్రీల బాగుగ గొజ్జంగి- । రెక్కన జడనల్లు నొక్కవేళ
@@ -6112,63 +5581,57 @@
 చెలగి విదర్భకాంతలరీతి మెడలపై । నునుగొప్పు సవరించు నొక్కవేళ</t>
         </is>
       </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('న్న', '|'), ('డ', '|'), ('ద', 'U'), ('స్తు', '|'), ('రి', '|'), ('గా', 'U'), ('సి', '|'), ('గ', '|'), ('వే', 'U'), ('సి', '|'), ('బా', 'U'), ('గు', 'U'), ('న్న', '|'), ('దా', 'U'), ('య', '|'), ('ని', '|'), ('దు', 'U'), ('వ్వు', '|'), ('నొ', 'U'), ('క్క', '|'), ('వే', 'U'), ('ళ', '|'), ('పాం', 'U'), ('డ్య', '|'), ('దే', 'U'), ('శ', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('బా', 'U'), ('గు', '|'), ('గ', '|'), ('గొ', 'U'), ('జ్జం', 'U'), ('గి', '|'), ('రె', 'U'), ('క్క', '|'), ('న', '|'), ('జ', '|'), ('డ', '|'), ('న', 'U'), ('ల్లు', '|'), ('నొ', 'U'), ('క్క', '|'), ('వే', 'U'), ('ళ', '|'), ('న', '|'), ('ల', '|'), ('క', '|'), ('ళిం', 'U'), ('గాం', 'U'), ('గ', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('కీ', 'U'), ('లు', '|'), ('గం', 'U'), ('టొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('వ', '|'), ('గ', '|'), ('చూ', 'U'), ('పు', '|'), ('నొ', 'U'), ('క్క', '|'), ('వే', 'U'), ('ళ', '|'), ('చె', '|'), ('ల', '|'), ('గి', '|'), ('వి', '|'), ('ద', 'U'), ('ర్భ', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('రీ', 'U'), ('తి', '|'), ('మె', '|'), ('డ', '|'), ('ల', '|'), ('పై', 'U'), ('ను', '|'), ('ను', '|'), ('గొ', 'U'), ('ప్పు', '|'), ('స', '|'), ('వ', '|'), ('రిం', 'U'), ('చు', '|'), ('నొ', 'U'), ('క్క', '|'), ('వే', 'U'), ('ళ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B179" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
         <is>
           <t>రతిహుమాపిట్టనుతి చమత్కృతికి దిట్ట । మగువ యికనెట్ట నణుతు నీ మరుని వెట్ట
 నెలత దయ బుట్టకున్న నే నెనరు బట్ట । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('తి', '|'), ('హు', '|'), ('మా', 'U'), ('పి', 'U'), ('ట్ట', '|'), ('ను', '|'), ('తి', '|'), ('చ', '|'), ('మ', 'U'), ('త్కృ', '|'), ('తి', '|'), ('కి', '|'), ('ది', 'U'), ('ట్ట', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('యి', '|'), ('క', '|'), ('నె', 'U'), ('ట్ట', '|'), ('న', '|'), ('ణు', '|'), ('తు', '|'), ('నీ', 'U'), ('మ', '|'), ('రు', '|'), ('ని', '|'), ('వె', 'U'), ('ట్ట', '|'), ('నె', '|'), ('ల', '|'), ('త', '|'), ('ద', '|'), ('య', '|'), ('బు', 'U'), ('ట్ట', '|'), ('కు', 'U'), ('న్న', '|'), ('నే', 'U'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('బ', 'U'), ('ట్ట', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B180" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
         <is>
           <t>తీపైన బేషక్ మఠా పఠాన్ తురకి క- । చ్చీ మాదువాను తేజీల పాగ
 దిట్టంపు మేల్ జుల్ఫ తీపిల్ల చిగురుఖాం- । డా కమ్మి యస్సల్ కడానిబొమ్మ
@@ -6176,63 +5639,57 @@
 గరిగె లేతాకు తేగా బాదుషా సాము- । వస్తాదు యెనలేని వన్నెలాడి</t>
         </is>
       </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
           <t>[('తీ', 'U'), ('పై', 'U'), ('న', '|'), ('బే', 'U'), ('షక్', 'U'), ('మ', '|'), ('ఠా', 'U'), ('ప', '|'), ('ఠాన్', 'U'), ('తు', '|'), ('ర', '|'), ('కి', '|'), ('క', 'U'), ('చ్చీ', 'U'), ('మా', 'U'), ('దు', '|'), ('వా', 'U'), ('ను', '|'), ('తే', 'U'), ('జీ', 'U'), ('ల', '|'), ('పా', 'U'), ('గ', '|'), ('ది', 'U'), ('ట్టం', 'U'), ('పు', '|'), ('మేల్', 'U'), ('జు', 'U'), ('ల్ఫ', '|'), ('తీ', 'U'), ('పి', 'U'), ('ల్ల', '|'), ('చి', '|'), ('గు', '|'), ('రు', '|'), ('ఖాం', 'U'), ('డా', 'U'), ('క', 'U'), ('మ్మి', '|'), ('య', '|'), ('స్సల్', 'U'), ('క', '|'), ('డా', 'U'), ('ని', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('త', '|'), ('రు', '|'), ('ణు', '|'), ('ల', '|'), ('మే', 'U'), ('టి', '|'), ('ని', 'U'), ('ద్దా', 'U'), ('హొం', 'U'), ('త', '|'), ('కా', 'U'), ('రి', '|'), ('బి', 'U'), ('త్త', '|'), ('రు', '|'), ('ల', '|'), ('మి', 'U'), ('న్నా', 'U'), ('తే', 'U'), ('ట', '|'), ('కు', '|'), ('రు', '|'), ('చ', '|'), ('తే', 'U'), ('నె', '|'), ('గ', '|'), ('రి', '|'), ('గె', '|'), ('లే', 'U'), ('తా', 'U'), ('కు', '|'), ('తే', 'U'), ('గా', 'U'), ('బా', 'U'), ('దు', '|'), ('షా', 'U'), ('సా', 'U'), ('ము', '|'), ('వ', 'U'), ('స్తా', 'U'), ('దు', '|'), ('యె', '|'), ('న', '|'), ('లే', 'U'), ('ని', '|'), ('వ', 'U'), ('న్నె', '|'), ('లా', 'U'), ('డి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B181" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
         <is>
           <t>జతను నే గూడి కోరమీసంబు తీటు । పంతముల నాటి వేడ్క నా భామతోటి
 నెనయకుండిన దిగులు నెంతని వచింప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('త', '|'), ('ను', '|'), ('నే', 'U'), ('గూ', 'U'), ('డి', '|'), ('కో', 'U'), ('ర', '|'), ('మీ', 'U'), ('సం', 'U'), ('బు', '|'), ('తీ', 'U'), ('టు', '|'), ('పం', 'U'), ('త', '|'), ('ము', '|'), ('ల', '|'), ('నా', 'U'), ('టి', '|'), ('వే', 'U'), ('డ్క', '|'), ('నా', 'U'), ('భా', 'U'), ('మ', '|'), ('తో', 'U'), ('టి', '|'), ('నె', '|'), ('న', '|'), ('య', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('ది', '|'), ('గు', '|'), ('లు', '|'), ('నెం', 'U'), ('త', '|'), ('ని', '|'), ('వ', '|'), ('చిం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B182" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
         <is>
           <t>కలగంటినే రేయి కలహంసగామిని । ప్రేమచే నను చేరబిలిచినటుల
 బలుకకుండిన చెయ్యి బట్టుక నింత మీ- । కలుకలేమంచు నన్నడిగినటుల-
@@ -6240,63 +5697,57 @@
 నంతట నే సుంత ననుమతించగనె యొ- । ద్దికను పూశయ్యకు దీసినటుల-</t>
         </is>
       </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('గం', 'U'), ('టి', '|'), ('నే', 'U'), ('రే', 'U'), ('యి', '|'), ('క', '|'), ('ల', '|'), ('హం', 'U'), ('స', '|'), ('గా', 'U'), ('మి', '|'), ('ని', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('చే', 'U'), ('న', '|'), ('ను', '|'), ('చే', 'U'), ('ర', '|'), ('బి', '|'), ('లి', '|'), ('చి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('చె', 'U'), ('య్యి', '|'), ('బ', 'U'), ('ట్టు', '|'), ('క', '|'), ('నిం', 'U'), ('త', '|'), ('మీ', 'U'), ('క', '|'), ('లు', '|'), ('క', '|'), ('లే', 'U'), ('మం', 'U'), ('చు', '|'), ('న', 'U'), ('న్న', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('నే', 'U'), ('క', '|'), ('స', '|'), ('రి', '|'), ('న', '|'), ('నౌ', 'U'), ('నౌ', 'U'), ('ను', '|'), ('ని', '|'), ('టు', '|'), ('ల', '|'), ('సే', 'U'), ('నా', 'U'), ('గ', '|'), ('ల', '|'), ('ద', '|'), ('ని', '|'), ('కే', 'U'), ('రి', '|'), ('న', 'U'), ('వ్వి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('నం', 'U'), ('త', '|'), ('ట', '|'), ('నే', 'U'), ('సుం', 'U'), ('త', '|'), ('న', '|'), ('ను', '|'), ('మ', '|'), ('తిం', 'U'), ('చ', '|'), ('గ', '|'), ('నె', '|'), ('యొ', 'U'), ('ద్ది', '|'), ('క', '|'), ('ను', '|'), ('పూ', 'U'), ('శ', 'U'), ('య్య', '|'), ('కు', '|'), ('దీ', 'U'), ('సి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B183" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
         <is>
           <t>నా యెడల మోవి మోవిని నాని నడుము । మెడల గదియించి హూ యని మీరినటుల-
 నైన స్వప్నము వేడుకెంతనుచు దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('యె', '|'), ('డ', '|'), ('ల', '|'), ('మో', 'U'), ('వి', '|'), ('మో', 'U'), ('వి', '|'), ('ని', '|'), ('నా', 'U'), ('ని', '|'), ('న', '|'), ('డు', '|'), ('ము', '|'), ('మె', '|'), ('డ', '|'), ('ల', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('హూ', 'U'), ('య', '|'), ('ని', '|'), ('మీ', 'U'), ('రి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('నై', 'U'), ('న', 'U'), ('స్వ', 'U'), ('ప్న', '|'), ('ము', '|'), ('వే', 'U'), ('డు', '|'), ('కెం', 'U'), ('త', '|'), ('ను', '|'), ('చు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B184" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
         <is>
           <t>లలన నీకుచదుర్గముల బలమ్మున గాని । వలరాజు కెదురించి నిలువలేను
 తరుణి నీ యధరామృతంబు గ్రోలక గాని । మదనదాహమ వేరె మట్టుపడదు
@@ -6304,63 +5755,57 @@
 కలికి నీ నవ్వువెన్నెలలు గాయక గాని । స్మరతాప మొకకొంత శాంతి గాదు</t>
         </is>
       </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
           <t>[('ల', '|'), ('ల', '|'), ('న', '|'), ('నీ', 'U'), ('కు', '|'), ('చ', '|'), ('దు', 'U'), ('ర్గ', '|'), ('ము', '|'), ('ల', '|'), ('బ', '|'), ('ల', 'U'), ('మ్ము', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('వ', '|'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('కె', '|'), ('దు', '|'), ('రిం', 'U'), ('చి', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('లే', 'U'), ('ను', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('య', '|'), ('ధ', '|'), ('రా', 'U'), ('మృ', '|'), ('తం', 'U'), ('బు', 'U'), ('గ్రో', 'U'), ('ల', '|'), ('క', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('దా', 'U'), ('హ', '|'), ('మ', '|'), ('వే', 'U'), ('రె', '|'), ('మ', 'U'), ('ట్టు', '|'), ('ప', '|'), ('డ', '|'), ('దు', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('నీ', 'U'), ('ద', '|'), ('య', '|'), ('చూ', 'U'), ('పు', '|'), ('ల', '|'), ('ను', '|'), ('వృ', 'U'), ('ష్టి', '|'), ('చే', 'U'), ('గా', 'U'), ('ని', '|'), ('యం', 'U'), ('గ', '|'), ('జా', 'U'), ('న', '|'), ('ల', '|'), ('ము', '|'), ('చ', 'U'), ('ల్లా', 'U'), ('ర', '|'), ('బో', 'U'), ('దు', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('నీ', 'U'), ('న', 'U'), ('వ్వు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('లు', '|'), ('గా', 'U'), ('య', '|'), ('క', '|'), ('గా', 'U'), ('ని', 'U'), ('స్మ', '|'), ('ర', '|'), ('తా', 'U'), ('ప', '|'), ('మొ', '|'), ('క', '|'), ('కొం', 'U'), ('త', '|'), ('శాం', 'U'), ('తి', '|'), ('గా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B185" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
         <is>
           <t>నెనరు మితిలేదు కంటికి నిదుర రాదు । యితరమతి బోదు యాహార మింపు గాదు
 మెలత యికమీదు నిజము నా మేను నీదు । వశము శ్రీరామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('న', '|'), ('రు', '|'), ('మి', '|'), ('తి', '|'), ('లే', 'U'), ('దు', '|'), ('కం', 'U'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('రా', 'U'), ('దు', '|'), ('యి', '|'), ('త', '|'), ('ర', '|'), ('మ', '|'), ('తి', '|'), ('బో', 'U'), ('దు', '|'), ('యా', 'U'), ('హా', 'U'), ('ర', '|'), ('మిం', 'U'), ('పు', '|'), ('గా', 'U'), ('దు', '|'), ('మె', '|'), ('ల', '|'), ('త', '|'), ('యి', '|'), ('క', '|'), ('మీ', 'U'), ('దు', '|'), ('ని', '|'), ('జ', '|'), ('ము', '|'), ('నా', 'U'), ('మే', 'U'), ('ను', '|'), ('నీ', 'U'), ('దు', '|'), ('వ', '|'), ('శ', '|'), ('ము', 'U'), ('శ్రీ', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B186" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
         <is>
           <t>వేదండయాన యీ పూదండ గైకొని । నీ దండ కరుణ నన్నేలుకొనవె
 కోపంబు మాని నీ రూపంబు నా స్మర- । తాపంబు దీరగా చూపరాదె
@@ -6368,63 +5813,57 @@
 యో యిందుముఖి నీవు నాయందు చలము ని- । ట్లైయుందువని దోచదాయె గదవె</t>
         </is>
       </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('దం', 'U'), ('డ', '|'), ('యా', 'U'), ('న', '|'), ('యీ', 'U'), ('పూ', 'U'), ('దం', 'U'), ('డ', '|'), ('గై', 'U'), ('కొ', '|'), ('ని', '|'), ('నీ', 'U'), ('దం', 'U'), ('డ', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('న', 'U'), ('న్నే', 'U'), ('లు', '|'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('కో', 'U'), ('పం', 'U'), ('బు', '|'), ('మా', 'U'), ('ని', '|'), ('నీ', 'U'), ('రూ', 'U'), ('పం', 'U'), ('బు', '|'), ('నా', 'U'), ('స్మ', '|'), ('ర', '|'), ('తా', 'U'), ('పం', 'U'), ('బు', '|'), ('దీ', 'U'), ('ర', '|'), ('గా', 'U'), ('చూ', 'U'), ('ప', '|'), ('రా', 'U'), ('దె', '|'), ('వా', 'U'), ('దే', 'U'), ('ల', '|'), ('వి', '|'), ('ర', '|'), ('హం', 'U'), ('బు', '|'), ('చే', 'U'), ('దూ', 'U'), ('ల', '|'), ('న', '|'), ('ణ', '|'), ('గిం', 'U'), ('ప', '|'), ('రా', 'U'), ('దా', 'U'), ('ల', '|'), ('తాం', 'U'), ('గి', '|'), ('రా', 'U'), ('రా', 'U'), ('పు', '|'), ('లే', 'U'), ('లె', '|'), ('యో', 'U'), ('యిం', 'U'), ('దు', '|'), ('ము', '|'), ('ఖి', '|'), ('నీ', 'U'), ('వు', '|'), ('నా', 'U'), ('యం', 'U'), ('దు', '|'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('ని', 'U'), ('ట్లై', 'U'), ('యుం', 'U'), ('దు', '|'), ('వ', '|'), ('ని', '|'), ('దో', 'U'), ('చ', '|'), ('దా', 'U'), ('యె', '|'), ('గ', '|'), ('ద', '|'), ('వె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B187" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
         <is>
           <t>కనరు మాటలు చెవినాని కరుణమాని । మనసుమోడిని కొదవ నీ మాడ్కి బూని
 యతివ నేడేమొ కాని యీ యలవిగాని । వలపుగదె రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('న', '|'), ('రు', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('చె', '|'), ('వి', '|'), ('నా', 'U'), ('ని', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('మా', 'U'), ('ని', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('మో', 'U'), ('డి', '|'), ('ని', '|'), ('కొ', '|'), ('ద', '|'), ('వ', '|'), ('నీ', 'U'), ('మా', 'U'), ('డ్కి', '|'), ('బూ', 'U'), ('ని', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('నే', 'U'), ('డే', 'U'), ('మొ', '|'), ('కా', 'U'), ('ని', '|'), ('యీ', 'U'), ('య', '|'), ('ల', '|'), ('వి', '|'), ('గా', 'U'), ('ని', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('గ', '|'), ('దె', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B188" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
         <is>
           <t>గజనిమ్మపండ్లు నే నజరు చేసెద గాని । బటువుగుబ్బలు సుంత బట్టనియవె
 వెలలేని భూషణమ్ములు కానుకిత్తు నీ । చక్కెరకెమ్మోవి నొక్కనియవె
@@ -6432,63 +5871,57 @@
 తరలాక్షి నీదు పాదంబైన పట్టెద । విడెమైన రవ సమర్పింపగదవె</t>
         </is>
       </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('జ', '|'), ('ని', 'U'), ('మ్మ', '|'), ('పం', 'U'), ('డ్లు', '|'), ('నే', 'U'), ('న', '|'), ('జ', '|'), ('రు', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('బ', '|'), ('టు', '|'), ('వు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('సుం', 'U'), ('త', '|'), ('బ', 'U'), ('ట్ట', '|'), ('ని', '|'), ('య', '|'), ('వె', '|'), ('వె', '|'), ('ల', '|'), ('లే', 'U'), ('ని', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', 'U'), ('మ్ము', '|'), ('లు', '|'), ('కా', 'U'), ('ను', '|'), ('కి', 'U'), ('త్తు', '|'), ('నీ', 'U'), ('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('నొ', 'U'), ('క్క', '|'), ('ని', '|'), ('య', '|'), ('వె', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('నే', 'U'), ('నీ', 'U'), ('కా', 'U'), ('కు', '|'), ('మ', '|'), ('డు', '|'), ('పు', '|'), ('లం', 'U'), ('ది', 'U'), ('త్తు', '|'), ('నన్', 'U'), ('క', '|'), ('ద', '|'), ('సి', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('వే', 'U'), ('డ్క', '|'), ('న', '|'), ('దు', '|'), ('ము', '|'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('త', '|'), ('ర', '|'), ('లా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('దు', '|'), ('పా', 'U'), ('దం', 'U'), ('బై', 'U'), ('న', '|'), ('ప', 'U'), ('ట్టె', '|'), ('ద', '|'), ('వి', '|'), ('డె', '|'), ('మై', 'U'), ('న', '|'), ('ర', '|'), ('వ', '|'), ('స', '|'), ('మ', 'U'), ('ర్పిం', 'U'), ('ప', '|'), ('గ', '|'), ('ద', '|'), ('వె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B189" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
         <is>
           <t>స్నేహమౌచోట నింత నిర్మోహమౌట । తగవటే లేమ యీలాగు సుగుణధామ
 తలచితే భామ నీమీద తగని ప్రేమ । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
           <t>[('స్నే', 'U'), ('హ', '|'), ('మౌ', 'U'), ('చో', 'U'), ('ట', '|'), ('నిం', 'U'), ('త', '|'), ('ని', '|'), ('ర్మో', 'U'), ('హ', '|'), ('మౌ', 'U'), ('ట', '|'), ('త', '|'), ('గ', '|'), ('వ', '|'), ('టే', 'U'), ('లే', 'U'), ('మ', '|'), ('యీ', 'U'), ('లా', 'U'), ('గు', '|'), ('సు', '|'), ('గు', '|'), ('ణ', '|'), ('ధా', 'U'), ('మ', '|'), ('త', '|'), ('ల', '|'), ('చి', '|'), ('తే', 'U'), ('భా', 'U'), ('మ', '|'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('త', '|'), ('గ', '|'), ('ని', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B190" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
         <is>
           <t>స్త్రీలపై నతిబాళి జెందిన పురుషుల । కపకీర్తి దీనత నగుడు దిగులు
 పరువుతక్కువ మోక్షపదవికి దొలుగుట । నైష్టికహీనంబు నవ్వుపాటు
@@ -6496,63 +5929,57 @@
 మానంబు విడి యవమానంబు నొందుట । ధనము గోల్పోవుట తనువు చెడుట</t>
         </is>
       </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
           <t>[('స్త్రీ', 'U'), ('ల', '|'), ('పై', 'U'), ('న', '|'), ('తి', '|'), ('బా', 'U'), ('ళి', '|'), ('జెం', 'U'), ('ది', '|'), ('న', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('ల', '|'), ('క', '|'), ('ప', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('దీ', 'U'), ('న', '|'), ('త', '|'), ('న', '|'), ('గు', '|'), ('డు', '|'), ('ది', '|'), ('గు', '|'), ('లు', '|'), ('ప', '|'), ('రు', '|'), ('వు', '|'), ('త', 'U'), ('క్కు', '|'), ('వ', '|'), ('మో', 'U'), ('క్ష', '|'), ('ప', '|'), ('ద', '|'), ('వి', '|'), ('కి', '|'), ('దొ', '|'), ('లు', '|'), ('గు', '|'), ('ట', '|'), ('నై', 'U'), ('ష్టి', '|'), ('క', '|'), ('హీ', 'U'), ('నం', 'U'), ('బు', '|'), ('న', 'U'), ('వ్వు', '|'), ('పా', 'U'), ('టు', '|'), ('చు', 'U'), ('ట్ట', '|'), ('ప', 'U'), ('క్కం', 'U'), ('బు', '|'), ('ల', '|'), ('సు', 'U'), ('ళ్ల', '|'), ('డ', '|'), ('గిం', 'U'), ('చు', '|'), ('ట', '|'), ('గా', 'U'), ('సి', '|'), ('వి', '|'), ('బు', '|'), ('ధా', 'U'), ('ళి', '|'), ('గ', 'U'), ('న్న', '|'), ('భ', '|'), ('వి', 'U'), ('ష్య', '|'), ('హా', 'U'), ('ని', '|'), ('మా', 'U'), ('నం', 'U'), ('బు', '|'), ('వి', '|'), ('డి', '|'), ('య', '|'), ('వ', '|'), ('మా', 'U'), ('నం', 'U'), ('బు', '|'), ('నొం', 'U'), ('దు', '|'), ('ట', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('గో', 'U'), ('ల్పో', 'U'), ('వు', '|'), ('ట', '|'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('చె', '|'), ('డు', '|'), ('ట', '|')]</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B191" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
         <is>
           <t>వసుధలోపల నెటువంటివారికైన । తగని వలపిట్లు గారాదు తరుణి నీదు
 కృపను గాంచక మన్మథచపల మణప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('సు', '|'), ('ధ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నె', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('వా', 'U'), ('రి', '|'), ('కై', 'U'), ('న', '|'), ('త', '|'), ('గ', '|'), ('ని', '|'), ('వ', '|'), ('ల', '|'), ('పి', 'U'), ('ట్లు', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('దు', '|'), ('కృ', '|'), ('ప', '|'), ('ను', '|'), ('గాం', 'U'), ('చ', '|'), ('క', '|'), ('మ', 'U'), ('న్మ', '|'), ('థ', '|'), ('చ', '|'), ('ప', '|'), ('ల', '|'), ('మ', '|'), ('ణ', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B192" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
         <is>
           <t>ప్రణవమాలింప నీ మణితంబుగా నయ్యె । ధ్యానంబు నీ పదధ్యాన మయ్యె
 లక్ష్యంబు నీ పట్టువక్షోజములు నయ్యె । యోగంబు నీదు సంయోగ మయ్యె
@@ -6560,63 +5987,57 @@
 బింబదృశ్యము నోష్ఠబింబదృశ్యము నయ్యె । స్మరణ యేవేళ నీ శరణ యయ్యె</t>
         </is>
       </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('ణ', '|'), ('వ', '|'), ('మా', 'U'), ('లిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('మ', '|'), ('ణి', '|'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('న', 'U'), ('య్యె', 'U'), ('ధ్యా', 'U'), ('నం', 'U'), ('బు', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('మ', 'U'), ('య్యె', '|'), ('ల', 'U'), ('క్ష్యం', 'U'), ('బు', '|'), ('నీ', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('వ', 'U'), ('క్షో', 'U'), ('జ', '|'), ('ము', '|'), ('లు', '|'), ('న', 'U'), ('య్యె', '|'), ('యో', 'U'), ('గం', 'U'), ('బు', '|'), ('నీ', 'U'), ('దు', '|'), ('సం', 'U'), ('యో', 'U'), ('గ', '|'), ('మ', 'U'), ('య్యె', '|'), ('సు', '|'), ('స', '|'), ('మా', 'U'), ('ధి', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('తం', 'U'), ('త్ర', '|'), ('స', '|'), ('మా', 'U'), ('ధి', '|'), ('గా', 'U'), ('న', 'U'), ('య్యె', '|'), ('జ', '|'), ('ప', '|'), ('ము', '|'), ('నీ', 'U'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('చ', '|'), ('య', '|'), ('ము', '|'), ('న', 'U'), ('య్యె', '|'), ('బిం', 'U'), ('బ', '|'), ('దృ', 'U'), ('శ్య', '|'), ('ము', '|'), ('నో', 'U'), ('ష్ఠ', '|'), ('బిం', 'U'), ('బ', '|'), ('దృ', 'U'), ('శ్య', '|'), ('ము', '|'), ('న', 'U'), ('య్యె', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('యే', 'U'), ('వే', 'U'), ('ళ', '|'), ('నీ', 'U'), ('శ', '|'), ('ర', '|'), ('ణ', '|'), ('య', 'U'), ('య్యె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B193" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
         <is>
           <t>తరణికిరణాశనము జేసి తపమొనర్చు । వారలకునైన నిది గెల్వ దీరదయ్యె
 యజుడు నిర్మించు మాయనేమంచు నెంచ- । వచ్చునే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ర', '|'), ('ణి', '|'), ('కి', '|'), ('ర', '|'), ('ణా', 'U'), ('శ', '|'), ('న', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('త', '|'), ('ప', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('నై', 'U'), ('న', '|'), ('ని', '|'), ('ది', '|'), ('గె', 'U'), ('ల్వ', '|'), ('దీ', 'U'), ('ర', '|'), ('ద', 'U'), ('య్యె', '|'), ('య', '|'), ('జు', '|'), ('డు', '|'), ('ని', '|'), ('ర్మిం', 'U'), ('చు', '|'), ('మా', 'U'), ('య', '|'), ('నే', 'U'), ('మం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B194" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
         <is>
           <t>వనిత నీ చెట్టబట్టినవేళ యెట్టిదో । సకలమనోవాంఛ సఫలమయ్యె
 నను నీవు నిను నేను గనువేళ యెట్టిదో । నంతకంతకు మోహ మగ్గమయ్యె
@@ -6624,63 +6045,57 @@
 వనజాక్షి నీవు పల్కినవేళ యెట్టిదో । నొకదానిపై చిత్తమొదుగదయ్యె</t>
         </is>
       </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ని', '|'), ('త', '|'), ('నీ', 'U'), ('చె', 'U'), ('ట్ట', '|'), ('బ', 'U'), ('ట్టి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('యె', 'U'), ('ట్టి', '|'), ('దో', 'U'), ('స', '|'), ('క', '|'), ('ల', '|'), ('మ', '|'), ('నో', 'U'), ('వాం', 'U'), ('ఛ', '|'), ('స', '|'), ('ఫ', '|'), ('ల', '|'), ('మ', 'U'), ('య్యె', '|'), ('న', '|'), ('ను', '|'), ('నీ', 'U'), ('వు', '|'), ('ని', '|'), ('ను', '|'), ('నే', 'U'), ('ను', '|'), ('గ', '|'), ('ను', '|'), ('వే', 'U'), ('ళ', '|'), ('యె', 'U'), ('ట్టి', '|'), ('దో', 'U'), ('నం', 'U'), ('త', '|'), ('కం', 'U'), ('త', '|'), ('కు', '|'), ('మో', 'U'), ('హ', '|'), ('మ', 'U'), ('గ్గ', '|'), ('మ', 'U'), ('య్యె', '|'), ('మ', '|'), ('న', '|'), ('మి', 'U'), ('ద్ద', '|'), ('ర', '|'), ('ము', '|'), ('గూ', 'U'), ('డు', '|'), ('కొ', '|'), ('ను', '|'), ('వే', 'U'), ('ళ', '|'), ('యె', 'U'), ('ట్టి', '|'), ('దో', 'U'), ('ని', '|'), ('ను', '|'), ('జూ', 'U'), ('డ', '|'), ('క', '|'), ('ను', '|'), ('బా', 'U'), ('ళి', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('ద', 'U'), ('య్యె', '|'), ('వ', '|'), ('న', '|'), ('జా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('వు', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('యె', 'U'), ('ట్టి', '|'), ('దో', 'U'), ('నొ', '|'), ('క', '|'), ('దా', 'U'), ('ని', '|'), ('పై', 'U'), ('చి', 'U'), ('త్త', '|'), ('మొ', '|'), ('దు', '|'), ('గ', '|'), ('ద', 'U'), ('య్యె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B195" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
         <is>
           <t>నెటుల సైరింతు నిన్ను నేనెపుడు గాంతు । నేది యుపమెంతు నీ జాలినెటు లడంతు
 మగువ దయయుంచునని చాల మది దలంతు । వరుసనిటు రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('టు', '|'), ('ల', '|'), ('సై', 'U'), ('రిం', 'U'), ('తు', '|'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('గాం', 'U'), ('తు', '|'), ('నే', 'U'), ('ది', '|'), ('యు', '|'), ('ప', '|'), ('మెం', 'U'), ('తు', '|'), ('నీ', 'U'), ('జా', 'U'), ('లి', '|'), ('నె', '|'), ('టు', '|'), ('ల', '|'), ('డం', 'U'), ('తు', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('ద', '|'), ('య', '|'), ('యుం', 'U'), ('చు', '|'), ('న', '|'), ('ని', '|'), ('చా', 'U'), ('ల', '|'), ('మ', '|'), ('ది', '|'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('వ', '|'), ('రు', '|'), ('స', '|'), ('ని', '|'), ('టు', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B196" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
         <is>
           <t>నెమ్మేన కళలు ఘూర్ణిలగ గౌ నళికి ఘం- । టల తాబు కొల్కి పఠాలురనగ
 రంగైన తాపితా రయిక చన్ పొగరున । బిగిసి పక్కున కుట్లు పిక్కటిల్ల
@@ -6688,63 +6103,57 @@
 గమగమలాడు గంధపుపూత లొక్కొక- । చోట పై రవరవ పేటులెత్త</t>
         </is>
       </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
           <t>[('నె', 'U'), ('మ్మే', 'U'), ('న', '|'), ('క', '|'), ('ళ', '|'), ('లు', '|'), ('ఘూ', 'U'), ('ర్ణి', '|'), ('ల', '|'), ('గ', '|'), ('గౌ', 'U'), ('న', '|'), ('ళి', '|'), ('కి', '|'), ('ఘం', 'U'), ('ట', '|'), ('ల', '|'), ('తా', 'U'), ('బు', '|'), ('కొ', 'U'), ('ల్కి', '|'), ('ప', '|'), ('ఠా', 'U'), ('లు', '|'), ('ర', '|'), ('న', '|'), ('గ', '|'), ('రం', 'U'), ('గై', 'U'), ('న', '|'), ('తా', 'U'), ('పి', '|'), ('తా', 'U'), ('ర', '|'), ('యి', '|'), ('క', '|'), ('చన్', 'U'), ('పొ', '|'), ('గ', '|'), ('రు', '|'), ('న', '|'), ('బి', '|'), ('గి', '|'), ('సి', '|'), ('ప', 'U'), ('క్కు', '|'), ('న', '|'), ('కు', 'U'), ('ట్లు', '|'), ('పి', 'U'), ('క్క', '|'), ('టి', 'U'), ('ల్ల', '|'), ('ర', 'U'), ('త్న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('లం', 'U'), ('క', '|'), ('రిం', 'U'), ('చం', 'U'), ('గ', '|'), ('యీ', 'U'), ('వి', '|'), ('ర', '|'), ('హా', 'U'), ('గ్ని', '|'), ('వే', 'U'), ('డి', '|'), ('మి', '|'), ('వె', 'U'), ('ళ్ల', '|'), ('ను', '|'), ('ర', '|'), ('క', '|'), ('గ', '|'), ('మ', '|'), ('గ', '|'), ('మ', '|'), ('లా', 'U'), ('డు', '|'), ('గం', 'U'), ('ధ', '|'), ('పు', '|'), ('పూ', 'U'), ('త', '|'), ('లొ', 'U'), ('క్కొ', '|'), ('క', '|'), ('చో', 'U'), ('ట', '|'), ('పై', 'U'), ('ర', '|'), ('వ', '|'), ('ర', '|'), ('వ', '|'), ('పే', 'U'), ('టు', '|'), ('లె', 'U'), ('త్త', '|')]</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B197" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
         <is>
           <t>వచ్చి మనసిచ్చి ననుమెచ్చి వలపులెచ్చి । కరుణతో మచ్చికను గ్రుచ్చి కౌగలిచ్చి
 కలయికకుజొచ్చినట్టి నీ ఘనత దలప । వశమటే రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
           <t>[('వ', 'U'), ('చ్చి', '|'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చి', '|'), ('న', '|'), ('ను', '|'), ('మె', 'U'), ('చ్చి', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('లె', 'U'), ('చ్చి', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('తో', 'U'), ('మ', 'U'), ('చ్చి', '|'), ('క', '|'), ('ను', 'U'), ('గ్రు', 'U'), ('చ్చి', '|'), ('కౌ', 'U'), ('గ', '|'), ('లి', 'U'), ('చ్చి', '|'), ('క', '|'), ('ల', '|'), ('యి', '|'), ('క', '|'), ('కు', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B198" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
         <is>
           <t>మగవారి నింతులే వగ నెచ్చరించుట- । లని సిగ్గుదోచదో వనజగంధి
 పైకొన్నవేళ కోపము సేతురో యని । భయమైన కాదటే పల్లవోష్ఠి
@@ -6752,63 +6161,57 @@
 యెరుక సేయక మోవి నెటు నొక్కనంచు తొం- । దర జెందదె మేను సరసిజాక్షి</t>
         </is>
       </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('నిం', 'U'), ('తు', '|'), ('లే', 'U'), ('వ', '|'), ('గ', '|'), ('నె', 'U'), ('చ్చ', '|'), ('రిం', 'U'), ('చు', '|'), ('ట', '|'), ('ల', '|'), ('ని', '|'), ('సి', 'U'), ('గ్గు', '|'), ('దో', 'U'), ('చ', '|'), ('దో', 'U'), ('వ', '|'), ('న', '|'), ('జ', '|'), ('గం', 'U'), ('ధి', '|'), ('పై', 'U'), ('కొ', 'U'), ('న్న', '|'), ('వే', 'U'), ('ళ', '|'), ('కో', 'U'), ('ప', '|'), ('ము', '|'), ('సే', 'U'), ('తు', '|'), ('రో', 'U'), ('య', '|'), ('ని', '|'), ('భ', '|'), ('య', '|'), ('మై', 'U'), ('న', '|'), ('కా', 'U'), ('ద', '|'), ('టే', 'U'), ('ప', 'U'), ('ల్ల', '|'), ('వో', 'U'), ('ష్ఠి', '|'), ('స', '|'), ('రి', '|'), ('వా', 'U'), ('రు', '|'), ('గ', 'U'), ('న్న', '|'), ('మో', 'U'), ('స', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('సుం', 'U'), ('తై', 'U'), ('న', '|'), ('మ', '|'), ('ది', '|'), ('కె', 'U'), ('గ్గు', '|'), ('లే', 'U'), ('ద', '|'), ('టే', 'U'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('వా', 'U'), ('ణి', '|'), ('యె', '|'), ('రు', '|'), ('క', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('మో', 'U'), ('వి', '|'), ('నె', '|'), ('టు', '|'), ('నొ', 'U'), ('క్క', '|'), ('నం', 'U'), ('చు', '|'), ('తొం', 'U'), ('ద', '|'), ('ర', '|'), ('జెం', 'U'), ('ద', '|'), ('దె', '|'), ('మే', 'U'), ('ను', '|'), ('స', '|'), ('ర', '|'), ('సి', '|'), ('జా', 'U'), ('క్షి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B199" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
         <is>
           <t>యవల పో పోవె తేపకు నంటరాకు । మొదటికూటివె పదివేలు ముదిత చాలు-
 నింకమీదట నీ గుణమెల్ల తెలిసి । వచ్చెగదె రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('వ', '|'), ('ల', '|'), ('పో', 'U'), ('పో', 'U'), ('వె', '|'), ('తే', 'U'), ('ప', '|'), ('కు', '|'), ('నం', 'U'), ('ట', '|'), ('రా', 'U'), ('కు', '|'), ('మొ', '|'), ('ద', '|'), ('టి', '|'), ('కూ', 'U'), ('టి', '|'), ('వె', '|'), ('ప', '|'), ('ది', '|'), ('వే', 'U'), ('లు', '|'), ('ము', '|'), ('ది', '|'), ('త', '|'), ('చా', 'U'), ('లు', '|'), ('నిం', 'U'), ('క', '|'), ('మీ', 'U'), ('ద', '|'), ('ట', '|'), ('నీ', 'U'), ('గు', '|'), ('ణ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('వ', 'U'), ('చ్చె', '|'), ('గ', '|'), ('దె', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B200" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
         <is>
           <t>భాస్కరవంశదీపకయోగిబృందహృ- । త్కమలమార్తాండ మంగళము నీకు
 సకలసురాసురసంసేవ్యపాదసా- । గరశాయి సహజమంగళము నీకు
@@ -6816,48 +6219,45 @@
 పార్థివేంద్రలలామఫలదాయకాభీష్ట । గజరాజవరద మంగళము నీకు</t>
         </is>
       </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
           <t>[('భా', 'U'), ('స్క', '|'), ('ర', '|'), ('వం', 'U'), ('శ', '|'), ('దీ', 'U'), ('ప', '|'), ('క', '|'), ('యో', 'U'), ('గి', '|'), ('బృం', 'U'), ('ద', '|'), ('హృ', 'U'), ('త్క', '|'), ('మ', '|'), ('ల', '|'), ('మా', 'U'), ('ర్తాం', 'U'), ('డ', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('సు', '|'), ('రా', 'U'), ('సు', '|'), ('ర', '|'), ('సం', 'U'), ('సే', 'U'), ('వ్య', '|'), ('పా', 'U'), ('ద', '|'), ('సా', 'U'), ('గ', '|'), ('ర', '|'), ('శా', 'U'), ('యి', '|'), ('స', '|'), ('హ', '|'), ('జ', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('కు', '|'), ('జ', '|'), ('న', '|'), ('గ', 'U'), ('ర్వ', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ని', '|'), ('జ', '|'), ('భ', 'U'), ('క్త', '|'), ('పా', 'U'), ('ల', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('పా', 'U'), ('ర్థి', '|'), ('వేం', 'U'), ('ద్ర', '|'), ('ల', '|'), ('లా', 'U'), ('మ', '|'), ('ఫ', '|'), ('ల', '|'), ('దా', 'U'), ('య', '|'), ('కా', 'U'), ('భీ', 'U'), ('ష్ట', '|'), ('గ', '|'), ('జ', '|'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B201" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
         <is>
           <t>ఘనసుగుణధామ ఘోరసంగ్రామభీమ । బుధజనస్తోమ నవ్యసంపూర్ణకామ
 పతితపావనకృతినామ భవవిరామ । వరచరిత రామరామ లావణ్యసీమ.</t>
         </is>
       </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>laavanya</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
-        <is>
-          <t>laavanya</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
         <is>
           <t>[('ఘ', '|'), ('న', '|'), ('సు', '|'), ('గు', '|'), ('ణ', '|'), ('ధా', 'U'), ('మ', '|'), ('ఘో', 'U'), ('ర', '|'), ('సం', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('భీ', 'U'), ('మ', '|'), ('బు', '|'), ('ధ', '|'), ('జ', '|'), ('న', 'U'), ('స్తో', 'U'), ('మ', '|'), ('న', 'U'), ('వ్య', '|'), ('సం', 'U'), ('పూ', 'U'), ('ర్ణ', '|'), ('కా', 'U'), ('మ', '|'), ('ప', '|'), ('తి', '|'), ('త', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('కృ', '|'), ('తి', '|'), ('నా', 'U'), ('మ', '|'), ('భ', '|'), ('వ', '|'), ('వి', '|'), ('రా', 'U'), ('మ', '|'), ('వ', '|'), ('ర', '|'), ('చ', '|'), ('రి', '|'), ('త', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>

--- a/dataset/lg/laavanya.xlsx
+++ b/dataset/lg/laavanya.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('ని', '|'), ('న', '|'), ('శా', 'U'), ('ర', '|'), ('ద', '|'), ('నే', 'U'), ('క', '|'), ('దం', 'U'), ('తు', '|'), ('ని', '|'), ('ను', '|'), ('తిం', 'U'), ('చి', '|'), ('నే', 'U'), ('ర', '|'), ('చిం', 'U'), ('చె', '|'), ('ద', '|'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('నీ', 'U'), ('దు', '|'), ('కృ', '|'), ('ప', '|'), ('లే', 'U'), ('క', '|'), ('కృ', '|'), ('తి', '|'), ('సే', 'U'), ('య', '|'), ('నె', '|'), ('వ', '|'), ('రి', '|'), ('కై', 'U'), ('న', '|'), ('వ', '|'), ('శ', '|'), ('మె', '|'), ('శ్రీ', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
+          <t>[('మ', '|'), ('ని', '|'), ('న', '|'), ('శా', 'U'), ('ర', '|'), ('ద', '|'), ('నే', 'U'), ('క', '|'), ('దం', 'U'), ('తు', '|'), ('ని', '|'), ('ను', '|'), ('తిం', 'U'), ('చి', '|'), ('నే', 'U'), ('ర', '|'), ('చిం', 'U'), ('చె', '|'), ('ద', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('నీ', 'U'), ('దు', '|'), ('కృ', '|'), ('ప', '|'), ('లే', 'U'), ('క', '|'), ('కృ', '|'), ('తి', '|'), ('సే', 'U'), ('య', '|'), ('నె', '|'), ('వ', '|'), ('రి', '|'), ('కై', 'U'), ('న', '|'), ('వ', '|'), ('శ', '|'), ('మె', '|'), ('శ్రీ', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('నొ', '|'), ('క', '|'), ('రి', '|'), ('క', '|'), ('యి', '|'), ('త', '|'), ('ను', '|'), ('గ', '|'), ('ని', '|'), ('హే', 'U'), ('ళ', '|'), ('నో', 'U'), ('క్తు', '|'), ('లా', 'U'), ('డు', '|'), ('కు', '|'), ('క', '|'), ('వి', '|'), ('శుం', 'U'), ('ఠ', '|'), ('ల', '|'), ('మూ', 'U'), ('తి', '|'), ('పై', 'U'), ('గొ', 'U'), ('ట్టి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('నే', 'U'), ('నొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('ద', '|'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('దు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
+          <t>[('నొ', '|'), ('క', '|'), ('రి', '|'), ('క', '|'), ('యి', '|'), ('త', '|'), ('ను', '|'), ('గ', '|'), ('ని', '|'), ('హే', 'U'), ('ళ', '|'), ('నో', 'U'), ('క్తు', '|'), ('లా', 'U'), ('డు', '|'), ('కు', '|'), ('క', '|'), ('వి', '|'), ('శుం', 'U'), ('ఠ', '|'), ('ల', '|'), ('మూ', 'U'), ('తి', '|'), ('పై', 'U'), ('గొ', 'U'), ('ట్టి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('నే', 'U'), ('నొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('ద', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్నీ', 'U'), ('దు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('ప్రే', 'U'), ('మ', '|'), ('చే', 'U'), ('నా', 'U'), ('దు', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('రా', 'U'), ('న', '|'), ('డు', '|'), ('చు', '|'), ('కొ', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('నా', 'U'), ('గ', '|'), ('రి', '|'), ('క', '|'), ('ము', '|'), ('వి', '|'), ('న', '|'), ('య', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('లొ', 'U'), ('ప్ప', '|'), ('కం', 'U'), ('దు', '|'), ('వ', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డె', '|'), ('డు', '|'), ('నె', '|'), ('ర', '|'), ('నీ', 'U'), ('టు', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('ద', 'U'), ('ర్ప', '|'), ('క', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('మీ', 'U'), ('రి', '|'), ('క', '|'), ('ళ', '|'), ('లం', 'U'), ('టి', '|'), ('సొ', 'U'), ('క్కిం', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('సో', 'U'), ('య', '|'), ('గ', '|'), ('ము', '|'), ('స', '|'), ('ర', '|'), ('స', 'U'), ('త్వ', '|'), ('ము', '|'), ('న', '|'), ('బం', 'U'), ('ధ', '|'), ('స', '|'), ('ర', '|'), ('ణి', '|'), ('గు', 'U'), ('ర్తె', '|'), ('రి', '|'), ('గి', '|'), ('నన్', 'U'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('తే', 'U'), ('లిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('ర', '|'), ('సి', '|'), ('క', '|'), ('త', '|'), ('యు', '|'), ('ను', '|')]</t>
+          <t>[('శ్రీ', 'U'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('ప్రే', 'U'), ('మ', '|'), ('చే', 'U'), ('నా', 'U'), ('దు', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('రా', 'U'), ('న', '|'), ('డు', '|'), ('చు', '|'), ('కొ', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('నా', 'U'), ('గ', '|'), ('రి', '|'), ('క', '|'), ('ము', '|'), ('వి', '|'), ('న', '|'), ('య', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('లొ', 'U'), ('ప్ప', '|'), ('కం', 'U'), ('దు', '|'), ('వ', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డె', '|'), ('డు', '|'), ('నె', '|'), ('ర', '|'), ('నీ', 'U'), ('టు', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('ద', 'U'), ('ర్ప', '|'), ('క', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('మీ', 'U'), ('రి', '|'), ('క', '|'), ('ళ', '|'), ('లం', 'U'), ('టి', '|'), ('సొ', 'U'), ('క్కిం', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('సో', 'U'), ('య', '|'), ('గ', '|'), ('ము', '|'), ('స', '|'), ('ర', '|'), ('స', 'U'), ('త్వ', '|'), ('ము', '|'), ('న', '|'), ('బం', 'U'), ('ధ', '|'), ('స', '|'), ('ర', '|'), ('ణి', '|'), ('గు', 'U'), ('ర్తె', '|'), ('రి', '|'), ('గి', '|'), ('న', '|'), ('న్ర', '|'), ('తు', '|'), ('ల', '|'), ('తే', 'U'), ('లిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('ర', '|'), ('సి', '|'), ('క', '|'), ('త', '|'), ('యు', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('సు', '|'), ('క', '|'), ('ది', 'U'), ('న్నె', '|'), ('ల', '|'), ('ను', '|'), ('నీ', 'U'), ('రెం', 'U'), ('డ', '|'), ('గా', 'U'), ('సి', '|'), ('న', '|'), ('య', '|'), ('టు', '|'), ('వ', '|'), ('లె', '|'), ('పి', '|'), ('రుం', 'U'), ('దు', '|'), ('ల', '|'), ('నం', 'U'), ('టి', '|'), ('వ', 'U'), ('ల్వ', '|'), ('ద', '|'), ('న', '|'), ('ర', '|'), ('దం', 'U'), ('త', '|'), ('పు', '|'), ('భ', '|'), ('రి', '|'), ('ణ', '|'), ('మూ', 'U'), ('త', '|'), ('ల', '|'), ('రం', 'U'), ('గు', '|'), ('బూ', 'U'), ('సి', '|'), ('న', '|'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('కం', 'U'), ('చు', '|'), ('కం', 'U'), ('బు', '|'), ('వె', '|'), ('లు', '|'), ('గ', '|'), ('కొ', '|'), ('న', '|'), ('చె', '|'), ('వి', '|'), ('ప', 'U'), ('చ్చ', '|'), ('డాల్', 'U'), ('గో', 'U'), ('డ', '|'), ('ల', '|'), ('బీ', 'U'), ('రా', 'U'), ('కు', '|'), ('ప', '|'), ('స', '|'), ('రు', '|'), ('చ', 'U'), ('ల్లి', '|'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('ప', '|'), ('రి', '|'), ('ఢ', '|'), ('వి', 'U'), ('ల్ల', '|'), ('రా', 'U'), ('జ', '|'), ('బిం', 'U'), ('బ', '|'), ('ము', '|'), ('న', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('తీ', 'U'), ('గె', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('గ', '|'), ('తి', '|'), ('తి', '|'), ('రు', '|'), ('చూ', 'U'), ('ర్ణ', '|'), ('రే', 'U'), ('ఖ', '|')]</t>
+          <t>[('ఇ', '|'), ('సు', '|'), ('క', '|'), ('ది', 'U'), ('న్నె', '|'), ('ల', '|'), ('ను', '|'), ('నీ', 'U'), ('రెం', 'U'), ('డ', '|'), ('గా', 'U'), ('సి', '|'), ('న', '|'), ('య', '|'), ('టు', '|'), ('వ', '|'), ('లె', '|'), ('పి', '|'), ('రుం', 'U'), ('దు', '|'), ('ల', '|'), ('నం', 'U'), ('టి', '|'), ('వ', 'U'), ('ల్వ', '|'), ('ద', '|'), ('న', '|'), ('ర', '|'), ('దం', 'U'), ('త', '|'), ('పు', '|'), ('భ', '|'), ('రి', '|'), ('ణ', '|'), ('మూ', 'U'), ('త', '|'), ('ల', '|'), ('రం', 'U'), ('గు', '|'), ('బూ', 'U'), ('సి', '|'), ('న', '|'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('కం', 'U'), ('చు', '|'), ('కం', 'U'), ('బు', '|'), ('వె', '|'), ('లు', '|'), ('గ', '|'), ('కొ', '|'), ('న', '|'), ('చె', '|'), ('వి', '|'), ('ప', 'U'), ('చ్చ', '|'), ('డా', 'U'), ('ల్గో', 'U'), ('డ', '|'), ('ల', '|'), ('బీ', 'U'), ('రా', 'U'), ('కు', '|'), ('ప', '|'), ('స', '|'), ('రు', '|'), ('చ', 'U'), ('ల్లి', '|'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('ప', '|'), ('రి', '|'), ('ఢ', '|'), ('వి', 'U'), ('ల్ల', '|'), ('రా', 'U'), ('జ', '|'), ('బిం', 'U'), ('బ', '|'), ('ము', '|'), ('న', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('తీ', 'U'), ('గె', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('గ', '|'), ('తి', '|'), ('తి', '|'), ('రు', '|'), ('చూ', 'U'), ('ర్ణ', '|'), ('రే', 'U'), ('ఖ', '|')]</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('దై', 'U'), ('వ', '|'), ('ఘ', '|'), ('ట', '|'), ('నే', 'U'), ('మొ', '|'), ('గా', 'U'), ('ని', '|'), ('నిన్', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('ఝ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('ని', '|'), ('గుం', 'U'), ('డె', '|'), ('ల', '|'), ('ద', '|'), ('రె', '|'), ('నీ', 'U'), ('జా', 'U'), ('లి', '|'), ('మా', 'U'), ('ని', '|'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('న', 'U'), ('న్నే', 'U'), ('చ', '|'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('దా', 'U'), ('చ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
+          <t>[('దై', 'U'), ('వ', '|'), ('ఘ', '|'), ('ట', '|'), ('నే', 'U'), ('మొ', '|'), ('గా', 'U'), ('ని', '|'), ('ని', 'U'), ('న్ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('ఝ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('ని', '|'), ('గుం', 'U'), ('డె', '|'), ('ల', '|'), ('ద', '|'), ('రె', '|'), ('నీ', 'U'), ('జా', 'U'), ('లి', '|'), ('మా', 'U'), ('ని', '|'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('న', 'U'), ('న్నే', 'U'), ('చ', '|'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('దా', 'U'), ('చ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('మ', '|'), ('బం', 'U'), ('ధ', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('స', '|'), ('మ', '|'), ('య', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('క', '|'), ('ర', 'U'), ('మ్ము', '|'), ('లు', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('లం', 'U'), ('కె', '|'), ('లు', '|'), ('ద', '|'), ('న', 'U'), ('ర్చి', '|'), ('గు', '|'), ('ది', '|'), ('కా', 'U'), ('ళ్లు', '|'), ('పి', '|'), ('రు', '|'), ('దు', '|'), ('ల', '|'), ('న', '|'), ('ది', '|'), ('మి', '|'), ('వా', 'U'), ('తె', '|'), ('ర', '|'), ('ల', '|'), ('నొం', 'U'), ('డొం', 'U'), ('డ', '|'), ('ప', 'U'), ('ల్మొ', '|'), ('న', '|'), ('ల', '|'), ('తొ', '|'), ('నొ', '|'), ('ర', '|'), ('యు', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('రె', 'U'), ('క్క', '|'), ('లన్', 'U'), ('గూ', 'U'), ('ర్చి', '|'), ('క', '|'), ('న్రె', 'U'), ('ప్ప', '|'), ('ల', 'U'), ('ల్లా', 'U'), ('ర్పు', '|'), ('చు', '|'), ('క', '|'), ('డు', '|'), ('ప', 'U'), ('క్క', '|'), ('ళిం', 'U'), ('చి', '|'), ('వె', 'U'), ('న్క', '|'), ('ల', '|'), ('కు', '|'), ('ది', '|'), ('రి', '|'), ('గి', '|'), ('త', '|'), ('ను', '|'), ('చి', '|'), ('వు', 'U'), ('క్కు', '|'), ('న', '|'), ('ను', '|'), ('పై', 'U'), ('కొ', '|'), ('ను', '|'), ('వి', '|'), ('తం', 'U'), ('బి', '|'), ('ది', '|'), ('గా', 'U'), ('దు', '|'), ('డిం', 'U'), ('కి', '|'), ('సే', 'U'), ('యు', '|'), ('ద', '|'), ('ము', '|'), ('లెం', 'U'), ('డి', '|'), ('య', '|'), ('ని', '|'), ('లే', 'U'), ('చి', '|')]</t>
+          <t>[('స', '|'), ('మ', '|'), ('బం', 'U'), ('ధ', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('స', '|'), ('మ', '|'), ('య', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('క', '|'), ('ర', 'U'), ('మ్ము', '|'), ('లు', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('లం', 'U'), ('కె', '|'), ('లు', '|'), ('ద', '|'), ('న', 'U'), ('ర్చి', '|'), ('గు', '|'), ('ది', '|'), ('కా', 'U'), ('ళ్లు', '|'), ('పి', '|'), ('రు', '|'), ('దు', '|'), ('ల', '|'), ('న', '|'), ('ది', '|'), ('మి', '|'), ('వా', 'U'), ('తె', '|'), ('ర', '|'), ('ల', '|'), ('నొం', 'U'), ('డొం', 'U'), ('డ', '|'), ('ప', 'U'), ('ల్మొ', '|'), ('న', '|'), ('ల', '|'), ('తొ', '|'), ('నొ', '|'), ('ర', '|'), ('యు', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('రె', 'U'), ('క్క', '|'), ('ల', 'U'), ('న్గూ', 'U'), ('ర్చి', '|'), ('క', '|'), ('న్రె', 'U'), ('ప్ప', '|'), ('ల', 'U'), ('ల్లా', 'U'), ('ర్పు', '|'), ('చు', '|'), ('క', '|'), ('డు', '|'), ('ప', 'U'), ('క్క', '|'), ('ళిం', 'U'), ('చి', '|'), ('వె', 'U'), ('న్క', '|'), ('ల', '|'), ('కు', '|'), ('ది', '|'), ('రి', '|'), ('గి', '|'), ('త', '|'), ('ను', '|'), ('చి', '|'), ('వు', 'U'), ('క్కు', '|'), ('న', '|'), ('ను', '|'), ('పై', 'U'), ('కొ', '|'), ('ను', '|'), ('వి', '|'), ('తం', 'U'), ('బి', '|'), ('ది', '|'), ('గా', 'U'), ('దు', '|'), ('డిం', 'U'), ('కి', '|'), ('సే', 'U'), ('యు', '|'), ('ద', '|'), ('ము', '|'), ('లెం', 'U'), ('డి', '|'), ('య', '|'), ('ని', '|'), ('లే', 'U'), ('చి', '|')]</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('మై', 'U'), ('సూ', 'U'), ('రి', '|'), ('కు', '|'), ('తి', '|'), ('నీ', 'U'), ('త', '|'), ('మా', 'U'), ('ను', '|'), ('వే', 'U'), ('సు', '|'), ('క', '|'), ('జ', '|'), ('రీ', 'U'), ('పా', 'U'), ('గా', 'U'), ('తు', '|'), ('రా', 'U'), ('యి', '|'), ('గ', 'U'), ('న్ప', '|'), ('డ', '|'), ('గ', '|'), ('జు', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('రి', '|'), ('శా', 'U'), ('లు', '|'), ('వ', '|'), ('వ', 'U'), ('ల్లె', '|'), ('వా', 'U'), ('టు', '|'), ('గా', 'U'), ('న', '|'), ('మ', '|'), ('రిం', 'U'), ('చి', '|'), ('బే', 'U'), ('షై', 'U'), ('న', '|'), ('ర', '|'), ('వ', '|'), ('ల', '|'), ('స', 'U'), ('ర్పో', 'U'), ('షు', '|'), ('నిం', 'U'), ('చి', '|'), ('వా', 'U'), ('ణి', '|'), ('గా', 'U'), ('జి', '|'), ('గి', '|'), ('బ', 'U'), ('ర్ద', '|'), ('వా', 'U'), ('ని', '|'), ('తే', 'U'), ('గా', 'U'), ('వ', '|'), ('ర', '|'), ('పై', 'U'), ('మొ', '|'), ('ఖ', '|'), ('మల్', 'U'), ('గ', '|'), ('లీ', 'U'), ('బా', 'U'), ('వ', '|'), ('ద', 'U'), ('ల్చి', '|'), ('చి', '|'), ('ల', '|'), ('క', '|'), ('వి', 'U'), ('ప్పి', '|'), ('చా', 'U'), ('య', '|'), ('లు', '|'), ('త', '|'), ('ళు', 'U'), ('క్కు', '|'), ('న', '|'), ('దూ', 'U'), ('సి', '|'), ('జి', '|'), ('గి', '|'), ('గ', '|'), ('ల', '|'), ('చి', 'U'), ('ల్క', '|'), ('తే', 'U'), ('జీ', 'U'), ('ప', '|'), ('ఠా', 'U'), ('ణి', '|')]</t>
+          <t>[('మై', 'U'), ('సూ', 'U'), ('రి', '|'), ('కు', '|'), ('తి', '|'), ('నీ', 'U'), ('త', '|'), ('మా', 'U'), ('ను', '|'), ('వే', 'U'), ('సు', '|'), ('క', '|'), ('జ', '|'), ('రీ', 'U'), ('పా', 'U'), ('గా', 'U'), ('తు', '|'), ('రా', 'U'), ('యి', '|'), ('గ', 'U'), ('న్ప', '|'), ('డ', '|'), ('గ', '|'), ('జు', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('రి', '|'), ('శా', 'U'), ('లు', '|'), ('వ', '|'), ('వ', 'U'), ('ల్లె', '|'), ('వా', 'U'), ('టు', '|'), ('గా', 'U'), ('న', '|'), ('మ', '|'), ('రిం', 'U'), ('చి', '|'), ('బే', 'U'), ('షై', 'U'), ('న', '|'), ('ర', '|'), ('వ', '|'), ('ల', '|'), ('స', 'U'), ('ర్పో', 'U'), ('షు', '|'), ('నిం', 'U'), ('చి', '|'), ('వా', 'U'), ('ణి', '|'), ('గా', 'U'), ('జి', '|'), ('గి', '|'), ('బ', 'U'), ('ర్ద', '|'), ('వా', 'U'), ('ని', '|'), ('తే', 'U'), ('గా', 'U'), ('వ', '|'), ('ర', '|'), ('పై', 'U'), ('మొ', '|'), ('ఖ', '|'), ('మ', 'U'), ('ల్గ', '|'), ('లీ', 'U'), ('బా', 'U'), ('వ', '|'), ('ద', 'U'), ('ల్చి', '|'), ('చి', '|'), ('ల', '|'), ('క', '|'), ('వి', 'U'), ('ప్పి', '|'), ('చా', 'U'), ('య', '|'), ('లు', '|'), ('త', '|'), ('ళు', 'U'), ('క్కు', '|'), ('న', '|'), ('దూ', 'U'), ('సి', '|'), ('జి', '|'), ('గి', '|'), ('గ', '|'), ('ల', '|'), ('చి', 'U'), ('ల్క', '|'), ('తే', 'U'), ('జీ', 'U'), ('ప', '|'), ('ఠా', 'U'), ('ణి', '|')]</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[('జా', 'U'), ('తి', '|'), ('జం', 'U'), ('గా', 'U'), ('లి', '|'), ('బ', '|'), ('నా', 'U'), ('తి', '|'), ('క', '|'), ('నా', 'U'), ('తి', '|'), ('స', '|'), ('రా', 'U'), ('తి', '|'), ('లో', 'U'), ('ద', '|'), ('ట', '|'), ('ను', '|'), ('సూ', 'U'), ('ర', '|'), ('తు', '|'), ('వు', '|'), ('లం', 'U'), ('దు', '|'), ('మొ', '|'), ('ఖ', '|'), ('మల్', 'U'), ('ఖు', '|'), ('రా', 'U'), ('ళ', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గ', '|'), ('న', '|'), ('ఖా', 'U'), ('సీ', 'U'), ('చు', 'U'), ('ట్టు', '|'), ('త', '|'), ('గు', '|'), ('టు', '|'), ('చీ', 'U'), ('నీ', 'U'), ('లి', '|'), ('ము', 'U'), ('త్య', '|'), ('ము', '|'), ('ల', '|'), ('చే', 'U'), ('ర్లు', '|'), ('ప', '|'), ('గ', '|'), ('డం', 'U'), ('పు', '|'), ('చే', 'U'), ('వ', '|'), ('కం', 'U'), ('బా', 'U'), ('లు', '|'), ('ము', 'U'), ('ప్పి', '|'), ('రి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('ప', 'U'), ('గ్గ', '|'), ('ముల్', 'U'), ('స', '|'), ('రి', '|'), ('గె', '|'), ('హొం', 'U'), ('బ', 'U'), ('ట్టు', '|'), ('కు', 'U'), ('ట్టు', '|'), ('న', '|'), ('మ', '|'), ('రు', '|'), ('ష', '|'), ('మే', 'U'), ('నా', 'U'), ('కృ', '|'), ('శ', '|'), ('ము', '|'), ('లు', '|'), ('క', '|'), ('మా', 'U'), ('ను', '|'), ('వా', 'U'), ('కి', 'U'), ('ళ్లు', '|'), ('నీ', 'U'), ('లం', 'U'), ('పు', '|'), ('మే', 'U'), ('కీ', 'U'), ('లు', '|'), ('కొ', '|'), ('ణి', '|'), ('గె', '|')]</t>
+          <t>[('జా', 'U'), ('తి', '|'), ('జం', 'U'), ('గా', 'U'), ('లి', '|'), ('బ', '|'), ('నా', 'U'), ('తి', '|'), ('క', '|'), ('నా', 'U'), ('తి', '|'), ('స', '|'), ('రా', 'U'), ('తి', '|'), ('లో', 'U'), ('ద', '|'), ('ట', '|'), ('ను', '|'), ('సూ', 'U'), ('ర', '|'), ('తు', '|'), ('వు', '|'), ('లం', 'U'), ('దు', '|'), ('మొ', '|'), ('ఖ', '|'), ('మ', 'U'), ('ల్ఖు', '|'), ('రా', 'U'), ('ళ', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గ', '|'), ('న', '|'), ('ఖా', 'U'), ('సీ', 'U'), ('చు', 'U'), ('ట్టు', '|'), ('త', '|'), ('గు', '|'), ('టు', '|'), ('చీ', 'U'), ('నీ', 'U'), ('లి', '|'), ('ము', 'U'), ('త్య', '|'), ('ము', '|'), ('ల', '|'), ('చే', 'U'), ('ర్లు', '|'), ('ప', '|'), ('గ', '|'), ('డం', 'U'), ('పు', '|'), ('చే', 'U'), ('వ', '|'), ('కం', 'U'), ('బా', 'U'), ('లు', '|'), ('ము', 'U'), ('ప్పి', '|'), ('రి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('ప', 'U'), ('గ్గ', '|'), ('ము', 'U'), ('ల్స', '|'), ('రి', '|'), ('గె', '|'), ('హొం', 'U'), ('బ', 'U'), ('ట్టు', '|'), ('కు', 'U'), ('ట్టు', '|'), ('న', '|'), ('మ', '|'), ('రు', '|'), ('ష', '|'), ('మే', 'U'), ('నా', 'U'), ('కృ', '|'), ('శ', '|'), ('ము', '|'), ('లు', '|'), ('క', '|'), ('మా', 'U'), ('ను', '|'), ('వా', 'U'), ('కి', 'U'), ('ళ్లు', '|'), ('నీ', 'U'), ('లం', 'U'), ('పు', '|'), ('మే', 'U'), ('కీ', 'U'), ('లు', '|'), ('కొ', '|'), ('ణి', '|'), ('గె', '|')]</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[('దం', 'U'), ('డు', '|'), ('కూ', 'U'), ('చీ', 'U'), ('జే', 'U'), ('సి', '|'), ('లెం', 'U'), ('డ', '|'), ('ని', '|'), ('స', '|'), ('ర', '|'), ('దా', 'U'), ('ర్ల', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('న', '|'), ('బ', 'U'), ('ల్కు', '|'), ('షా', 'U'), ('మ', '|'), ('తు', '|'), ('న', '|'), ('జెం', 'U'), ('ది', '|'), ('ఖూ', 'U'), ('బై', 'U'), ('న', '|'), ('బా', 'U'), ('సు', '|'), ('జి', '|'), ('లీ', 'U'), ('బు', '|'), ('తే', 'U'), ('జీ', 'U'), ('లు', '|'), ('హ', '|'), ('రో', 'U'), ('లు', '|'), ('త', '|'), ('యా', 'U'), ('రి', '|'), ('క', '|'), ('తా', 'U'), ('రా', 'U'), ('లు', '|'), ('ది', 'U'), ('ర్చి', '|'), ('జ', 'U'), ('ల్తా', 'U'), ('రు', '|'), ('భా', 'U'), ('రి', '|'), ('పో', 'U'), ('ష', '|'), ('కు', '|'), ('వే', 'U'), ('సి', '|'), ('మం', 'U'), ('ద', '|'), ('ట', '|'), ('క', '|'), ('టి', '|'), ('కె', '|'), ('ముల్', 'U'), ('బ', '|'), ('హు', '|'), ('ప', '|'), ('రా', 'U'), ('క', '|'), ('ను', '|'), ('చు', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('కే', 'U'), ('ళి', '|'), ('కా', 'U'), ('గృ', '|'), ('హ', '|'), ('ము', '|'), ('వా', 'U'), ('కి', '|'), ('ట', '|'), ('ని', 'U'), ('ల్చి', '|'), ('వూ', 'U'), ('రి', '|'), ('కి', '|'), ('బో', 'U'), ('యొ', 'U'), ('త్తు', '|'), ('మ', '|'), ('ని', '|'), ('న', '|'), ('తాం', 'U'), ('బూ', 'U'), ('ల', '|'), ('మొ', '|'), ('స', '|'), ('గి', '|')]</t>
+          <t>[('దం', 'U'), ('డు', '|'), ('కూ', 'U'), ('చీ', 'U'), ('జే', 'U'), ('సి', '|'), ('లెం', 'U'), ('డ', '|'), ('ని', '|'), ('స', '|'), ('ర', '|'), ('దా', 'U'), ('ర్ల', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('న', '|'), ('బ', 'U'), ('ల్కు', '|'), ('షా', 'U'), ('మ', '|'), ('తు', '|'), ('న', '|'), ('జెం', 'U'), ('ది', '|'), ('ఖూ', 'U'), ('బై', 'U'), ('న', '|'), ('బా', 'U'), ('సు', '|'), ('జి', '|'), ('లీ', 'U'), ('బు', '|'), ('తే', 'U'), ('జీ', 'U'), ('లు', '|'), ('హ', '|'), ('రో', 'U'), ('లు', '|'), ('త', '|'), ('యా', 'U'), ('రి', '|'), ('క', '|'), ('తా', 'U'), ('రా', 'U'), ('లు', '|'), ('ది', 'U'), ('ర్చి', '|'), ('జ', 'U'), ('ల్తా', 'U'), ('రు', '|'), ('భా', 'U'), ('రి', '|'), ('పో', 'U'), ('ష', '|'), ('కు', '|'), ('వే', 'U'), ('సి', '|'), ('మం', 'U'), ('ద', '|'), ('ట', '|'), ('క', '|'), ('టి', '|'), ('కె', '|'), ('ము', 'U'), ('ల్బ', '|'), ('హు', '|'), ('ప', '|'), ('రా', 'U'), ('క', '|'), ('ను', '|'), ('చు', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('కే', 'U'), ('ళి', '|'), ('కా', 'U'), ('గృ', '|'), ('హ', '|'), ('ము', '|'), ('వా', 'U'), ('కి', '|'), ('ట', '|'), ('ని', 'U'), ('ల్చి', '|'), ('వూ', 'U'), ('రి', '|'), ('కి', '|'), ('బో', 'U'), ('యొ', 'U'), ('త్తు', '|'), ('మ', '|'), ('ని', '|'), ('న', '|'), ('తాం', 'U'), ('బూ', 'U'), ('ల', '|'), ('మొ', '|'), ('స', '|'), ('గి', '|')]</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[('జా', 'U'), ('ఫల్', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('గు', 'U'), ('ర్షా', 'U'), ('పూ', 'U'), ('లు', '|'), ('ద్రా', 'U'), ('క్ష', '|'), ('లు', '|'), ('గం', 'U'), ('గు', '|'), ('లు', '|'), ('ఖం', 'U'), ('దు', '|'), ('చొ', 'U'), ('క్క', '|'), ('పు', '|'), ('జ', '|'), ('వా', 'U'), ('జి', '|'), ('జా', 'U'), ('ఫ', '|'), ('రా', 'U'), ('య', '|'), ('గ', '|'), ('రు', '|'), ('ప', 'U'), ('చ్చా', 'U'), ('కూ', 'U'), ('దు', '|'), ('బ', 'U'), ('త్తీ', 'U'), ('లు', '|'), ('పు', '|'), ('ను', '|'), ('గు', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('గం', 'U'), ('బు', '|'), ('రు', '|'), ('గు', '|'), ('లా', 'U'), ('బి', '|'), ('య', 'U'), ('త్త', '|'), ('రు', '|'), ('సీ', 'U'), ('మ', '|'), ('రా', 'U'), ('యం', 'U'), ('చ', '|'), ('లు', '|'), ('తె', 'U'), ('ల్లా', 'U'), ('కు', '|'), ('మ', '|'), ('డు', '|'), ('పుల్', 'U'), ('వ', '|'), ('ళా', 'U'), ('గ్ర', '|'), ('ముల్', 'U'), ('మ', 'U'), ('ల్లె', '|'), ('పూ', 'U'), ('లు', '|'), ('కు', '|'), ('రు', '|'), ('వే', 'U'), ('రు', '|'), ('న', '|'), ('ర', '|'), ('గ', '|'), ('జాల్', 'U'), ('కొ', 'U'), ('త్త', '|'), ('కై', 'U'), ('రా', 'U'), ('వ', 'U'), ('ళ్లు', '|'), ('ద', '|'), ('వ', '|'), ('నం', 'U'), ('పు', '|'), ('చెం', 'U'), ('డ్లు', '|'), ('దం', 'U'), ('తం', 'U'), ('పు', '|'), ('గుం', 'U'), ('డ్లు', '|')]</t>
+          <t>[('జా', 'U'), ('ఫ', '|'), ('ల్ర', '|'), ('సం', 'U'), ('బు', '|'), ('గు', 'U'), ('ర్షా', 'U'), ('పూ', 'U'), ('లు', '|'), ('ద్రా', 'U'), ('క్ష', '|'), ('లు', '|'), ('గం', 'U'), ('గు', '|'), ('లు', '|'), ('ఖం', 'U'), ('దు', '|'), ('చొ', 'U'), ('క్క', '|'), ('పు', '|'), ('జ', '|'), ('వా', 'U'), ('జి', '|'), ('జా', 'U'), ('ఫ', '|'), ('రా', 'U'), ('య', '|'), ('గ', '|'), ('రు', '|'), ('ప', 'U'), ('చ్చా', 'U'), ('కూ', 'U'), ('దు', '|'), ('బ', 'U'), ('త్తీ', 'U'), ('లు', '|'), ('పు', '|'), ('ను', '|'), ('గు', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('గం', 'U'), ('బు', '|'), ('రు', '|'), ('గు', '|'), ('లా', 'U'), ('బి', '|'), ('య', 'U'), ('త్త', '|'), ('రు', '|'), ('సీ', 'U'), ('మ', '|'), ('రా', 'U'), ('యం', 'U'), ('చ', '|'), ('లు', '|'), ('తె', 'U'), ('ల్లా', 'U'), ('కు', '|'), ('మ', '|'), ('డు', '|'), ('పు', 'U'), ('ల్వ', '|'), ('ళా', 'U'), ('గ్ర', '|'), ('ము', 'U'), ('ల్మ', 'U'), ('ల్లె', '|'), ('పూ', 'U'), ('లు', '|'), ('కు', '|'), ('రు', '|'), ('వే', 'U'), ('రు', '|'), ('న', '|'), ('ర', '|'), ('గ', '|'), ('జా', 'U'), ('ల్కొ', 'U'), ('త్త', '|'), ('కై', 'U'), ('రా', 'U'), ('వ', 'U'), ('ళ్లు', '|'), ('ద', '|'), ('వ', '|'), ('నం', 'U'), ('పు', '|'), ('చెం', 'U'), ('డ్లు', '|'), ('దం', 'U'), ('తం', 'U'), ('పు', '|'), ('గుం', 'U'), ('డ్లు', '|')]</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('చీ', 'U'), ('ర', '|'), ('కు', 'U'), ('చ్చం', 'U'), ('చు', '|'), ('లు', '|'), ('మీ', 'U'), ('గా', 'U'), ('ళ్ల', '|'), ('కె', '|'), ('ల', '|'), ('మి', '|'), ('కై', 'U'), ('లా', 'U'), ('గు', '|'), ('లె', '|'), ('స', '|'), ('గ', '|'), ('స', 'U'), ('న్న', '|'), ('గీ', 'U'), ('రు', '|'), ('ల', '|'), ('గు', '|'), ('లాల్', 'U'), ('వ', 'U'), ('న్నె', '|'), ('రై', 'U'), ('క', '|'), ('మె', '|'), ('రుం', 'U'), ('గు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('పొ', '|'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('కు', 'U'), ('ట్లు', '|'), ('పి', '|'), ('గ', '|'), ('ల', '|'), ('క', 'U'), ('మ్మ', '|'), ('ని', '|'), ('ద', '|'), ('వ', '|'), ('నం', 'U'), ('పు', '|'), ('రె', 'U'), ('మ్మ', '|'), ('ల', '|'), ('జ', '|'), ('డ', '|'), ('పై', 'U'), ('డి', '|'), ('కు', 'U'), ('చ్చు', '|'), ('లు', '|'), ('పి', '|'), ('రు', '|'), ('దు', '|'), ('ల', '|'), ('గు', '|'), ('ని', '|'), ('సి', '|'), ('యా', 'U'), ('డ', '|'), ('పొ', '|'), ('లు', '|'), ('పొం', 'U'), ('దు', '|'), ('పా', 'U'), ('వ', '|'), ('డం', 'U'), ('బు', '|'), ('లు', '|'), ('మొ', 'U'), ('ల్క', '|'), ('పాం', 'U'), ('జే', 'U'), ('లు', '|'), ('గి', '|'), ('ల', '|'), ('గి', '|'), ('ల', '|'), ('మ', '|'), ('ని', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('మొ', '|'), ('ర', '|'), ('య', '|')]</t>
+          <t>[('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('చీ', 'U'), ('ర', '|'), ('కు', 'U'), ('చ్చం', 'U'), ('చు', '|'), ('లు', '|'), ('మీ', 'U'), ('గా', 'U'), ('ళ్ల', '|'), ('కె', '|'), ('ల', '|'), ('మి', '|'), ('కై', 'U'), ('లా', 'U'), ('గు', '|'), ('లె', '|'), ('స', '|'), ('గ', '|'), ('స', 'U'), ('న్న', '|'), ('గీ', 'U'), ('రు', '|'), ('ల', '|'), ('గు', '|'), ('లా', 'U'), ('ల్వ', 'U'), ('న్నె', '|'), ('రై', 'U'), ('క', '|'), ('మె', '|'), ('రుం', 'U'), ('గు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('పొ', '|'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('కు', 'U'), ('ట్లు', '|'), ('పి', '|'), ('గ', '|'), ('ల', '|'), ('క', 'U'), ('మ్మ', '|'), ('ని', '|'), ('ద', '|'), ('వ', '|'), ('నం', 'U'), ('పు', '|'), ('రె', 'U'), ('మ్మ', '|'), ('ల', '|'), ('జ', '|'), ('డ', '|'), ('పై', 'U'), ('డి', '|'), ('కు', 'U'), ('చ్చు', '|'), ('లు', '|'), ('పి', '|'), ('రు', '|'), ('దు', '|'), ('ల', '|'), ('గు', '|'), ('ని', '|'), ('సి', '|'), ('యా', 'U'), ('డ', '|'), ('పొ', '|'), ('లు', '|'), ('పొం', 'U'), ('దు', '|'), ('పా', 'U'), ('వ', '|'), ('డం', 'U'), ('బు', '|'), ('లు', '|'), ('మొ', 'U'), ('ల్క', '|'), ('పాం', 'U'), ('జే', 'U'), ('లు', '|'), ('గి', '|'), ('ల', '|'), ('గి', '|'), ('ల', '|'), ('మ', '|'), ('ని', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('మొ', '|'), ('ర', '|'), ('య', '|')]</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('జా', 'U'), ('తి', '|'), ('వ', '|'), ('జ్రా', 'U'), ('ల', '|'), ('బే', 'U'), ('స', '|'), ('రి', '|'), ('బు', '|'), ('లా', 'U'), ('కీ', 'U'), ('న', 'U'), ('త్తు', '|'), ('నా', 'U'), ('సా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('న', '|'), ('దుం', 'U'), ('కి', '|'), ('నా', 'U'), ('ట్య', '|'), ('మా', 'U'), ('డ', '|'), ('జా', 'U'), ('జి', '|'), ('బం', 'U'), ('దు', '|'), ('లు', '|'), ('నూ', 'U'), ('గు', '|'), ('పా', 'U'), ('టీ', 'U'), ('లు', '|'), ('కం', 'U'), ('క', '|'), ('ణ', 'U'), ('మ్ము', '|'), ('లు', '|'), ('చే', 'U'), ('క', '|'), ('టుల్', 'U'), ('ఘ', '|'), ('లు', '|'), ('ఘ', '|'), ('లు', '|'), ('మ', '|'), ('నం', 'U'), ('గ', '|'), ('జ', 'U'), ('ల్తా', 'U'), ('రు', '|'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('జా', 'U'), ('రి', '|'), ('ద', '|'), ('ళు', 'U'), ('క్క', '|'), ('ని', '|'), ('బా', 'U'), ('హు', '|'), ('మూ', 'U'), ('ల', 'U'), ('ద్యు', '|'), ('తుల్', 'U'), ('ప', '|'), ('రి', '|'), ('ఢ', '|'), ('వి', 'U'), ('ల్ల', '|'), ('త', '|'), ('ల', '|'), ('యం', 'U'), ('ట', '|'), ('వ', 'U'), ('క్షో', 'U'), ('జ', '|'), ('ము', '|'), ('లు', '|'), ('గో', 'U'), ('ర', '|'), ('నే', 'U'), ('జీ', 'U'), ('ర', '|'), ('య', '|'), ('ల', '|'), ('గి', '|'), ('నే', 'U'), ('జె', 'U'), ('ల్ల', '|'), ('బా', 'U'), ('గా', 'U'), ('య', '|'), ('నౌ', 'U'), ('ర', '|')]</t>
+          <t>[('జా', 'U'), ('తి', '|'), ('వ', '|'), ('జ్రా', 'U'), ('ల', '|'), ('బే', 'U'), ('స', '|'), ('రి', '|'), ('బు', '|'), ('లా', 'U'), ('కీ', 'U'), ('న', 'U'), ('త్తు', '|'), ('నా', 'U'), ('సా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('న', '|'), ('దుం', 'U'), ('కి', '|'), ('నా', 'U'), ('ట్య', '|'), ('మా', 'U'), ('డ', '|'), ('జా', 'U'), ('జి', '|'), ('బం', 'U'), ('దు', '|'), ('లు', '|'), ('నూ', 'U'), ('గు', '|'), ('పా', 'U'), ('టీ', 'U'), ('లు', '|'), ('కం', 'U'), ('క', '|'), ('ణ', 'U'), ('మ్ము', '|'), ('లు', '|'), ('చే', 'U'), ('క', '|'), ('టు', 'U'), ('ల్ఘ', '|'), ('లు', '|'), ('ఘ', '|'), ('లు', '|'), ('మ', '|'), ('నం', 'U'), ('గ', '|'), ('జ', 'U'), ('ల్తా', 'U'), ('రు', '|'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('జా', 'U'), ('రి', '|'), ('ద', '|'), ('ళు', 'U'), ('క్క', '|'), ('ని', '|'), ('బా', 'U'), ('హు', '|'), ('మూ', 'U'), ('ల', 'U'), ('ద్యు', '|'), ('తు', 'U'), ('ల్ప', '|'), ('రి', '|'), ('ఢ', '|'), ('వి', 'U'), ('ల్ల', '|'), ('త', '|'), ('ల', '|'), ('యం', 'U'), ('ట', '|'), ('వ', 'U'), ('క్షో', 'U'), ('జ', '|'), ('ము', '|'), ('లు', '|'), ('గో', 'U'), ('ర', '|'), ('నే', 'U'), ('జీ', 'U'), ('ర', '|'), ('య', '|'), ('ల', '|'), ('గి', '|'), ('నే', 'U'), ('జె', 'U'), ('ల్ల', '|'), ('బా', 'U'), ('గా', 'U'), ('య', '|'), ('నౌ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[('ర', '|'), ('వ', '|'), ('మె', '|'), ('రుం', 'U'), ('గా', 'U'), ('ని', '|'), ('వి', '|'), ('రి', '|'), ('స', '|'), ('రుల్', 'U'), ('స', '|'), ('వ', '|'), ('ర', '|'), ('ప', '|'), ('రి', '|'), ('చి', '|'), ('లె', 'U'), ('స్స', '|'), ('నై', 'U'), ('యు', 'U'), ('న్న', '|'), ('దిం', 'U'), ('క', '|'), ('లే', 'U'), ('లెం', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('న', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('నెం', 'U'), ('త', '|'), ('ను', '|'), ('చు', '|'), ('నో', 'U'), ('ర్వ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
+          <t>[('ర', '|'), ('వ', '|'), ('మె', '|'), ('రుం', 'U'), ('గా', 'U'), ('ని', '|'), ('వి', '|'), ('రి', '|'), ('స', '|'), ('రు', 'U'), ('ల్స', '|'), ('వ', '|'), ('ర', '|'), ('ప', '|'), ('రి', '|'), ('చి', '|'), ('లె', 'U'), ('స్స', '|'), ('నై', 'U'), ('యు', 'U'), ('న్న', '|'), ('దిం', 'U'), ('క', '|'), ('లే', 'U'), ('లెం', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('న', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('నెం', 'U'), ('త', '|'), ('ను', '|'), ('చు', '|'), ('నో', 'U'), ('ర్వ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[('పూ', 'U'), ('వి', 'U'), ('ల్తు', '|'), ('డొ', '|'), ('క', '|'), ('ప', 'U'), ('చ్చి', '|'), ('బో', 'U'), ('య', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('తో', 'U'), ('డు', '|'), ('మ', '|'), ('ల', '|'), ('యా', 'U'), ('ని', '|'), ('లు', '|'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('త', '|'), ('తా', 'U'), ('యి', '|'), ('తొ', '|'), ('గ', '|'), ('రే', 'U'), ('డ', '|'), ('నే', 'U'), ('గు', '|'), ('రు', '|'), ('ద్రో', 'U'), ('హి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('గా', 'U'), ('య', '|'), ('గం', 'U'), ('డు', '|'), ('కో', 'U'), ('వి', '|'), ('ల', '|'), ('చె', 'U'), ('ట్టు', '|'), ('నుం', 'U'), ('డి', '|'), ('కూ', 'U'), ('య', '|'), ('చే', 'U'), ('జే', 'U'), ('త', '|'), ('నె', 'U'), ('త్తి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('చి', 'U'), ('ల్క', '|'), ('ప', '|'), ('గ', '|'), ('దా', 'U'), ('యె', '|'), ('గ్రు', 'U'), ('క్క', '|'), ('ద్రి', 'U'), ('ప్ప', '|'), ('దె', '|'), ('దా', 'U'), ('ని', '|'), ('గొం', 'U'), ('తు', '|'), ('కో', 'U'), ('య', '|'), ('మొ', '|'), ('ద', '|'), ('ట', '|'), ('నే', 'U'), ('కొ', '|'), ('ద', '|'), ('మ', '|'), ('తు', 'U'), ('మ్మె', '|'), ('ద', '|'), ('వే', 'U'), ('రు', '|'), ('వి', 'U'), ('త్తా', 'U'), ('యె', '|'), ('గో', 'U'), ('ర్వం', 'U'), ('క', '|'), ('కా', 'U'), ('పు', '|'), ('రాల్', 'U'), ('గు', 'U'), ('త్త', '|'), ('సే', 'U'), ('య', '|')]</t>
+          <t>[('పూ', 'U'), ('వి', 'U'), ('ల్తు', '|'), ('డొ', '|'), ('క', '|'), ('ప', 'U'), ('చ్చి', '|'), ('బో', 'U'), ('య', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('తో', 'U'), ('డు', '|'), ('మ', '|'), ('ల', '|'), ('యా', 'U'), ('ని', '|'), ('లు', '|'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('త', '|'), ('తా', 'U'), ('యి', '|'), ('తొ', '|'), ('గ', '|'), ('రే', 'U'), ('డ', '|'), ('నే', 'U'), ('గు', '|'), ('రు', '|'), ('ద్రో', 'U'), ('హి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('గా', 'U'), ('య', '|'), ('గం', 'U'), ('డు', '|'), ('కో', 'U'), ('వి', '|'), ('ల', '|'), ('చె', 'U'), ('ట్టు', '|'), ('నుం', 'U'), ('డి', '|'), ('కూ', 'U'), ('య', '|'), ('చే', 'U'), ('జే', 'U'), ('త', '|'), ('నె', 'U'), ('త్తి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('చి', 'U'), ('ల్క', '|'), ('ప', '|'), ('గ', '|'), ('దా', 'U'), ('యె', '|'), ('గ్రు', 'U'), ('క్క', '|'), ('ద్రి', 'U'), ('ప్ప', '|'), ('దె', '|'), ('దా', 'U'), ('ని', '|'), ('గొం', 'U'), ('తు', '|'), ('కో', 'U'), ('య', '|'), ('మొ', '|'), ('ద', '|'), ('ట', '|'), ('నే', 'U'), ('కొ', '|'), ('ద', '|'), ('మ', '|'), ('తు', 'U'), ('మ్మె', '|'), ('ద', '|'), ('వే', 'U'), ('రు', '|'), ('వి', 'U'), ('త్తా', 'U'), ('యె', '|'), ('గో', 'U'), ('ర్వం', 'U'), ('క', '|'), ('కా', 'U'), ('పు', '|'), ('రా', 'U'), ('ల్గు', 'U'), ('త్త', '|'), ('సే', 'U'), ('య', '|')]</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[('భ్ర', '|'), ('మ', '|'), ('ర', '|'), ('ఝం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('ప', '|'), ('గి', '|'), ('ది', '|'), ('ను', '|'), ('పాం', 'U'), ('గం', 'U'), ('బు', '|'), ('కో', 'U'), ('పై', 'U'), ('న', '|'), ('సు', '|'), ('తి', '|'), ('ని', '|'), ('ఘుం', 'U'), ('ఘు', 'U'), ('మ్ము', '|'), ('ర', '|'), ('న', '|'), ('గ', '|'), ('సి', '|'), ('రి', '|'), ('మిం', 'U'), ('చి', '|'), ('మ', '|'), ('ది', '|'), ('మిం', 'U'), ('చి', '|'), ('చి', '|'), ('రు', '|'), ('తా', 'U'), ('ళ', '|'), ('ము', '|'), ('ల', '|'), ('శ', 'U'), ('బ్ద', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('ధి', 'U'), ('త్త', '|'), ('తా', 'U'), ('ఝ', 'U'), ('మ్మ', '|'), ('నం', 'U'), ('గ', '|'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('ప', '|'), ('వీ', 'U'), ('ను', '|'), ('ల', '|'), ('పం', 'U'), ('డు', '|'), ('వై', 'U'), ('పె', 'U'), ('ద్ద', '|'), ('మ', 'U'), ('ద్దె', '|'), ('ళ', '|'), ('నా', 'U'), ('దు', '|'), ('తా', 'U'), ('హ', '|'), ('తో', 'U'), ('ద్ధి', 'U'), ('మ్మ', '|'), ('నం', 'U'), ('గ', '|'), ('నె', '|'), ('ర', '|'), ('నీ', 'U'), ('టు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('కి', 'U'), ('న్నె', '|'), ('ర', '|'), ('మీ', 'U'), ('టు', '|'), ('గ', 'U'), ('జ్జె', '|'), ('లల్', 'U'), ('గో', 'U'), ('జా', 'U'), ('ర', '|'), ('వం', 'U'), ('బు', '|'), ('బ', 'U'), ('ల్మో', 'U'), ('జు', '|'), ('ద', '|'), ('న', '|'), ('ర', '|')]</t>
+          <t>[('భ్ర', '|'), ('మ', '|'), ('ర', '|'), ('ఝం', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('ప', '|'), ('గి', '|'), ('ది', '|'), ('ను', '|'), ('పాం', 'U'), ('గం', 'U'), ('బు', '|'), ('కో', 'U'), ('పై', 'U'), ('న', '|'), ('సు', '|'), ('తి', '|'), ('ని', '|'), ('ఘుం', 'U'), ('ఘు', 'U'), ('మ్ము', '|'), ('ర', '|'), ('న', '|'), ('గ', '|'), ('సి', '|'), ('రి', '|'), ('మిం', 'U'), ('చి', '|'), ('మ', '|'), ('ది', '|'), ('మిం', 'U'), ('చి', '|'), ('చి', '|'), ('రు', '|'), ('తా', 'U'), ('ళ', '|'), ('ము', '|'), ('ల', '|'), ('శ', 'U'), ('బ్ద', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('ధి', 'U'), ('త్త', '|'), ('తా', 'U'), ('ఝ', 'U'), ('మ్మ', '|'), ('నం', 'U'), ('గ', '|'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('ప', '|'), ('వీ', 'U'), ('ను', '|'), ('ల', '|'), ('పం', 'U'), ('డు', '|'), ('వై', 'U'), ('పె', 'U'), ('ద్ద', '|'), ('మ', 'U'), ('ద్దె', '|'), ('ళ', '|'), ('నా', 'U'), ('దు', '|'), ('తా', 'U'), ('హ', '|'), ('తో', 'U'), ('ద్ధి', 'U'), ('మ్మ', '|'), ('నం', 'U'), ('గ', '|'), ('నె', '|'), ('ర', '|'), ('నీ', 'U'), ('టు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('కి', 'U'), ('న్నె', '|'), ('ర', '|'), ('మీ', 'U'), ('టు', '|'), ('గ', 'U'), ('జ్జె', '|'), ('ల', 'U'), ('ల్గో', 'U'), ('జా', 'U'), ('ర', '|'), ('వం', 'U'), ('బు', '|'), ('బ', 'U'), ('ల్మో', 'U'), ('జు', '|'), ('ద', '|'), ('న', '|'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[('చా', 'U'), ('న', '|'), ('నీ', 'U'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('నా', 'U'), ('న', '|'), ('ని', '|'), ('దే', 'U'), ('మొ', '|'), ('దల్', 'U'), ('వి', '|'), ('డె', '|'), ('మే', 'U'), ('మొ', '|'), ('నో', 'U'), ('టి', '|'), ('కి', '|'), ('వె', '|'), ('గ', '|'), ('టు', '|'), ('ల', '|'), ('గు', '|'), ('ను', '|'), ('లే', 'U'), ('మ', '|'), ('నే', 'U'), ('ని', '|'), ('ను', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చ', '|'), ('ని', '|'), ('దే', 'U'), ('మొ', '|'), ('దల్', 'U'), ('క', '|'), ('సి', '|'), ('దీ', 'U'), ('ర', '|'), ('ద', 'U'), ('య్యె', '|'), ('నా', 'U'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('నీ', 'U'), ('తో', 'U'), ('డ', '|'), ('మా', 'U'), ('టా', 'U'), ('డ', '|'), ('ని', '|'), ('దే', 'U'), ('మొ', '|'), ('దల్', 'U'), ('వి', '|'), ('న', '|'), ('సై', 'U'), ('చ', '|'), ('దొ', '|'), ('క', '|'), ('పా', 'U'), ('ట', '|'), ('వీ', 'U'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('నీ', 'U'), ('తో', 'U'), ('పొం', 'U'), ('దు', '|'), ('సే', 'U'), ('య', '|'), ('ని', '|'), ('దే', 'U'), ('మొ', '|'), ('దల్', 'U'), ('క', '|'), ('రు', '|'), ('వ', 'U'), ('య్యె', '|'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('నా', 'U'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|')]</t>
+          <t>[('చా', 'U'), ('న', '|'), ('నీ', 'U'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('నా', 'U'), ('న', '|'), ('ని', '|'), ('దే', 'U'), ('మొ', '|'), ('ద', 'U'), ('ల్వి', '|'), ('డె', '|'), ('మే', 'U'), ('మొ', '|'), ('నో', 'U'), ('టి', '|'), ('కి', '|'), ('వె', '|'), ('గ', '|'), ('టు', '|'), ('ల', '|'), ('గు', '|'), ('ను', '|'), ('లే', 'U'), ('మ', '|'), ('నే', 'U'), ('ని', '|'), ('ను', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చ', '|'), ('ని', '|'), ('దే', 'U'), ('మొ', '|'), ('ద', 'U'), ('ల్క', '|'), ('సి', '|'), ('దీ', 'U'), ('ర', '|'), ('ద', 'U'), ('య్యె', '|'), ('నా', 'U'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('నీ', 'U'), ('తో', 'U'), ('డ', '|'), ('మా', 'U'), ('టా', 'U'), ('డ', '|'), ('ని', '|'), ('దే', 'U'), ('మొ', '|'), ('ద', 'U'), ('ల్వి', '|'), ('న', '|'), ('సై', 'U'), ('చ', '|'), ('దొ', '|'), ('క', '|'), ('పా', 'U'), ('ట', '|'), ('వీ', 'U'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('నీ', 'U'), ('తో', 'U'), ('పొం', 'U'), ('దు', '|'), ('సే', 'U'), ('య', '|'), ('ని', '|'), ('దే', 'U'), ('మొ', '|'), ('ద', 'U'), ('ల్క', '|'), ('రు', '|'), ('వ', 'U'), ('య్యె', '|'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('నా', 'U'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[('కో', 'U'), ('ప', '|'), ('మే', 'U'), ('టి', '|'), ('కి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గి', 'U'), ('ల్కు', '|'), ('నె', 'U'), ('మ్మొ', '|'), ('గ', '|'), ('మె', 'U'), ('త్తి', '|'), ('చూ', 'U'), ('డ', '|'), ('వే', 'U'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('ల', '|'), ('సు', '|'), ('గు', '|'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('నం', 'U'), ('చు', '|'), ('వం', 'U'), ('చ', '|'), ('నే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('నన్', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చ', '|'), ('వే', 'U'), ('భా', 'U'), ('మ', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('సీ', 'U'), ('మ', '|'), ('చు', 'U'), ('ల్క', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('తే', 'U'), ('నె', '|'), ('జి', 'U'), ('ల్క', '|'), ('ప్రే', 'U'), ('మ', '|'), ('గ', '|'), ('నొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('టా', 'U'), ('డ', '|'), ('వే', 'U'), ('యిం', 'U'), ('తి', '|'), ('మ', '|'), ('ద', '|'), ('ను', '|'), ('దం', 'U'), ('తి', '|'), ('గ', 'U'), ('బ్బి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('రొ', 'U'), ('మ్ము', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('నా', 'U'), ('యె', '|'), ('ద', '|'), ('నా', 'U'), ('న', '|'), ('వే', 'U'), ('యో', 'U'), ('చా', 'U'), ('న', '|'), ('హం', 'U'), ('స', '|'), ('యా', 'U'), ('న', '|')]</t>
+          <t>[('కో', 'U'), ('ప', '|'), ('మే', 'U'), ('టి', '|'), ('కి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గి', 'U'), ('ల్కు', '|'), ('నె', 'U'), ('మ్మొ', '|'), ('గ', '|'), ('మె', 'U'), ('త్తి', '|'), ('చూ', 'U'), ('డ', '|'), ('వే', 'U'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('ల', '|'), ('సు', '|'), ('గు', '|'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('నం', 'U'), ('చు', '|'), ('వం', 'U'), ('చ', '|'), ('నే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('న', 'U'), ('న్మ', 'U'), ('న్నిం', 'U'), ('చ', '|'), ('వే', 'U'), ('భా', 'U'), ('మ', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('సీ', 'U'), ('మ', '|'), ('చు', 'U'), ('ల్క', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('తే', 'U'), ('నె', '|'), ('జి', 'U'), ('ల్క', '|'), ('ప్రే', 'U'), ('మ', '|'), ('గ', '|'), ('నొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('టా', 'U'), ('డ', '|'), ('వే', 'U'), ('యిం', 'U'), ('తి', '|'), ('మ', '|'), ('ద', '|'), ('ను', '|'), ('దం', 'U'), ('తి', '|'), ('గ', 'U'), ('బ్బి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('రొ', 'U'), ('మ్ము', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('నా', 'U'), ('యె', '|'), ('ద', '|'), ('నా', 'U'), ('న', '|'), ('వే', 'U'), ('యో', 'U'), ('చా', 'U'), ('న', '|'), ('హం', 'U'), ('స', '|'), ('యా', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[('యే', 'U'), ('ల', '|'), ('నే', 'U'), ('గో', 'U'), ('ల', '|'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('కే', 'U'), ('ల', '|'), ('సై', 'U'), ('ప', '|'), ('జా', 'U'), ('ల', '|'), ('నీ', 'U'), ('జా', 'U'), ('ల', '|'), ('మే', 'U'), ('ల', '|'), ('నన్', 'U'), ('చా', 'U'), ('ల', '|'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('దే', 'U'), ('ల', '|'), ('ద', '|'), ('య', '|'), ('నే', 'U'), ('ల', '|'), ('కు', 'U'), ('న్న', '|'), ('నీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('తా', 'U'), ('ళ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
+          <t>[('యే', 'U'), ('ల', '|'), ('నే', 'U'), ('గో', 'U'), ('ల', '|'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('కే', 'U'), ('ల', '|'), ('సై', 'U'), ('ప', '|'), ('జా', 'U'), ('ల', '|'), ('నీ', 'U'), ('జా', 'U'), ('ల', '|'), ('మే', 'U'), ('ల', '|'), ('న', 'U'), ('న్చా', 'U'), ('ల', '|'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('దే', 'U'), ('ల', '|'), ('ద', '|'), ('య', '|'), ('నే', 'U'), ('ల', '|'), ('కు', 'U'), ('న్న', '|'), ('నీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('తా', 'U'), ('ళ', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[('చే', 'U'), ('డె', '|'), ('నిన్', 'U'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('జూ', 'U'), ('డ', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('నా', 'U'), ('గ', '|'), ('డె', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('క', 'U'), ('ల్ప', '|'), ('ము', '|'), ('గా', 'U'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('నీ', 'U'), ('చె', '|'), ('రు', '|'), ('గు', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('మూ', 'U'), ('డు', '|'), ('నా', 'U'), ('ళ్లు', '|'), ('నే', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మొ', 'U'), ('క్క', '|'), ('యు', '|'), ('గ', '|'), ('ము', '|'), ('గా', 'U'), ('జ', '|'), ('రు', '|'), ('పు', '|'), ('చుం', 'U'), ('దు', '|'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షి', '|'), ('వ్ర', '|'), ('త', '|'), ('ది', '|'), ('నం', 'U'), ('బ', '|'), ('ది', '|'), ('గూ', 'U'), ('డ', '|'), ('ద', '|'), ('ను', '|'), ('రే', 'U'), ('యు', '|'), ('ని', '|'), ('మి', '|'), ('ష', '|'), ('మొ', 'U'), ('క్కే', 'U'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('గా', 'U'), ('తు', '|'), ('పొ', '|'), ('ల', '|'), ('తి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('లు', '|'), ('జూ', 'U'), ('డ', '|'), ('పో', 'U'), ('వు', '|'), ('చో', 'U'), ('న', '|'), ('ణు', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('ను', '|'), ('లె', 'U'), ('క్క', '|'), ('గొ', '|'), ('ని', '|'), ('మ', '|'), ('ను', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('లం', 'U'), ('తు', '|')]</t>
+          <t>[('చే', 'U'), ('డె', '|'), ('ని', 'U'), ('న్క', 'U'), ('న్ను', '|'), ('ల', '|'), ('జూ', 'U'), ('డ', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('నా', 'U'), ('గ', '|'), ('డె', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('క', 'U'), ('ల్ప', '|'), ('ము', '|'), ('గా', 'U'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('నీ', 'U'), ('చె', '|'), ('రు', '|'), ('గు', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('మూ', 'U'), ('డు', '|'), ('నా', 'U'), ('ళ్లు', '|'), ('నే', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మొ', 'U'), ('క్క', '|'), ('యు', '|'), ('గ', '|'), ('ము', '|'), ('గా', 'U'), ('జ', '|'), ('రు', '|'), ('పు', '|'), ('చుం', 'U'), ('దు', '|'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షి', '|'), ('వ్ర', '|'), ('త', '|'), ('ది', '|'), ('నం', 'U'), ('బ', '|'), ('ది', '|'), ('గూ', 'U'), ('డ', '|'), ('ద', '|'), ('ను', '|'), ('రే', 'U'), ('యు', '|'), ('ని', '|'), ('మి', '|'), ('ష', '|'), ('మొ', 'U'), ('క్కే', 'U'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('గా', 'U'), ('తు', '|'), ('పొ', '|'), ('ల', '|'), ('తి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('లు', '|'), ('జూ', 'U'), ('డ', '|'), ('పో', 'U'), ('వు', '|'), ('చో', 'U'), ('న', '|'), ('ణు', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('ను', '|'), ('లె', 'U'), ('క్క', '|'), ('గొ', '|'), ('ని', '|'), ('మ', '|'), ('ను', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('లం', 'U'), ('తు', '|')]</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[('ర', '|'), ('మ', '|'), ('ణి', '|'), ('మ', '|'), ('రు', '|'), ('లొ', 'U'), ('గ్గి', '|'), ('వి', '|'), ('ర', '|'), ('హా', 'U'), ('న', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('క', 'U'), ('గ్గి', '|'), ('మ', '|'), ('రి', '|'), ('మ', '|'), ('రి', '|'), ('ని', '|'), ('త', 'U'), ('గ్గి', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('పై', 'U'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('నొ', 'U'), ('గ్గి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('ల', '|'), ('మ్రొ', 'U'), ('గ్గి', '|'), ('యు', 'U'), ('న్న', '|'), ('నన్', 'U'), ('విం', 'U'), ('త', '|'), ('సే', 'U'), ('య', '|'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
+          <t>[('ర', '|'), ('మ', '|'), ('ణి', '|'), ('మ', '|'), ('రు', '|'), ('లొ', 'U'), ('గ్గి', '|'), ('వి', '|'), ('ర', '|'), ('హా', 'U'), ('న', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('క', 'U'), ('గ్గి', '|'), ('మ', '|'), ('రి', '|'), ('మ', '|'), ('రి', '|'), ('ని', '|'), ('త', 'U'), ('గ్గి', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('పై', 'U'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('నొ', 'U'), ('గ్గి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('ల', '|'), ('మ్రొ', 'U'), ('గ్గి', '|'), ('యు', 'U'), ('న్న', '|'), ('న', 'U'), ('న్విం', 'U'), ('త', '|'), ('సే', 'U'), ('య', '|'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('టే', 'U'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>[('తీ', 'U'), ('పై', 'U'), ('న', '|'), ('బే', 'U'), ('షక్', 'U'), ('మ', '|'), ('ఠా', 'U'), ('ప', '|'), ('ఠాన్', 'U'), ('తు', '|'), ('ర', '|'), ('కి', '|'), ('క', 'U'), ('చ్చీ', 'U'), ('మా', 'U'), ('దు', '|'), ('వా', 'U'), ('ను', '|'), ('తే', 'U'), ('జీ', 'U'), ('ల', '|'), ('పా', 'U'), ('గ', '|'), ('ది', 'U'), ('ట్టం', 'U'), ('పు', '|'), ('మేల్', 'U'), ('జు', 'U'), ('ల్ఫ', '|'), ('తీ', 'U'), ('పి', 'U'), ('ల్ల', '|'), ('చి', '|'), ('గు', '|'), ('రు', '|'), ('ఖాం', 'U'), ('డా', 'U'), ('క', 'U'), ('మ్మి', '|'), ('య', 'U'), ('స్సల్', 'U'), ('క', '|'), ('డా', 'U'), ('ని', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('త', '|'), ('రు', '|'), ('ణు', '|'), ('ల', '|'), ('మే', 'U'), ('టి', '|'), ('ని', 'U'), ('ద్దా', 'U'), ('హొం', 'U'), ('త', '|'), ('కా', 'U'), ('రి', '|'), ('బి', 'U'), ('త్త', '|'), ('రు', '|'), ('ల', '|'), ('మి', 'U'), ('న్నా', 'U'), ('తే', 'U'), ('ట', '|'), ('కు', '|'), ('రు', '|'), ('చ', '|'), ('తే', 'U'), ('నె', '|'), ('గ', '|'), ('రి', '|'), ('గె', '|'), ('లే', 'U'), ('తా', 'U'), ('కు', '|'), ('తే', 'U'), ('గా', 'U'), ('బా', 'U'), ('దు', '|'), ('షా', 'U'), ('సా', 'U'), ('ము', '|'), ('వ', 'U'), ('స్తా', 'U'), ('దు', '|'), ('యె', '|'), ('న', '|'), ('లే', 'U'), ('ని', '|'), ('వ', 'U'), ('న్నె', '|'), ('లా', 'U'), ('డి', '|')]</t>
+          <t>[('తీ', 'U'), ('పై', 'U'), ('న', '|'), ('బే', 'U'), ('ష', 'U'), ('క్మ', '|'), ('ఠా', 'U'), ('ప', '|'), ('ఠా', 'U'), ('న్తు', '|'), ('ర', '|'), ('కి', '|'), ('క', 'U'), ('చ్చీ', 'U'), ('మా', 'U'), ('దు', '|'), ('వా', 'U'), ('ను', '|'), ('తే', 'U'), ('జీ', 'U'), ('ల', '|'), ('పా', 'U'), ('గ', '|'), ('ది', 'U'), ('ట్టం', 'U'), ('పు', '|'), ('మే', 'U'), ('ల్జు', 'U'), ('ల్ఫ', '|'), ('తీ', 'U'), ('పి', 'U'), ('ల్ల', '|'), ('చి', '|'), ('గు', '|'), ('రు', '|'), ('ఖాం', 'U'), ('డా', 'U'), ('క', 'U'), ('మ్మి', '|'), ('య', 'U'), ('స్స', 'U'), ('ల్క', '|'), ('డా', 'U'), ('ని', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('త', '|'), ('రు', '|'), ('ణు', '|'), ('ల', '|'), ('మే', 'U'), ('టి', '|'), ('ని', 'U'), ('ద్దా', 'U'), ('హొం', 'U'), ('త', '|'), ('కా', 'U'), ('రి', '|'), ('బి', 'U'), ('త్త', '|'), ('రు', '|'), ('ల', '|'), ('మి', 'U'), ('న్నా', 'U'), ('తే', 'U'), ('ట', '|'), ('కు', '|'), ('రు', '|'), ('చ', '|'), ('తే', 'U'), ('నె', '|'), ('గ', '|'), ('రి', '|'), ('గె', '|'), ('లే', 'U'), ('తా', 'U'), ('కు', '|'), ('తే', 'U'), ('గా', 'U'), ('బా', 'U'), ('దు', '|'), ('షా', 'U'), ('సా', 'U'), ('ము', '|'), ('వ', 'U'), ('స్తా', 'U'), ('దు', '|'), ('యె', '|'), ('న', '|'), ('లే', 'U'), ('ని', '|'), ('వ', 'U'), ('న్నె', '|'), ('లా', 'U'), ('డి', '|')]</t>
         </is>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>[('గ', '|'), ('జ', '|'), ('ని', 'U'), ('మ్మ', '|'), ('పం', 'U'), ('డ్లు', '|'), ('నే', 'U'), ('న', '|'), ('జ', '|'), ('రు', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('బ', '|'), ('టు', '|'), ('వు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('సుం', 'U'), ('త', '|'), ('బ', 'U'), ('ట్ట', '|'), ('ని', '|'), ('య', '|'), ('వె', '|'), ('వె', '|'), ('ల', '|'), ('లే', 'U'), ('ని', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', 'U'), ('మ్ము', '|'), ('లు', '|'), ('కా', 'U'), ('ను', '|'), ('కి', 'U'), ('త్తు', '|'), ('నీ', 'U'), ('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('నొ', 'U'), ('క్క', '|'), ('ని', '|'), ('య', '|'), ('వె', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('నే', 'U'), ('నీ', 'U'), ('కా', 'U'), ('కు', '|'), ('మ', '|'), ('డు', '|'), ('పు', '|'), ('లం', 'U'), ('ది', 'U'), ('త్తు', '|'), ('నన్', 'U'), ('క', '|'), ('ద', '|'), ('సి', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('వే', 'U'), ('డ్క', '|'), ('న', '|'), ('దు', '|'), ('ము', '|'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('త', '|'), ('ర', '|'), ('లా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('దు', '|'), ('పా', 'U'), ('దం', 'U'), ('బై', 'U'), ('న', '|'), ('ప', 'U'), ('ట్టె', '|'), ('ద', '|'), ('వి', '|'), ('డె', '|'), ('మై', 'U'), ('న', '|'), ('ర', '|'), ('వ', '|'), ('స', '|'), ('మ', 'U'), ('ర్పిం', 'U'), ('ప', '|'), ('గ', '|'), ('ద', '|'), ('వె', '|')]</t>
+          <t>[('గ', '|'), ('జ', '|'), ('ని', 'U'), ('మ్మ', '|'), ('పం', 'U'), ('డ్లు', '|'), ('నే', 'U'), ('న', '|'), ('జ', '|'), ('రు', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('బ', '|'), ('టు', '|'), ('వు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('సుం', 'U'), ('త', '|'), ('బ', 'U'), ('ట్ట', '|'), ('ని', '|'), ('య', '|'), ('వె', '|'), ('వె', '|'), ('ల', '|'), ('లే', 'U'), ('ని', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', 'U'), ('మ్ము', '|'), ('లు', '|'), ('కా', 'U'), ('ను', '|'), ('కి', 'U'), ('త్తు', '|'), ('నీ', 'U'), ('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('కె', 'U'), ('మ్మో', 'U'), ('వి', '|'), ('నొ', 'U'), ('క్క', '|'), ('ని', '|'), ('య', '|'), ('వె', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('నే', 'U'), ('నీ', 'U'), ('కా', 'U'), ('కు', '|'), ('మ', '|'), ('డు', '|'), ('పు', '|'), ('లం', 'U'), ('ది', 'U'), ('త్తు', '|'), ('న', 'U'), ('న్క', '|'), ('ద', '|'), ('సి', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('వే', 'U'), ('డ్క', '|'), ('న', '|'), ('దు', '|'), ('ము', '|'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('త', '|'), ('ర', '|'), ('లా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('దు', '|'), ('పా', 'U'), ('దం', 'U'), ('బై', 'U'), ('న', '|'), ('ప', 'U'), ('ట్టె', '|'), ('ద', '|'), ('వి', '|'), ('డె', '|'), ('మై', 'U'), ('న', '|'), ('ర', '|'), ('వ', '|'), ('స', '|'), ('మ', 'U'), ('ర్పిం', 'U'), ('ప', '|'), ('గ', '|'), ('ద', '|'), ('వె', '|')]</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>[('నె', 'U'), ('మ్మే', 'U'), ('న', '|'), ('క', '|'), ('ళ', '|'), ('లు', '|'), ('ఘూ', 'U'), ('ర్ణి', '|'), ('ల', '|'), ('గ', '|'), ('గౌ', 'U'), ('న', '|'), ('ళి', '|'), ('కి', '|'), ('ఘం', 'U'), ('ట', '|'), ('ల', '|'), ('తా', 'U'), ('బు', '|'), ('కొ', 'U'), ('ల్కి', '|'), ('ప', '|'), ('ఠా', 'U'), ('లు', '|'), ('ర', '|'), ('న', '|'), ('గ', '|'), ('రం', 'U'), ('గై', 'U'), ('న', '|'), ('తా', 'U'), ('పి', '|'), ('తా', 'U'), ('ర', '|'), ('యి', '|'), ('క', '|'), ('చన్', 'U'), ('పొ', '|'), ('గ', '|'), ('రు', '|'), ('న', '|'), ('బి', '|'), ('గి', '|'), ('సి', '|'), ('ప', 'U'), ('క్కు', '|'), ('న', '|'), ('కు', 'U'), ('ట్లు', '|'), ('పి', 'U'), ('క్క', '|'), ('టి', 'U'), ('ల్ల', '|'), ('ర', 'U'), ('త్న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('లం', 'U'), ('క', '|'), ('రిం', 'U'), ('చం', 'U'), ('గ', '|'), ('యీ', 'U'), ('వి', '|'), ('ర', '|'), ('హా', 'U'), ('గ్ని', '|'), ('వే', 'U'), ('డి', '|'), ('మి', '|'), ('వె', 'U'), ('ళ్ల', '|'), ('ను', '|'), ('ర', '|'), ('క', '|'), ('గ', '|'), ('మ', '|'), ('గ', '|'), ('మ', '|'), ('లా', 'U'), ('డు', '|'), ('గం', 'U'), ('ధ', '|'), ('పు', '|'), ('పూ', 'U'), ('త', '|'), ('లొ', 'U'), ('క్కొ', '|'), ('క', '|'), ('చో', 'U'), ('ట', '|'), ('పై', 'U'), ('ర', '|'), ('వ', '|'), ('ర', '|'), ('వ', '|'), ('పే', 'U'), ('టు', '|'), ('లె', 'U'), ('త్త', '|')]</t>
+          <t>[('నె', 'U'), ('మ్మే', 'U'), ('న', '|'), ('క', '|'), ('ళ', '|'), ('లు', '|'), ('ఘూ', 'U'), ('ర్ణి', '|'), ('ల', '|'), ('గ', '|'), ('గౌ', 'U'), ('న', '|'), ('ళి', '|'), ('కి', '|'), ('ఘం', 'U'), ('ట', '|'), ('ల', '|'), ('తా', 'U'), ('బు', '|'), ('కొ', 'U'), ('ల్కి', '|'), ('ప', '|'), ('ఠా', 'U'), ('లు', '|'), ('ర', '|'), ('న', '|'), ('గ', '|'), ('రం', 'U'), ('గై', 'U'), ('న', '|'), ('తా', 'U'), ('పి', '|'), ('తా', 'U'), ('ర', '|'), ('యి', '|'), ('క', '|'), ('చ', 'U'), ('న్పొ', '|'), ('గ', '|'), ('రు', '|'), ('న', '|'), ('బి', '|'), ('గి', '|'), ('సి', '|'), ('ప', 'U'), ('క్కు', '|'), ('న', '|'), ('కు', 'U'), ('ట్లు', '|'), ('పి', 'U'), ('క్క', '|'), ('టి', 'U'), ('ల్ల', '|'), ('ర', 'U'), ('త్న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('లం', 'U'), ('క', '|'), ('రిం', 'U'), ('చం', 'U'), ('గ', '|'), ('యీ', 'U'), ('వి', '|'), ('ర', '|'), ('హా', 'U'), ('గ్ని', '|'), ('వే', 'U'), ('డి', '|'), ('మి', '|'), ('వె', 'U'), ('ళ్ల', '|'), ('ను', '|'), ('ర', '|'), ('క', '|'), ('గ', '|'), ('మ', '|'), ('గ', '|'), ('మ', '|'), ('లా', 'U'), ('డు', '|'), ('గం', 'U'), ('ధ', '|'), ('పు', '|'), ('పూ', 'U'), ('త', '|'), ('లొ', 'U'), ('క్కొ', '|'), ('క', '|'), ('చో', 'U'), ('ట', '|'), ('పై', 'U'), ('ర', '|'), ('వ', '|'), ('ర', '|'), ('వ', '|'), ('పే', 'U'), ('టు', '|'), ('లె', 'U'), ('త్త', '|')]</t>
         </is>
       </c>
     </row>
